--- a/01_基本設計書/20200220リリース/SC-K17_成形金型別不良分析.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K17_成形金型別不良分析.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599CF1BC-E486-4D49-B6B0-D1298D679A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577E2FE3-4824-43FA-9AF1-59CDB29DF8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -934,10 +934,6 @@
   <si>
     <t>成形工程の金型別、品名別の不良状況を参照する。</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>SC-K17</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>不良現象マスタ</t>
@@ -2392,6 +2388,10 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>K-17</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -3314,6 +3314,47 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3344,64 +3385,11 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="30" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3421,6 +3409,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3439,13 +3439,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5324,1770 +5324,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58"/>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="140"/>
-      <c r="AJ1" s="140"/>
-      <c r="AK1" s="140"/>
-      <c r="AL1" s="140"/>
-      <c r="AM1" s="140"/>
-      <c r="AN1" s="140"/>
-      <c r="AO1" s="140"/>
-      <c r="AP1" s="140"/>
-      <c r="AQ1" s="140"/>
-      <c r="AR1" s="140"/>
-      <c r="AS1" s="140"/>
-      <c r="AT1" s="140"/>
-      <c r="AU1" s="140"/>
-      <c r="AV1" s="140"/>
-      <c r="AW1" s="140"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="155"/>
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="155"/>
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="155"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="155"/>
+      <c r="AJ1" s="155"/>
+      <c r="AK1" s="155"/>
+      <c r="AL1" s="155"/>
+      <c r="AM1" s="155"/>
+      <c r="AN1" s="155"/>
+      <c r="AO1" s="155"/>
+      <c r="AP1" s="155"/>
+      <c r="AQ1" s="155"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="155"/>
+      <c r="AT1" s="155"/>
+      <c r="AU1" s="155"/>
+      <c r="AV1" s="155"/>
+      <c r="AW1" s="155"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="141"/>
-      <c r="AN2" s="141"/>
-      <c r="AO2" s="141"/>
-      <c r="AP2" s="141"/>
-      <c r="AQ2" s="141"/>
-      <c r="AR2" s="141"/>
-      <c r="AS2" s="141"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="141"/>
-      <c r="AV2" s="141"/>
-      <c r="AW2" s="141"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="156"/>
+      <c r="AJ2" s="156"/>
+      <c r="AK2" s="156"/>
+      <c r="AL2" s="156"/>
+      <c r="AM2" s="156"/>
+      <c r="AN2" s="156"/>
+      <c r="AO2" s="156"/>
+      <c r="AP2" s="156"/>
+      <c r="AQ2" s="156"/>
+      <c r="AR2" s="156"/>
+      <c r="AS2" s="156"/>
+      <c r="AT2" s="156"/>
+      <c r="AU2" s="156"/>
+      <c r="AV2" s="156"/>
+      <c r="AW2" s="156"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142" t="s">
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="144" t="s">
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="145"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="144" t="s">
+      <c r="K3" s="160"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="142" t="s">
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142" t="s">
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="142"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="142"/>
-      <c r="AN3" s="142" t="s">
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="157"/>
+      <c r="AG3" s="157"/>
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="157"/>
+      <c r="AJ3" s="157"/>
+      <c r="AK3" s="157"/>
+      <c r="AL3" s="157"/>
+      <c r="AM3" s="157"/>
+      <c r="AN3" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="142"/>
-      <c r="AP3" s="142"/>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="142" t="s">
+      <c r="AO3" s="157"/>
+      <c r="AP3" s="157"/>
+      <c r="AQ3" s="157"/>
+      <c r="AR3" s="157"/>
+      <c r="AS3" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="142"/>
-      <c r="AV3" s="142"/>
-      <c r="AW3" s="142"/>
+      <c r="AT3" s="157"/>
+      <c r="AU3" s="157"/>
+      <c r="AV3" s="157"/>
+      <c r="AW3" s="157"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="143"/>
-      <c r="AE4" s="143"/>
-      <c r="AF4" s="143"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AI4" s="143"/>
-      <c r="AJ4" s="143"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="143"/>
-      <c r="AM4" s="143"/>
-      <c r="AN4" s="143"/>
-      <c r="AO4" s="143"/>
-      <c r="AP4" s="143"/>
-      <c r="AQ4" s="143"/>
-      <c r="AR4" s="143"/>
-      <c r="AS4" s="143"/>
-      <c r="AT4" s="143"/>
-      <c r="AU4" s="143"/>
-      <c r="AV4" s="143"/>
-      <c r="AW4" s="143"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="158"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="158"/>
+      <c r="AI4" s="158"/>
+      <c r="AJ4" s="158"/>
+      <c r="AK4" s="158"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="158"/>
+      <c r="AN4" s="158"/>
+      <c r="AO4" s="158"/>
+      <c r="AP4" s="158"/>
+      <c r="AQ4" s="158"/>
+      <c r="AR4" s="158"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="158"/>
+      <c r="AU4" s="158"/>
+      <c r="AV4" s="158"/>
+      <c r="AW4" s="158"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
-      <c r="B5" s="151">
+      <c r="B5" s="141">
         <v>1</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="152">
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142">
         <v>43711</v>
       </c>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="153" t="s">
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153" t="s">
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="150" t="s">
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="155" t="s">
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="155"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
-      <c r="AF5" s="155"/>
-      <c r="AG5" s="155"/>
-      <c r="AH5" s="155"/>
-      <c r="AI5" s="155"/>
-      <c r="AJ5" s="155"/>
-      <c r="AK5" s="155"/>
-      <c r="AL5" s="155"/>
-      <c r="AM5" s="155"/>
-      <c r="AN5" s="150" t="s">
+      <c r="W5" s="152"/>
+      <c r="X5" s="152"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152"/>
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="152"/>
+      <c r="AH5" s="152"/>
+      <c r="AI5" s="152"/>
+      <c r="AJ5" s="152"/>
+      <c r="AK5" s="152"/>
+      <c r="AL5" s="152"/>
+      <c r="AM5" s="152"/>
+      <c r="AN5" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="AO5" s="150"/>
-      <c r="AP5" s="150"/>
-      <c r="AQ5" s="150"/>
-      <c r="AR5" s="150"/>
-      <c r="AS5" s="150"/>
-      <c r="AT5" s="150"/>
-      <c r="AU5" s="150"/>
-      <c r="AV5" s="150"/>
-      <c r="AW5" s="150"/>
+      <c r="AO5" s="140"/>
+      <c r="AP5" s="140"/>
+      <c r="AQ5" s="140"/>
+      <c r="AR5" s="140"/>
+      <c r="AS5" s="140"/>
+      <c r="AT5" s="140"/>
+      <c r="AU5" s="140"/>
+      <c r="AV5" s="140"/>
+      <c r="AW5" s="140"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
       <c r="M6" s="154"/>
       <c r="N6" s="154"/>
       <c r="O6" s="154"/>
       <c r="P6" s="154"/>
       <c r="Q6" s="154"/>
       <c r="R6" s="154"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="155"/>
-      <c r="W6" s="155"/>
-      <c r="X6" s="155"/>
-      <c r="Y6" s="155"/>
-      <c r="Z6" s="155"/>
-      <c r="AA6" s="155"/>
-      <c r="AB6" s="155"/>
-      <c r="AC6" s="155"/>
-      <c r="AD6" s="155"/>
-      <c r="AE6" s="155"/>
-      <c r="AF6" s="155"/>
-      <c r="AG6" s="155"/>
-      <c r="AH6" s="155"/>
-      <c r="AI6" s="155"/>
-      <c r="AJ6" s="155"/>
-      <c r="AK6" s="155"/>
-      <c r="AL6" s="155"/>
-      <c r="AM6" s="155"/>
-      <c r="AN6" s="150"/>
-      <c r="AO6" s="150"/>
-      <c r="AP6" s="150"/>
-      <c r="AQ6" s="150"/>
-      <c r="AR6" s="150"/>
-      <c r="AS6" s="150"/>
-      <c r="AT6" s="150"/>
-      <c r="AU6" s="150"/>
-      <c r="AV6" s="150"/>
-      <c r="AW6" s="150"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="152"/>
+      <c r="AD6" s="152"/>
+      <c r="AE6" s="152"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="152"/>
+      <c r="AH6" s="152"/>
+      <c r="AI6" s="152"/>
+      <c r="AJ6" s="152"/>
+      <c r="AK6" s="152"/>
+      <c r="AL6" s="152"/>
+      <c r="AM6" s="152"/>
+      <c r="AN6" s="140"/>
+      <c r="AO6" s="140"/>
+      <c r="AP6" s="140"/>
+      <c r="AQ6" s="140"/>
+      <c r="AR6" s="140"/>
+      <c r="AS6" s="140"/>
+      <c r="AT6" s="140"/>
+      <c r="AU6" s="140"/>
+      <c r="AV6" s="140"/>
+      <c r="AW6" s="140"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="154"/>
       <c r="N7" s="154"/>
       <c r="O7" s="154"/>
       <c r="P7" s="154"/>
       <c r="Q7" s="154"/>
       <c r="R7" s="154"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="155"/>
-      <c r="W7" s="155"/>
-      <c r="X7" s="155"/>
-      <c r="Y7" s="155"/>
-      <c r="Z7" s="155"/>
-      <c r="AA7" s="155"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="155"/>
-      <c r="AD7" s="155"/>
-      <c r="AE7" s="155"/>
-      <c r="AF7" s="155"/>
-      <c r="AG7" s="155"/>
-      <c r="AH7" s="155"/>
-      <c r="AI7" s="155"/>
-      <c r="AJ7" s="155"/>
-      <c r="AK7" s="155"/>
-      <c r="AL7" s="155"/>
-      <c r="AM7" s="155"/>
-      <c r="AN7" s="150"/>
-      <c r="AO7" s="150"/>
-      <c r="AP7" s="150"/>
-      <c r="AQ7" s="150"/>
-      <c r="AR7" s="150"/>
-      <c r="AS7" s="150"/>
-      <c r="AT7" s="150"/>
-      <c r="AU7" s="150"/>
-      <c r="AV7" s="150"/>
-      <c r="AW7" s="150"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="152"/>
+      <c r="AK7" s="152"/>
+      <c r="AL7" s="152"/>
+      <c r="AM7" s="152"/>
+      <c r="AN7" s="140"/>
+      <c r="AO7" s="140"/>
+      <c r="AP7" s="140"/>
+      <c r="AQ7" s="140"/>
+      <c r="AR7" s="140"/>
+      <c r="AS7" s="140"/>
+      <c r="AT7" s="140"/>
+      <c r="AU7" s="140"/>
+      <c r="AV7" s="140"/>
+      <c r="AW7" s="140"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
       <c r="M8" s="154"/>
       <c r="N8" s="154"/>
       <c r="O8" s="154"/>
       <c r="P8" s="154"/>
       <c r="Q8" s="154"/>
       <c r="R8" s="154"/>
-      <c r="S8" s="150"/>
-      <c r="T8" s="150"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="155"/>
-      <c r="W8" s="155"/>
-      <c r="X8" s="155"/>
-      <c r="Y8" s="155"/>
-      <c r="Z8" s="155"/>
-      <c r="AA8" s="155"/>
-      <c r="AB8" s="155"/>
-      <c r="AC8" s="155"/>
-      <c r="AD8" s="155"/>
-      <c r="AE8" s="155"/>
-      <c r="AF8" s="155"/>
-      <c r="AG8" s="155"/>
-      <c r="AH8" s="155"/>
-      <c r="AI8" s="155"/>
-      <c r="AJ8" s="155"/>
-      <c r="AK8" s="155"/>
-      <c r="AL8" s="155"/>
-      <c r="AM8" s="155"/>
-      <c r="AN8" s="150"/>
-      <c r="AO8" s="150"/>
-      <c r="AP8" s="150"/>
-      <c r="AQ8" s="150"/>
-      <c r="AR8" s="150"/>
-      <c r="AS8" s="150"/>
-      <c r="AT8" s="150"/>
-      <c r="AU8" s="150"/>
-      <c r="AV8" s="150"/>
-      <c r="AW8" s="150"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="152"/>
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="152"/>
+      <c r="AK8" s="152"/>
+      <c r="AL8" s="152"/>
+      <c r="AM8" s="152"/>
+      <c r="AN8" s="140"/>
+      <c r="AO8" s="140"/>
+      <c r="AP8" s="140"/>
+      <c r="AQ8" s="140"/>
+      <c r="AR8" s="140"/>
+      <c r="AS8" s="140"/>
+      <c r="AT8" s="140"/>
+      <c r="AU8" s="140"/>
+      <c r="AV8" s="140"/>
+      <c r="AW8" s="140"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="60"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
       <c r="M9" s="154"/>
       <c r="N9" s="154"/>
       <c r="O9" s="154"/>
       <c r="P9" s="154"/>
       <c r="Q9" s="154"/>
       <c r="R9" s="154"/>
-      <c r="S9" s="150"/>
-      <c r="T9" s="150"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="155"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="155"/>
-      <c r="AE9" s="155"/>
-      <c r="AF9" s="155"/>
-      <c r="AG9" s="155"/>
-      <c r="AH9" s="155"/>
-      <c r="AI9" s="155"/>
-      <c r="AJ9" s="155"/>
-      <c r="AK9" s="155"/>
-      <c r="AL9" s="155"/>
-      <c r="AM9" s="155"/>
-      <c r="AN9" s="150"/>
-      <c r="AO9" s="150"/>
-      <c r="AP9" s="150"/>
-      <c r="AQ9" s="150"/>
-      <c r="AR9" s="150"/>
-      <c r="AS9" s="150"/>
-      <c r="AT9" s="150"/>
-      <c r="AU9" s="150"/>
-      <c r="AV9" s="150"/>
-      <c r="AW9" s="150"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="152"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="152"/>
+      <c r="AH9" s="152"/>
+      <c r="AI9" s="152"/>
+      <c r="AJ9" s="152"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="152"/>
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="140"/>
+      <c r="AO9" s="140"/>
+      <c r="AP9" s="140"/>
+      <c r="AQ9" s="140"/>
+      <c r="AR9" s="140"/>
+      <c r="AS9" s="140"/>
+      <c r="AT9" s="140"/>
+      <c r="AU9" s="140"/>
+      <c r="AV9" s="140"/>
+      <c r="AW9" s="140"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
       <c r="M10" s="154"/>
       <c r="N10" s="154"/>
       <c r="O10" s="154"/>
       <c r="P10" s="154"/>
       <c r="Q10" s="154"/>
       <c r="R10" s="154"/>
-      <c r="S10" s="150"/>
-      <c r="T10" s="150"/>
-      <c r="U10" s="150"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="155"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="155"/>
-      <c r="AG10" s="155"/>
-      <c r="AH10" s="155"/>
-      <c r="AI10" s="155"/>
-      <c r="AJ10" s="155"/>
-      <c r="AK10" s="155"/>
-      <c r="AL10" s="155"/>
-      <c r="AM10" s="155"/>
-      <c r="AN10" s="150"/>
-      <c r="AO10" s="150"/>
-      <c r="AP10" s="150"/>
-      <c r="AQ10" s="150"/>
-      <c r="AR10" s="150"/>
-      <c r="AS10" s="150"/>
-      <c r="AT10" s="150"/>
-      <c r="AU10" s="150"/>
-      <c r="AV10" s="150"/>
-      <c r="AW10" s="150"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="152"/>
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="152"/>
+      <c r="AM10" s="152"/>
+      <c r="AN10" s="140"/>
+      <c r="AO10" s="140"/>
+      <c r="AP10" s="140"/>
+      <c r="AQ10" s="140"/>
+      <c r="AR10" s="140"/>
+      <c r="AS10" s="140"/>
+      <c r="AT10" s="140"/>
+      <c r="AU10" s="140"/>
+      <c r="AV10" s="140"/>
+      <c r="AW10" s="140"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="60"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="156"/>
-      <c r="S11" s="150"/>
-      <c r="T11" s="150"/>
-      <c r="U11" s="150"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="158"/>
-      <c r="X11" s="158"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="158"/>
-      <c r="AA11" s="158"/>
-      <c r="AB11" s="158"/>
-      <c r="AC11" s="158"/>
-      <c r="AD11" s="158"/>
-      <c r="AE11" s="158"/>
-      <c r="AF11" s="158"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="158"/>
-      <c r="AI11" s="158"/>
-      <c r="AJ11" s="158"/>
-      <c r="AK11" s="158"/>
-      <c r="AL11" s="158"/>
-      <c r="AM11" s="158"/>
-      <c r="AN11" s="150"/>
-      <c r="AO11" s="150"/>
-      <c r="AP11" s="150"/>
-      <c r="AQ11" s="150"/>
-      <c r="AR11" s="150"/>
-      <c r="AS11" s="150"/>
-      <c r="AT11" s="150"/>
-      <c r="AU11" s="150"/>
-      <c r="AV11" s="150"/>
-      <c r="AW11" s="150"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="146"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="153"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="153"/>
+      <c r="AA11" s="153"/>
+      <c r="AB11" s="153"/>
+      <c r="AC11" s="153"/>
+      <c r="AD11" s="153"/>
+      <c r="AE11" s="153"/>
+      <c r="AF11" s="153"/>
+      <c r="AG11" s="153"/>
+      <c r="AH11" s="153"/>
+      <c r="AI11" s="153"/>
+      <c r="AJ11" s="153"/>
+      <c r="AK11" s="153"/>
+      <c r="AL11" s="153"/>
+      <c r="AM11" s="153"/>
+      <c r="AN11" s="140"/>
+      <c r="AO11" s="140"/>
+      <c r="AP11" s="140"/>
+      <c r="AQ11" s="140"/>
+      <c r="AR11" s="140"/>
+      <c r="AS11" s="140"/>
+      <c r="AT11" s="140"/>
+      <c r="AU11" s="140"/>
+      <c r="AV11" s="140"/>
+      <c r="AW11" s="140"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="60"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="150"/>
-      <c r="T12" s="150"/>
-      <c r="U12" s="150"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="157"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="157"/>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="157"/>
-      <c r="AD12" s="157"/>
-      <c r="AE12" s="157"/>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="157"/>
-      <c r="AH12" s="157"/>
-      <c r="AI12" s="157"/>
-      <c r="AJ12" s="157"/>
-      <c r="AK12" s="157"/>
-      <c r="AL12" s="157"/>
-      <c r="AM12" s="157"/>
-      <c r="AN12" s="150"/>
-      <c r="AO12" s="150"/>
-      <c r="AP12" s="150"/>
-      <c r="AQ12" s="150"/>
-      <c r="AR12" s="150"/>
-      <c r="AS12" s="150"/>
-      <c r="AT12" s="150"/>
-      <c r="AU12" s="150"/>
-      <c r="AV12" s="150"/>
-      <c r="AW12" s="150"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="146"/>
+      <c r="W12" s="146"/>
+      <c r="X12" s="146"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="146"/>
+      <c r="AA12" s="146"/>
+      <c r="AB12" s="146"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="146"/>
+      <c r="AE12" s="146"/>
+      <c r="AF12" s="146"/>
+      <c r="AG12" s="146"/>
+      <c r="AH12" s="146"/>
+      <c r="AI12" s="146"/>
+      <c r="AJ12" s="146"/>
+      <c r="AK12" s="146"/>
+      <c r="AL12" s="146"/>
+      <c r="AM12" s="146"/>
+      <c r="AN12" s="140"/>
+      <c r="AO12" s="140"/>
+      <c r="AP12" s="140"/>
+      <c r="AQ12" s="140"/>
+      <c r="AR12" s="140"/>
+      <c r="AS12" s="140"/>
+      <c r="AT12" s="140"/>
+      <c r="AU12" s="140"/>
+      <c r="AV12" s="140"/>
+      <c r="AW12" s="140"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="60"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="150"/>
-      <c r="T13" s="150"/>
-      <c r="U13" s="150"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="157"/>
-      <c r="X13" s="157"/>
-      <c r="Y13" s="157"/>
-      <c r="Z13" s="157"/>
-      <c r="AA13" s="157"/>
-      <c r="AB13" s="157"/>
-      <c r="AC13" s="157"/>
-      <c r="AD13" s="157"/>
-      <c r="AE13" s="157"/>
-      <c r="AF13" s="157"/>
-      <c r="AG13" s="157"/>
-      <c r="AH13" s="157"/>
-      <c r="AI13" s="157"/>
-      <c r="AJ13" s="157"/>
-      <c r="AK13" s="157"/>
-      <c r="AL13" s="157"/>
-      <c r="AM13" s="157"/>
-      <c r="AN13" s="150"/>
-      <c r="AO13" s="150"/>
-      <c r="AP13" s="150"/>
-      <c r="AQ13" s="150"/>
-      <c r="AR13" s="150"/>
-      <c r="AS13" s="150"/>
-      <c r="AT13" s="150"/>
-      <c r="AU13" s="150"/>
-      <c r="AV13" s="150"/>
-      <c r="AW13" s="150"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="146"/>
+      <c r="W13" s="146"/>
+      <c r="X13" s="146"/>
+      <c r="Y13" s="146"/>
+      <c r="Z13" s="146"/>
+      <c r="AA13" s="146"/>
+      <c r="AB13" s="146"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="146"/>
+      <c r="AE13" s="146"/>
+      <c r="AF13" s="146"/>
+      <c r="AG13" s="146"/>
+      <c r="AH13" s="146"/>
+      <c r="AI13" s="146"/>
+      <c r="AJ13" s="146"/>
+      <c r="AK13" s="146"/>
+      <c r="AL13" s="146"/>
+      <c r="AM13" s="146"/>
+      <c r="AN13" s="140"/>
+      <c r="AO13" s="140"/>
+      <c r="AP13" s="140"/>
+      <c r="AQ13" s="140"/>
+      <c r="AR13" s="140"/>
+      <c r="AS13" s="140"/>
+      <c r="AT13" s="140"/>
+      <c r="AU13" s="140"/>
+      <c r="AV13" s="140"/>
+      <c r="AW13" s="140"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="60"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="150"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
-      <c r="AE14" s="155"/>
-      <c r="AF14" s="155"/>
-      <c r="AG14" s="155"/>
-      <c r="AH14" s="155"/>
-      <c r="AI14" s="155"/>
-      <c r="AJ14" s="155"/>
-      <c r="AK14" s="155"/>
-      <c r="AL14" s="155"/>
-      <c r="AM14" s="155"/>
-      <c r="AN14" s="150"/>
-      <c r="AO14" s="150"/>
-      <c r="AP14" s="150"/>
-      <c r="AQ14" s="150"/>
-      <c r="AR14" s="150"/>
-      <c r="AS14" s="150"/>
-      <c r="AT14" s="150"/>
-      <c r="AU14" s="150"/>
-      <c r="AV14" s="150"/>
-      <c r="AW14" s="150"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="140"/>
+      <c r="U14" s="140"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
+      <c r="AE14" s="152"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="152"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="152"/>
+      <c r="AJ14" s="152"/>
+      <c r="AK14" s="152"/>
+      <c r="AL14" s="152"/>
+      <c r="AM14" s="152"/>
+      <c r="AN14" s="140"/>
+      <c r="AO14" s="140"/>
+      <c r="AP14" s="140"/>
+      <c r="AQ14" s="140"/>
+      <c r="AR14" s="140"/>
+      <c r="AS14" s="140"/>
+      <c r="AT14" s="140"/>
+      <c r="AU14" s="140"/>
+      <c r="AV14" s="140"/>
+      <c r="AW14" s="140"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="60"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="150"/>
-      <c r="T15" s="150"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="157"/>
-      <c r="X15" s="157"/>
-      <c r="Y15" s="157"/>
-      <c r="Z15" s="157"/>
-      <c r="AA15" s="157"/>
-      <c r="AB15" s="157"/>
-      <c r="AC15" s="157"/>
-      <c r="AD15" s="157"/>
-      <c r="AE15" s="157"/>
-      <c r="AF15" s="157"/>
-      <c r="AG15" s="157"/>
-      <c r="AH15" s="157"/>
-      <c r="AI15" s="157"/>
-      <c r="AJ15" s="157"/>
-      <c r="AK15" s="157"/>
-      <c r="AL15" s="157"/>
-      <c r="AM15" s="157"/>
-      <c r="AN15" s="150"/>
-      <c r="AO15" s="150"/>
-      <c r="AP15" s="150"/>
-      <c r="AQ15" s="150"/>
-      <c r="AR15" s="150"/>
-      <c r="AS15" s="150"/>
-      <c r="AT15" s="150"/>
-      <c r="AU15" s="150"/>
-      <c r="AV15" s="150"/>
-      <c r="AW15" s="150"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="140"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="140"/>
+      <c r="V15" s="146"/>
+      <c r="W15" s="146"/>
+      <c r="X15" s="146"/>
+      <c r="Y15" s="146"/>
+      <c r="Z15" s="146"/>
+      <c r="AA15" s="146"/>
+      <c r="AB15" s="146"/>
+      <c r="AC15" s="146"/>
+      <c r="AD15" s="146"/>
+      <c r="AE15" s="146"/>
+      <c r="AF15" s="146"/>
+      <c r="AG15" s="146"/>
+      <c r="AH15" s="146"/>
+      <c r="AI15" s="146"/>
+      <c r="AJ15" s="146"/>
+      <c r="AK15" s="146"/>
+      <c r="AL15" s="146"/>
+      <c r="AM15" s="146"/>
+      <c r="AN15" s="140"/>
+      <c r="AO15" s="140"/>
+      <c r="AP15" s="140"/>
+      <c r="AQ15" s="140"/>
+      <c r="AR15" s="140"/>
+      <c r="AS15" s="140"/>
+      <c r="AT15" s="140"/>
+      <c r="AU15" s="140"/>
+      <c r="AV15" s="140"/>
+      <c r="AW15" s="140"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="60"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="150"/>
-      <c r="T16" s="150"/>
-      <c r="U16" s="150"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="157"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="157"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="157"/>
-      <c r="AI16" s="157"/>
-      <c r="AJ16" s="157"/>
-      <c r="AK16" s="157"/>
-      <c r="AL16" s="157"/>
-      <c r="AM16" s="157"/>
-      <c r="AN16" s="150"/>
-      <c r="AO16" s="150"/>
-      <c r="AP16" s="150"/>
-      <c r="AQ16" s="150"/>
-      <c r="AR16" s="150"/>
-      <c r="AS16" s="150"/>
-      <c r="AT16" s="150"/>
-      <c r="AU16" s="150"/>
-      <c r="AV16" s="150"/>
-      <c r="AW16" s="150"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="140"/>
+      <c r="T16" s="140"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="146"/>
+      <c r="W16" s="146"/>
+      <c r="X16" s="146"/>
+      <c r="Y16" s="146"/>
+      <c r="Z16" s="146"/>
+      <c r="AA16" s="146"/>
+      <c r="AB16" s="146"/>
+      <c r="AC16" s="146"/>
+      <c r="AD16" s="146"/>
+      <c r="AE16" s="146"/>
+      <c r="AF16" s="146"/>
+      <c r="AG16" s="146"/>
+      <c r="AH16" s="146"/>
+      <c r="AI16" s="146"/>
+      <c r="AJ16" s="146"/>
+      <c r="AK16" s="146"/>
+      <c r="AL16" s="146"/>
+      <c r="AM16" s="146"/>
+      <c r="AN16" s="140"/>
+      <c r="AO16" s="140"/>
+      <c r="AP16" s="140"/>
+      <c r="AQ16" s="140"/>
+      <c r="AR16" s="140"/>
+      <c r="AS16" s="140"/>
+      <c r="AT16" s="140"/>
+      <c r="AU16" s="140"/>
+      <c r="AV16" s="140"/>
+      <c r="AW16" s="140"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="60"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="162"/>
-      <c r="U17" s="162"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="157"/>
-      <c r="X17" s="157"/>
-      <c r="Y17" s="157"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="157"/>
-      <c r="AB17" s="157"/>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="157"/>
-      <c r="AE17" s="157"/>
-      <c r="AF17" s="157"/>
-      <c r="AG17" s="157"/>
-      <c r="AH17" s="157"/>
-      <c r="AI17" s="157"/>
-      <c r="AJ17" s="157"/>
-      <c r="AK17" s="157"/>
-      <c r="AL17" s="157"/>
-      <c r="AM17" s="157"/>
-      <c r="AN17" s="150"/>
-      <c r="AO17" s="150"/>
-      <c r="AP17" s="150"/>
-      <c r="AQ17" s="150"/>
-      <c r="AR17" s="150"/>
-      <c r="AS17" s="150"/>
-      <c r="AT17" s="150"/>
-      <c r="AU17" s="150"/>
-      <c r="AV17" s="150"/>
-      <c r="AW17" s="150"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="150"/>
+      <c r="T17" s="150"/>
+      <c r="U17" s="150"/>
+      <c r="V17" s="146"/>
+      <c r="W17" s="146"/>
+      <c r="X17" s="146"/>
+      <c r="Y17" s="146"/>
+      <c r="Z17" s="146"/>
+      <c r="AA17" s="146"/>
+      <c r="AB17" s="146"/>
+      <c r="AC17" s="146"/>
+      <c r="AD17" s="146"/>
+      <c r="AE17" s="146"/>
+      <c r="AF17" s="146"/>
+      <c r="AG17" s="146"/>
+      <c r="AH17" s="146"/>
+      <c r="AI17" s="146"/>
+      <c r="AJ17" s="146"/>
+      <c r="AK17" s="146"/>
+      <c r="AL17" s="146"/>
+      <c r="AM17" s="146"/>
+      <c r="AN17" s="140"/>
+      <c r="AO17" s="140"/>
+      <c r="AP17" s="140"/>
+      <c r="AQ17" s="140"/>
+      <c r="AR17" s="140"/>
+      <c r="AS17" s="140"/>
+      <c r="AT17" s="140"/>
+      <c r="AU17" s="140"/>
+      <c r="AV17" s="140"/>
+      <c r="AW17" s="140"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="60"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="150"/>
-      <c r="T18" s="150"/>
-      <c r="U18" s="150"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="157"/>
-      <c r="X18" s="157"/>
-      <c r="Y18" s="157"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="157"/>
-      <c r="AB18" s="157"/>
-      <c r="AC18" s="157"/>
-      <c r="AD18" s="157"/>
-      <c r="AE18" s="157"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="157"/>
-      <c r="AH18" s="157"/>
-      <c r="AI18" s="157"/>
-      <c r="AJ18" s="157"/>
-      <c r="AK18" s="157"/>
-      <c r="AL18" s="157"/>
-      <c r="AM18" s="157"/>
-      <c r="AN18" s="150"/>
-      <c r="AO18" s="150"/>
-      <c r="AP18" s="150"/>
-      <c r="AQ18" s="150"/>
-      <c r="AR18" s="150"/>
-      <c r="AS18" s="150"/>
-      <c r="AT18" s="150"/>
-      <c r="AU18" s="150"/>
-      <c r="AV18" s="150"/>
-      <c r="AW18" s="150"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="140"/>
+      <c r="V18" s="146"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="146"/>
+      <c r="Y18" s="146"/>
+      <c r="Z18" s="146"/>
+      <c r="AA18" s="146"/>
+      <c r="AB18" s="146"/>
+      <c r="AC18" s="146"/>
+      <c r="AD18" s="146"/>
+      <c r="AE18" s="146"/>
+      <c r="AF18" s="146"/>
+      <c r="AG18" s="146"/>
+      <c r="AH18" s="146"/>
+      <c r="AI18" s="146"/>
+      <c r="AJ18" s="146"/>
+      <c r="AK18" s="146"/>
+      <c r="AL18" s="146"/>
+      <c r="AM18" s="146"/>
+      <c r="AN18" s="140"/>
+      <c r="AO18" s="140"/>
+      <c r="AP18" s="140"/>
+      <c r="AQ18" s="140"/>
+      <c r="AR18" s="140"/>
+      <c r="AS18" s="140"/>
+      <c r="AT18" s="140"/>
+      <c r="AU18" s="140"/>
+      <c r="AV18" s="140"/>
+      <c r="AW18" s="140"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="150"/>
-      <c r="T19" s="150"/>
-      <c r="U19" s="150"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="157"/>
-      <c r="X19" s="157"/>
-      <c r="Y19" s="157"/>
-      <c r="Z19" s="157"/>
-      <c r="AA19" s="157"/>
-      <c r="AB19" s="157"/>
-      <c r="AC19" s="157"/>
-      <c r="AD19" s="157"/>
-      <c r="AE19" s="157"/>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="157"/>
-      <c r="AH19" s="157"/>
-      <c r="AI19" s="157"/>
-      <c r="AJ19" s="157"/>
-      <c r="AK19" s="157"/>
-      <c r="AL19" s="157"/>
-      <c r="AM19" s="157"/>
-      <c r="AN19" s="150"/>
-      <c r="AO19" s="150"/>
-      <c r="AP19" s="150"/>
-      <c r="AQ19" s="150"/>
-      <c r="AR19" s="150"/>
-      <c r="AS19" s="150"/>
-      <c r="AT19" s="150"/>
-      <c r="AU19" s="150"/>
-      <c r="AV19" s="150"/>
-      <c r="AW19" s="150"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="146"/>
+      <c r="W19" s="146"/>
+      <c r="X19" s="146"/>
+      <c r="Y19" s="146"/>
+      <c r="Z19" s="146"/>
+      <c r="AA19" s="146"/>
+      <c r="AB19" s="146"/>
+      <c r="AC19" s="146"/>
+      <c r="AD19" s="146"/>
+      <c r="AE19" s="146"/>
+      <c r="AF19" s="146"/>
+      <c r="AG19" s="146"/>
+      <c r="AH19" s="146"/>
+      <c r="AI19" s="146"/>
+      <c r="AJ19" s="146"/>
+      <c r="AK19" s="146"/>
+      <c r="AL19" s="146"/>
+      <c r="AM19" s="146"/>
+      <c r="AN19" s="140"/>
+      <c r="AO19" s="140"/>
+      <c r="AP19" s="140"/>
+      <c r="AQ19" s="140"/>
+      <c r="AR19" s="140"/>
+      <c r="AS19" s="140"/>
+      <c r="AT19" s="140"/>
+      <c r="AU19" s="140"/>
+      <c r="AV19" s="140"/>
+      <c r="AW19" s="140"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="60"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="156"/>
-      <c r="Q20" s="156"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="150"/>
-      <c r="T20" s="150"/>
-      <c r="U20" s="150"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="157"/>
-      <c r="X20" s="157"/>
-      <c r="Y20" s="157"/>
-      <c r="Z20" s="157"/>
-      <c r="AA20" s="157"/>
-      <c r="AB20" s="157"/>
-      <c r="AC20" s="157"/>
-      <c r="AD20" s="157"/>
-      <c r="AE20" s="157"/>
-      <c r="AF20" s="157"/>
-      <c r="AG20" s="157"/>
-      <c r="AH20" s="157"/>
-      <c r="AI20" s="157"/>
-      <c r="AJ20" s="157"/>
-      <c r="AK20" s="157"/>
-      <c r="AL20" s="157"/>
-      <c r="AM20" s="157"/>
-      <c r="AN20" s="150"/>
-      <c r="AO20" s="150"/>
-      <c r="AP20" s="150"/>
-      <c r="AQ20" s="150"/>
-      <c r="AR20" s="150"/>
-      <c r="AS20" s="150"/>
-      <c r="AT20" s="150"/>
-      <c r="AU20" s="150"/>
-      <c r="AV20" s="150"/>
-      <c r="AW20" s="150"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="140"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="140"/>
+      <c r="V20" s="146"/>
+      <c r="W20" s="146"/>
+      <c r="X20" s="146"/>
+      <c r="Y20" s="146"/>
+      <c r="Z20" s="146"/>
+      <c r="AA20" s="146"/>
+      <c r="AB20" s="146"/>
+      <c r="AC20" s="146"/>
+      <c r="AD20" s="146"/>
+      <c r="AE20" s="146"/>
+      <c r="AF20" s="146"/>
+      <c r="AG20" s="146"/>
+      <c r="AH20" s="146"/>
+      <c r="AI20" s="146"/>
+      <c r="AJ20" s="146"/>
+      <c r="AK20" s="146"/>
+      <c r="AL20" s="146"/>
+      <c r="AM20" s="146"/>
+      <c r="AN20" s="140"/>
+      <c r="AO20" s="140"/>
+      <c r="AP20" s="140"/>
+      <c r="AQ20" s="140"/>
+      <c r="AR20" s="140"/>
+      <c r="AS20" s="140"/>
+      <c r="AT20" s="140"/>
+      <c r="AU20" s="140"/>
+      <c r="AV20" s="140"/>
+      <c r="AW20" s="140"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="60"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="156"/>
-      <c r="S21" s="150"/>
-      <c r="T21" s="150"/>
-      <c r="U21" s="150"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="157"/>
-      <c r="X21" s="157"/>
-      <c r="Y21" s="157"/>
-      <c r="Z21" s="157"/>
-      <c r="AA21" s="157"/>
-      <c r="AB21" s="157"/>
-      <c r="AC21" s="157"/>
-      <c r="AD21" s="157"/>
-      <c r="AE21" s="157"/>
-      <c r="AF21" s="157"/>
-      <c r="AG21" s="157"/>
-      <c r="AH21" s="157"/>
-      <c r="AI21" s="157"/>
-      <c r="AJ21" s="157"/>
-      <c r="AK21" s="157"/>
-      <c r="AL21" s="157"/>
-      <c r="AM21" s="157"/>
-      <c r="AN21" s="150"/>
-      <c r="AO21" s="150"/>
-      <c r="AP21" s="150"/>
-      <c r="AQ21" s="150"/>
-      <c r="AR21" s="150"/>
-      <c r="AS21" s="150"/>
-      <c r="AT21" s="150"/>
-      <c r="AU21" s="150"/>
-      <c r="AV21" s="150"/>
-      <c r="AW21" s="150"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="140"/>
+      <c r="T21" s="140"/>
+      <c r="U21" s="140"/>
+      <c r="V21" s="146"/>
+      <c r="W21" s="146"/>
+      <c r="X21" s="146"/>
+      <c r="Y21" s="146"/>
+      <c r="Z21" s="146"/>
+      <c r="AA21" s="146"/>
+      <c r="AB21" s="146"/>
+      <c r="AC21" s="146"/>
+      <c r="AD21" s="146"/>
+      <c r="AE21" s="146"/>
+      <c r="AF21" s="146"/>
+      <c r="AG21" s="146"/>
+      <c r="AH21" s="146"/>
+      <c r="AI21" s="146"/>
+      <c r="AJ21" s="146"/>
+      <c r="AK21" s="146"/>
+      <c r="AL21" s="146"/>
+      <c r="AM21" s="146"/>
+      <c r="AN21" s="140"/>
+      <c r="AO21" s="140"/>
+      <c r="AP21" s="140"/>
+      <c r="AQ21" s="140"/>
+      <c r="AR21" s="140"/>
+      <c r="AS21" s="140"/>
+      <c r="AT21" s="140"/>
+      <c r="AU21" s="140"/>
+      <c r="AV21" s="140"/>
+      <c r="AW21" s="140"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="150"/>
-      <c r="T22" s="150"/>
-      <c r="U22" s="150"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="157"/>
-      <c r="X22" s="157"/>
-      <c r="Y22" s="157"/>
-      <c r="Z22" s="157"/>
-      <c r="AA22" s="157"/>
-      <c r="AB22" s="157"/>
-      <c r="AC22" s="157"/>
-      <c r="AD22" s="157"/>
-      <c r="AE22" s="157"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="157"/>
-      <c r="AH22" s="157"/>
-      <c r="AI22" s="157"/>
-      <c r="AJ22" s="157"/>
-      <c r="AK22" s="157"/>
-      <c r="AL22" s="157"/>
-      <c r="AM22" s="157"/>
-      <c r="AN22" s="150"/>
-      <c r="AO22" s="150"/>
-      <c r="AP22" s="150"/>
-      <c r="AQ22" s="150"/>
-      <c r="AR22" s="150"/>
-      <c r="AS22" s="150"/>
-      <c r="AT22" s="150"/>
-      <c r="AU22" s="150"/>
-      <c r="AV22" s="150"/>
-      <c r="AW22" s="150"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="140"/>
+      <c r="T22" s="140"/>
+      <c r="U22" s="140"/>
+      <c r="V22" s="146"/>
+      <c r="W22" s="146"/>
+      <c r="X22" s="146"/>
+      <c r="Y22" s="146"/>
+      <c r="Z22" s="146"/>
+      <c r="AA22" s="146"/>
+      <c r="AB22" s="146"/>
+      <c r="AC22" s="146"/>
+      <c r="AD22" s="146"/>
+      <c r="AE22" s="146"/>
+      <c r="AF22" s="146"/>
+      <c r="AG22" s="146"/>
+      <c r="AH22" s="146"/>
+      <c r="AI22" s="146"/>
+      <c r="AJ22" s="146"/>
+      <c r="AK22" s="146"/>
+      <c r="AL22" s="146"/>
+      <c r="AM22" s="146"/>
+      <c r="AN22" s="140"/>
+      <c r="AO22" s="140"/>
+      <c r="AP22" s="140"/>
+      <c r="AQ22" s="140"/>
+      <c r="AR22" s="140"/>
+      <c r="AS22" s="140"/>
+      <c r="AT22" s="140"/>
+      <c r="AU22" s="140"/>
+      <c r="AV22" s="140"/>
+      <c r="AW22" s="140"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="156"/>
-      <c r="Q23" s="156"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="150"/>
-      <c r="T23" s="150"/>
-      <c r="U23" s="150"/>
-      <c r="V23" s="157"/>
-      <c r="W23" s="157"/>
-      <c r="X23" s="157"/>
-      <c r="Y23" s="157"/>
-      <c r="Z23" s="157"/>
-      <c r="AA23" s="157"/>
-      <c r="AB23" s="157"/>
-      <c r="AC23" s="157"/>
-      <c r="AD23" s="157"/>
-      <c r="AE23" s="157"/>
-      <c r="AF23" s="157"/>
-      <c r="AG23" s="157"/>
-      <c r="AH23" s="157"/>
-      <c r="AI23" s="157"/>
-      <c r="AJ23" s="157"/>
-      <c r="AK23" s="157"/>
-      <c r="AL23" s="157"/>
-      <c r="AM23" s="157"/>
-      <c r="AN23" s="150"/>
-      <c r="AO23" s="150"/>
-      <c r="AP23" s="150"/>
-      <c r="AQ23" s="150"/>
-      <c r="AR23" s="150"/>
-      <c r="AS23" s="150"/>
-      <c r="AT23" s="150"/>
-      <c r="AU23" s="150"/>
-      <c r="AV23" s="150"/>
-      <c r="AW23" s="150"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="140"/>
+      <c r="T23" s="140"/>
+      <c r="U23" s="140"/>
+      <c r="V23" s="146"/>
+      <c r="W23" s="146"/>
+      <c r="X23" s="146"/>
+      <c r="Y23" s="146"/>
+      <c r="Z23" s="146"/>
+      <c r="AA23" s="146"/>
+      <c r="AB23" s="146"/>
+      <c r="AC23" s="146"/>
+      <c r="AD23" s="146"/>
+      <c r="AE23" s="146"/>
+      <c r="AF23" s="146"/>
+      <c r="AG23" s="146"/>
+      <c r="AH23" s="146"/>
+      <c r="AI23" s="146"/>
+      <c r="AJ23" s="146"/>
+      <c r="AK23" s="146"/>
+      <c r="AL23" s="146"/>
+      <c r="AM23" s="146"/>
+      <c r="AN23" s="140"/>
+      <c r="AO23" s="140"/>
+      <c r="AP23" s="140"/>
+      <c r="AQ23" s="140"/>
+      <c r="AR23" s="140"/>
+      <c r="AS23" s="140"/>
+      <c r="AT23" s="140"/>
+      <c r="AU23" s="140"/>
+      <c r="AV23" s="140"/>
+      <c r="AW23" s="140"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="156"/>
-      <c r="Q24" s="156"/>
-      <c r="R24" s="156"/>
-      <c r="S24" s="150"/>
-      <c r="T24" s="150"/>
-      <c r="U24" s="150"/>
-      <c r="V24" s="157"/>
-      <c r="W24" s="157"/>
-      <c r="X24" s="157"/>
-      <c r="Y24" s="157"/>
-      <c r="Z24" s="157"/>
-      <c r="AA24" s="157"/>
-      <c r="AB24" s="157"/>
-      <c r="AC24" s="157"/>
-      <c r="AD24" s="157"/>
-      <c r="AE24" s="157"/>
-      <c r="AF24" s="157"/>
-      <c r="AG24" s="157"/>
-      <c r="AH24" s="157"/>
-      <c r="AI24" s="157"/>
-      <c r="AJ24" s="157"/>
-      <c r="AK24" s="157"/>
-      <c r="AL24" s="157"/>
-      <c r="AM24" s="157"/>
-      <c r="AN24" s="150"/>
-      <c r="AO24" s="150"/>
-      <c r="AP24" s="150"/>
-      <c r="AQ24" s="150"/>
-      <c r="AR24" s="150"/>
-      <c r="AS24" s="150"/>
-      <c r="AT24" s="150"/>
-      <c r="AU24" s="150"/>
-      <c r="AV24" s="150"/>
-      <c r="AW24" s="150"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="140"/>
+      <c r="T24" s="140"/>
+      <c r="U24" s="140"/>
+      <c r="V24" s="146"/>
+      <c r="W24" s="146"/>
+      <c r="X24" s="146"/>
+      <c r="Y24" s="146"/>
+      <c r="Z24" s="146"/>
+      <c r="AA24" s="146"/>
+      <c r="AB24" s="146"/>
+      <c r="AC24" s="146"/>
+      <c r="AD24" s="146"/>
+      <c r="AE24" s="146"/>
+      <c r="AF24" s="146"/>
+      <c r="AG24" s="146"/>
+      <c r="AH24" s="146"/>
+      <c r="AI24" s="146"/>
+      <c r="AJ24" s="146"/>
+      <c r="AK24" s="146"/>
+      <c r="AL24" s="146"/>
+      <c r="AM24" s="146"/>
+      <c r="AN24" s="140"/>
+      <c r="AO24" s="140"/>
+      <c r="AP24" s="140"/>
+      <c r="AQ24" s="140"/>
+      <c r="AR24" s="140"/>
+      <c r="AS24" s="140"/>
+      <c r="AT24" s="140"/>
+      <c r="AU24" s="140"/>
+      <c r="AV24" s="140"/>
+      <c r="AW24" s="140"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="150"/>
-      <c r="T25" s="150"/>
-      <c r="U25" s="150"/>
-      <c r="V25" s="157"/>
-      <c r="W25" s="157"/>
-      <c r="X25" s="157"/>
-      <c r="Y25" s="157"/>
-      <c r="Z25" s="157"/>
-      <c r="AA25" s="157"/>
-      <c r="AB25" s="157"/>
-      <c r="AC25" s="157"/>
-      <c r="AD25" s="157"/>
-      <c r="AE25" s="157"/>
-      <c r="AF25" s="157"/>
-      <c r="AG25" s="157"/>
-      <c r="AH25" s="157"/>
-      <c r="AI25" s="157"/>
-      <c r="AJ25" s="157"/>
-      <c r="AK25" s="157"/>
-      <c r="AL25" s="157"/>
-      <c r="AM25" s="157"/>
-      <c r="AN25" s="150"/>
-      <c r="AO25" s="150"/>
-      <c r="AP25" s="150"/>
-      <c r="AQ25" s="150"/>
-      <c r="AR25" s="150"/>
-      <c r="AS25" s="150"/>
-      <c r="AT25" s="150"/>
-      <c r="AU25" s="150"/>
-      <c r="AV25" s="150"/>
-      <c r="AW25" s="150"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="140"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="140"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="146"/>
+      <c r="X25" s="146"/>
+      <c r="Y25" s="146"/>
+      <c r="Z25" s="146"/>
+      <c r="AA25" s="146"/>
+      <c r="AB25" s="146"/>
+      <c r="AC25" s="146"/>
+      <c r="AD25" s="146"/>
+      <c r="AE25" s="146"/>
+      <c r="AF25" s="146"/>
+      <c r="AG25" s="146"/>
+      <c r="AH25" s="146"/>
+      <c r="AI25" s="146"/>
+      <c r="AJ25" s="146"/>
+      <c r="AK25" s="146"/>
+      <c r="AL25" s="146"/>
+      <c r="AM25" s="146"/>
+      <c r="AN25" s="140"/>
+      <c r="AO25" s="140"/>
+      <c r="AP25" s="140"/>
+      <c r="AQ25" s="140"/>
+      <c r="AR25" s="140"/>
+      <c r="AS25" s="140"/>
+      <c r="AT25" s="140"/>
+      <c r="AU25" s="140"/>
+      <c r="AV25" s="140"/>
+      <c r="AW25" s="140"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="156"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="150"/>
-      <c r="U26" s="150"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="157"/>
-      <c r="X26" s="157"/>
-      <c r="Y26" s="157"/>
-      <c r="Z26" s="157"/>
-      <c r="AA26" s="157"/>
-      <c r="AB26" s="157"/>
-      <c r="AC26" s="157"/>
-      <c r="AD26" s="157"/>
-      <c r="AE26" s="157"/>
-      <c r="AF26" s="157"/>
-      <c r="AG26" s="157"/>
-      <c r="AH26" s="157"/>
-      <c r="AI26" s="157"/>
-      <c r="AJ26" s="157"/>
-      <c r="AK26" s="157"/>
-      <c r="AL26" s="157"/>
-      <c r="AM26" s="157"/>
-      <c r="AN26" s="150"/>
-      <c r="AO26" s="150"/>
-      <c r="AP26" s="150"/>
-      <c r="AQ26" s="150"/>
-      <c r="AR26" s="150"/>
-      <c r="AS26" s="150"/>
-      <c r="AT26" s="150"/>
-      <c r="AU26" s="150"/>
-      <c r="AV26" s="150"/>
-      <c r="AW26" s="150"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="140"/>
+      <c r="V26" s="146"/>
+      <c r="W26" s="146"/>
+      <c r="X26" s="146"/>
+      <c r="Y26" s="146"/>
+      <c r="Z26" s="146"/>
+      <c r="AA26" s="146"/>
+      <c r="AB26" s="146"/>
+      <c r="AC26" s="146"/>
+      <c r="AD26" s="146"/>
+      <c r="AE26" s="146"/>
+      <c r="AF26" s="146"/>
+      <c r="AG26" s="146"/>
+      <c r="AH26" s="146"/>
+      <c r="AI26" s="146"/>
+      <c r="AJ26" s="146"/>
+      <c r="AK26" s="146"/>
+      <c r="AL26" s="146"/>
+      <c r="AM26" s="146"/>
+      <c r="AN26" s="140"/>
+      <c r="AO26" s="140"/>
+      <c r="AP26" s="140"/>
+      <c r="AQ26" s="140"/>
+      <c r="AR26" s="140"/>
+      <c r="AS26" s="140"/>
+      <c r="AT26" s="140"/>
+      <c r="AU26" s="140"/>
+      <c r="AV26" s="140"/>
+      <c r="AW26" s="140"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="156"/>
-      <c r="Q27" s="156"/>
-      <c r="R27" s="156"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="150"/>
-      <c r="U27" s="150"/>
-      <c r="V27" s="157"/>
-      <c r="W27" s="157"/>
-      <c r="X27" s="157"/>
-      <c r="Y27" s="157"/>
-      <c r="Z27" s="157"/>
-      <c r="AA27" s="157"/>
-      <c r="AB27" s="157"/>
-      <c r="AC27" s="157"/>
-      <c r="AD27" s="157"/>
-      <c r="AE27" s="157"/>
-      <c r="AF27" s="157"/>
-      <c r="AG27" s="157"/>
-      <c r="AH27" s="157"/>
-      <c r="AI27" s="157"/>
-      <c r="AJ27" s="157"/>
-      <c r="AK27" s="157"/>
-      <c r="AL27" s="157"/>
-      <c r="AM27" s="157"/>
-      <c r="AN27" s="150"/>
-      <c r="AO27" s="150"/>
-      <c r="AP27" s="150"/>
-      <c r="AQ27" s="150"/>
-      <c r="AR27" s="150"/>
-      <c r="AS27" s="150"/>
-      <c r="AT27" s="150"/>
-      <c r="AU27" s="150"/>
-      <c r="AV27" s="150"/>
-      <c r="AW27" s="150"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="140"/>
+      <c r="T27" s="140"/>
+      <c r="U27" s="140"/>
+      <c r="V27" s="146"/>
+      <c r="W27" s="146"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="146"/>
+      <c r="Z27" s="146"/>
+      <c r="AA27" s="146"/>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="146"/>
+      <c r="AD27" s="146"/>
+      <c r="AE27" s="146"/>
+      <c r="AF27" s="146"/>
+      <c r="AG27" s="146"/>
+      <c r="AH27" s="146"/>
+      <c r="AI27" s="146"/>
+      <c r="AJ27" s="146"/>
+      <c r="AK27" s="146"/>
+      <c r="AL27" s="146"/>
+      <c r="AM27" s="146"/>
+      <c r="AN27" s="140"/>
+      <c r="AO27" s="140"/>
+      <c r="AP27" s="140"/>
+      <c r="AQ27" s="140"/>
+      <c r="AR27" s="140"/>
+      <c r="AS27" s="140"/>
+      <c r="AT27" s="140"/>
+      <c r="AU27" s="140"/>
+      <c r="AV27" s="140"/>
+      <c r="AW27" s="140"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="150"/>
-      <c r="U28" s="150"/>
-      <c r="V28" s="157"/>
-      <c r="W28" s="157"/>
-      <c r="X28" s="157"/>
-      <c r="Y28" s="157"/>
-      <c r="Z28" s="157"/>
-      <c r="AA28" s="157"/>
-      <c r="AB28" s="157"/>
-      <c r="AC28" s="157"/>
-      <c r="AD28" s="157"/>
-      <c r="AE28" s="157"/>
-      <c r="AF28" s="157"/>
-      <c r="AG28" s="157"/>
-      <c r="AH28" s="157"/>
-      <c r="AI28" s="157"/>
-      <c r="AJ28" s="157"/>
-      <c r="AK28" s="157"/>
-      <c r="AL28" s="157"/>
-      <c r="AM28" s="157"/>
-      <c r="AN28" s="150"/>
-      <c r="AO28" s="150"/>
-      <c r="AP28" s="150"/>
-      <c r="AQ28" s="150"/>
-      <c r="AR28" s="150"/>
-      <c r="AS28" s="150"/>
-      <c r="AT28" s="150"/>
-      <c r="AU28" s="150"/>
-      <c r="AV28" s="150"/>
-      <c r="AW28" s="150"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="140"/>
+      <c r="T28" s="140"/>
+      <c r="U28" s="140"/>
+      <c r="V28" s="146"/>
+      <c r="W28" s="146"/>
+      <c r="X28" s="146"/>
+      <c r="Y28" s="146"/>
+      <c r="Z28" s="146"/>
+      <c r="AA28" s="146"/>
+      <c r="AB28" s="146"/>
+      <c r="AC28" s="146"/>
+      <c r="AD28" s="146"/>
+      <c r="AE28" s="146"/>
+      <c r="AF28" s="146"/>
+      <c r="AG28" s="146"/>
+      <c r="AH28" s="146"/>
+      <c r="AI28" s="146"/>
+      <c r="AJ28" s="146"/>
+      <c r="AK28" s="146"/>
+      <c r="AL28" s="146"/>
+      <c r="AM28" s="146"/>
+      <c r="AN28" s="140"/>
+      <c r="AO28" s="140"/>
+      <c r="AP28" s="140"/>
+      <c r="AQ28" s="140"/>
+      <c r="AR28" s="140"/>
+      <c r="AS28" s="140"/>
+      <c r="AT28" s="140"/>
+      <c r="AU28" s="140"/>
+      <c r="AV28" s="140"/>
+      <c r="AW28" s="140"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="156"/>
-      <c r="Q29" s="156"/>
-      <c r="R29" s="156"/>
-      <c r="S29" s="150"/>
-      <c r="T29" s="150"/>
-      <c r="U29" s="150"/>
-      <c r="V29" s="157"/>
-      <c r="W29" s="157"/>
-      <c r="X29" s="157"/>
-      <c r="Y29" s="157"/>
-      <c r="Z29" s="157"/>
-      <c r="AA29" s="157"/>
-      <c r="AB29" s="157"/>
-      <c r="AC29" s="157"/>
-      <c r="AD29" s="157"/>
-      <c r="AE29" s="157"/>
-      <c r="AF29" s="157"/>
-      <c r="AG29" s="157"/>
-      <c r="AH29" s="157"/>
-      <c r="AI29" s="157"/>
-      <c r="AJ29" s="157"/>
-      <c r="AK29" s="157"/>
-      <c r="AL29" s="157"/>
-      <c r="AM29" s="157"/>
-      <c r="AN29" s="150"/>
-      <c r="AO29" s="150"/>
-      <c r="AP29" s="150"/>
-      <c r="AQ29" s="150"/>
-      <c r="AR29" s="150"/>
-      <c r="AS29" s="150"/>
-      <c r="AT29" s="150"/>
-      <c r="AU29" s="150"/>
-      <c r="AV29" s="150"/>
-      <c r="AW29" s="150"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="148"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="140"/>
+      <c r="T29" s="140"/>
+      <c r="U29" s="140"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="146"/>
+      <c r="X29" s="146"/>
+      <c r="Y29" s="146"/>
+      <c r="Z29" s="146"/>
+      <c r="AA29" s="146"/>
+      <c r="AB29" s="146"/>
+      <c r="AC29" s="146"/>
+      <c r="AD29" s="146"/>
+      <c r="AE29" s="146"/>
+      <c r="AF29" s="146"/>
+      <c r="AG29" s="146"/>
+      <c r="AH29" s="146"/>
+      <c r="AI29" s="146"/>
+      <c r="AJ29" s="146"/>
+      <c r="AK29" s="146"/>
+      <c r="AL29" s="146"/>
+      <c r="AM29" s="146"/>
+      <c r="AN29" s="140"/>
+      <c r="AO29" s="140"/>
+      <c r="AP29" s="140"/>
+      <c r="AQ29" s="140"/>
+      <c r="AR29" s="140"/>
+      <c r="AS29" s="140"/>
+      <c r="AT29" s="140"/>
+      <c r="AU29" s="140"/>
+      <c r="AV29" s="140"/>
+      <c r="AW29" s="140"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="150"/>
-      <c r="T30" s="150"/>
-      <c r="U30" s="150"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="157"/>
-      <c r="X30" s="157"/>
-      <c r="Y30" s="157"/>
-      <c r="Z30" s="157"/>
-      <c r="AA30" s="157"/>
-      <c r="AB30" s="157"/>
-      <c r="AC30" s="157"/>
-      <c r="AD30" s="157"/>
-      <c r="AE30" s="157"/>
-      <c r="AF30" s="157"/>
-      <c r="AG30" s="157"/>
-      <c r="AH30" s="157"/>
-      <c r="AI30" s="157"/>
-      <c r="AJ30" s="157"/>
-      <c r="AK30" s="157"/>
-      <c r="AL30" s="157"/>
-      <c r="AM30" s="157"/>
-      <c r="AN30" s="150"/>
-      <c r="AO30" s="150"/>
-      <c r="AP30" s="150"/>
-      <c r="AQ30" s="150"/>
-      <c r="AR30" s="150"/>
-      <c r="AS30" s="150"/>
-      <c r="AT30" s="150"/>
-      <c r="AU30" s="150"/>
-      <c r="AV30" s="150"/>
-      <c r="AW30" s="150"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="148"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="148"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="148"/>
+      <c r="S30" s="140"/>
+      <c r="T30" s="140"/>
+      <c r="U30" s="140"/>
+      <c r="V30" s="146"/>
+      <c r="W30" s="146"/>
+      <c r="X30" s="146"/>
+      <c r="Y30" s="146"/>
+      <c r="Z30" s="146"/>
+      <c r="AA30" s="146"/>
+      <c r="AB30" s="146"/>
+      <c r="AC30" s="146"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="146"/>
+      <c r="AF30" s="146"/>
+      <c r="AG30" s="146"/>
+      <c r="AH30" s="146"/>
+      <c r="AI30" s="146"/>
+      <c r="AJ30" s="146"/>
+      <c r="AK30" s="146"/>
+      <c r="AL30" s="146"/>
+      <c r="AM30" s="146"/>
+      <c r="AN30" s="140"/>
+      <c r="AO30" s="140"/>
+      <c r="AP30" s="140"/>
+      <c r="AQ30" s="140"/>
+      <c r="AR30" s="140"/>
+      <c r="AS30" s="140"/>
+      <c r="AT30" s="140"/>
+      <c r="AU30" s="140"/>
+      <c r="AV30" s="140"/>
+      <c r="AW30" s="140"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="156"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="156"/>
-      <c r="S31" s="150"/>
-      <c r="T31" s="150"/>
-      <c r="U31" s="150"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="157"/>
-      <c r="X31" s="157"/>
-      <c r="Y31" s="157"/>
-      <c r="Z31" s="157"/>
-      <c r="AA31" s="157"/>
-      <c r="AB31" s="157"/>
-      <c r="AC31" s="157"/>
-      <c r="AD31" s="157"/>
-      <c r="AE31" s="157"/>
-      <c r="AF31" s="157"/>
-      <c r="AG31" s="157"/>
-      <c r="AH31" s="157"/>
-      <c r="AI31" s="157"/>
-      <c r="AJ31" s="157"/>
-      <c r="AK31" s="157"/>
-      <c r="AL31" s="157"/>
-      <c r="AM31" s="157"/>
-      <c r="AN31" s="150"/>
-      <c r="AO31" s="150"/>
-      <c r="AP31" s="150"/>
-      <c r="AQ31" s="150"/>
-      <c r="AR31" s="150"/>
-      <c r="AS31" s="150"/>
-      <c r="AT31" s="150"/>
-      <c r="AU31" s="150"/>
-      <c r="AV31" s="150"/>
-      <c r="AW31" s="150"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="148"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="140"/>
+      <c r="T31" s="140"/>
+      <c r="U31" s="140"/>
+      <c r="V31" s="146"/>
+      <c r="W31" s="146"/>
+      <c r="X31" s="146"/>
+      <c r="Y31" s="146"/>
+      <c r="Z31" s="146"/>
+      <c r="AA31" s="146"/>
+      <c r="AB31" s="146"/>
+      <c r="AC31" s="146"/>
+      <c r="AD31" s="146"/>
+      <c r="AE31" s="146"/>
+      <c r="AF31" s="146"/>
+      <c r="AG31" s="146"/>
+      <c r="AH31" s="146"/>
+      <c r="AI31" s="146"/>
+      <c r="AJ31" s="146"/>
+      <c r="AK31" s="146"/>
+      <c r="AL31" s="146"/>
+      <c r="AM31" s="146"/>
+      <c r="AN31" s="140"/>
+      <c r="AO31" s="140"/>
+      <c r="AP31" s="140"/>
+      <c r="AQ31" s="140"/>
+      <c r="AR31" s="140"/>
+      <c r="AS31" s="140"/>
+      <c r="AT31" s="140"/>
+      <c r="AU31" s="140"/>
+      <c r="AV31" s="140"/>
+      <c r="AW31" s="140"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="156"/>
-      <c r="S32" s="150"/>
-      <c r="T32" s="150"/>
-      <c r="U32" s="150"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="157"/>
-      <c r="X32" s="157"/>
-      <c r="Y32" s="157"/>
-      <c r="Z32" s="157"/>
-      <c r="AA32" s="157"/>
-      <c r="AB32" s="157"/>
-      <c r="AC32" s="157"/>
-      <c r="AD32" s="157"/>
-      <c r="AE32" s="157"/>
-      <c r="AF32" s="157"/>
-      <c r="AG32" s="157"/>
-      <c r="AH32" s="157"/>
-      <c r="AI32" s="157"/>
-      <c r="AJ32" s="157"/>
-      <c r="AK32" s="157"/>
-      <c r="AL32" s="157"/>
-      <c r="AM32" s="157"/>
-      <c r="AN32" s="150"/>
-      <c r="AO32" s="150"/>
-      <c r="AP32" s="150"/>
-      <c r="AQ32" s="150"/>
-      <c r="AR32" s="150"/>
-      <c r="AS32" s="150"/>
-      <c r="AT32" s="150"/>
-      <c r="AU32" s="150"/>
-      <c r="AV32" s="150"/>
-      <c r="AW32" s="150"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="143"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="140"/>
+      <c r="T32" s="140"/>
+      <c r="U32" s="140"/>
+      <c r="V32" s="146"/>
+      <c r="W32" s="146"/>
+      <c r="X32" s="146"/>
+      <c r="Y32" s="146"/>
+      <c r="Z32" s="146"/>
+      <c r="AA32" s="146"/>
+      <c r="AB32" s="146"/>
+      <c r="AC32" s="146"/>
+      <c r="AD32" s="146"/>
+      <c r="AE32" s="146"/>
+      <c r="AF32" s="146"/>
+      <c r="AG32" s="146"/>
+      <c r="AH32" s="146"/>
+      <c r="AI32" s="146"/>
+      <c r="AJ32" s="146"/>
+      <c r="AK32" s="146"/>
+      <c r="AL32" s="146"/>
+      <c r="AM32" s="146"/>
+      <c r="AN32" s="140"/>
+      <c r="AO32" s="140"/>
+      <c r="AP32" s="140"/>
+      <c r="AQ32" s="140"/>
+      <c r="AR32" s="140"/>
+      <c r="AS32" s="140"/>
+      <c r="AT32" s="140"/>
+      <c r="AU32" s="140"/>
+      <c r="AV32" s="140"/>
+      <c r="AW32" s="140"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="156"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="156"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="156"/>
-      <c r="S33" s="150"/>
-      <c r="T33" s="150"/>
-      <c r="U33" s="150"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="157"/>
-      <c r="X33" s="157"/>
-      <c r="Y33" s="157"/>
-      <c r="Z33" s="157"/>
-      <c r="AA33" s="157"/>
-      <c r="AB33" s="157"/>
-      <c r="AC33" s="157"/>
-      <c r="AD33" s="157"/>
-      <c r="AE33" s="157"/>
-      <c r="AF33" s="157"/>
-      <c r="AG33" s="157"/>
-      <c r="AH33" s="157"/>
-      <c r="AI33" s="157"/>
-      <c r="AJ33" s="157"/>
-      <c r="AK33" s="157"/>
-      <c r="AL33" s="157"/>
-      <c r="AM33" s="157"/>
-      <c r="AN33" s="150"/>
-      <c r="AO33" s="150"/>
-      <c r="AP33" s="150"/>
-      <c r="AQ33" s="150"/>
-      <c r="AR33" s="150"/>
-      <c r="AS33" s="150"/>
-      <c r="AT33" s="150"/>
-      <c r="AU33" s="150"/>
-      <c r="AV33" s="150"/>
-      <c r="AW33" s="150"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="140"/>
+      <c r="T33" s="140"/>
+      <c r="U33" s="140"/>
+      <c r="V33" s="146"/>
+      <c r="W33" s="146"/>
+      <c r="X33" s="146"/>
+      <c r="Y33" s="146"/>
+      <c r="Z33" s="146"/>
+      <c r="AA33" s="146"/>
+      <c r="AB33" s="146"/>
+      <c r="AC33" s="146"/>
+      <c r="AD33" s="146"/>
+      <c r="AE33" s="146"/>
+      <c r="AF33" s="146"/>
+      <c r="AG33" s="146"/>
+      <c r="AH33" s="146"/>
+      <c r="AI33" s="146"/>
+      <c r="AJ33" s="146"/>
+      <c r="AK33" s="146"/>
+      <c r="AL33" s="146"/>
+      <c r="AM33" s="146"/>
+      <c r="AN33" s="140"/>
+      <c r="AO33" s="140"/>
+      <c r="AP33" s="140"/>
+      <c r="AQ33" s="140"/>
+      <c r="AR33" s="140"/>
+      <c r="AS33" s="140"/>
+      <c r="AT33" s="140"/>
+      <c r="AU33" s="140"/>
+      <c r="AV33" s="140"/>
+      <c r="AW33" s="140"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="151"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="164"/>
-      <c r="O34" s="164"/>
-      <c r="P34" s="164"/>
-      <c r="Q34" s="164"/>
-      <c r="R34" s="164"/>
-      <c r="S34" s="150"/>
-      <c r="T34" s="150"/>
-      <c r="U34" s="150"/>
-      <c r="V34" s="157"/>
-      <c r="W34" s="157"/>
-      <c r="X34" s="157"/>
-      <c r="Y34" s="157"/>
-      <c r="Z34" s="157"/>
-      <c r="AA34" s="157"/>
-      <c r="AB34" s="157"/>
-      <c r="AC34" s="157"/>
-      <c r="AD34" s="157"/>
-      <c r="AE34" s="157"/>
-      <c r="AF34" s="157"/>
-      <c r="AG34" s="157"/>
-      <c r="AH34" s="157"/>
-      <c r="AI34" s="157"/>
-      <c r="AJ34" s="157"/>
-      <c r="AK34" s="157"/>
-      <c r="AL34" s="157"/>
-      <c r="AM34" s="157"/>
-      <c r="AN34" s="150"/>
-      <c r="AO34" s="150"/>
-      <c r="AP34" s="150"/>
-      <c r="AQ34" s="150"/>
-      <c r="AR34" s="150"/>
-      <c r="AS34" s="150"/>
-      <c r="AT34" s="150"/>
-      <c r="AU34" s="150"/>
-      <c r="AV34" s="150"/>
-      <c r="AW34" s="150"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="140"/>
+      <c r="T34" s="140"/>
+      <c r="U34" s="140"/>
+      <c r="V34" s="146"/>
+      <c r="W34" s="146"/>
+      <c r="X34" s="146"/>
+      <c r="Y34" s="146"/>
+      <c r="Z34" s="146"/>
+      <c r="AA34" s="146"/>
+      <c r="AB34" s="146"/>
+      <c r="AC34" s="146"/>
+      <c r="AD34" s="146"/>
+      <c r="AE34" s="146"/>
+      <c r="AF34" s="146"/>
+      <c r="AG34" s="146"/>
+      <c r="AH34" s="146"/>
+      <c r="AI34" s="146"/>
+      <c r="AJ34" s="146"/>
+      <c r="AK34" s="146"/>
+      <c r="AL34" s="146"/>
+      <c r="AM34" s="146"/>
+      <c r="AN34" s="140"/>
+      <c r="AO34" s="140"/>
+      <c r="AP34" s="140"/>
+      <c r="AQ34" s="140"/>
+      <c r="AR34" s="140"/>
+      <c r="AS34" s="140"/>
+      <c r="AT34" s="140"/>
+      <c r="AU34" s="140"/>
+      <c r="AV34" s="140"/>
+      <c r="AW34" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7104,239 +7337,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7417,14 +7417,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="171">
+      <c r="AO1" s="167">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
-      <c r="AP1" s="172"/>
-      <c r="AQ1" s="172"/>
-      <c r="AR1" s="172"/>
-      <c r="AS1" s="173"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
+      <c r="AS1" s="169"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -7433,17 +7433,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="174" t="str">
+      <c r="AZ1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="BA1" s="175"/>
-      <c r="BB1" s="175"/>
-      <c r="BC1" s="175"/>
-      <c r="BD1" s="175"/>
-      <c r="BE1" s="175"/>
-      <c r="BF1" s="175"/>
-      <c r="BG1" s="176"/>
+      <c r="BA1" s="171"/>
+      <c r="BB1" s="171"/>
+      <c r="BC1" s="171"/>
+      <c r="BD1" s="171"/>
+      <c r="BE1" s="171"/>
+      <c r="BF1" s="171"/>
+      <c r="BG1" s="172"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -7468,14 +7468,14 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="36" t="s">
-        <v>127</v>
+        <v>347</v>
       </c>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
       <c r="V2" s="38"/>
       <c r="W2" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
@@ -7496,11 +7496,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="172"/>
-      <c r="AQ2" s="172"/>
-      <c r="AR2" s="172"/>
-      <c r="AS2" s="173"/>
+      <c r="AO2" s="167"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="169"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -7509,14 +7509,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="174"/>
-      <c r="BA2" s="175"/>
-      <c r="BB2" s="175"/>
-      <c r="BC2" s="175"/>
-      <c r="BD2" s="175"/>
-      <c r="BE2" s="175"/>
-      <c r="BF2" s="175"/>
-      <c r="BG2" s="176"/>
+      <c r="AZ2" s="170"/>
+      <c r="BA2" s="171"/>
+      <c r="BB2" s="171"/>
+      <c r="BC2" s="171"/>
+      <c r="BD2" s="171"/>
+      <c r="BE2" s="171"/>
+      <c r="BF2" s="171"/>
+      <c r="BG2" s="172"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -8335,7 +8335,7 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
@@ -8491,7 +8491,7 @@
     <row r="33" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G33" s="9"/>
       <c r="J33" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N33" s="9"/>
       <c r="P33" s="9" t="s">
@@ -8512,7 +8512,7 @@
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AJ33" s="11"/>
       <c r="AK33" s="11"/>
@@ -8537,11 +8537,11 @@
     <row r="34" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G34" s="9"/>
       <c r="J34" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N34" s="9"/>
       <c r="P34" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -8549,7 +8549,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -8561,7 +8561,7 @@
       <c r="AG34" s="9"/>
       <c r="AH34" s="9"/>
       <c r="AI34" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AJ34" s="11"/>
       <c r="AK34" s="11"/>
@@ -8587,7 +8587,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="J35" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N35" s="9"/>
       <c r="P35" s="11"/>
@@ -8741,7 +8741,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="W41" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AQ41" s="11"/>
       <c r="AR41" s="11"/>
@@ -8913,10 +8913,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="170"/>
+      <c r="C45" s="176"/>
       <c r="D45" s="91" t="s">
         <v>101</v>
       </c>
@@ -8999,12 +8999,12 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="28"/>
-      <c r="B46" s="167">
+      <c r="B46" s="173">
         <v>1</v>
       </c>
-      <c r="C46" s="168"/>
+      <c r="C46" s="174"/>
       <c r="D46" s="96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" s="89"/>
       <c r="F46" s="89"/>
@@ -9013,7 +9013,7 @@
       <c r="I46" s="89"/>
       <c r="J46" s="90"/>
       <c r="K46" s="85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L46" s="89"/>
       <c r="M46" s="89"/>
@@ -9045,7 +9045,7 @@
       <c r="AK46" s="165"/>
       <c r="AL46" s="166"/>
       <c r="AM46" s="86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN46" s="87"/>
       <c r="AO46" s="87"/>
@@ -9077,10 +9077,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="28"/>
-      <c r="B47" s="167">
+      <c r="B47" s="173">
         <v>2</v>
       </c>
-      <c r="C47" s="168"/>
+      <c r="C47" s="174"/>
       <c r="D47" s="96" t="s">
         <v>108</v>
       </c>
@@ -9123,7 +9123,7 @@
       <c r="AK47" s="165"/>
       <c r="AL47" s="166"/>
       <c r="AM47" s="86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN47" s="87"/>
       <c r="AO47" s="87"/>
@@ -9155,10 +9155,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="28"/>
-      <c r="B48" s="167">
+      <c r="B48" s="173">
         <v>3</v>
       </c>
-      <c r="C48" s="168"/>
+      <c r="C48" s="174"/>
       <c r="D48" s="96" t="s">
         <v>108</v>
       </c>
@@ -9169,7 +9169,7 @@
       <c r="I48" s="89"/>
       <c r="J48" s="97"/>
       <c r="K48" s="96" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L48" s="89"/>
       <c r="M48" s="89"/>
@@ -9201,7 +9201,7 @@
       <c r="AK48" s="165"/>
       <c r="AL48" s="166"/>
       <c r="AM48" s="86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN48" s="87"/>
       <c r="AO48" s="87"/>
@@ -9233,10 +9233,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="28"/>
-      <c r="B49" s="167">
+      <c r="B49" s="173">
         <v>4</v>
       </c>
-      <c r="C49" s="168"/>
+      <c r="C49" s="174"/>
       <c r="D49" s="109" t="s">
         <v>108</v>
       </c>
@@ -9247,7 +9247,7 @@
       <c r="I49" s="89"/>
       <c r="J49" s="110"/>
       <c r="K49" s="109" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -9279,7 +9279,7 @@
       <c r="AK49" s="165"/>
       <c r="AL49" s="166"/>
       <c r="AM49" s="86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN49" s="87"/>
       <c r="AO49" s="87"/>
@@ -9311,10 +9311,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="28"/>
-      <c r="B50" s="167">
+      <c r="B50" s="173">
         <v>5</v>
       </c>
-      <c r="C50" s="168"/>
+      <c r="C50" s="174"/>
       <c r="D50" s="96" t="s">
         <v>108</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="I50" s="89"/>
       <c r="J50" s="97"/>
       <c r="K50" s="96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L50" s="89"/>
       <c r="M50" s="89"/>
@@ -9357,7 +9357,7 @@
       <c r="AK50" s="165"/>
       <c r="AL50" s="166"/>
       <c r="AM50" s="86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN50" s="87"/>
       <c r="AO50" s="87"/>
@@ -9389,12 +9389,12 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
-      <c r="B51" s="167">
+      <c r="B51" s="173">
         <v>6</v>
       </c>
-      <c r="C51" s="168"/>
+      <c r="C51" s="174"/>
       <c r="D51" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E51" s="89"/>
       <c r="F51" s="89"/>
@@ -9403,7 +9403,7 @@
       <c r="I51" s="89"/>
       <c r="J51" s="110"/>
       <c r="K51" s="109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L51" s="89"/>
       <c r="M51" s="89"/>
@@ -9435,7 +9435,7 @@
       <c r="AK51" s="165"/>
       <c r="AL51" s="166"/>
       <c r="AM51" s="86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN51" s="87"/>
       <c r="AO51" s="87"/>
@@ -9467,12 +9467,12 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
-      <c r="B52" s="167">
+      <c r="B52" s="173">
         <v>7</v>
       </c>
-      <c r="C52" s="168"/>
+      <c r="C52" s="174"/>
       <c r="D52" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E52" s="89"/>
       <c r="F52" s="89"/>
@@ -9481,7 +9481,7 @@
       <c r="I52" s="89"/>
       <c r="J52" s="110"/>
       <c r="K52" s="109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L52" s="89"/>
       <c r="M52" s="89"/>
@@ -9513,7 +9513,7 @@
       <c r="AK52" s="165"/>
       <c r="AL52" s="166"/>
       <c r="AM52" s="86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN52" s="87"/>
       <c r="AO52" s="87"/>
@@ -9550,32 +9550,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ1:BG1"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AE50:AF50"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="AI52:AJ52"/>
     <mergeCell ref="AG52:AH52"/>
     <mergeCell ref="AK47:AL47"/>
@@ -9590,6 +9564,32 @@
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AK51:AL51"/>
     <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AE50:AF50"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ1:BG1"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -9611,7 +9611,7 @@
   <dimension ref="A1:DI5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A1:XFD4"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -9713,7 +9713,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="171">
+      <c r="CD1" s="167">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -9735,7 +9735,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="174" t="str">
+      <c r="CU1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -9793,7 +9793,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K17</v>
+        <v>K-17</v>
       </c>
       <c r="AI2" s="37"/>
       <c r="AJ2" s="37"/>
@@ -9866,7 +9866,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="174"/>
+      <c r="CU2" s="170"/>
       <c r="CV2" s="177"/>
       <c r="CW2" s="177"/>
       <c r="CX2" s="177"/>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="F2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K17</v>
+        <v>K-17</v>
       </c>
       <c r="G2" s="36" t="str">
         <f>'１．機能概要'!W2</f>
@@ -10082,37 +10082,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="142" t="s">
+      <c r="G6" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="183" t="s">
+      <c r="I6" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="183" t="s">
+      <c r="J6" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="142" t="s">
+      <c r="K6" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="142" t="s">
+      <c r="L6" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="142" t="s">
+      <c r="M6" s="157" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="70" t="s">
@@ -10120,24 +10120,24 @@
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
-      <c r="Q6" s="183" t="s">
+      <c r="Q6" s="185" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
       <c r="N7" s="42" t="s">
         <v>79</v>
       </c>
@@ -10147,7 +10147,7 @@
       <c r="P7" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="183"/>
+      <c r="Q7" s="185"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -10162,7 +10162,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>40</v>
@@ -10195,7 +10195,7 @@
         <v>33</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -10208,10 +10208,10 @@
         <v>52</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>40</v>
@@ -10244,7 +10244,7 @@
         <v>33</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -10257,7 +10257,7 @@
         <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>116</v>
@@ -10293,7 +10293,7 @@
         <v>33</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -10309,37 +10309,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="142" t="s">
+      <c r="E13" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="142" t="s">
+      <c r="F13" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="142" t="s">
+      <c r="G13" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="142" t="s">
+      <c r="H13" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="184" t="s">
+      <c r="I13" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="183" t="s">
+      <c r="J13" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="142" t="s">
+      <c r="K13" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="142" t="s">
+      <c r="L13" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="142" t="s">
+      <c r="M13" s="157" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="70" t="s">
@@ -10347,24 +10347,24 @@
       </c>
       <c r="O13" s="70"/>
       <c r="P13" s="70"/>
-      <c r="Q13" s="184" t="s">
+      <c r="Q13" s="183" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
       <c r="N14" s="42" t="s">
         <v>79</v>
       </c>
@@ -10374,7 +10374,7 @@
       <c r="P14" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q14" s="185"/>
+      <c r="Q14" s="184"/>
     </row>
     <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
@@ -10383,16 +10383,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F15" s="123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>117</v>
@@ -10404,13 +10404,13 @@
         <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>34</v>
@@ -10432,16 +10432,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="123" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F16" s="123" t="s">
-        <v>278</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>117</v>
@@ -10453,13 +10453,13 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>34</v>
@@ -10484,10 +10484,10 @@
         <v>54</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="43" t="s">
         <v>35</v>
@@ -10517,10 +10517,10 @@
         <v>33</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -10533,10 +10533,10 @@
         <v>55</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" s="123" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G18" s="43" t="s">
         <v>35</v>
@@ -10557,16 +10557,16 @@
         <v>118</v>
       </c>
       <c r="M18" s="123" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>33</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>33</v>
@@ -10579,16 +10579,16 @@
         <v>5</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="F19" s="123" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>117</v>
@@ -10600,10 +10600,10 @@
         <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>33</v>
@@ -10631,13 +10631,13 @@
         <v>56</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>117</v>
@@ -10652,13 +10652,13 @@
         <v>81</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="N20" s="124" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>33</v>
@@ -10689,37 +10689,37 @@
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="62"/>
-      <c r="C24" s="142" t="s">
+      <c r="C24" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="142" t="s">
+      <c r="D24" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="142" t="s">
+      <c r="E24" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="142" t="s">
+      <c r="F24" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="142" t="s">
+      <c r="G24" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="142" t="s">
+      <c r="H24" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="183" t="s">
+      <c r="I24" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="183" t="s">
+      <c r="J24" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="142" t="s">
+      <c r="K24" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="142" t="s">
+      <c r="L24" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="142" t="s">
+      <c r="M24" s="157" t="s">
         <v>32</v>
       </c>
       <c r="N24" s="70" t="s">
@@ -10727,24 +10727,24 @@
       </c>
       <c r="O24" s="70"/>
       <c r="P24" s="70"/>
-      <c r="Q24" s="183" t="s">
+      <c r="Q24" s="185" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="62"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="142"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
       <c r="N25" s="42" t="s">
         <v>79</v>
       </c>
@@ -10754,7 +10754,7 @@
       <c r="P25" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q25" s="183"/>
+      <c r="Q25" s="185"/>
     </row>
     <row r="26" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="55"/>
@@ -10836,10 +10836,10 @@
         <v>58</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>45</v>
@@ -10869,7 +10869,7 @@
         <v>34</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>34</v>
@@ -10885,10 +10885,10 @@
         <v>59</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>45</v>
@@ -10918,7 +10918,7 @@
         <v>34</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>34</v>
@@ -10934,10 +10934,10 @@
         <v>60</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>45</v>
@@ -10967,7 +10967,7 @@
         <v>34</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>34</v>
@@ -10983,10 +10983,10 @@
         <v>61</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>45</v>
@@ -11001,7 +11001,7 @@
         <v>34</v>
       </c>
       <c r="K31" s="123" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>34</v>
@@ -11019,7 +11019,7 @@
         <v>34</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11032,10 +11032,10 @@
         <v>62</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G32" s="43" t="s">
         <v>45</v>
@@ -11050,7 +11050,7 @@
         <v>34</v>
       </c>
       <c r="K32" s="123" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>34</v>
@@ -11059,7 +11059,7 @@
         <v>33</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>34</v>
@@ -11068,7 +11068,7 @@
         <v>34</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="57" x14ac:dyDescent="0.15">
@@ -11081,7 +11081,7 @@
         <v>63</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>34</v>
@@ -11099,7 +11099,7 @@
         <v>34</v>
       </c>
       <c r="K33" s="123" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>34</v>
@@ -11117,24 +11117,24 @@
         <v>34</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="62"/>
       <c r="C34" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="62"/>
       <c r="D35" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11160,6 +11160,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="I24:I25"/>
@@ -11176,26 +11196,6 @@
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M24:M25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11272,7 +11272,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="171">
+      <c r="AI1" s="167">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -11288,7 +11288,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="174" t="str">
+      <c r="AT1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K17</v>
+        <v>K-17</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -11359,7 +11359,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="174"/>
+      <c r="AT2" s="170"/>
       <c r="AU2" s="177"/>
       <c r="AV2" s="177"/>
       <c r="AW2" s="177"/>
@@ -11695,7 +11695,7 @@
       <c r="G11" s="113"/>
       <c r="K11" s="114"/>
       <c r="L11" s="134" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M11" s="134"/>
       <c r="N11" s="134"/>
@@ -11735,7 +11735,7 @@
       <c r="G12" s="113"/>
       <c r="L12" s="130"/>
       <c r="M12" s="131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N12" s="131"/>
       <c r="O12" s="131"/>
@@ -11777,7 +11777,7 @@
       <c r="L13" s="130"/>
       <c r="M13" s="134"/>
       <c r="N13" s="131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O13" s="131"/>
       <c r="P13" s="131"/>
@@ -11818,7 +11818,7 @@
       <c r="L14" s="130"/>
       <c r="M14" s="134"/>
       <c r="N14" s="131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O14" s="131"/>
       <c r="P14" s="131"/>
@@ -11897,7 +11897,7 @@
       <c r="G16" s="113"/>
       <c r="L16" s="130"/>
       <c r="M16" s="131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N16" s="131"/>
       <c r="O16" s="131"/>
@@ -11939,7 +11939,7 @@
       <c r="L17" s="130"/>
       <c r="M17" s="134"/>
       <c r="N17" s="131" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
@@ -11980,7 +11980,7 @@
       <c r="L18" s="130"/>
       <c r="M18" s="134"/>
       <c r="N18" s="131" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O18" s="131"/>
       <c r="P18" s="131"/>
@@ -12022,7 +12022,7 @@
       <c r="M19" s="134"/>
       <c r="N19" s="131"/>
       <c r="O19" s="131" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P19" s="131"/>
       <c r="Q19" s="131"/>
@@ -12034,10 +12034,10 @@
       <c r="W19" s="131"/>
       <c r="X19" s="131"/>
       <c r="Y19" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z19" s="131" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA19" s="131"/>
       <c r="AB19" s="131"/>
@@ -12066,7 +12066,7 @@
       <c r="L20" s="130"/>
       <c r="M20" s="134"/>
       <c r="N20" s="131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O20" s="131"/>
       <c r="P20" s="131"/>
@@ -12108,7 +12108,7 @@
       <c r="M21" s="134"/>
       <c r="N21" s="131"/>
       <c r="O21" s="131" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P21" s="131"/>
       <c r="Q21" s="131"/>
@@ -12120,10 +12120,10 @@
       <c r="W21" s="131"/>
       <c r="X21" s="131"/>
       <c r="Y21" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z21" s="131" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA21" s="131"/>
       <c r="AB21" s="131"/>
@@ -12153,7 +12153,7 @@
       <c r="M22" s="134"/>
       <c r="N22" s="131"/>
       <c r="O22" s="131" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P22" s="131"/>
       <c r="Q22" s="131"/>
@@ -12165,10 +12165,10 @@
       <c r="W22" s="131"/>
       <c r="X22" s="131"/>
       <c r="Y22" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z22" s="131" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AA22" s="131"/>
       <c r="AB22" s="131"/>
@@ -12198,7 +12198,7 @@
       <c r="M23" s="134"/>
       <c r="N23" s="131"/>
       <c r="O23" s="131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P23" s="131"/>
       <c r="Q23" s="131"/>
@@ -12210,10 +12210,10 @@
       <c r="W23" s="131"/>
       <c r="X23" s="131"/>
       <c r="Y23" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z23" s="131" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AA23" s="131"/>
       <c r="AB23" s="131"/>
@@ -12243,7 +12243,7 @@
       <c r="M24" s="134"/>
       <c r="N24" s="131"/>
       <c r="O24" s="131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P24" s="131"/>
       <c r="Q24" s="131"/>
@@ -12255,10 +12255,10 @@
       <c r="W24" s="131"/>
       <c r="X24" s="131"/>
       <c r="Y24" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z24" s="131" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA24" s="131"/>
       <c r="AB24" s="131"/>
@@ -12288,7 +12288,7 @@
       <c r="M25" s="134"/>
       <c r="N25" s="131"/>
       <c r="O25" s="131" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P25" s="131"/>
       <c r="Q25" s="131"/>
@@ -12300,10 +12300,10 @@
       <c r="W25" s="131"/>
       <c r="X25" s="131"/>
       <c r="Y25" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z25" s="131" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA25" s="131"/>
       <c r="AB25" s="131"/>
@@ -12370,7 +12370,7 @@
       <c r="G27" s="113"/>
       <c r="L27" s="130"/>
       <c r="M27" s="131" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N27" s="131"/>
       <c r="O27" s="131"/>
@@ -12412,7 +12412,7 @@
       <c r="L28" s="130"/>
       <c r="M28" s="134"/>
       <c r="N28" s="131" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O28" s="131"/>
       <c r="P28" s="131"/>
@@ -12425,10 +12425,10 @@
       <c r="W28" s="131"/>
       <c r="X28" s="134"/>
       <c r="Y28" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z28" s="131" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA28" s="131"/>
       <c r="AB28" s="131"/>
@@ -12457,7 +12457,7 @@
       <c r="L29" s="130"/>
       <c r="M29" s="134"/>
       <c r="N29" s="131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O29" s="131"/>
       <c r="P29" s="131"/>
@@ -12470,10 +12470,10 @@
       <c r="W29" s="131"/>
       <c r="X29" s="134"/>
       <c r="Y29" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z29" s="136" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AA29" s="131"/>
       <c r="AB29" s="131"/>
@@ -12487,7 +12487,7 @@
       <c r="AJ29" s="131"/>
       <c r="AK29" s="131"/>
       <c r="AM29" s="134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN29" s="132"/>
       <c r="AO29" s="132"/>
@@ -12540,7 +12540,7 @@
       <c r="G31" s="113"/>
       <c r="K31" s="114"/>
       <c r="L31" s="134" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M31" s="134"/>
       <c r="N31" s="134"/>
@@ -12580,7 +12580,7 @@
       <c r="G32" s="113"/>
       <c r="L32" s="130"/>
       <c r="M32" s="131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N32" s="131"/>
       <c r="O32" s="131"/>
@@ -12622,7 +12622,7 @@
       <c r="L33" s="130"/>
       <c r="M33" s="134"/>
       <c r="N33" s="131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O33" s="131"/>
       <c r="P33" s="131"/>
@@ -12663,7 +12663,7 @@
       <c r="L34" s="130"/>
       <c r="M34" s="134"/>
       <c r="N34" s="131" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O34" s="131"/>
       <c r="P34" s="131"/>
@@ -12742,7 +12742,7 @@
       <c r="G36" s="113"/>
       <c r="L36" s="130"/>
       <c r="M36" s="131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N36" s="131"/>
       <c r="O36" s="131"/>
@@ -12784,7 +12784,7 @@
       <c r="L37" s="130"/>
       <c r="M37" s="134"/>
       <c r="N37" s="131" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O37" s="131"/>
       <c r="P37" s="131"/>
@@ -12825,7 +12825,7 @@
       <c r="L38" s="130"/>
       <c r="M38" s="134"/>
       <c r="N38" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O38" s="131"/>
       <c r="P38" s="131"/>
@@ -12867,7 +12867,7 @@
       <c r="M39" s="134"/>
       <c r="N39" s="131"/>
       <c r="O39" s="131" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P39" s="131"/>
       <c r="Q39" s="131"/>
@@ -12879,10 +12879,10 @@
       <c r="W39" s="131"/>
       <c r="X39" s="131"/>
       <c r="Y39" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z39" s="131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AA39" s="131"/>
       <c r="AB39" s="131"/>
@@ -12912,7 +12912,7 @@
       <c r="M40" s="134"/>
       <c r="N40" s="131"/>
       <c r="O40" s="131" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P40" s="131"/>
       <c r="Q40" s="131"/>
@@ -12924,10 +12924,10 @@
       <c r="W40" s="131"/>
       <c r="X40" s="131"/>
       <c r="Y40" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z40" s="131" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AA40" s="131"/>
       <c r="AB40" s="131"/>
@@ -12957,7 +12957,7 @@
       <c r="M41" s="134"/>
       <c r="N41" s="131"/>
       <c r="O41" s="131" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P41" s="131"/>
       <c r="Q41" s="131"/>
@@ -12969,10 +12969,10 @@
       <c r="W41" s="131"/>
       <c r="X41" s="131"/>
       <c r="Y41" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z41" s="131" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AA41" s="131"/>
       <c r="AB41" s="131"/>
@@ -13002,7 +13002,7 @@
       <c r="M42" s="134"/>
       <c r="N42" s="131"/>
       <c r="O42" s="131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P42" s="131"/>
       <c r="Q42" s="131"/>
@@ -13014,10 +13014,10 @@
       <c r="W42" s="131"/>
       <c r="X42" s="131"/>
       <c r="Y42" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z42" s="131" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA42" s="131"/>
       <c r="AB42" s="131"/>
@@ -13047,7 +13047,7 @@
       <c r="M43" s="134"/>
       <c r="N43" s="131"/>
       <c r="O43" s="131" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P43" s="131"/>
       <c r="Q43" s="131"/>
@@ -13059,10 +13059,10 @@
       <c r="W43" s="131"/>
       <c r="X43" s="131"/>
       <c r="Y43" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z43" s="131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA43" s="131"/>
       <c r="AB43" s="131"/>
@@ -13129,7 +13129,7 @@
       <c r="G45" s="113"/>
       <c r="L45" s="130"/>
       <c r="M45" s="131" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N45" s="131"/>
       <c r="O45" s="131"/>
@@ -13171,7 +13171,7 @@
       <c r="L46" s="130"/>
       <c r="M46" s="134"/>
       <c r="N46" s="131" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O46" s="131"/>
       <c r="P46" s="131"/>
@@ -13184,10 +13184,10 @@
       <c r="W46" s="131"/>
       <c r="X46" s="134"/>
       <c r="Y46" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z46" s="131" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA46" s="131"/>
       <c r="AB46" s="131"/>
@@ -13217,7 +13217,7 @@
       <c r="L47" s="134"/>
       <c r="M47" s="134"/>
       <c r="N47" s="131" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O47" s="134"/>
       <c r="P47" s="134"/>
@@ -13230,10 +13230,10 @@
       <c r="W47" s="134"/>
       <c r="X47" s="134"/>
       <c r="Y47" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z47" s="131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AA47" s="131"/>
       <c r="AB47" s="131"/>
@@ -13247,7 +13247,7 @@
       <c r="AJ47" s="131"/>
       <c r="AK47" s="131"/>
       <c r="AM47" s="134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN47" s="132"/>
       <c r="AO47" s="134"/>
@@ -13320,7 +13320,7 @@
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
       <c r="L49" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
@@ -13373,7 +13373,7 @@
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
       <c r="L50" s="73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M50" s="23"/>
       <c r="N50" s="23"/>
@@ -13424,7 +13424,7 @@
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
@@ -13524,7 +13524,7 @@
       <c r="J53" s="112"/>
       <c r="K53" s="112"/>
       <c r="L53" s="113" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M53" s="112"/>
       <c r="N53" s="112"/>
@@ -13576,7 +13576,7 @@
       <c r="K54" s="23"/>
       <c r="L54" s="73"/>
       <c r="M54" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N54" s="23"/>
       <c r="O54" s="23"/>
@@ -13627,7 +13627,7 @@
       <c r="K55" s="23"/>
       <c r="L55" s="73"/>
       <c r="N55" s="117" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P55" s="99"/>
       <c r="Q55" s="99"/>
@@ -13676,7 +13676,7 @@
       <c r="K56" s="23"/>
       <c r="L56" s="73"/>
       <c r="O56" s="99" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P56" s="99"/>
       <c r="Q56" s="99"/>
@@ -13725,7 +13725,7 @@
       <c r="K57" s="112"/>
       <c r="L57" s="113"/>
       <c r="O57" s="117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P57" s="117"/>
       <c r="Q57" s="117"/>
@@ -13774,7 +13774,7 @@
       <c r="K58" s="112"/>
       <c r="L58" s="113"/>
       <c r="O58" s="117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P58" s="117"/>
       <c r="Q58" s="117"/>
@@ -13823,7 +13823,7 @@
       <c r="K59" s="112"/>
       <c r="L59" s="113"/>
       <c r="O59" s="117" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P59" s="117"/>
       <c r="Q59" s="117"/>
@@ -13872,7 +13872,7 @@
       <c r="K60" s="112"/>
       <c r="L60" s="113"/>
       <c r="O60" s="117" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P60" s="117"/>
       <c r="Q60" s="117"/>
@@ -13968,7 +13968,7 @@
       <c r="K62" s="23"/>
       <c r="L62" s="73"/>
       <c r="N62" s="99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P62" s="99"/>
       <c r="Q62" s="99"/>
@@ -14017,7 +14017,7 @@
       <c r="K63" s="112"/>
       <c r="L63" s="113"/>
       <c r="O63" s="117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P63" s="117"/>
       <c r="Q63" s="117"/>
@@ -14066,7 +14066,7 @@
       <c r="K64" s="112"/>
       <c r="L64" s="113"/>
       <c r="O64" s="117" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P64" s="115"/>
       <c r="Q64" s="115"/>
@@ -14118,7 +14118,7 @@
       <c r="N65" s="115"/>
       <c r="O65" s="117"/>
       <c r="P65" s="115" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q65" s="115"/>
       <c r="R65" s="115"/>
@@ -14130,10 +14130,10 @@
       <c r="X65" s="115"/>
       <c r="Y65" s="115"/>
       <c r="Z65" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA65" s="115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB65" s="115"/>
       <c r="AC65" s="115"/>
@@ -14173,7 +14173,7 @@
       <c r="N66" s="115"/>
       <c r="O66" s="117"/>
       <c r="P66" s="115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q66" s="115"/>
       <c r="R66" s="115"/>
@@ -14185,10 +14185,10 @@
       <c r="X66" s="115"/>
       <c r="Y66" s="115"/>
       <c r="Z66" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA66" s="115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AB66" s="115"/>
       <c r="AC66" s="115"/>
@@ -14225,7 +14225,7 @@
       <c r="K67" s="23"/>
       <c r="L67" s="73"/>
       <c r="O67" s="99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P67" s="75"/>
       <c r="Q67" s="75"/>
@@ -14277,7 +14277,7 @@
       <c r="N68" s="115"/>
       <c r="O68" s="117"/>
       <c r="P68" s="115" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q68" s="115"/>
       <c r="R68" s="115"/>
@@ -14289,10 +14289,10 @@
       <c r="X68" s="115"/>
       <c r="Y68" s="115"/>
       <c r="Z68" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA68" s="115" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB68" s="115"/>
       <c r="AC68" s="115"/>
@@ -14332,7 +14332,7 @@
       <c r="N69" s="75"/>
       <c r="O69" s="99"/>
       <c r="P69" s="115" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q69" s="75"/>
       <c r="R69" s="75"/>
@@ -14344,10 +14344,10 @@
       <c r="X69" s="75"/>
       <c r="Y69" s="75"/>
       <c r="Z69" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA69" s="75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB69" s="75"/>
       <c r="AC69" s="75"/>
@@ -14386,7 +14386,7 @@
       <c r="M70" s="115"/>
       <c r="N70" s="115"/>
       <c r="O70" s="117" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P70" s="115"/>
       <c r="Q70" s="115"/>
@@ -14438,7 +14438,7 @@
       <c r="N71" s="115"/>
       <c r="O71" s="117"/>
       <c r="P71" s="115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q71" s="115"/>
       <c r="R71" s="115"/>
@@ -14450,10 +14450,10 @@
       <c r="X71" s="115"/>
       <c r="Y71" s="115"/>
       <c r="Z71" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA71" s="115" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB71" s="115"/>
       <c r="AC71" s="115"/>
@@ -14493,7 +14493,7 @@
       <c r="N72" s="115"/>
       <c r="O72" s="117"/>
       <c r="P72" s="115" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q72" s="115"/>
       <c r="R72" s="115"/>
@@ -14505,10 +14505,10 @@
       <c r="X72" s="115"/>
       <c r="Y72" s="115"/>
       <c r="Z72" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA72" s="115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB72" s="115"/>
       <c r="AC72" s="115"/>
@@ -14548,7 +14548,7 @@
       <c r="N73" s="115"/>
       <c r="O73" s="117"/>
       <c r="P73" s="115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q73" s="115"/>
       <c r="R73" s="115"/>
@@ -14560,10 +14560,10 @@
       <c r="X73" s="115"/>
       <c r="Y73" s="115"/>
       <c r="Z73" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA73" s="115" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB73" s="115"/>
       <c r="AC73" s="115"/>
@@ -14603,7 +14603,7 @@
       <c r="N74" s="115"/>
       <c r="O74" s="117"/>
       <c r="P74" s="115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q74" s="115"/>
       <c r="R74" s="115"/>
@@ -14615,10 +14615,10 @@
       <c r="X74" s="115"/>
       <c r="Y74" s="115"/>
       <c r="Z74" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA74" s="115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB74" s="115"/>
       <c r="AC74" s="115"/>
@@ -14658,7 +14658,7 @@
       <c r="N75" s="115"/>
       <c r="O75" s="117"/>
       <c r="P75" s="115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q75" s="115"/>
       <c r="R75" s="115"/>
@@ -14670,10 +14670,10 @@
       <c r="X75" s="115"/>
       <c r="Y75" s="115"/>
       <c r="Z75" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA75" s="115" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB75" s="115"/>
       <c r="AC75" s="115"/>
@@ -14712,7 +14712,7 @@
       <c r="M76" s="115"/>
       <c r="N76" s="115"/>
       <c r="O76" s="117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P76" s="115"/>
       <c r="Q76" s="115"/>
@@ -14764,7 +14764,7 @@
       <c r="N77" s="115"/>
       <c r="O77" s="117"/>
       <c r="P77" s="115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q77" s="115"/>
       <c r="R77" s="115"/>
@@ -14776,10 +14776,10 @@
       <c r="X77" s="115"/>
       <c r="Y77" s="115"/>
       <c r="Z77" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA77" s="115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB77" s="115"/>
       <c r="AC77" s="115"/>
@@ -14819,7 +14819,7 @@
       <c r="N78" s="115"/>
       <c r="O78" s="117"/>
       <c r="P78" s="115" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q78" s="115"/>
       <c r="R78" s="115"/>
@@ -14831,10 +14831,10 @@
       <c r="X78" s="115"/>
       <c r="Y78" s="115"/>
       <c r="Z78" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA78" s="115" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB78" s="115"/>
       <c r="AC78" s="115"/>
@@ -14874,7 +14874,7 @@
       <c r="N79" s="115"/>
       <c r="O79" s="117"/>
       <c r="P79" s="115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q79" s="115"/>
       <c r="R79" s="115"/>
@@ -14886,10 +14886,10 @@
       <c r="X79" s="115"/>
       <c r="Y79" s="115"/>
       <c r="Z79" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA79" s="115" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AB79" s="115"/>
       <c r="AC79" s="115"/>
@@ -14929,7 +14929,7 @@
       <c r="N80" s="115"/>
       <c r="O80" s="117"/>
       <c r="P80" s="115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q80" s="115"/>
       <c r="R80" s="115"/>
@@ -14941,10 +14941,10 @@
       <c r="X80" s="115"/>
       <c r="Y80" s="115"/>
       <c r="Z80" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA80" s="115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB80" s="115"/>
       <c r="AC80" s="115"/>
@@ -14984,7 +14984,7 @@
       <c r="N81" s="115"/>
       <c r="O81" s="117"/>
       <c r="P81" s="115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q81" s="115"/>
       <c r="R81" s="115"/>
@@ -14996,10 +14996,10 @@
       <c r="X81" s="115"/>
       <c r="Y81" s="115"/>
       <c r="Z81" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA81" s="115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB81" s="115"/>
       <c r="AC81" s="115"/>
@@ -15038,7 +15038,7 @@
       <c r="M82" s="115"/>
       <c r="N82" s="115"/>
       <c r="O82" s="117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P82" s="115"/>
       <c r="Q82" s="115"/>
@@ -15090,7 +15090,7 @@
       <c r="N83" s="115"/>
       <c r="O83" s="117"/>
       <c r="P83" s="115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q83" s="115"/>
       <c r="R83" s="115"/>
@@ -15102,10 +15102,10 @@
       <c r="X83" s="115"/>
       <c r="Y83" s="115"/>
       <c r="Z83" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA83" s="115" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB83" s="115"/>
       <c r="AC83" s="115"/>
@@ -15145,7 +15145,7 @@
       <c r="N84" s="115"/>
       <c r="O84" s="117"/>
       <c r="P84" s="115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q84" s="115"/>
       <c r="R84" s="115"/>
@@ -15157,10 +15157,10 @@
       <c r="X84" s="115"/>
       <c r="Y84" s="115"/>
       <c r="Z84" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA84" s="118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB84" s="115"/>
       <c r="AC84" s="115"/>
@@ -15247,7 +15247,7 @@
       <c r="L86" s="73"/>
       <c r="M86" s="75"/>
       <c r="N86" s="98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P86" s="98"/>
       <c r="Q86" s="98"/>
@@ -15298,7 +15298,7 @@
       <c r="M87" s="23"/>
       <c r="N87" s="23"/>
       <c r="O87" s="98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P87" s="98"/>
       <c r="Q87" s="98"/>
@@ -15310,10 +15310,10 @@
       <c r="W87" s="98"/>
       <c r="X87" s="98"/>
       <c r="Z87" s="98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA87" s="101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB87" s="98"/>
       <c r="AC87" s="98"/>
@@ -15348,7 +15348,7 @@
       <c r="M88" s="23"/>
       <c r="N88" s="23"/>
       <c r="O88" s="121" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P88" s="121"/>
       <c r="Q88" s="121"/>
@@ -15361,10 +15361,10 @@
       <c r="X88" s="121"/>
       <c r="Y88" s="122"/>
       <c r="Z88" s="121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA88" s="120" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB88" s="119"/>
       <c r="AC88" s="119"/>
@@ -15399,7 +15399,7 @@
       <c r="M89" s="23"/>
       <c r="N89" s="23"/>
       <c r="O89" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P89" s="98"/>
       <c r="Q89" s="98"/>
@@ -15412,7 +15412,7 @@
       <c r="X89" s="116"/>
       <c r="Y89" s="111"/>
       <c r="Z89" s="116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA89" s="116"/>
       <c r="AB89" s="116"/>
@@ -15427,7 +15427,7 @@
       <c r="AK89" s="116"/>
       <c r="AL89" s="100"/>
       <c r="AM89" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN89" s="23"/>
       <c r="AO89" s="23"/>
@@ -15454,7 +15454,7 @@
       <c r="M90" s="115"/>
       <c r="N90" s="115"/>
       <c r="O90" s="116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P90" s="116"/>
       <c r="Q90" s="116"/>
@@ -15466,10 +15466,10 @@
       <c r="W90" s="116"/>
       <c r="X90" s="116"/>
       <c r="Z90" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA90" s="101" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB90" s="116"/>
       <c r="AC90" s="116"/>
@@ -15503,7 +15503,7 @@
       <c r="M91" s="75"/>
       <c r="N91" s="75"/>
       <c r="O91" s="98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P91" s="98"/>
       <c r="Q91" s="98"/>
@@ -15515,7 +15515,7 @@
       <c r="W91" s="98"/>
       <c r="X91" s="98"/>
       <c r="Z91" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA91" s="98"/>
       <c r="AB91" s="98"/>
@@ -15525,7 +15525,7 @@
       <c r="AK91" s="98"/>
       <c r="AL91" s="100"/>
       <c r="AM91" s="98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AN91" s="75"/>
       <c r="AO91" s="75"/>
@@ -15552,7 +15552,7 @@
       <c r="M92" s="75"/>
       <c r="N92" s="75"/>
       <c r="O92" s="98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P92" s="98"/>
       <c r="Q92" s="98"/>
@@ -15564,10 +15564,10 @@
       <c r="W92" s="98"/>
       <c r="X92" s="98"/>
       <c r="Z92" s="98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA92" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AB92" s="98"/>
       <c r="AC92" s="98"/>
@@ -15576,7 +15576,7 @@
       <c r="AK92" s="98"/>
       <c r="AL92" s="100"/>
       <c r="AM92" s="98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN92" s="75"/>
       <c r="AO92" s="75"/>
@@ -15603,7 +15603,7 @@
       <c r="M93" s="75"/>
       <c r="N93" s="75"/>
       <c r="O93" s="98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P93" s="98"/>
       <c r="Q93" s="98"/>
@@ -15615,10 +15615,10 @@
       <c r="W93" s="98"/>
       <c r="X93" s="98"/>
       <c r="Z93" s="98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA93" s="98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB93" s="98"/>
       <c r="AC93" s="98"/>
@@ -15627,7 +15627,7 @@
       <c r="AK93" s="98"/>
       <c r="AL93" s="100"/>
       <c r="AM93" s="98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AN93" s="75"/>
       <c r="AO93" s="75"/>
@@ -15679,7 +15679,7 @@
       <c r="L95" s="73"/>
       <c r="M95" s="75"/>
       <c r="N95" s="98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM95" s="75"/>
       <c r="AN95" s="75"/>
@@ -15707,7 +15707,7 @@
       <c r="M96" s="115"/>
       <c r="N96" s="115"/>
       <c r="O96" s="117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM96" s="115"/>
       <c r="AN96" s="115"/>
@@ -15735,7 +15735,7 @@
       <c r="M97" s="115"/>
       <c r="N97" s="115"/>
       <c r="O97" s="117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AM97" s="115"/>
       <c r="AN97" s="115"/>
@@ -15763,7 +15763,7 @@
       <c r="M98" s="115"/>
       <c r="N98" s="115"/>
       <c r="O98" s="117" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM98" s="115"/>
       <c r="AN98" s="115"/>
@@ -15791,7 +15791,7 @@
       <c r="M99" s="115"/>
       <c r="N99" s="115"/>
       <c r="O99" s="117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM99" s="115"/>
       <c r="AN99" s="115"/>
@@ -15819,7 +15819,7 @@
       <c r="M100" s="75"/>
       <c r="N100" s="75"/>
       <c r="O100" s="117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM100" s="75"/>
       <c r="AN100" s="75"/>
@@ -15847,7 +15847,7 @@
       <c r="M101" s="75"/>
       <c r="N101" s="75"/>
       <c r="O101" s="117" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AM101" s="75"/>
       <c r="AN101" s="75"/>
@@ -15875,7 +15875,7 @@
       <c r="M102" s="75"/>
       <c r="N102" s="75"/>
       <c r="O102" s="117" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM102" s="75"/>
       <c r="AN102" s="75"/>
@@ -15927,7 +15927,7 @@
       <c r="L104" s="73"/>
       <c r="M104" s="75"/>
       <c r="N104" s="98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM104" s="75"/>
       <c r="AN104" s="75"/>
@@ -15955,7 +15955,7 @@
       <c r="M105" s="75"/>
       <c r="N105" s="75"/>
       <c r="O105" s="117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM105" s="75"/>
       <c r="AN105" s="75"/>
@@ -15983,7 +15983,7 @@
       <c r="M106" s="75"/>
       <c r="N106" s="75"/>
       <c r="O106" s="111" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AM106" s="75"/>
       <c r="AN106" s="75"/>
@@ -16034,7 +16034,7 @@
       <c r="K108" s="112"/>
       <c r="L108" s="113"/>
       <c r="M108" s="112" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N108" s="112"/>
       <c r="O108" s="112"/>
@@ -16085,7 +16085,7 @@
       <c r="K109" s="112"/>
       <c r="L109" s="113"/>
       <c r="N109" s="117" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P109" s="117"/>
       <c r="Q109" s="117"/>
@@ -16134,7 +16134,7 @@
       <c r="K110" s="112"/>
       <c r="L110" s="113"/>
       <c r="O110" s="117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P110" s="117"/>
       <c r="Q110" s="117"/>
@@ -16183,7 +16183,7 @@
       <c r="K111" s="112"/>
       <c r="L111" s="113"/>
       <c r="O111" s="117" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P111" s="117"/>
       <c r="Q111" s="117"/>
@@ -16232,7 +16232,7 @@
       <c r="K112" s="112"/>
       <c r="L112" s="113"/>
       <c r="O112" s="117" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P112" s="117"/>
       <c r="Q112" s="117"/>
@@ -16281,7 +16281,7 @@
       <c r="K113" s="112"/>
       <c r="L113" s="113"/>
       <c r="O113" s="117" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P113" s="117"/>
       <c r="Q113" s="117"/>
@@ -16377,7 +16377,7 @@
       <c r="K115" s="112"/>
       <c r="L115" s="113"/>
       <c r="N115" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P115" s="117"/>
       <c r="Q115" s="117"/>
@@ -16426,7 +16426,7 @@
       <c r="K116" s="112"/>
       <c r="L116" s="113"/>
       <c r="O116" s="117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P116" s="117"/>
       <c r="Q116" s="117"/>
@@ -16475,7 +16475,7 @@
       <c r="K117" s="112"/>
       <c r="L117" s="113"/>
       <c r="O117" s="117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P117" s="115"/>
       <c r="Q117" s="115"/>
@@ -16527,7 +16527,7 @@
       <c r="N118" s="115"/>
       <c r="O118" s="117"/>
       <c r="P118" s="115" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q118" s="115"/>
       <c r="R118" s="115"/>
@@ -16539,10 +16539,10 @@
       <c r="X118" s="115"/>
       <c r="Y118" s="115"/>
       <c r="Z118" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA118" s="115" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB118" s="115"/>
       <c r="AC118" s="115"/>
@@ -16582,7 +16582,7 @@
       <c r="N119" s="115"/>
       <c r="O119" s="117"/>
       <c r="P119" s="115" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q119" s="115"/>
       <c r="R119" s="115"/>
@@ -16594,10 +16594,10 @@
       <c r="X119" s="115"/>
       <c r="Y119" s="115"/>
       <c r="Z119" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA119" s="115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB119" s="115"/>
       <c r="AC119" s="115"/>
@@ -16636,7 +16636,7 @@
       <c r="M120" s="115"/>
       <c r="N120" s="115"/>
       <c r="O120" s="117" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P120" s="115"/>
       <c r="Q120" s="115"/>
@@ -16688,7 +16688,7 @@
       <c r="N121" s="115"/>
       <c r="O121" s="117"/>
       <c r="P121" s="115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q121" s="115"/>
       <c r="R121" s="115"/>
@@ -16700,10 +16700,10 @@
       <c r="X121" s="115"/>
       <c r="Y121" s="115"/>
       <c r="Z121" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA121" s="115" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB121" s="115"/>
       <c r="AC121" s="115"/>
@@ -16743,7 +16743,7 @@
       <c r="N122" s="115"/>
       <c r="O122" s="117"/>
       <c r="P122" s="115" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q122" s="115"/>
       <c r="R122" s="115"/>
@@ -16755,10 +16755,10 @@
       <c r="X122" s="115"/>
       <c r="Y122" s="115"/>
       <c r="Z122" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA122" s="115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB122" s="115"/>
       <c r="AC122" s="115"/>
@@ -16798,7 +16798,7 @@
       <c r="N123" s="115"/>
       <c r="O123" s="117"/>
       <c r="P123" s="115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q123" s="115"/>
       <c r="R123" s="115"/>
@@ -16810,10 +16810,10 @@
       <c r="X123" s="115"/>
       <c r="Y123" s="115"/>
       <c r="Z123" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA123" s="115" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB123" s="115"/>
       <c r="AC123" s="115"/>
@@ -16853,7 +16853,7 @@
       <c r="N124" s="115"/>
       <c r="O124" s="117"/>
       <c r="P124" s="115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q124" s="115"/>
       <c r="R124" s="115"/>
@@ -16865,10 +16865,10 @@
       <c r="X124" s="115"/>
       <c r="Y124" s="115"/>
       <c r="Z124" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA124" s="115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB124" s="115"/>
       <c r="AC124" s="115"/>
@@ -16908,7 +16908,7 @@
       <c r="N125" s="115"/>
       <c r="O125" s="117"/>
       <c r="P125" s="115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q125" s="115"/>
       <c r="R125" s="115"/>
@@ -16920,10 +16920,10 @@
       <c r="X125" s="115"/>
       <c r="Y125" s="115"/>
       <c r="Z125" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA125" s="115" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB125" s="115"/>
       <c r="AC125" s="115"/>
@@ -16962,7 +16962,7 @@
       <c r="M126" s="115"/>
       <c r="N126" s="115"/>
       <c r="O126" s="117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P126" s="115"/>
       <c r="Q126" s="115"/>
@@ -17014,7 +17014,7 @@
       <c r="N127" s="115"/>
       <c r="O127" s="117"/>
       <c r="P127" s="115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q127" s="115"/>
       <c r="R127" s="115"/>
@@ -17026,10 +17026,10 @@
       <c r="X127" s="115"/>
       <c r="Y127" s="115"/>
       <c r="Z127" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA127" s="115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB127" s="115"/>
       <c r="AC127" s="115"/>
@@ -17069,7 +17069,7 @@
       <c r="N128" s="115"/>
       <c r="O128" s="117"/>
       <c r="P128" s="115" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q128" s="115"/>
       <c r="R128" s="115"/>
@@ -17081,10 +17081,10 @@
       <c r="X128" s="115"/>
       <c r="Y128" s="115"/>
       <c r="Z128" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA128" s="115" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB128" s="115"/>
       <c r="AC128" s="115"/>
@@ -17124,7 +17124,7 @@
       <c r="N129" s="115"/>
       <c r="O129" s="117"/>
       <c r="P129" s="115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q129" s="115"/>
       <c r="R129" s="115"/>
@@ -17136,10 +17136,10 @@
       <c r="X129" s="115"/>
       <c r="Y129" s="115"/>
       <c r="Z129" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA129" s="115" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AB129" s="115"/>
       <c r="AC129" s="115"/>
@@ -17179,7 +17179,7 @@
       <c r="N130" s="115"/>
       <c r="O130" s="117"/>
       <c r="P130" s="115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q130" s="115"/>
       <c r="R130" s="115"/>
@@ -17191,10 +17191,10 @@
       <c r="X130" s="115"/>
       <c r="Y130" s="115"/>
       <c r="Z130" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA130" s="115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB130" s="115"/>
       <c r="AC130" s="115"/>
@@ -17234,7 +17234,7 @@
       <c r="N131" s="115"/>
       <c r="O131" s="117"/>
       <c r="P131" s="115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q131" s="115"/>
       <c r="R131" s="115"/>
@@ -17246,10 +17246,10 @@
       <c r="X131" s="115"/>
       <c r="Y131" s="115"/>
       <c r="Z131" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA131" s="115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB131" s="115"/>
       <c r="AC131" s="115"/>
@@ -17336,7 +17336,7 @@
       <c r="L133" s="113"/>
       <c r="M133" s="115"/>
       <c r="N133" s="116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P133" s="116"/>
       <c r="Q133" s="116"/>
@@ -17387,7 +17387,7 @@
       <c r="M134" s="112"/>
       <c r="N134" s="112"/>
       <c r="O134" s="116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P134" s="116"/>
       <c r="Q134" s="116"/>
@@ -17399,10 +17399,10 @@
       <c r="W134" s="116"/>
       <c r="X134" s="116"/>
       <c r="Z134" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA134" s="101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB134" s="116"/>
       <c r="AC134" s="116"/>
@@ -17437,7 +17437,7 @@
       <c r="M135" s="112"/>
       <c r="N135" s="112"/>
       <c r="O135" s="116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P135" s="116"/>
       <c r="Q135" s="116"/>
@@ -17449,10 +17449,10 @@
       <c r="W135" s="116"/>
       <c r="X135" s="116"/>
       <c r="Z135" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA135" s="120" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB135" s="119"/>
       <c r="AC135" s="119"/>
@@ -17487,7 +17487,7 @@
       <c r="M136" s="112"/>
       <c r="N136" s="112"/>
       <c r="O136" s="116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P136" s="116"/>
       <c r="Q136" s="116"/>
@@ -17499,7 +17499,7 @@
       <c r="W136" s="116"/>
       <c r="X136" s="116"/>
       <c r="Z136" s="116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA136" s="116"/>
       <c r="AB136" s="116"/>
@@ -17511,7 +17511,7 @@
       <c r="AK136" s="116"/>
       <c r="AL136" s="100"/>
       <c r="AM136" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN136" s="112"/>
       <c r="AO136" s="112"/>
@@ -17538,7 +17538,7 @@
       <c r="M137" s="115"/>
       <c r="N137" s="115"/>
       <c r="O137" s="116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P137" s="116"/>
       <c r="Q137" s="116"/>
@@ -17550,10 +17550,10 @@
       <c r="W137" s="116"/>
       <c r="X137" s="116"/>
       <c r="Z137" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA137" s="101" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB137" s="116"/>
       <c r="AC137" s="116"/>
@@ -17587,7 +17587,7 @@
       <c r="M138" s="115"/>
       <c r="N138" s="115"/>
       <c r="O138" s="116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P138" s="116"/>
       <c r="Q138" s="116"/>
@@ -17599,7 +17599,7 @@
       <c r="W138" s="116"/>
       <c r="X138" s="116"/>
       <c r="Z138" s="116" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA138" s="116"/>
       <c r="AB138" s="116"/>
@@ -17609,7 +17609,7 @@
       <c r="AK138" s="116"/>
       <c r="AL138" s="100"/>
       <c r="AM138" s="116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AN138" s="115"/>
       <c r="AO138" s="115"/>
@@ -17636,7 +17636,7 @@
       <c r="M139" s="115"/>
       <c r="N139" s="115"/>
       <c r="O139" s="116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P139" s="116"/>
       <c r="Q139" s="116"/>
@@ -17648,10 +17648,10 @@
       <c r="W139" s="116"/>
       <c r="X139" s="116"/>
       <c r="Z139" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA139" s="116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AB139" s="116"/>
       <c r="AC139" s="116"/>
@@ -17660,7 +17660,7 @@
       <c r="AK139" s="116"/>
       <c r="AL139" s="100"/>
       <c r="AM139" s="116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN139" s="115"/>
       <c r="AO139" s="115"/>
@@ -17687,7 +17687,7 @@
       <c r="M140" s="115"/>
       <c r="N140" s="115"/>
       <c r="O140" s="116" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P140" s="116"/>
       <c r="Q140" s="116"/>
@@ -17699,10 +17699,10 @@
       <c r="W140" s="116"/>
       <c r="X140" s="116"/>
       <c r="Z140" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA140" s="116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB140" s="116"/>
       <c r="AC140" s="116"/>
@@ -17711,7 +17711,7 @@
       <c r="AK140" s="116"/>
       <c r="AL140" s="100"/>
       <c r="AM140" s="116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AN140" s="115"/>
       <c r="AO140" s="115"/>
@@ -17763,7 +17763,7 @@
       <c r="L142" s="113"/>
       <c r="M142" s="115"/>
       <c r="N142" s="116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM142" s="115"/>
       <c r="AN142" s="115"/>
@@ -17791,7 +17791,7 @@
       <c r="M143" s="115"/>
       <c r="N143" s="115"/>
       <c r="O143" s="117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM143" s="115"/>
       <c r="AN143" s="115"/>
@@ -17819,7 +17819,7 @@
       <c r="M144" s="115"/>
       <c r="N144" s="115"/>
       <c r="O144" s="117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AM144" s="115"/>
       <c r="AN144" s="115"/>
@@ -17847,7 +17847,7 @@
       <c r="M145" s="115"/>
       <c r="N145" s="115"/>
       <c r="O145" s="117" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM145" s="115"/>
       <c r="AN145" s="115"/>
@@ -17875,7 +17875,7 @@
       <c r="M146" s="115"/>
       <c r="N146" s="115"/>
       <c r="O146" s="117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM146" s="115"/>
       <c r="AN146" s="115"/>
@@ -17903,7 +17903,7 @@
       <c r="M147" s="115"/>
       <c r="N147" s="115"/>
       <c r="O147" s="117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM147" s="115"/>
       <c r="AN147" s="115"/>
@@ -17931,7 +17931,7 @@
       <c r="M148" s="115"/>
       <c r="N148" s="115"/>
       <c r="O148" s="117" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM148" s="115"/>
       <c r="AN148" s="115"/>
@@ -17983,7 +17983,7 @@
       <c r="L150" s="113"/>
       <c r="M150" s="115"/>
       <c r="N150" s="116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM150" s="115"/>
       <c r="AN150" s="115"/>
@@ -18011,7 +18011,7 @@
       <c r="M151" s="115"/>
       <c r="N151" s="115"/>
       <c r="O151" s="117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM151" s="115"/>
       <c r="AN151" s="115"/>
@@ -18039,7 +18039,7 @@
       <c r="M152" s="115"/>
       <c r="N152" s="115"/>
       <c r="O152" s="111" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM152" s="115"/>
       <c r="AN152" s="115"/>
@@ -18113,7 +18113,7 @@
       <c r="J154" s="112"/>
       <c r="K154" s="112"/>
       <c r="L154" s="113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M154" s="112"/>
       <c r="N154" s="112"/>
@@ -18165,7 +18165,7 @@
       <c r="K155" s="112"/>
       <c r="L155" s="113"/>
       <c r="M155" s="112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N155" s="112"/>
       <c r="O155" s="112"/>
@@ -18210,7 +18210,7 @@
       <c r="G156" s="113"/>
       <c r="K156" s="114"/>
       <c r="N156" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O156" s="116"/>
       <c r="P156" s="116"/>
@@ -18247,7 +18247,7 @@
       <c r="G157" s="113"/>
       <c r="K157" s="114"/>
       <c r="O157" s="117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AV157" s="114"/>
     </row>
@@ -18258,7 +18258,7 @@
       <c r="G158" s="113"/>
       <c r="K158" s="114"/>
       <c r="O158" s="117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AV158" s="114"/>
     </row>
@@ -18269,7 +18269,7 @@
       <c r="G159" s="113"/>
       <c r="K159" s="114"/>
       <c r="O159" s="117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AV159" s="114"/>
     </row>
@@ -18280,7 +18280,7 @@
       <c r="G160" s="113"/>
       <c r="K160" s="114"/>
       <c r="O160" s="117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AV160" s="114"/>
     </row>
@@ -18299,7 +18299,7 @@
       <c r="G162" s="113"/>
       <c r="K162" s="114"/>
       <c r="N162" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O162" s="116"/>
       <c r="P162" s="116"/>
@@ -18330,7 +18330,7 @@
       <c r="G163" s="113"/>
       <c r="K163" s="114"/>
       <c r="O163" s="111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AV163" s="114"/>
     </row>
@@ -18341,7 +18341,7 @@
       <c r="G164" s="113"/>
       <c r="K164" s="114"/>
       <c r="O164" s="116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P164" s="116"/>
       <c r="Q164" s="116"/>
@@ -18385,7 +18385,7 @@
       <c r="G166" s="113"/>
       <c r="K166" s="114"/>
       <c r="N166" s="116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AV166" s="114"/>
     </row>
@@ -18396,7 +18396,7 @@
       <c r="G167" s="113"/>
       <c r="K167" s="114"/>
       <c r="O167" s="111" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AV167" s="114"/>
     </row>
@@ -18413,7 +18413,7 @@
       <c r="K168" s="112"/>
       <c r="L168" s="113"/>
       <c r="O168" s="117" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q168" s="117"/>
       <c r="R168" s="117"/>
@@ -18499,7 +18499,7 @@
       <c r="K170" s="112"/>
       <c r="L170" s="113"/>
       <c r="M170" s="112" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N170" s="112"/>
       <c r="O170" s="112"/>
@@ -18544,7 +18544,7 @@
       <c r="G171" s="113"/>
       <c r="K171" s="114"/>
       <c r="N171" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O171" s="116"/>
       <c r="P171" s="116"/>
@@ -18581,7 +18581,7 @@
       <c r="G172" s="113"/>
       <c r="K172" s="114"/>
       <c r="O172" s="117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AV172" s="114"/>
     </row>
@@ -18592,7 +18592,7 @@
       <c r="G173" s="113"/>
       <c r="K173" s="114"/>
       <c r="O173" s="117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AV173" s="114"/>
     </row>
@@ -18603,7 +18603,7 @@
       <c r="G174" s="113"/>
       <c r="K174" s="114"/>
       <c r="O174" s="117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AV174" s="114"/>
     </row>
@@ -18622,7 +18622,7 @@
       <c r="G176" s="113"/>
       <c r="K176" s="114"/>
       <c r="N176" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O176" s="116"/>
       <c r="P176" s="116"/>
@@ -18653,7 +18653,7 @@
       <c r="G177" s="113"/>
       <c r="K177" s="114"/>
       <c r="O177" s="111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AV177" s="114"/>
     </row>
@@ -18664,7 +18664,7 @@
       <c r="G178" s="113"/>
       <c r="K178" s="114"/>
       <c r="O178" s="116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P178" s="116"/>
       <c r="Q178" s="116"/>
@@ -18708,7 +18708,7 @@
       <c r="G180" s="113"/>
       <c r="K180" s="114"/>
       <c r="N180" s="116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AV180" s="114"/>
     </row>
@@ -18719,7 +18719,7 @@
       <c r="G181" s="113"/>
       <c r="K181" s="114"/>
       <c r="O181" s="111" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AV181" s="114"/>
     </row>
@@ -18736,7 +18736,7 @@
       <c r="K182" s="112"/>
       <c r="L182" s="113"/>
       <c r="O182" s="117" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q182" s="117"/>
       <c r="R182" s="117"/>
@@ -18815,7 +18815,7 @@
       <c r="F184" s="114"/>
       <c r="G184" s="113"/>
       <c r="L184" s="113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M184" s="116"/>
       <c r="N184" s="116"/>
@@ -18856,7 +18856,7 @@
       <c r="G185" s="113"/>
       <c r="L185" s="113"/>
       <c r="M185" s="116" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N185" s="116"/>
       <c r="O185" s="116"/>
@@ -18897,7 +18897,7 @@
       <c r="L186" s="113"/>
       <c r="M186" s="116"/>
       <c r="N186" s="116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O186" s="116"/>
       <c r="P186" s="116"/>
@@ -18983,20 +18983,20 @@
         <v>3</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D188" s="21"/>
       <c r="E188" s="21"/>
       <c r="F188" s="22"/>
       <c r="G188" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H188" s="21"/>
       <c r="I188" s="21"/>
       <c r="J188" s="21"/>
       <c r="K188" s="21"/>
       <c r="L188" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M188" s="21"/>
       <c r="N188" s="21"/>
@@ -26559,7 +26559,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="171">
+      <c r="AI1" s="167">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -26575,7 +26575,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="174" t="str">
+      <c r="AT1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -26606,7 +26606,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K17</v>
+        <v>K-17</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -26646,7 +26646,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="174"/>
+      <c r="AT2" s="170"/>
       <c r="AU2" s="177"/>
       <c r="AV2" s="177"/>
       <c r="AW2" s="177"/>
@@ -27024,7 +27024,7 @@
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
@@ -27108,7 +27108,7 @@
       <c r="H11" s="112"/>
       <c r="I11" s="114"/>
       <c r="J11" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
@@ -27122,7 +27122,7 @@
       <c r="R11" s="21"/>
       <c r="S11" s="22"/>
       <c r="T11" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
@@ -27134,7 +27134,7 @@
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="125" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE11" s="126"/>
       <c r="AF11" s="126"/>
@@ -27205,7 +27205,7 @@
     </row>
     <row r="13" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B13" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="73"/>
       <c r="D13" s="23"/>
@@ -27215,7 +27215,7 @@
       <c r="H13" s="23"/>
       <c r="I13" s="74"/>
       <c r="J13" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -27229,7 +27229,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
@@ -27241,7 +27241,7 @@
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
@@ -27315,7 +27315,7 @@
     </row>
     <row r="15" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B15" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="23"/>
@@ -27325,7 +27325,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="74"/>
       <c r="J15" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
@@ -27339,7 +27339,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="22"/>
       <c r="T15" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
@@ -27351,7 +27351,7 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
@@ -27425,7 +27425,7 @@
     </row>
     <row r="17" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="23"/>
@@ -27435,7 +27435,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="74"/>
       <c r="J17" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
@@ -27449,7 +27449,7 @@
       <c r="R17" s="21"/>
       <c r="S17" s="22"/>
       <c r="T17" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
@@ -27461,7 +27461,7 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
       <c r="AD17" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
@@ -27535,7 +27535,7 @@
     </row>
     <row r="19" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="23"/>
@@ -27569,7 +27569,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="21" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B21" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -27667,7 +27667,7 @@
       <c r="R21" s="21"/>
       <c r="S21" s="22"/>
       <c r="T21" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
@@ -27679,7 +27679,7 @@
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AE21" s="21"/>
       <c r="AF21" s="21"/>
@@ -27753,7 +27753,7 @@
     </row>
     <row r="23" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B23" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="76" t="s">
         <v>89</v>
@@ -27777,7 +27777,7 @@
       <c r="R23" s="77"/>
       <c r="S23" s="78"/>
       <c r="T23" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U23" s="77"/>
       <c r="V23" s="77"/>
@@ -31937,7 +31937,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="171">
+      <c r="AI1" s="167">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -31953,7 +31953,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="174" t="str">
+      <c r="AT1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -31984,7 +31984,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K17</v>
+        <v>K-17</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -32024,7 +32024,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="174"/>
+      <c r="AT2" s="170"/>
       <c r="AU2" s="177"/>
       <c r="AV2" s="177"/>
       <c r="AW2" s="177"/>
@@ -32310,7 +32310,7 @@
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
       <c r="C8" s="108" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
@@ -43200,6 +43200,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -43357,22 +43372,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43388,21 +43405,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K17_成形金型別不良分析.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K17_成形金型別不良分析.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577E2FE3-4824-43FA-9AF1-59CDB29DF8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329E5953-2166-431B-9AD3-63F2BFEA7C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="339">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1292,10 +1293,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>日付範囲は最大１ヶ月後です。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>前々月以前の日付を選択する場合</t>
     <rPh sb="0" eb="2">
       <t>マエマエ</t>
@@ -1311,16 +1308,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>センタク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>日付範囲は１ヶ月後を超える場合</t>
-    <rPh sb="10" eb="11">
-      <t>コ</t>
     </rPh>
     <rPh sb="13" eb="15">
       <t>バアイ</t>
@@ -1547,6 +1534,19 @@
   </si>
   <si>
     <t>コードマスタ（区分：コード区分="MOLD"）のコード名称</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>選択した実績日範囲の当該不良件数/不良件数の集計</t>
+    <rPh sb="17" eb="19">
+      <t>フリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウケイ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1913,6 +1913,34 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>検索件数が0件の場合、メッセージを表示して、検索処理を終止する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>集計項目</t>
     <rPh sb="2" eb="4">
       <t>コウモク</t>
@@ -2214,6 +2242,22 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>選択した実績日範囲の当該不良件数の集計を表示する</t>
+    <rPh sb="10" eb="12">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">・選択した実績日範囲の日毎の列数分出力し、表示日の当該不良件数を表示、最大一ヶ月
 </t>
@@ -2240,111 +2284,86 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・実績管理データ.作業年月日</t>
-    <phoneticPr fontId="19"/>
+    <t>K-17</t>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・実績管理データ.理由コード</t>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>検索結果１</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
+    <t>・実績日(From)から、実績日(To)まで、日付別データを取得する。</t>
+    <rPh sb="1" eb="3">
+      <t>ジッセキ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ベツ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>&lt;テーブル関係&gt;</t>
-    <rPh sb="5" eb="7">
-      <t>カンケイ</t>
+    <t>SUM(CASE WHEN 実績管理データ.作業年月日=実績日 THEN 1 ELSE 0 END) AS 当該実績日に対するタイトル名</t>
+    <rPh sb="51" eb="53">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>&lt;検索項目&gt;</t>
-    <rPh sb="1" eb="3">
+    <t>※設定された日付範囲によって、検索項目の列数、タイトル名を決定する。日付別データの最大列数は31となる。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>ケンサク</t>
     </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="17" eb="19">
       <t>コウモク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>レツスウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>レツスウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・COUNT(*) AS 数量</t>
-    <rPh sb="13" eb="15">
-      <t>スウリョウ</t>
+    <t>日付範囲は１ヶ月を超える場合</t>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>検索結果１</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・日付別の数量</t>
-    <rPh sb="1" eb="3">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>PIVOT (SUM(数量) FOR 検索結果１.登録日 IN (画面.実績日(始点)から、画面.実績日(終点)までの日付) AS 結果</t>
-    <rPh sb="0" eb="2">
-      <t>フリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ヒヅケ</t>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・結果.品名略称</t>
-    <rPh sb="1" eb="3">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒンメイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リャクショウ</t>
-    </rPh>
+    <t>日付範囲は最大１ヶ月です。</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・結果.判定理由</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>・結果.品名略称</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>・結果.判定理由</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・結果.コード名称</t>
-    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>合計、日付別の数量</t>
@@ -2357,39 +2376,6 @@
     <rPh sb="7" eb="9">
       <t>スウリョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>選択した実績日範囲の当該不良の件数/不良総件数</t>
-    <rPh sb="18" eb="20">
-      <t>フリョウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>選択した実績日範囲の当該不良件数の集計</t>
-    <rPh sb="10" eb="12">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>フリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュウケイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>K-17</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -4380,16 +4366,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>91</xdr:col>
-      <xdr:colOff>112924</xdr:colOff>
+      <xdr:colOff>103400</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>199250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35AECEE-C823-4865-BE66-4BA12C658D99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC3B988-00BD-4281-BD63-A4C19C29B150}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4406,7 +4392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="1095375"/>
-          <a:ext cx="11009524" cy="6200000"/>
+          <a:ext cx="11000000" cy="6200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7468,7 +7454,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="36" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
@@ -8335,7 +8321,7 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
@@ -8512,7 +8498,7 @@
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AJ33" s="11"/>
       <c r="AK33" s="11"/>
@@ -8537,11 +8523,11 @@
     <row r="34" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G34" s="9"/>
       <c r="J34" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N34" s="9"/>
       <c r="P34" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -8561,7 +8547,7 @@
       <c r="AG34" s="9"/>
       <c r="AH34" s="9"/>
       <c r="AI34" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AJ34" s="11"/>
       <c r="AK34" s="11"/>
@@ -9123,7 +9109,7 @@
       <c r="AK47" s="165"/>
       <c r="AL47" s="166"/>
       <c r="AM47" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN47" s="87"/>
       <c r="AO47" s="87"/>
@@ -9169,7 +9155,7 @@
       <c r="I48" s="89"/>
       <c r="J48" s="97"/>
       <c r="K48" s="96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L48" s="89"/>
       <c r="M48" s="89"/>
@@ -9247,7 +9233,7 @@
       <c r="I49" s="89"/>
       <c r="J49" s="110"/>
       <c r="K49" s="109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -9394,7 +9380,7 @@
       </c>
       <c r="C51" s="174"/>
       <c r="D51" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" s="89"/>
       <c r="F51" s="89"/>
@@ -9403,7 +9389,7 @@
       <c r="I51" s="89"/>
       <c r="J51" s="110"/>
       <c r="K51" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L51" s="89"/>
       <c r="M51" s="89"/>
@@ -9472,7 +9458,7 @@
       </c>
       <c r="C52" s="174"/>
       <c r="D52" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E52" s="89"/>
       <c r="F52" s="89"/>
@@ -9481,7 +9467,7 @@
       <c r="I52" s="89"/>
       <c r="J52" s="110"/>
       <c r="K52" s="109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L52" s="89"/>
       <c r="M52" s="89"/>
@@ -10208,7 +10194,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>138</v>
@@ -10244,7 +10230,7 @@
         <v>33</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -10386,13 +10372,13 @@
         <v>160</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="123" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F15" s="123" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>117</v>
@@ -10404,13 +10390,13 @@
         <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>158</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>34</v>
@@ -10435,13 +10421,13 @@
         <v>161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>117</v>
@@ -10453,13 +10439,13 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>158</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>34</v>
@@ -10536,7 +10522,7 @@
         <v>141</v>
       </c>
       <c r="F18" s="123" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G18" s="43" t="s">
         <v>35</v>
@@ -10560,13 +10546,13 @@
         <v>291</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>33</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>33</v>
@@ -10585,7 +10571,7 @@
         <v>164</v>
       </c>
       <c r="F19" s="123" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>143</v>
@@ -10603,7 +10589,7 @@
         <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>33</v>
@@ -10658,7 +10644,7 @@
         <v>47</v>
       </c>
       <c r="N20" s="124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>33</v>
@@ -10839,7 +10825,7 @@
         <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>45</v>
@@ -10869,7 +10855,7 @@
         <v>34</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>34</v>
@@ -10888,7 +10874,7 @@
         <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>45</v>
@@ -10918,7 +10904,7 @@
         <v>34</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>34</v>
@@ -10937,7 +10923,7 @@
         <v>149</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>45</v>
@@ -10967,7 +10953,7 @@
         <v>34</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>34</v>
@@ -11019,7 +11005,7 @@
         <v>34</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>345</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11068,7 +11054,7 @@
         <v>34</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="57" x14ac:dyDescent="0.15">
@@ -11117,7 +11103,7 @@
         <v>34</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11214,7 +11200,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ329"/>
+  <dimension ref="A1:AZ304"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -11735,7 +11721,7 @@
       <c r="G12" s="113"/>
       <c r="L12" s="130"/>
       <c r="M12" s="131" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N12" s="131"/>
       <c r="O12" s="131"/>
@@ -11897,7 +11883,7 @@
       <c r="G16" s="113"/>
       <c r="L16" s="130"/>
       <c r="M16" s="131" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N16" s="131"/>
       <c r="O16" s="131"/>
@@ -12123,7 +12109,7 @@
         <v>169</v>
       </c>
       <c r="Z21" s="131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA21" s="131"/>
       <c r="AB21" s="131"/>
@@ -12168,7 +12154,7 @@
         <v>169</v>
       </c>
       <c r="Z22" s="131" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA22" s="131"/>
       <c r="AB22" s="131"/>
@@ -12213,7 +12199,7 @@
         <v>169</v>
       </c>
       <c r="Z23" s="131" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AA23" s="131"/>
       <c r="AB23" s="131"/>
@@ -12258,7 +12244,7 @@
         <v>169</v>
       </c>
       <c r="Z24" s="131" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AA24" s="131"/>
       <c r="AB24" s="131"/>
@@ -12303,7 +12289,7 @@
         <v>169</v>
       </c>
       <c r="Z25" s="131" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA25" s="131"/>
       <c r="AB25" s="131"/>
@@ -12370,7 +12356,7 @@
       <c r="G27" s="113"/>
       <c r="L27" s="130"/>
       <c r="M27" s="131" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N27" s="131"/>
       <c r="O27" s="131"/>
@@ -12580,7 +12566,7 @@
       <c r="G32" s="113"/>
       <c r="L32" s="130"/>
       <c r="M32" s="131" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N32" s="131"/>
       <c r="O32" s="131"/>
@@ -12622,7 +12608,7 @@
       <c r="L33" s="130"/>
       <c r="M33" s="134"/>
       <c r="N33" s="131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O33" s="131"/>
       <c r="P33" s="131"/>
@@ -12742,7 +12728,7 @@
       <c r="G36" s="113"/>
       <c r="L36" s="130"/>
       <c r="M36" s="131" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N36" s="131"/>
       <c r="O36" s="131"/>
@@ -12882,7 +12868,7 @@
         <v>169</v>
       </c>
       <c r="Z39" s="131" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA39" s="131"/>
       <c r="AB39" s="131"/>
@@ -12927,7 +12913,7 @@
         <v>169</v>
       </c>
       <c r="Z40" s="131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AA40" s="131"/>
       <c r="AB40" s="131"/>
@@ -12972,7 +12958,7 @@
         <v>169</v>
       </c>
       <c r="Z41" s="131" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AA41" s="131"/>
       <c r="AB41" s="131"/>
@@ -13017,7 +13003,7 @@
         <v>169</v>
       </c>
       <c r="Z42" s="131" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AA42" s="131"/>
       <c r="AB42" s="131"/>
@@ -13062,7 +13048,7 @@
         <v>169</v>
       </c>
       <c r="Z43" s="131" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA43" s="131"/>
       <c r="AB43" s="131"/>
@@ -13129,7 +13115,7 @@
       <c r="G45" s="113"/>
       <c r="L45" s="130"/>
       <c r="M45" s="131" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N45" s="131"/>
       <c r="O45" s="131"/>
@@ -13233,7 +13219,7 @@
         <v>169</v>
       </c>
       <c r="Z47" s="131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA47" s="131"/>
       <c r="AB47" s="131"/>
@@ -13524,7 +13510,7 @@
       <c r="J53" s="112"/>
       <c r="K53" s="112"/>
       <c r="L53" s="113" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="M53" s="112"/>
       <c r="N53" s="112"/>
@@ -13627,7 +13613,7 @@
       <c r="K55" s="23"/>
       <c r="L55" s="73"/>
       <c r="N55" s="117" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P55" s="99"/>
       <c r="Q55" s="99"/>
@@ -13676,7 +13662,7 @@
       <c r="K56" s="23"/>
       <c r="L56" s="73"/>
       <c r="O56" s="99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P56" s="99"/>
       <c r="Q56" s="99"/>
@@ -13725,7 +13711,7 @@
       <c r="K57" s="112"/>
       <c r="L57" s="113"/>
       <c r="O57" s="117" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P57" s="117"/>
       <c r="Q57" s="117"/>
@@ -13774,7 +13760,7 @@
       <c r="K58" s="112"/>
       <c r="L58" s="113"/>
       <c r="O58" s="117" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P58" s="117"/>
       <c r="Q58" s="117"/>
@@ -13822,9 +13808,7 @@
       <c r="J59" s="112"/>
       <c r="K59" s="112"/>
       <c r="L59" s="113"/>
-      <c r="O59" s="117" t="s">
-        <v>330</v>
-      </c>
+      <c r="O59" s="117"/>
       <c r="P59" s="117"/>
       <c r="Q59" s="117"/>
       <c r="R59" s="117"/>
@@ -13872,7 +13856,7 @@
       <c r="K60" s="112"/>
       <c r="L60" s="113"/>
       <c r="O60" s="117" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P60" s="117"/>
       <c r="Q60" s="117"/>
@@ -13921,7 +13905,9 @@
       <c r="K61" s="112"/>
       <c r="L61" s="113"/>
       <c r="O61" s="117"/>
-      <c r="P61" s="117"/>
+      <c r="P61" s="117" t="s">
+        <v>334</v>
+      </c>
       <c r="Q61" s="117"/>
       <c r="R61" s="117"/>
       <c r="S61" s="117"/>
@@ -13955,54 +13941,54 @@
       <c r="AU61" s="112"/>
       <c r="AV61" s="114"/>
     </row>
-    <row r="62" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="73"/>
-      <c r="N62" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="P62" s="99"/>
-      <c r="Q62" s="99"/>
-      <c r="R62" s="99"/>
-      <c r="S62" s="99"/>
-      <c r="T62" s="99"/>
-      <c r="U62" s="99"/>
-      <c r="V62" s="99"/>
-      <c r="W62" s="99"/>
-      <c r="X62" s="99"/>
-      <c r="Y62" s="99"/>
-      <c r="Z62" s="75"/>
-      <c r="AA62" s="75"/>
-      <c r="AB62" s="75"/>
-      <c r="AC62" s="75"/>
-      <c r="AD62" s="75"/>
-      <c r="AE62" s="75"/>
-      <c r="AF62" s="75"/>
-      <c r="AG62" s="75"/>
-      <c r="AH62" s="75"/>
-      <c r="AI62" s="75"/>
-      <c r="AJ62" s="75"/>
-      <c r="AK62" s="75"/>
-      <c r="AL62" s="75"/>
-      <c r="AM62" s="75"/>
-      <c r="AN62" s="75"/>
-      <c r="AO62" s="75"/>
-      <c r="AP62" s="75"/>
-      <c r="AQ62" s="23"/>
-      <c r="AR62" s="23"/>
-      <c r="AS62" s="23"/>
-      <c r="AT62" s="23"/>
-      <c r="AU62" s="23"/>
-      <c r="AV62" s="74"/>
+    <row r="62" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B62" s="113"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="112"/>
+      <c r="I62" s="112"/>
+      <c r="J62" s="112"/>
+      <c r="K62" s="112"/>
+      <c r="L62" s="113"/>
+      <c r="O62" s="117"/>
+      <c r="P62" s="117" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q62" s="117"/>
+      <c r="R62" s="117"/>
+      <c r="S62" s="117"/>
+      <c r="T62" s="117"/>
+      <c r="U62" s="117"/>
+      <c r="V62" s="117"/>
+      <c r="W62" s="117"/>
+      <c r="X62" s="117"/>
+      <c r="Y62" s="117"/>
+      <c r="Z62" s="112"/>
+      <c r="AA62" s="112"/>
+      <c r="AB62" s="112"/>
+      <c r="AC62" s="112"/>
+      <c r="AD62" s="112"/>
+      <c r="AE62" s="112"/>
+      <c r="AF62" s="112"/>
+      <c r="AG62" s="112"/>
+      <c r="AH62" s="112"/>
+      <c r="AI62" s="112"/>
+      <c r="AJ62" s="112"/>
+      <c r="AK62" s="112"/>
+      <c r="AL62" s="112"/>
+      <c r="AM62" s="112"/>
+      <c r="AN62" s="112"/>
+      <c r="AO62" s="112"/>
+      <c r="AP62" s="112"/>
+      <c r="AQ62" s="112"/>
+      <c r="AR62" s="112"/>
+      <c r="AS62" s="112"/>
+      <c r="AT62" s="112"/>
+      <c r="AU62" s="112"/>
+      <c r="AV62" s="114"/>
     </row>
     <row r="63" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B63" s="113"/>
@@ -14016,9 +14002,7 @@
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
       <c r="L63" s="113"/>
-      <c r="O63" s="117" t="s">
-        <v>252</v>
-      </c>
+      <c r="O63" s="117"/>
       <c r="P63" s="117"/>
       <c r="Q63" s="117"/>
       <c r="R63" s="117"/>
@@ -14029,23 +14013,23 @@
       <c r="W63" s="117"/>
       <c r="X63" s="117"/>
       <c r="Y63" s="117"/>
-      <c r="Z63" s="115"/>
-      <c r="AA63" s="115"/>
-      <c r="AB63" s="115"/>
-      <c r="AC63" s="115"/>
-      <c r="AD63" s="115"/>
-      <c r="AE63" s="115"/>
-      <c r="AF63" s="115"/>
-      <c r="AG63" s="115"/>
-      <c r="AH63" s="115"/>
-      <c r="AI63" s="115"/>
-      <c r="AJ63" s="115"/>
-      <c r="AK63" s="115"/>
-      <c r="AL63" s="115"/>
-      <c r="AM63" s="115"/>
-      <c r="AN63" s="115"/>
-      <c r="AO63" s="115"/>
-      <c r="AP63" s="115"/>
+      <c r="Z63" s="112"/>
+      <c r="AA63" s="112"/>
+      <c r="AB63" s="112"/>
+      <c r="AC63" s="112"/>
+      <c r="AD63" s="112"/>
+      <c r="AE63" s="112"/>
+      <c r="AF63" s="112"/>
+      <c r="AG63" s="112"/>
+      <c r="AH63" s="112"/>
+      <c r="AI63" s="112"/>
+      <c r="AJ63" s="112"/>
+      <c r="AK63" s="112"/>
+      <c r="AL63" s="112"/>
+      <c r="AM63" s="112"/>
+      <c r="AN63" s="112"/>
+      <c r="AO63" s="112"/>
+      <c r="AP63" s="112"/>
       <c r="AQ63" s="112"/>
       <c r="AR63" s="112"/>
       <c r="AS63" s="112"/>
@@ -14053,54 +14037,54 @@
       <c r="AU63" s="112"/>
       <c r="AV63" s="114"/>
     </row>
-    <row r="64" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B64" s="113"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="112"/>
-      <c r="I64" s="112"/>
-      <c r="J64" s="112"/>
-      <c r="K64" s="112"/>
-      <c r="L64" s="113"/>
-      <c r="O64" s="117" t="s">
-        <v>253</v>
-      </c>
-      <c r="P64" s="115"/>
-      <c r="Q64" s="115"/>
-      <c r="R64" s="115"/>
-      <c r="S64" s="115"/>
-      <c r="T64" s="115"/>
-      <c r="U64" s="115"/>
-      <c r="V64" s="115"/>
-      <c r="W64" s="115"/>
-      <c r="X64" s="115"/>
-      <c r="Y64" s="115"/>
-      <c r="Z64" s="115"/>
-      <c r="AA64" s="115"/>
-      <c r="AB64" s="115"/>
-      <c r="AC64" s="115"/>
-      <c r="AD64" s="115"/>
-      <c r="AE64" s="115"/>
-      <c r="AF64" s="115"/>
-      <c r="AG64" s="115"/>
-      <c r="AH64" s="115"/>
-      <c r="AI64" s="115"/>
-      <c r="AJ64" s="115"/>
-      <c r="AK64" s="115"/>
-      <c r="AL64" s="115"/>
-      <c r="AM64" s="115"/>
-      <c r="AN64" s="115"/>
-      <c r="AO64" s="115"/>
-      <c r="AP64" s="115"/>
-      <c r="AQ64" s="112"/>
-      <c r="AR64" s="112"/>
-      <c r="AS64" s="112"/>
-      <c r="AT64" s="112"/>
-      <c r="AU64" s="112"/>
-      <c r="AV64" s="114"/>
+    <row r="64" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="73"/>
+      <c r="N64" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="99"/>
+      <c r="R64" s="99"/>
+      <c r="S64" s="99"/>
+      <c r="T64" s="99"/>
+      <c r="U64" s="99"/>
+      <c r="V64" s="99"/>
+      <c r="W64" s="99"/>
+      <c r="X64" s="99"/>
+      <c r="Y64" s="99"/>
+      <c r="Z64" s="75"/>
+      <c r="AA64" s="75"/>
+      <c r="AB64" s="75"/>
+      <c r="AC64" s="75"/>
+      <c r="AD64" s="75"/>
+      <c r="AE64" s="75"/>
+      <c r="AF64" s="75"/>
+      <c r="AG64" s="75"/>
+      <c r="AH64" s="75"/>
+      <c r="AI64" s="75"/>
+      <c r="AJ64" s="75"/>
+      <c r="AK64" s="75"/>
+      <c r="AL64" s="75"/>
+      <c r="AM64" s="75"/>
+      <c r="AN64" s="75"/>
+      <c r="AO64" s="75"/>
+      <c r="AP64" s="75"/>
+      <c r="AQ64" s="23"/>
+      <c r="AR64" s="23"/>
+      <c r="AS64" s="23"/>
+      <c r="AT64" s="23"/>
+      <c r="AU64" s="23"/>
+      <c r="AV64" s="74"/>
     </row>
     <row r="65" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B65" s="113"/>
@@ -14114,27 +14098,21 @@
       <c r="J65" s="112"/>
       <c r="K65" s="112"/>
       <c r="L65" s="113"/>
-      <c r="M65" s="115"/>
-      <c r="N65" s="115"/>
-      <c r="O65" s="117"/>
-      <c r="P65" s="115" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q65" s="115"/>
-      <c r="R65" s="115"/>
-      <c r="S65" s="115"/>
-      <c r="T65" s="115"/>
-      <c r="U65" s="115"/>
-      <c r="V65" s="115"/>
-      <c r="W65" s="115"/>
-      <c r="X65" s="115"/>
-      <c r="Y65" s="115"/>
-      <c r="Z65" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA65" s="115" t="s">
-        <v>237</v>
-      </c>
+      <c r="O65" s="117" t="s">
+        <v>251</v>
+      </c>
+      <c r="P65" s="117"/>
+      <c r="Q65" s="117"/>
+      <c r="R65" s="117"/>
+      <c r="S65" s="117"/>
+      <c r="T65" s="117"/>
+      <c r="U65" s="117"/>
+      <c r="V65" s="117"/>
+      <c r="W65" s="117"/>
+      <c r="X65" s="117"/>
+      <c r="Y65" s="117"/>
+      <c r="Z65" s="115"/>
+      <c r="AA65" s="115"/>
       <c r="AB65" s="115"/>
       <c r="AC65" s="115"/>
       <c r="AD65" s="115"/>
@@ -14169,12 +14147,10 @@
       <c r="J66" s="112"/>
       <c r="K66" s="112"/>
       <c r="L66" s="113"/>
-      <c r="M66" s="115"/>
-      <c r="N66" s="115"/>
-      <c r="O66" s="117"/>
-      <c r="P66" s="115" t="s">
-        <v>254</v>
-      </c>
+      <c r="O66" s="117" t="s">
+        <v>252</v>
+      </c>
+      <c r="P66" s="115"/>
       <c r="Q66" s="115"/>
       <c r="R66" s="115"/>
       <c r="S66" s="115"/>
@@ -14184,12 +14160,8 @@
       <c r="W66" s="115"/>
       <c r="X66" s="115"/>
       <c r="Y66" s="115"/>
-      <c r="Z66" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA66" s="115" t="s">
-        <v>238</v>
-      </c>
+      <c r="Z66" s="115"/>
+      <c r="AA66" s="115"/>
       <c r="AB66" s="115"/>
       <c r="AC66" s="115"/>
       <c r="AD66" s="115"/>
@@ -14212,54 +14184,60 @@
       <c r="AU66" s="112"/>
       <c r="AV66" s="114"/>
     </row>
-    <row r="67" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="73"/>
-      <c r="O67" s="99" t="s">
-        <v>201</v>
-      </c>
-      <c r="P67" s="75"/>
-      <c r="Q67" s="75"/>
-      <c r="R67" s="75"/>
-      <c r="S67" s="75"/>
-      <c r="T67" s="75"/>
-      <c r="U67" s="75"/>
-      <c r="V67" s="75"/>
-      <c r="W67" s="75"/>
-      <c r="X67" s="75"/>
-      <c r="Y67" s="75"/>
-      <c r="Z67" s="116"/>
-      <c r="AA67" s="75"/>
-      <c r="AB67" s="75"/>
-      <c r="AC67" s="75"/>
-      <c r="AD67" s="75"/>
-      <c r="AE67" s="75"/>
-      <c r="AF67" s="75"/>
-      <c r="AG67" s="75"/>
-      <c r="AH67" s="75"/>
-      <c r="AI67" s="75"/>
-      <c r="AJ67" s="75"/>
-      <c r="AK67" s="75"/>
-      <c r="AL67" s="75"/>
-      <c r="AM67" s="75"/>
-      <c r="AN67" s="75"/>
-      <c r="AO67" s="75"/>
-      <c r="AP67" s="75"/>
-      <c r="AQ67" s="23"/>
-      <c r="AR67" s="23"/>
-      <c r="AS67" s="23"/>
-      <c r="AT67" s="23"/>
-      <c r="AU67" s="23"/>
-      <c r="AV67" s="74"/>
+    <row r="67" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B67" s="113"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="112"/>
+      <c r="K67" s="112"/>
+      <c r="L67" s="113"/>
+      <c r="M67" s="115"/>
+      <c r="N67" s="115"/>
+      <c r="O67" s="117"/>
+      <c r="P67" s="115" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q67" s="115"/>
+      <c r="R67" s="115"/>
+      <c r="S67" s="115"/>
+      <c r="T67" s="115"/>
+      <c r="U67" s="115"/>
+      <c r="V67" s="115"/>
+      <c r="W67" s="115"/>
+      <c r="X67" s="115"/>
+      <c r="Y67" s="115"/>
+      <c r="Z67" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA67" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB67" s="115"/>
+      <c r="AC67" s="115"/>
+      <c r="AD67" s="115"/>
+      <c r="AE67" s="115"/>
+      <c r="AF67" s="115"/>
+      <c r="AG67" s="115"/>
+      <c r="AH67" s="115"/>
+      <c r="AI67" s="115"/>
+      <c r="AJ67" s="115"/>
+      <c r="AK67" s="115"/>
+      <c r="AL67" s="115"/>
+      <c r="AM67" s="115"/>
+      <c r="AN67" s="115"/>
+      <c r="AO67" s="115"/>
+      <c r="AP67" s="115"/>
+      <c r="AQ67" s="112"/>
+      <c r="AR67" s="112"/>
+      <c r="AS67" s="112"/>
+      <c r="AT67" s="112"/>
+      <c r="AU67" s="112"/>
+      <c r="AV67" s="114"/>
     </row>
     <row r="68" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B68" s="113"/>
@@ -14277,7 +14255,7 @@
       <c r="N68" s="115"/>
       <c r="O68" s="117"/>
       <c r="P68" s="115" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q68" s="115"/>
       <c r="R68" s="115"/>
@@ -14292,7 +14270,7 @@
         <v>169</v>
       </c>
       <c r="AA68" s="115" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="AB68" s="115"/>
       <c r="AC68" s="115"/>
@@ -14328,12 +14306,10 @@
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="73"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="99"/>
-      <c r="P69" s="115" t="s">
-        <v>259</v>
-      </c>
+      <c r="O69" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="P69" s="75"/>
       <c r="Q69" s="75"/>
       <c r="R69" s="75"/>
       <c r="S69" s="75"/>
@@ -14343,12 +14319,8 @@
       <c r="W69" s="75"/>
       <c r="X69" s="75"/>
       <c r="Y69" s="75"/>
-      <c r="Z69" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA69" s="75" t="s">
-        <v>260</v>
-      </c>
+      <c r="Z69" s="116"/>
+      <c r="AA69" s="75"/>
       <c r="AB69" s="75"/>
       <c r="AC69" s="75"/>
       <c r="AD69" s="75"/>
@@ -14385,10 +14357,10 @@
       <c r="L70" s="113"/>
       <c r="M70" s="115"/>
       <c r="N70" s="115"/>
-      <c r="O70" s="117" t="s">
-        <v>279</v>
-      </c>
-      <c r="P70" s="115"/>
+      <c r="O70" s="117"/>
+      <c r="P70" s="115" t="s">
+        <v>256</v>
+      </c>
       <c r="Q70" s="115"/>
       <c r="R70" s="115"/>
       <c r="S70" s="115"/>
@@ -14398,8 +14370,12 @@
       <c r="W70" s="115"/>
       <c r="X70" s="115"/>
       <c r="Y70" s="115"/>
-      <c r="Z70" s="116"/>
-      <c r="AA70" s="115"/>
+      <c r="Z70" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA70" s="115" t="s">
+        <v>257</v>
+      </c>
       <c r="AB70" s="115"/>
       <c r="AC70" s="115"/>
       <c r="AD70" s="115"/>
@@ -14422,60 +14398,60 @@
       <c r="AU70" s="112"/>
       <c r="AV70" s="114"/>
     </row>
-    <row r="71" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B71" s="113"/>
-      <c r="C71" s="113"/>
-      <c r="D71" s="112"/>
-      <c r="E71" s="112"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="113"/>
-      <c r="H71" s="112"/>
-      <c r="I71" s="112"/>
-      <c r="J71" s="112"/>
-      <c r="K71" s="112"/>
-      <c r="L71" s="113"/>
-      <c r="M71" s="115"/>
-      <c r="N71" s="115"/>
-      <c r="O71" s="117"/>
+    <row r="71" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="75"/>
+      <c r="O71" s="99"/>
       <c r="P71" s="115" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q71" s="115"/>
-      <c r="R71" s="115"/>
-      <c r="S71" s="115"/>
-      <c r="T71" s="115"/>
-      <c r="U71" s="115"/>
-      <c r="V71" s="115"/>
-      <c r="W71" s="115"/>
-      <c r="X71" s="115"/>
-      <c r="Y71" s="115"/>
+        <v>258</v>
+      </c>
+      <c r="Q71" s="75"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="75"/>
+      <c r="T71" s="75"/>
+      <c r="U71" s="75"/>
+      <c r="V71" s="75"/>
+      <c r="W71" s="75"/>
+      <c r="X71" s="75"/>
+      <c r="Y71" s="75"/>
       <c r="Z71" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="AA71" s="115" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB71" s="115"/>
-      <c r="AC71" s="115"/>
-      <c r="AD71" s="115"/>
-      <c r="AE71" s="115"/>
-      <c r="AF71" s="115"/>
-      <c r="AG71" s="115"/>
-      <c r="AH71" s="115"/>
-      <c r="AI71" s="115"/>
-      <c r="AJ71" s="115"/>
-      <c r="AK71" s="115"/>
-      <c r="AL71" s="115"/>
-      <c r="AM71" s="115"/>
-      <c r="AN71" s="115"/>
-      <c r="AO71" s="115"/>
-      <c r="AP71" s="115"/>
-      <c r="AQ71" s="112"/>
-      <c r="AR71" s="112"/>
-      <c r="AS71" s="112"/>
-      <c r="AT71" s="112"/>
-      <c r="AU71" s="112"/>
-      <c r="AV71" s="114"/>
+      <c r="AA71" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB71" s="75"/>
+      <c r="AC71" s="75"/>
+      <c r="AD71" s="75"/>
+      <c r="AE71" s="75"/>
+      <c r="AF71" s="75"/>
+      <c r="AG71" s="75"/>
+      <c r="AH71" s="75"/>
+      <c r="AI71" s="75"/>
+      <c r="AJ71" s="75"/>
+      <c r="AK71" s="75"/>
+      <c r="AL71" s="75"/>
+      <c r="AM71" s="75"/>
+      <c r="AN71" s="75"/>
+      <c r="AO71" s="75"/>
+      <c r="AP71" s="75"/>
+      <c r="AQ71" s="23"/>
+      <c r="AR71" s="23"/>
+      <c r="AS71" s="23"/>
+      <c r="AT71" s="23"/>
+      <c r="AU71" s="23"/>
+      <c r="AV71" s="74"/>
     </row>
     <row r="72" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B72" s="113"/>
@@ -14491,10 +14467,10 @@
       <c r="L72" s="113"/>
       <c r="M72" s="115"/>
       <c r="N72" s="115"/>
-      <c r="O72" s="117"/>
-      <c r="P72" s="115" t="s">
-        <v>261</v>
-      </c>
+      <c r="O72" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="P72" s="115"/>
       <c r="Q72" s="115"/>
       <c r="R72" s="115"/>
       <c r="S72" s="115"/>
@@ -14504,12 +14480,8 @@
       <c r="W72" s="115"/>
       <c r="X72" s="115"/>
       <c r="Y72" s="115"/>
-      <c r="Z72" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA72" s="115" t="s">
-        <v>281</v>
-      </c>
+      <c r="Z72" s="116"/>
+      <c r="AA72" s="115"/>
       <c r="AB72" s="115"/>
       <c r="AC72" s="115"/>
       <c r="AD72" s="115"/>
@@ -14548,7 +14520,7 @@
       <c r="N73" s="115"/>
       <c r="O73" s="117"/>
       <c r="P73" s="115" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="Q73" s="115"/>
       <c r="R73" s="115"/>
@@ -14563,7 +14535,7 @@
         <v>169</v>
       </c>
       <c r="AA73" s="115" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AB73" s="115"/>
       <c r="AC73" s="115"/>
@@ -14603,7 +14575,7 @@
       <c r="N74" s="115"/>
       <c r="O74" s="117"/>
       <c r="P74" s="115" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q74" s="115"/>
       <c r="R74" s="115"/>
@@ -14618,7 +14590,7 @@
         <v>169</v>
       </c>
       <c r="AA74" s="115" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AB74" s="115"/>
       <c r="AC74" s="115"/>
@@ -14658,7 +14630,7 @@
       <c r="N75" s="115"/>
       <c r="O75" s="117"/>
       <c r="P75" s="115" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q75" s="115"/>
       <c r="R75" s="115"/>
@@ -14673,7 +14645,7 @@
         <v>169</v>
       </c>
       <c r="AA75" s="115" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AB75" s="115"/>
       <c r="AC75" s="115"/>
@@ -14711,10 +14683,10 @@
       <c r="L76" s="113"/>
       <c r="M76" s="115"/>
       <c r="N76" s="115"/>
-      <c r="O76" s="117" t="s">
-        <v>207</v>
-      </c>
-      <c r="P76" s="115"/>
+      <c r="O76" s="117"/>
+      <c r="P76" s="115" t="s">
+        <v>262</v>
+      </c>
       <c r="Q76" s="115"/>
       <c r="R76" s="115"/>
       <c r="S76" s="115"/>
@@ -14724,8 +14696,12 @@
       <c r="W76" s="115"/>
       <c r="X76" s="115"/>
       <c r="Y76" s="115"/>
-      <c r="Z76" s="116"/>
-      <c r="AA76" s="115"/>
+      <c r="Z76" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA76" s="115" t="s">
+        <v>282</v>
+      </c>
       <c r="AB76" s="115"/>
       <c r="AC76" s="115"/>
       <c r="AD76" s="115"/>
@@ -14764,7 +14740,7 @@
       <c r="N77" s="115"/>
       <c r="O77" s="117"/>
       <c r="P77" s="115" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="Q77" s="115"/>
       <c r="R77" s="115"/>
@@ -14779,7 +14755,7 @@
         <v>169</v>
       </c>
       <c r="AA77" s="115" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="AB77" s="115"/>
       <c r="AC77" s="115"/>
@@ -14817,10 +14793,10 @@
       <c r="L78" s="113"/>
       <c r="M78" s="115"/>
       <c r="N78" s="115"/>
-      <c r="O78" s="117"/>
-      <c r="P78" s="115" t="s">
-        <v>261</v>
-      </c>
+      <c r="O78" s="117" t="s">
+        <v>205</v>
+      </c>
+      <c r="P78" s="115"/>
       <c r="Q78" s="115"/>
       <c r="R78" s="115"/>
       <c r="S78" s="115"/>
@@ -14830,12 +14806,8 @@
       <c r="W78" s="115"/>
       <c r="X78" s="115"/>
       <c r="Y78" s="115"/>
-      <c r="Z78" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA78" s="115" t="s">
-        <v>242</v>
-      </c>
+      <c r="Z78" s="116"/>
+      <c r="AA78" s="115"/>
       <c r="AB78" s="115"/>
       <c r="AC78" s="115"/>
       <c r="AD78" s="115"/>
@@ -14874,7 +14846,7 @@
       <c r="N79" s="115"/>
       <c r="O79" s="117"/>
       <c r="P79" s="115" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="Q79" s="115"/>
       <c r="R79" s="115"/>
@@ -14889,7 +14861,7 @@
         <v>169</v>
       </c>
       <c r="AA79" s="115" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AB79" s="115"/>
       <c r="AC79" s="115"/>
@@ -14929,7 +14901,7 @@
       <c r="N80" s="115"/>
       <c r="O80" s="117"/>
       <c r="P80" s="115" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q80" s="115"/>
       <c r="R80" s="115"/>
@@ -14944,7 +14916,7 @@
         <v>169</v>
       </c>
       <c r="AA80" s="115" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AB80" s="115"/>
       <c r="AC80" s="115"/>
@@ -14984,7 +14956,7 @@
       <c r="N81" s="115"/>
       <c r="O81" s="117"/>
       <c r="P81" s="115" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q81" s="115"/>
       <c r="R81" s="115"/>
@@ -14999,7 +14971,7 @@
         <v>169</v>
       </c>
       <c r="AA81" s="115" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AB81" s="115"/>
       <c r="AC81" s="115"/>
@@ -15037,10 +15009,10 @@
       <c r="L82" s="113"/>
       <c r="M82" s="115"/>
       <c r="N82" s="115"/>
-      <c r="O82" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="P82" s="115"/>
+      <c r="O82" s="117"/>
+      <c r="P82" s="115" t="s">
+        <v>262</v>
+      </c>
       <c r="Q82" s="115"/>
       <c r="R82" s="115"/>
       <c r="S82" s="115"/>
@@ -15050,8 +15022,12 @@
       <c r="W82" s="115"/>
       <c r="X82" s="115"/>
       <c r="Y82" s="115"/>
-      <c r="Z82" s="116"/>
-      <c r="AA82" s="115"/>
+      <c r="Z82" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA82" s="115" t="s">
+        <v>243</v>
+      </c>
       <c r="AB82" s="115"/>
       <c r="AC82" s="115"/>
       <c r="AD82" s="115"/>
@@ -15090,7 +15066,7 @@
       <c r="N83" s="115"/>
       <c r="O83" s="117"/>
       <c r="P83" s="115" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q83" s="115"/>
       <c r="R83" s="115"/>
@@ -15105,7 +15081,7 @@
         <v>169</v>
       </c>
       <c r="AA83" s="115" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="AB83" s="115"/>
       <c r="AC83" s="115"/>
@@ -15143,10 +15119,10 @@
       <c r="L84" s="113"/>
       <c r="M84" s="115"/>
       <c r="N84" s="115"/>
-      <c r="O84" s="117"/>
-      <c r="P84" s="115" t="s">
-        <v>246</v>
-      </c>
+      <c r="O84" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="P84" s="115"/>
       <c r="Q84" s="115"/>
       <c r="R84" s="115"/>
       <c r="S84" s="115"/>
@@ -15156,12 +15132,8 @@
       <c r="W84" s="115"/>
       <c r="X84" s="115"/>
       <c r="Y84" s="115"/>
-      <c r="Z84" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA84" s="118" t="s">
-        <v>267</v>
-      </c>
+      <c r="Z84" s="116"/>
+      <c r="AA84" s="115"/>
       <c r="AB84" s="115"/>
       <c r="AC84" s="115"/>
       <c r="AD84" s="115"/>
@@ -15184,104 +15156,115 @@
       <c r="AU84" s="112"/>
       <c r="AV84" s="114"/>
     </row>
-    <row r="85" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="73"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="23"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="23"/>
-      <c r="V85" s="23"/>
-      <c r="W85" s="23"/>
-      <c r="X85" s="23"/>
-      <c r="Y85" s="23"/>
-      <c r="Z85" s="23"/>
-      <c r="AA85" s="23"/>
-      <c r="AB85" s="23"/>
-      <c r="AC85" s="23"/>
-      <c r="AD85" s="23"/>
-      <c r="AE85" s="23"/>
-      <c r="AF85" s="23"/>
-      <c r="AG85" s="23"/>
-      <c r="AH85" s="23"/>
-      <c r="AI85" s="23"/>
-      <c r="AJ85" s="23"/>
-      <c r="AK85" s="23"/>
-      <c r="AL85" s="23"/>
-      <c r="AM85" s="23"/>
-      <c r="AN85" s="23"/>
-      <c r="AO85" s="23"/>
-      <c r="AP85" s="23"/>
-      <c r="AQ85" s="23"/>
-      <c r="AR85" s="23"/>
-      <c r="AS85" s="23"/>
-      <c r="AT85" s="23"/>
-      <c r="AU85" s="23"/>
-      <c r="AV85" s="74"/>
-    </row>
-    <row r="86" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B86" s="73"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="73"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="P86" s="98"/>
-      <c r="Q86" s="98"/>
-      <c r="R86" s="98"/>
-      <c r="S86" s="98"/>
-      <c r="T86" s="98"/>
-      <c r="U86" s="98"/>
-      <c r="V86" s="98"/>
-      <c r="W86" s="98"/>
-      <c r="X86" s="98"/>
-      <c r="Y86" s="98"/>
-      <c r="Z86" s="98"/>
-      <c r="AA86" s="98"/>
-      <c r="AB86" s="98"/>
-      <c r="AC86" s="98"/>
-      <c r="AD86" s="98"/>
-      <c r="AE86" s="98"/>
-      <c r="AF86" s="98"/>
-      <c r="AG86" s="98"/>
-      <c r="AH86" s="98"/>
-      <c r="AI86" s="98"/>
-      <c r="AJ86" s="98"/>
-      <c r="AK86" s="98"/>
-      <c r="AL86" s="98"/>
-      <c r="AM86" s="23"/>
-      <c r="AN86" s="23"/>
-      <c r="AO86" s="23"/>
-      <c r="AP86" s="23"/>
-      <c r="AQ86" s="23"/>
-      <c r="AR86" s="23"/>
-      <c r="AS86" s="23"/>
-      <c r="AT86" s="23"/>
-      <c r="AU86" s="23"/>
-      <c r="AV86" s="74"/>
+    <row r="85" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B85" s="113"/>
+      <c r="C85" s="113"/>
+      <c r="D85" s="112"/>
+      <c r="E85" s="112"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="113"/>
+      <c r="H85" s="112"/>
+      <c r="I85" s="112"/>
+      <c r="J85" s="112"/>
+      <c r="K85" s="112"/>
+      <c r="L85" s="113"/>
+      <c r="M85" s="115"/>
+      <c r="N85" s="115"/>
+      <c r="O85" s="117"/>
+      <c r="P85" s="115" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q85" s="115"/>
+      <c r="R85" s="115"/>
+      <c r="S85" s="115"/>
+      <c r="T85" s="115"/>
+      <c r="U85" s="115"/>
+      <c r="V85" s="115"/>
+      <c r="W85" s="115"/>
+      <c r="X85" s="115"/>
+      <c r="Y85" s="115"/>
+      <c r="Z85" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA85" s="115" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB85" s="115"/>
+      <c r="AC85" s="115"/>
+      <c r="AD85" s="115"/>
+      <c r="AE85" s="115"/>
+      <c r="AF85" s="115"/>
+      <c r="AG85" s="115"/>
+      <c r="AH85" s="115"/>
+      <c r="AI85" s="115"/>
+      <c r="AJ85" s="115"/>
+      <c r="AK85" s="115"/>
+      <c r="AL85" s="115"/>
+      <c r="AM85" s="115"/>
+      <c r="AN85" s="115"/>
+      <c r="AO85" s="115"/>
+      <c r="AP85" s="115"/>
+      <c r="AQ85" s="112"/>
+      <c r="AR85" s="112"/>
+      <c r="AS85" s="112"/>
+      <c r="AT85" s="112"/>
+      <c r="AU85" s="112"/>
+      <c r="AV85" s="114"/>
+    </row>
+    <row r="86" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B86" s="113"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="113"/>
+      <c r="H86" s="112"/>
+      <c r="I86" s="112"/>
+      <c r="J86" s="112"/>
+      <c r="K86" s="112"/>
+      <c r="L86" s="113"/>
+      <c r="M86" s="115"/>
+      <c r="N86" s="115"/>
+      <c r="O86" s="117"/>
+      <c r="P86" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q86" s="115"/>
+      <c r="R86" s="115"/>
+      <c r="S86" s="115"/>
+      <c r="T86" s="115"/>
+      <c r="U86" s="115"/>
+      <c r="V86" s="115"/>
+      <c r="W86" s="115"/>
+      <c r="X86" s="115"/>
+      <c r="Y86" s="115"/>
+      <c r="Z86" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA86" s="118" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB86" s="115"/>
+      <c r="AC86" s="115"/>
+      <c r="AD86" s="115"/>
+      <c r="AE86" s="115"/>
+      <c r="AF86" s="115"/>
+      <c r="AG86" s="115"/>
+      <c r="AH86" s="115"/>
+      <c r="AI86" s="115"/>
+      <c r="AJ86" s="115"/>
+      <c r="AK86" s="115"/>
+      <c r="AL86" s="115"/>
+      <c r="AM86" s="115"/>
+      <c r="AN86" s="115"/>
+      <c r="AO86" s="115"/>
+      <c r="AP86" s="115"/>
+      <c r="AQ86" s="112"/>
+      <c r="AR86" s="112"/>
+      <c r="AS86" s="112"/>
+      <c r="AT86" s="112"/>
+      <c r="AU86" s="112"/>
+      <c r="AV86" s="114"/>
     </row>
     <row r="87" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B87" s="73"/>
@@ -15295,33 +15278,32 @@
       <c r="J87" s="23"/>
       <c r="K87" s="23"/>
       <c r="L87" s="73"/>
-      <c r="M87" s="23"/>
+      <c r="M87" s="75"/>
       <c r="N87" s="23"/>
-      <c r="O87" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="P87" s="98"/>
-      <c r="Q87" s="98"/>
-      <c r="R87" s="98"/>
-      <c r="S87" s="98"/>
-      <c r="T87" s="98"/>
-      <c r="U87" s="98"/>
-      <c r="V87" s="98"/>
-      <c r="W87" s="98"/>
-      <c r="X87" s="98"/>
-      <c r="Z87" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA87" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB87" s="98"/>
-      <c r="AC87" s="98"/>
-      <c r="AD87" s="98"/>
-      <c r="AI87" s="98"/>
-      <c r="AJ87" s="98"/>
-      <c r="AK87" s="98"/>
-      <c r="AL87" s="100"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="23"/>
+      <c r="S87" s="23"/>
+      <c r="T87" s="23"/>
+      <c r="U87" s="23"/>
+      <c r="V87" s="23"/>
+      <c r="W87" s="23"/>
+      <c r="X87" s="23"/>
+      <c r="Y87" s="23"/>
+      <c r="Z87" s="23"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="23"/>
+      <c r="AD87" s="23"/>
+      <c r="AE87" s="23"/>
+      <c r="AF87" s="23"/>
+      <c r="AG87" s="23"/>
+      <c r="AH87" s="23"/>
+      <c r="AI87" s="23"/>
+      <c r="AJ87" s="23"/>
+      <c r="AK87" s="23"/>
+      <c r="AL87" s="23"/>
       <c r="AM87" s="23"/>
       <c r="AN87" s="23"/>
       <c r="AO87" s="23"/>
@@ -15345,34 +15327,33 @@
       <c r="J88" s="23"/>
       <c r="K88" s="23"/>
       <c r="L88" s="73"/>
-      <c r="M88" s="23"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="121" t="s">
-        <v>205</v>
-      </c>
-      <c r="P88" s="121"/>
-      <c r="Q88" s="121"/>
-      <c r="R88" s="121"/>
-      <c r="S88" s="121"/>
-      <c r="T88" s="121"/>
-      <c r="U88" s="121"/>
-      <c r="V88" s="121"/>
-      <c r="W88" s="121"/>
-      <c r="X88" s="121"/>
-      <c r="Y88" s="122"/>
-      <c r="Z88" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA88" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB88" s="119"/>
-      <c r="AC88" s="119"/>
+      <c r="M88" s="75"/>
+      <c r="N88" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="P88" s="98"/>
+      <c r="Q88" s="98"/>
+      <c r="R88" s="98"/>
+      <c r="S88" s="98"/>
+      <c r="T88" s="98"/>
+      <c r="U88" s="98"/>
+      <c r="V88" s="98"/>
+      <c r="W88" s="98"/>
+      <c r="X88" s="98"/>
+      <c r="Y88" s="98"/>
+      <c r="Z88" s="98"/>
+      <c r="AA88" s="98"/>
+      <c r="AB88" s="98"/>
+      <c r="AC88" s="98"/>
       <c r="AD88" s="98"/>
+      <c r="AE88" s="98"/>
+      <c r="AF88" s="98"/>
+      <c r="AG88" s="98"/>
+      <c r="AH88" s="98"/>
       <c r="AI88" s="98"/>
       <c r="AJ88" s="98"/>
       <c r="AK88" s="98"/>
-      <c r="AL88" s="100"/>
+      <c r="AL88" s="98"/>
       <c r="AM88" s="23"/>
       <c r="AN88" s="23"/>
       <c r="AO88" s="23"/>
@@ -15399,7 +15380,7 @@
       <c r="M89" s="23"/>
       <c r="N89" s="23"/>
       <c r="O89" s="98" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P89" s="98"/>
       <c r="Q89" s="98"/>
@@ -15409,26 +15390,21 @@
       <c r="U89" s="98"/>
       <c r="V89" s="98"/>
       <c r="W89" s="98"/>
-      <c r="X89" s="116"/>
-      <c r="Y89" s="111"/>
-      <c r="Z89" s="116" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA89" s="116"/>
-      <c r="AB89" s="116"/>
-      <c r="AC89" s="116"/>
-      <c r="AD89" s="116"/>
-      <c r="AE89" s="111"/>
-      <c r="AF89" s="111"/>
-      <c r="AG89" s="111"/>
-      <c r="AH89" s="116"/>
-      <c r="AI89" s="116"/>
-      <c r="AJ89" s="116"/>
-      <c r="AK89" s="116"/>
+      <c r="X89" s="98"/>
+      <c r="Z89" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA89" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB89" s="98"/>
+      <c r="AC89" s="98"/>
+      <c r="AD89" s="98"/>
+      <c r="AI89" s="98"/>
+      <c r="AJ89" s="98"/>
+      <c r="AK89" s="98"/>
       <c r="AL89" s="100"/>
-      <c r="AM89" s="23" t="s">
-        <v>172</v>
-      </c>
+      <c r="AM89" s="23"/>
       <c r="AN89" s="23"/>
       <c r="AO89" s="23"/>
       <c r="AP89" s="23"/>
@@ -15439,54 +15415,56 @@
       <c r="AU89" s="23"/>
       <c r="AV89" s="74"/>
     </row>
-    <row r="90" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B90" s="113"/>
-      <c r="C90" s="113"/>
-      <c r="D90" s="112"/>
-      <c r="E90" s="112"/>
-      <c r="F90" s="114"/>
-      <c r="G90" s="113"/>
-      <c r="H90" s="112"/>
-      <c r="I90" s="112"/>
-      <c r="J90" s="112"/>
-      <c r="K90" s="112"/>
-      <c r="L90" s="113"/>
-      <c r="M90" s="115"/>
-      <c r="N90" s="115"/>
-      <c r="O90" s="116" t="s">
-        <v>255</v>
-      </c>
-      <c r="P90" s="116"/>
-      <c r="Q90" s="116"/>
-      <c r="R90" s="116"/>
-      <c r="S90" s="116"/>
-      <c r="T90" s="116"/>
-      <c r="U90" s="116"/>
-      <c r="V90" s="116"/>
-      <c r="W90" s="116"/>
-      <c r="X90" s="116"/>
-      <c r="Z90" s="116" t="s">
+    <row r="90" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B90" s="73"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="73"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="P90" s="121"/>
+      <c r="Q90" s="121"/>
+      <c r="R90" s="121"/>
+      <c r="S90" s="121"/>
+      <c r="T90" s="121"/>
+      <c r="U90" s="121"/>
+      <c r="V90" s="121"/>
+      <c r="W90" s="121"/>
+      <c r="X90" s="121"/>
+      <c r="Y90" s="122"/>
+      <c r="Z90" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="AA90" s="101" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB90" s="116"/>
-      <c r="AC90" s="116"/>
-      <c r="AD90" s="116"/>
-      <c r="AJ90" s="116"/>
-      <c r="AK90" s="116"/>
+      <c r="AA90" s="120" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB90" s="119"/>
+      <c r="AC90" s="119"/>
+      <c r="AD90" s="98"/>
+      <c r="AI90" s="98"/>
+      <c r="AJ90" s="98"/>
+      <c r="AK90" s="98"/>
       <c r="AL90" s="100"/>
-      <c r="AM90" s="116"/>
-      <c r="AN90" s="115"/>
-      <c r="AO90" s="115"/>
-      <c r="AP90" s="115"/>
-      <c r="AQ90" s="112"/>
-      <c r="AR90" s="112"/>
-      <c r="AS90" s="112"/>
-      <c r="AT90" s="112"/>
-      <c r="AU90" s="112"/>
-      <c r="AV90" s="114"/>
+      <c r="AM90" s="23"/>
+      <c r="AN90" s="23"/>
+      <c r="AO90" s="23"/>
+      <c r="AP90" s="23"/>
+      <c r="AQ90" s="23"/>
+      <c r="AR90" s="23"/>
+      <c r="AS90" s="23"/>
+      <c r="AT90" s="23"/>
+      <c r="AU90" s="23"/>
+      <c r="AV90" s="74"/>
     </row>
     <row r="91" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B91" s="73"/>
@@ -15500,10 +15478,10 @@
       <c r="J91" s="23"/>
       <c r="K91" s="23"/>
       <c r="L91" s="73"/>
-      <c r="M91" s="75"/>
-      <c r="N91" s="75"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
       <c r="O91" s="98" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P91" s="98"/>
       <c r="Q91" s="98"/>
@@ -15513,23 +15491,29 @@
       <c r="U91" s="98"/>
       <c r="V91" s="98"/>
       <c r="W91" s="98"/>
-      <c r="X91" s="98"/>
-      <c r="Z91" s="98" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA91" s="98"/>
-      <c r="AB91" s="98"/>
-      <c r="AC91" s="98"/>
-      <c r="AD91" s="98"/>
-      <c r="AJ91" s="98"/>
-      <c r="AK91" s="98"/>
+      <c r="X91" s="116"/>
+      <c r="Y91" s="111"/>
+      <c r="Z91" s="116" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA91" s="116"/>
+      <c r="AB91" s="116"/>
+      <c r="AC91" s="116"/>
+      <c r="AD91" s="116"/>
+      <c r="AE91" s="111"/>
+      <c r="AF91" s="111"/>
+      <c r="AG91" s="111"/>
+      <c r="AH91" s="116"/>
+      <c r="AI91" s="116"/>
+      <c r="AJ91" s="116"/>
+      <c r="AK91" s="116"/>
       <c r="AL91" s="100"/>
-      <c r="AM91" s="98" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN91" s="75"/>
-      <c r="AO91" s="75"/>
-      <c r="AP91" s="75"/>
+      <c r="AM91" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN91" s="23"/>
+      <c r="AO91" s="23"/>
+      <c r="AP91" s="23"/>
       <c r="AQ91" s="23"/>
       <c r="AR91" s="23"/>
       <c r="AS91" s="23"/>
@@ -15537,56 +15521,54 @@
       <c r="AU91" s="23"/>
       <c r="AV91" s="74"/>
     </row>
-    <row r="92" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B92" s="73"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="73"/>
-      <c r="M92" s="75"/>
-      <c r="N92" s="75"/>
-      <c r="O92" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="P92" s="98"/>
-      <c r="Q92" s="98"/>
-      <c r="R92" s="98"/>
-      <c r="S92" s="98"/>
-      <c r="T92" s="98"/>
-      <c r="U92" s="98"/>
-      <c r="V92" s="98"/>
-      <c r="W92" s="98"/>
-      <c r="X92" s="98"/>
-      <c r="Z92" s="98" t="s">
+    <row r="92" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B92" s="113"/>
+      <c r="C92" s="113"/>
+      <c r="D92" s="112"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="114"/>
+      <c r="G92" s="113"/>
+      <c r="H92" s="112"/>
+      <c r="I92" s="112"/>
+      <c r="J92" s="112"/>
+      <c r="K92" s="112"/>
+      <c r="L92" s="113"/>
+      <c r="M92" s="115"/>
+      <c r="N92" s="115"/>
+      <c r="O92" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="P92" s="116"/>
+      <c r="Q92" s="116"/>
+      <c r="R92" s="116"/>
+      <c r="S92" s="116"/>
+      <c r="T92" s="116"/>
+      <c r="U92" s="116"/>
+      <c r="V92" s="116"/>
+      <c r="W92" s="116"/>
+      <c r="X92" s="116"/>
+      <c r="Z92" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="AA92" s="98" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB92" s="98"/>
-      <c r="AC92" s="98"/>
-      <c r="AD92" s="98"/>
-      <c r="AJ92" s="98"/>
-      <c r="AK92" s="98"/>
+      <c r="AA92" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB92" s="116"/>
+      <c r="AC92" s="116"/>
+      <c r="AD92" s="116"/>
+      <c r="AJ92" s="116"/>
+      <c r="AK92" s="116"/>
       <c r="AL92" s="100"/>
-      <c r="AM92" s="98" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN92" s="75"/>
-      <c r="AO92" s="75"/>
-      <c r="AP92" s="75"/>
-      <c r="AQ92" s="23"/>
-      <c r="AR92" s="23"/>
-      <c r="AS92" s="23"/>
-      <c r="AT92" s="23"/>
-      <c r="AU92" s="23"/>
-      <c r="AV92" s="74"/>
+      <c r="AM92" s="116"/>
+      <c r="AN92" s="115"/>
+      <c r="AO92" s="115"/>
+      <c r="AP92" s="115"/>
+      <c r="AQ92" s="112"/>
+      <c r="AR92" s="112"/>
+      <c r="AS92" s="112"/>
+      <c r="AT92" s="112"/>
+      <c r="AU92" s="112"/>
+      <c r="AV92" s="114"/>
     </row>
     <row r="93" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B93" s="73"/>
@@ -15603,7 +15585,7 @@
       <c r="M93" s="75"/>
       <c r="N93" s="75"/>
       <c r="O93" s="98" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P93" s="98"/>
       <c r="Q93" s="98"/>
@@ -15615,11 +15597,9 @@
       <c r="W93" s="98"/>
       <c r="X93" s="98"/>
       <c r="Z93" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA93" s="98" t="s">
-        <v>235</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="AA93" s="98"/>
       <c r="AB93" s="98"/>
       <c r="AC93" s="98"/>
       <c r="AD93" s="98"/>
@@ -15627,7 +15607,7 @@
       <c r="AK93" s="98"/>
       <c r="AL93" s="100"/>
       <c r="AM93" s="98" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AN93" s="75"/>
       <c r="AO93" s="75"/>
@@ -15653,8 +15633,33 @@
       <c r="L94" s="73"/>
       <c r="M94" s="75"/>
       <c r="N94" s="75"/>
-      <c r="O94" s="98"/>
-      <c r="AM94" s="75"/>
+      <c r="O94" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="P94" s="98"/>
+      <c r="Q94" s="98"/>
+      <c r="R94" s="98"/>
+      <c r="S94" s="98"/>
+      <c r="T94" s="98"/>
+      <c r="U94" s="98"/>
+      <c r="V94" s="98"/>
+      <c r="W94" s="98"/>
+      <c r="X94" s="98"/>
+      <c r="Z94" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA94" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB94" s="98"/>
+      <c r="AC94" s="98"/>
+      <c r="AD94" s="98"/>
+      <c r="AJ94" s="98"/>
+      <c r="AK94" s="98"/>
+      <c r="AL94" s="100"/>
+      <c r="AM94" s="98" t="s">
+        <v>174</v>
+      </c>
       <c r="AN94" s="75"/>
       <c r="AO94" s="75"/>
       <c r="AP94" s="75"/>
@@ -15678,10 +15683,34 @@
       <c r="K95" s="23"/>
       <c r="L95" s="73"/>
       <c r="M95" s="75"/>
-      <c r="N95" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM95" s="75"/>
+      <c r="N95" s="75"/>
+      <c r="O95" s="98" t="s">
+        <v>207</v>
+      </c>
+      <c r="P95" s="98"/>
+      <c r="Q95" s="98"/>
+      <c r="R95" s="98"/>
+      <c r="S95" s="98"/>
+      <c r="T95" s="98"/>
+      <c r="U95" s="98"/>
+      <c r="V95" s="98"/>
+      <c r="W95" s="98"/>
+      <c r="X95" s="98"/>
+      <c r="Z95" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA95" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB95" s="98"/>
+      <c r="AC95" s="98"/>
+      <c r="AD95" s="98"/>
+      <c r="AJ95" s="98"/>
+      <c r="AK95" s="98"/>
+      <c r="AL95" s="100"/>
+      <c r="AM95" s="98" t="s">
+        <v>170</v>
+      </c>
       <c r="AN95" s="75"/>
       <c r="AO95" s="75"/>
       <c r="AP95" s="75"/>
@@ -15692,61 +15721,58 @@
       <c r="AU95" s="23"/>
       <c r="AV95" s="74"/>
     </row>
-    <row r="96" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B96" s="113"/>
-      <c r="C96" s="113"/>
-      <c r="D96" s="112"/>
-      <c r="E96" s="112"/>
-      <c r="F96" s="114"/>
-      <c r="G96" s="113"/>
-      <c r="H96" s="112"/>
-      <c r="I96" s="112"/>
-      <c r="J96" s="112"/>
-      <c r="K96" s="112"/>
-      <c r="L96" s="113"/>
-      <c r="M96" s="115"/>
-      <c r="N96" s="115"/>
-      <c r="O96" s="117" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM96" s="115"/>
-      <c r="AN96" s="115"/>
-      <c r="AO96" s="115"/>
-      <c r="AP96" s="115"/>
-      <c r="AQ96" s="112"/>
-      <c r="AR96" s="112"/>
-      <c r="AS96" s="112"/>
-      <c r="AT96" s="112"/>
-      <c r="AU96" s="112"/>
-      <c r="AV96" s="114"/>
-    </row>
-    <row r="97" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B97" s="113"/>
-      <c r="C97" s="113"/>
-      <c r="D97" s="112"/>
-      <c r="E97" s="112"/>
-      <c r="F97" s="114"/>
-      <c r="G97" s="113"/>
-      <c r="H97" s="112"/>
-      <c r="I97" s="112"/>
-      <c r="J97" s="112"/>
-      <c r="K97" s="112"/>
-      <c r="L97" s="113"/>
-      <c r="M97" s="115"/>
-      <c r="N97" s="115"/>
-      <c r="O97" s="117" t="s">
-        <v>248</v>
-      </c>
-      <c r="AM97" s="115"/>
-      <c r="AN97" s="115"/>
-      <c r="AO97" s="115"/>
-      <c r="AP97" s="115"/>
-      <c r="AQ97" s="112"/>
-      <c r="AR97" s="112"/>
-      <c r="AS97" s="112"/>
-      <c r="AT97" s="112"/>
-      <c r="AU97" s="112"/>
-      <c r="AV97" s="114"/>
+    <row r="96" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B96" s="73"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="73"/>
+      <c r="M96" s="75"/>
+      <c r="N96" s="75"/>
+      <c r="O96" s="98"/>
+      <c r="AM96" s="75"/>
+      <c r="AN96" s="75"/>
+      <c r="AO96" s="75"/>
+      <c r="AP96" s="75"/>
+      <c r="AQ96" s="23"/>
+      <c r="AR96" s="23"/>
+      <c r="AS96" s="23"/>
+      <c r="AT96" s="23"/>
+      <c r="AU96" s="23"/>
+      <c r="AV96" s="74"/>
+    </row>
+    <row r="97" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B97" s="73"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="73"/>
+      <c r="M97" s="75"/>
+      <c r="N97" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM97" s="75"/>
+      <c r="AN97" s="75"/>
+      <c r="AO97" s="75"/>
+      <c r="AP97" s="75"/>
+      <c r="AQ97" s="23"/>
+      <c r="AR97" s="23"/>
+      <c r="AS97" s="23"/>
+      <c r="AT97" s="23"/>
+      <c r="AU97" s="23"/>
+      <c r="AV97" s="74"/>
     </row>
     <row r="98" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B98" s="113"/>
@@ -15763,7 +15789,7 @@
       <c r="M98" s="115"/>
       <c r="N98" s="115"/>
       <c r="O98" s="117" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AM98" s="115"/>
       <c r="AN98" s="115"/>
@@ -15791,7 +15817,7 @@
       <c r="M99" s="115"/>
       <c r="N99" s="115"/>
       <c r="O99" s="117" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AM99" s="115"/>
       <c r="AN99" s="115"/>
@@ -15804,61 +15830,61 @@
       <c r="AU99" s="112"/>
       <c r="AV99" s="114"/>
     </row>
-    <row r="100" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B100" s="73"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="73"/>
-      <c r="M100" s="75"/>
-      <c r="N100" s="75"/>
+    <row r="100" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B100" s="113"/>
+      <c r="C100" s="113"/>
+      <c r="D100" s="112"/>
+      <c r="E100" s="112"/>
+      <c r="F100" s="114"/>
+      <c r="G100" s="113"/>
+      <c r="H100" s="112"/>
+      <c r="I100" s="112"/>
+      <c r="J100" s="112"/>
+      <c r="K100" s="112"/>
+      <c r="L100" s="113"/>
+      <c r="M100" s="115"/>
+      <c r="N100" s="115"/>
       <c r="O100" s="117" t="s">
-        <v>251</v>
-      </c>
-      <c r="AM100" s="75"/>
-      <c r="AN100" s="75"/>
-      <c r="AO100" s="75"/>
-      <c r="AP100" s="75"/>
-      <c r="AQ100" s="23"/>
-      <c r="AR100" s="23"/>
-      <c r="AS100" s="23"/>
-      <c r="AT100" s="23"/>
-      <c r="AU100" s="23"/>
-      <c r="AV100" s="74"/>
-    </row>
-    <row r="101" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B101" s="73"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="73"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="73"/>
-      <c r="M101" s="75"/>
-      <c r="N101" s="75"/>
+        <v>248</v>
+      </c>
+      <c r="AM100" s="115"/>
+      <c r="AN100" s="115"/>
+      <c r="AO100" s="115"/>
+      <c r="AP100" s="115"/>
+      <c r="AQ100" s="112"/>
+      <c r="AR100" s="112"/>
+      <c r="AS100" s="112"/>
+      <c r="AT100" s="112"/>
+      <c r="AU100" s="112"/>
+      <c r="AV100" s="114"/>
+    </row>
+    <row r="101" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B101" s="113"/>
+      <c r="C101" s="113"/>
+      <c r="D101" s="112"/>
+      <c r="E101" s="112"/>
+      <c r="F101" s="114"/>
+      <c r="G101" s="113"/>
+      <c r="H101" s="112"/>
+      <c r="I101" s="112"/>
+      <c r="J101" s="112"/>
+      <c r="K101" s="112"/>
+      <c r="L101" s="113"/>
+      <c r="M101" s="115"/>
+      <c r="N101" s="115"/>
       <c r="O101" s="117" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM101" s="75"/>
-      <c r="AN101" s="75"/>
-      <c r="AO101" s="75"/>
-      <c r="AP101" s="75"/>
-      <c r="AQ101" s="23"/>
-      <c r="AR101" s="23"/>
-      <c r="AS101" s="23"/>
-      <c r="AT101" s="23"/>
-      <c r="AU101" s="23"/>
-      <c r="AV101" s="74"/>
+        <v>249</v>
+      </c>
+      <c r="AM101" s="115"/>
+      <c r="AN101" s="115"/>
+      <c r="AO101" s="115"/>
+      <c r="AP101" s="115"/>
+      <c r="AQ101" s="112"/>
+      <c r="AR101" s="112"/>
+      <c r="AS101" s="112"/>
+      <c r="AT101" s="112"/>
+      <c r="AU101" s="112"/>
+      <c r="AV101" s="114"/>
     </row>
     <row r="102" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B102" s="73"/>
@@ -15875,7 +15901,7 @@
       <c r="M102" s="75"/>
       <c r="N102" s="75"/>
       <c r="O102" s="117" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="AM102" s="75"/>
       <c r="AN102" s="75"/>
@@ -15891,82 +15917,61 @@
     <row r="103" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B103" s="113"/>
       <c r="C103" s="113"/>
-      <c r="D103" s="112"/>
-      <c r="E103" s="112"/>
       <c r="F103" s="114"/>
       <c r="G103" s="113"/>
-      <c r="H103" s="112"/>
-      <c r="I103" s="112"/>
-      <c r="J103" s="112"/>
-      <c r="K103" s="112"/>
       <c r="L103" s="113"/>
-      <c r="M103" s="115"/>
+      <c r="M103" s="116"/>
       <c r="N103" s="116"/>
-      <c r="AM103" s="115"/>
-      <c r="AN103" s="115"/>
-      <c r="AO103" s="115"/>
-      <c r="AP103" s="115"/>
-      <c r="AQ103" s="112"/>
-      <c r="AR103" s="112"/>
-      <c r="AS103" s="112"/>
-      <c r="AT103" s="112"/>
-      <c r="AU103" s="112"/>
+      <c r="O103" s="116" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM103" s="116"/>
+      <c r="AN103" s="116"/>
+      <c r="AO103" s="116"/>
+      <c r="AP103" s="116"/>
       <c r="AV103" s="114"/>
     </row>
-    <row r="104" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B104" s="73"/>
-      <c r="C104" s="73"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="73"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="73"/>
-      <c r="M104" s="75"/>
-      <c r="N104" s="98" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM104" s="75"/>
-      <c r="AN104" s="75"/>
-      <c r="AO104" s="75"/>
-      <c r="AP104" s="75"/>
-      <c r="AQ104" s="23"/>
-      <c r="AR104" s="23"/>
-      <c r="AS104" s="23"/>
-      <c r="AT104" s="23"/>
-      <c r="AU104" s="23"/>
-      <c r="AV104" s="74"/>
-    </row>
-    <row r="105" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B105" s="73"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="73"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="23"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="73"/>
-      <c r="M105" s="75"/>
-      <c r="N105" s="75"/>
-      <c r="O105" s="117" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM105" s="75"/>
-      <c r="AN105" s="75"/>
-      <c r="AO105" s="75"/>
-      <c r="AP105" s="75"/>
-      <c r="AQ105" s="23"/>
-      <c r="AR105" s="23"/>
-      <c r="AS105" s="23"/>
-      <c r="AT105" s="23"/>
-      <c r="AU105" s="23"/>
-      <c r="AV105" s="74"/>
+    <row r="104" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B104" s="113"/>
+      <c r="C104" s="113"/>
+      <c r="F104" s="114"/>
+      <c r="G104" s="113"/>
+      <c r="L104" s="113"/>
+      <c r="M104" s="116"/>
+      <c r="N104" s="116"/>
+      <c r="O104" s="116" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM104" s="116"/>
+      <c r="AN104" s="116"/>
+      <c r="AO104" s="116"/>
+      <c r="AP104" s="116"/>
+      <c r="AV104" s="114"/>
+    </row>
+    <row r="105" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B105" s="113"/>
+      <c r="C105" s="113"/>
+      <c r="D105" s="112"/>
+      <c r="E105" s="112"/>
+      <c r="F105" s="114"/>
+      <c r="G105" s="113"/>
+      <c r="H105" s="112"/>
+      <c r="I105" s="112"/>
+      <c r="J105" s="112"/>
+      <c r="K105" s="112"/>
+      <c r="L105" s="113"/>
+      <c r="M105" s="115"/>
+      <c r="N105" s="116"/>
+      <c r="AM105" s="115"/>
+      <c r="AN105" s="115"/>
+      <c r="AO105" s="115"/>
+      <c r="AP105" s="115"/>
+      <c r="AQ105" s="112"/>
+      <c r="AR105" s="112"/>
+      <c r="AS105" s="112"/>
+      <c r="AT105" s="112"/>
+      <c r="AU105" s="112"/>
+      <c r="AV105" s="114"/>
     </row>
     <row r="106" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B106" s="73"/>
@@ -15981,9 +15986,8 @@
       <c r="K106" s="23"/>
       <c r="L106" s="73"/>
       <c r="M106" s="75"/>
-      <c r="N106" s="75"/>
-      <c r="O106" s="111" t="s">
-        <v>231</v>
+      <c r="N106" s="98" t="s">
+        <v>171</v>
       </c>
       <c r="AM106" s="75"/>
       <c r="AN106" s="75"/>
@@ -15996,130 +16000,110 @@
       <c r="AU106" s="23"/>
       <c r="AV106" s="74"/>
     </row>
-    <row r="107" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B107" s="113"/>
-      <c r="C107" s="113"/>
-      <c r="D107" s="112"/>
-      <c r="E107" s="112"/>
-      <c r="F107" s="114"/>
-      <c r="G107" s="113"/>
-      <c r="H107" s="112"/>
-      <c r="I107" s="112"/>
-      <c r="J107" s="112"/>
-      <c r="K107" s="112"/>
-      <c r="L107" s="113"/>
-      <c r="M107" s="115"/>
-      <c r="N107" s="115"/>
-      <c r="AM107" s="115"/>
-      <c r="AN107" s="115"/>
-      <c r="AO107" s="115"/>
-      <c r="AP107" s="115"/>
-      <c r="AQ107" s="112"/>
-      <c r="AR107" s="112"/>
-      <c r="AS107" s="112"/>
-      <c r="AT107" s="112"/>
-      <c r="AU107" s="112"/>
-      <c r="AV107" s="114"/>
-    </row>
-    <row r="108" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B108" s="113"/>
-      <c r="C108" s="113"/>
-      <c r="D108" s="112"/>
-      <c r="E108" s="112"/>
-      <c r="F108" s="114"/>
-      <c r="G108" s="113"/>
-      <c r="H108" s="112"/>
-      <c r="I108" s="112"/>
-      <c r="J108" s="112"/>
-      <c r="K108" s="112"/>
-      <c r="L108" s="113"/>
-      <c r="M108" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="N108" s="112"/>
-      <c r="O108" s="112"/>
-      <c r="P108" s="112"/>
-      <c r="Q108" s="112"/>
-      <c r="R108" s="112"/>
-      <c r="S108" s="112"/>
-      <c r="T108" s="112"/>
-      <c r="U108" s="112"/>
-      <c r="V108" s="112"/>
-      <c r="W108" s="112"/>
-      <c r="X108" s="112"/>
-      <c r="Y108" s="112"/>
-      <c r="Z108" s="112"/>
-      <c r="AA108" s="112"/>
-      <c r="AB108" s="112"/>
-      <c r="AC108" s="112"/>
-      <c r="AD108" s="112"/>
-      <c r="AE108" s="112"/>
-      <c r="AF108" s="112"/>
-      <c r="AG108" s="112"/>
-      <c r="AH108" s="112"/>
-      <c r="AI108" s="112"/>
-      <c r="AJ108" s="112"/>
-      <c r="AK108" s="112"/>
-      <c r="AL108" s="112"/>
-      <c r="AM108" s="112"/>
-      <c r="AN108" s="112"/>
-      <c r="AO108" s="112"/>
-      <c r="AP108" s="112"/>
-      <c r="AQ108" s="112"/>
-      <c r="AR108" s="112"/>
-      <c r="AS108" s="112"/>
-      <c r="AT108" s="112"/>
-      <c r="AU108" s="112"/>
-      <c r="AV108" s="114"/>
-    </row>
-    <row r="109" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B109" s="113"/>
-      <c r="C109" s="113"/>
-      <c r="D109" s="112"/>
-      <c r="E109" s="112"/>
-      <c r="F109" s="114"/>
-      <c r="G109" s="113"/>
-      <c r="H109" s="112"/>
-      <c r="I109" s="112"/>
-      <c r="J109" s="112"/>
-      <c r="K109" s="112"/>
-      <c r="L109" s="113"/>
-      <c r="N109" s="117" t="s">
-        <v>196</v>
-      </c>
-      <c r="P109" s="117"/>
-      <c r="Q109" s="117"/>
-      <c r="R109" s="117"/>
-      <c r="S109" s="117"/>
-      <c r="T109" s="117"/>
-      <c r="U109" s="117"/>
-      <c r="V109" s="117"/>
-      <c r="W109" s="117"/>
-      <c r="X109" s="117"/>
-      <c r="Y109" s="117"/>
-      <c r="Z109" s="112"/>
-      <c r="AA109" s="112"/>
-      <c r="AB109" s="112"/>
-      <c r="AC109" s="112"/>
-      <c r="AD109" s="112"/>
-      <c r="AE109" s="112"/>
-      <c r="AF109" s="112"/>
-      <c r="AG109" s="112"/>
-      <c r="AH109" s="112"/>
-      <c r="AI109" s="112"/>
-      <c r="AJ109" s="112"/>
-      <c r="AK109" s="112"/>
-      <c r="AL109" s="112"/>
-      <c r="AM109" s="112"/>
-      <c r="AN109" s="112"/>
-      <c r="AO109" s="112"/>
-      <c r="AP109" s="112"/>
-      <c r="AQ109" s="112"/>
-      <c r="AR109" s="112"/>
-      <c r="AS109" s="112"/>
-      <c r="AT109" s="112"/>
-      <c r="AU109" s="112"/>
-      <c r="AV109" s="114"/>
+    <row r="107" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B107" s="73"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="73"/>
+      <c r="M107" s="75"/>
+      <c r="N107" s="75"/>
+      <c r="O107" s="117" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM107" s="75"/>
+      <c r="AN107" s="75"/>
+      <c r="AO107" s="75"/>
+      <c r="AP107" s="75"/>
+      <c r="AQ107" s="23"/>
+      <c r="AR107" s="23"/>
+      <c r="AS107" s="23"/>
+      <c r="AT107" s="23"/>
+      <c r="AU107" s="23"/>
+      <c r="AV107" s="74"/>
+    </row>
+    <row r="108" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B108" s="73"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="73"/>
+      <c r="M108" s="75"/>
+      <c r="N108" s="75"/>
+      <c r="O108" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM108" s="75"/>
+      <c r="AN108" s="75"/>
+      <c r="AO108" s="75"/>
+      <c r="AP108" s="75"/>
+      <c r="AQ108" s="23"/>
+      <c r="AR108" s="23"/>
+      <c r="AS108" s="23"/>
+      <c r="AT108" s="23"/>
+      <c r="AU108" s="23"/>
+      <c r="AV108" s="74"/>
+    </row>
+    <row r="109" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B109" s="73"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="73"/>
+      <c r="M109" s="75"/>
+      <c r="N109" s="75"/>
+      <c r="O109" s="75"/>
+      <c r="P109" s="75"/>
+      <c r="Q109" s="75"/>
+      <c r="R109" s="75"/>
+      <c r="S109" s="75"/>
+      <c r="T109" s="75"/>
+      <c r="U109" s="75"/>
+      <c r="V109" s="75"/>
+      <c r="W109" s="75"/>
+      <c r="X109" s="75"/>
+      <c r="Y109" s="75"/>
+      <c r="Z109" s="75"/>
+      <c r="AA109" s="75"/>
+      <c r="AB109" s="75"/>
+      <c r="AC109" s="75"/>
+      <c r="AD109" s="75"/>
+      <c r="AE109" s="75"/>
+      <c r="AF109" s="75"/>
+      <c r="AG109" s="75"/>
+      <c r="AH109" s="75"/>
+      <c r="AI109" s="75"/>
+      <c r="AJ109" s="75"/>
+      <c r="AK109" s="75"/>
+      <c r="AL109" s="75"/>
+      <c r="AM109" s="75"/>
+      <c r="AN109" s="75"/>
+      <c r="AO109" s="75"/>
+      <c r="AP109" s="75"/>
+      <c r="AQ109" s="23"/>
+      <c r="AR109" s="23"/>
+      <c r="AS109" s="23"/>
+      <c r="AT109" s="23"/>
+      <c r="AU109" s="23"/>
+      <c r="AV109" s="74"/>
     </row>
     <row r="110" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B110" s="113"/>
@@ -16133,19 +16117,21 @@
       <c r="J110" s="112"/>
       <c r="K110" s="112"/>
       <c r="L110" s="113"/>
-      <c r="O110" s="117" t="s">
-        <v>278</v>
-      </c>
-      <c r="P110" s="117"/>
-      <c r="Q110" s="117"/>
-      <c r="R110" s="117"/>
-      <c r="S110" s="117"/>
-      <c r="T110" s="117"/>
-      <c r="U110" s="117"/>
-      <c r="V110" s="117"/>
-      <c r="W110" s="117"/>
-      <c r="X110" s="117"/>
-      <c r="Y110" s="117"/>
+      <c r="M110" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="N110" s="112"/>
+      <c r="O110" s="112"/>
+      <c r="P110" s="112"/>
+      <c r="Q110" s="112"/>
+      <c r="R110" s="112"/>
+      <c r="S110" s="112"/>
+      <c r="T110" s="112"/>
+      <c r="U110" s="112"/>
+      <c r="V110" s="112"/>
+      <c r="W110" s="112"/>
+      <c r="X110" s="112"/>
+      <c r="Y110" s="112"/>
       <c r="Z110" s="112"/>
       <c r="AA110" s="112"/>
       <c r="AB110" s="112"/>
@@ -16182,8 +16168,8 @@
       <c r="J111" s="112"/>
       <c r="K111" s="112"/>
       <c r="L111" s="113"/>
-      <c r="O111" s="117" t="s">
-        <v>231</v>
+      <c r="N111" s="117" t="s">
+        <v>194</v>
       </c>
       <c r="P111" s="117"/>
       <c r="Q111" s="117"/>
@@ -16232,7 +16218,7 @@
       <c r="K112" s="112"/>
       <c r="L112" s="113"/>
       <c r="O112" s="117" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="P112" s="117"/>
       <c r="Q112" s="117"/>
@@ -16281,7 +16267,7 @@
       <c r="K113" s="112"/>
       <c r="L113" s="113"/>
       <c r="O113" s="117" t="s">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="P113" s="117"/>
       <c r="Q113" s="117"/>
@@ -16376,8 +16362,8 @@
       <c r="J115" s="112"/>
       <c r="K115" s="112"/>
       <c r="L115" s="113"/>
-      <c r="N115" s="117" t="s">
-        <v>197</v>
+      <c r="O115" s="117" t="s">
+        <v>333</v>
       </c>
       <c r="P115" s="117"/>
       <c r="Q115" s="117"/>
@@ -16389,23 +16375,23 @@
       <c r="W115" s="117"/>
       <c r="X115" s="117"/>
       <c r="Y115" s="117"/>
-      <c r="Z115" s="115"/>
-      <c r="AA115" s="115"/>
-      <c r="AB115" s="115"/>
-      <c r="AC115" s="115"/>
-      <c r="AD115" s="115"/>
-      <c r="AE115" s="115"/>
-      <c r="AF115" s="115"/>
-      <c r="AG115" s="115"/>
-      <c r="AH115" s="115"/>
-      <c r="AI115" s="115"/>
-      <c r="AJ115" s="115"/>
-      <c r="AK115" s="115"/>
-      <c r="AL115" s="115"/>
-      <c r="AM115" s="115"/>
-      <c r="AN115" s="115"/>
-      <c r="AO115" s="115"/>
-      <c r="AP115" s="115"/>
+      <c r="Z115" s="112"/>
+      <c r="AA115" s="112"/>
+      <c r="AB115" s="112"/>
+      <c r="AC115" s="112"/>
+      <c r="AD115" s="112"/>
+      <c r="AE115" s="112"/>
+      <c r="AF115" s="112"/>
+      <c r="AG115" s="112"/>
+      <c r="AH115" s="112"/>
+      <c r="AI115" s="112"/>
+      <c r="AJ115" s="112"/>
+      <c r="AK115" s="112"/>
+      <c r="AL115" s="112"/>
+      <c r="AM115" s="112"/>
+      <c r="AN115" s="112"/>
+      <c r="AO115" s="112"/>
+      <c r="AP115" s="112"/>
       <c r="AQ115" s="112"/>
       <c r="AR115" s="112"/>
       <c r="AS115" s="112"/>
@@ -16425,10 +16411,10 @@
       <c r="J116" s="112"/>
       <c r="K116" s="112"/>
       <c r="L116" s="113"/>
-      <c r="O116" s="117" t="s">
-        <v>252</v>
-      </c>
-      <c r="P116" s="117"/>
+      <c r="O116" s="117"/>
+      <c r="P116" s="117" t="s">
+        <v>334</v>
+      </c>
       <c r="Q116" s="117"/>
       <c r="R116" s="117"/>
       <c r="S116" s="117"/>
@@ -16438,23 +16424,23 @@
       <c r="W116" s="117"/>
       <c r="X116" s="117"/>
       <c r="Y116" s="117"/>
-      <c r="Z116" s="115"/>
-      <c r="AA116" s="115"/>
-      <c r="AB116" s="115"/>
-      <c r="AC116" s="115"/>
-      <c r="AD116" s="115"/>
-      <c r="AE116" s="115"/>
-      <c r="AF116" s="115"/>
-      <c r="AG116" s="115"/>
-      <c r="AH116" s="115"/>
-      <c r="AI116" s="115"/>
-      <c r="AJ116" s="115"/>
-      <c r="AK116" s="115"/>
-      <c r="AL116" s="115"/>
-      <c r="AM116" s="115"/>
-      <c r="AN116" s="115"/>
-      <c r="AO116" s="115"/>
-      <c r="AP116" s="115"/>
+      <c r="Z116" s="112"/>
+      <c r="AA116" s="112"/>
+      <c r="AB116" s="112"/>
+      <c r="AC116" s="112"/>
+      <c r="AD116" s="112"/>
+      <c r="AE116" s="112"/>
+      <c r="AF116" s="112"/>
+      <c r="AG116" s="112"/>
+      <c r="AH116" s="112"/>
+      <c r="AI116" s="112"/>
+      <c r="AJ116" s="112"/>
+      <c r="AK116" s="112"/>
+      <c r="AL116" s="112"/>
+      <c r="AM116" s="112"/>
+      <c r="AN116" s="112"/>
+      <c r="AO116" s="112"/>
+      <c r="AP116" s="112"/>
       <c r="AQ116" s="112"/>
       <c r="AR116" s="112"/>
       <c r="AS116" s="112"/>
@@ -16474,36 +16460,36 @@
       <c r="J117" s="112"/>
       <c r="K117" s="112"/>
       <c r="L117" s="113"/>
-      <c r="O117" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="P117" s="115"/>
-      <c r="Q117" s="115"/>
-      <c r="R117" s="115"/>
-      <c r="S117" s="115"/>
-      <c r="T117" s="115"/>
-      <c r="U117" s="115"/>
-      <c r="V117" s="115"/>
-      <c r="W117" s="115"/>
-      <c r="X117" s="115"/>
-      <c r="Y117" s="115"/>
-      <c r="Z117" s="116"/>
-      <c r="AA117" s="115"/>
-      <c r="AB117" s="115"/>
-      <c r="AC117" s="115"/>
-      <c r="AD117" s="115"/>
-      <c r="AE117" s="115"/>
-      <c r="AF117" s="115"/>
-      <c r="AG117" s="115"/>
-      <c r="AH117" s="115"/>
-      <c r="AI117" s="115"/>
-      <c r="AJ117" s="115"/>
-      <c r="AK117" s="115"/>
-      <c r="AL117" s="115"/>
-      <c r="AM117" s="115"/>
-      <c r="AN117" s="115"/>
-      <c r="AO117" s="115"/>
-      <c r="AP117" s="115"/>
+      <c r="O117" s="117"/>
+      <c r="P117" s="117" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q117" s="117"/>
+      <c r="R117" s="117"/>
+      <c r="S117" s="117"/>
+      <c r="T117" s="117"/>
+      <c r="U117" s="117"/>
+      <c r="V117" s="117"/>
+      <c r="W117" s="117"/>
+      <c r="X117" s="117"/>
+      <c r="Y117" s="117"/>
+      <c r="Z117" s="112"/>
+      <c r="AA117" s="112"/>
+      <c r="AB117" s="112"/>
+      <c r="AC117" s="112"/>
+      <c r="AD117" s="112"/>
+      <c r="AE117" s="112"/>
+      <c r="AF117" s="112"/>
+      <c r="AG117" s="112"/>
+      <c r="AH117" s="112"/>
+      <c r="AI117" s="112"/>
+      <c r="AJ117" s="112"/>
+      <c r="AK117" s="112"/>
+      <c r="AL117" s="112"/>
+      <c r="AM117" s="112"/>
+      <c r="AN117" s="112"/>
+      <c r="AO117" s="112"/>
+      <c r="AP117" s="112"/>
       <c r="AQ117" s="112"/>
       <c r="AR117" s="112"/>
       <c r="AS117" s="112"/>
@@ -16523,42 +16509,34 @@
       <c r="J118" s="112"/>
       <c r="K118" s="112"/>
       <c r="L118" s="113"/>
-      <c r="M118" s="115"/>
-      <c r="N118" s="115"/>
       <c r="O118" s="117"/>
-      <c r="P118" s="115" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q118" s="115"/>
-      <c r="R118" s="115"/>
-      <c r="S118" s="115"/>
-      <c r="T118" s="115"/>
-      <c r="U118" s="115"/>
-      <c r="V118" s="115"/>
-      <c r="W118" s="115"/>
-      <c r="X118" s="115"/>
-      <c r="Y118" s="115"/>
-      <c r="Z118" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA118" s="115" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB118" s="115"/>
-      <c r="AC118" s="115"/>
-      <c r="AD118" s="115"/>
-      <c r="AE118" s="115"/>
-      <c r="AF118" s="115"/>
-      <c r="AG118" s="115"/>
-      <c r="AH118" s="115"/>
-      <c r="AI118" s="115"/>
-      <c r="AJ118" s="115"/>
-      <c r="AK118" s="115"/>
-      <c r="AL118" s="115"/>
-      <c r="AM118" s="115"/>
-      <c r="AN118" s="115"/>
-      <c r="AO118" s="115"/>
-      <c r="AP118" s="115"/>
+      <c r="P118" s="117"/>
+      <c r="Q118" s="117"/>
+      <c r="R118" s="117"/>
+      <c r="S118" s="117"/>
+      <c r="T118" s="117"/>
+      <c r="U118" s="117"/>
+      <c r="V118" s="117"/>
+      <c r="W118" s="117"/>
+      <c r="X118" s="117"/>
+      <c r="Y118" s="117"/>
+      <c r="Z118" s="112"/>
+      <c r="AA118" s="112"/>
+      <c r="AB118" s="112"/>
+      <c r="AC118" s="112"/>
+      <c r="AD118" s="112"/>
+      <c r="AE118" s="112"/>
+      <c r="AF118" s="112"/>
+      <c r="AG118" s="112"/>
+      <c r="AH118" s="112"/>
+      <c r="AI118" s="112"/>
+      <c r="AJ118" s="112"/>
+      <c r="AK118" s="112"/>
+      <c r="AL118" s="112"/>
+      <c r="AM118" s="112"/>
+      <c r="AN118" s="112"/>
+      <c r="AO118" s="112"/>
+      <c r="AP118" s="112"/>
       <c r="AQ118" s="112"/>
       <c r="AR118" s="112"/>
       <c r="AS118" s="112"/>
@@ -16578,27 +16556,21 @@
       <c r="J119" s="112"/>
       <c r="K119" s="112"/>
       <c r="L119" s="113"/>
-      <c r="M119" s="115"/>
-      <c r="N119" s="115"/>
-      <c r="O119" s="117"/>
-      <c r="P119" s="115" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q119" s="115"/>
-      <c r="R119" s="115"/>
-      <c r="S119" s="115"/>
-      <c r="T119" s="115"/>
-      <c r="U119" s="115"/>
-      <c r="V119" s="115"/>
-      <c r="W119" s="115"/>
-      <c r="X119" s="115"/>
-      <c r="Y119" s="115"/>
-      <c r="Z119" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA119" s="115" t="s">
-        <v>260</v>
-      </c>
+      <c r="N119" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="P119" s="117"/>
+      <c r="Q119" s="117"/>
+      <c r="R119" s="117"/>
+      <c r="S119" s="117"/>
+      <c r="T119" s="117"/>
+      <c r="U119" s="117"/>
+      <c r="V119" s="117"/>
+      <c r="W119" s="117"/>
+      <c r="X119" s="117"/>
+      <c r="Y119" s="117"/>
+      <c r="Z119" s="115"/>
+      <c r="AA119" s="115"/>
       <c r="AB119" s="115"/>
       <c r="AC119" s="115"/>
       <c r="AD119" s="115"/>
@@ -16633,22 +16605,20 @@
       <c r="J120" s="112"/>
       <c r="K120" s="112"/>
       <c r="L120" s="113"/>
-      <c r="M120" s="115"/>
-      <c r="N120" s="115"/>
       <c r="O120" s="117" t="s">
-        <v>279</v>
-      </c>
-      <c r="P120" s="115"/>
-      <c r="Q120" s="115"/>
-      <c r="R120" s="115"/>
-      <c r="S120" s="115"/>
-      <c r="T120" s="115"/>
-      <c r="U120" s="115"/>
-      <c r="V120" s="115"/>
-      <c r="W120" s="115"/>
-      <c r="X120" s="115"/>
-      <c r="Y120" s="115"/>
-      <c r="Z120" s="116"/>
+        <v>251</v>
+      </c>
+      <c r="P120" s="117"/>
+      <c r="Q120" s="117"/>
+      <c r="R120" s="117"/>
+      <c r="S120" s="117"/>
+      <c r="T120" s="117"/>
+      <c r="U120" s="117"/>
+      <c r="V120" s="117"/>
+      <c r="W120" s="117"/>
+      <c r="X120" s="117"/>
+      <c r="Y120" s="117"/>
+      <c r="Z120" s="115"/>
       <c r="AA120" s="115"/>
       <c r="AB120" s="115"/>
       <c r="AC120" s="115"/>
@@ -16684,12 +16654,10 @@
       <c r="J121" s="112"/>
       <c r="K121" s="112"/>
       <c r="L121" s="113"/>
-      <c r="M121" s="115"/>
-      <c r="N121" s="115"/>
-      <c r="O121" s="117"/>
-      <c r="P121" s="115" t="s">
-        <v>239</v>
-      </c>
+      <c r="O121" s="117" t="s">
+        <v>199</v>
+      </c>
+      <c r="P121" s="115"/>
       <c r="Q121" s="115"/>
       <c r="R121" s="115"/>
       <c r="S121" s="115"/>
@@ -16699,12 +16667,8 @@
       <c r="W121" s="115"/>
       <c r="X121" s="115"/>
       <c r="Y121" s="115"/>
-      <c r="Z121" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA121" s="115" t="s">
-        <v>280</v>
-      </c>
+      <c r="Z121" s="116"/>
+      <c r="AA121" s="115"/>
       <c r="AB121" s="115"/>
       <c r="AC121" s="115"/>
       <c r="AD121" s="115"/>
@@ -16743,7 +16707,7 @@
       <c r="N122" s="115"/>
       <c r="O122" s="117"/>
       <c r="P122" s="115" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q122" s="115"/>
       <c r="R122" s="115"/>
@@ -16758,7 +16722,7 @@
         <v>169</v>
       </c>
       <c r="AA122" s="115" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="AB122" s="115"/>
       <c r="AC122" s="115"/>
@@ -16798,7 +16762,7 @@
       <c r="N123" s="115"/>
       <c r="O123" s="117"/>
       <c r="P123" s="115" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q123" s="115"/>
       <c r="R123" s="115"/>
@@ -16813,7 +16777,7 @@
         <v>169</v>
       </c>
       <c r="AA123" s="115" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="AB123" s="115"/>
       <c r="AC123" s="115"/>
@@ -16851,10 +16815,10 @@
       <c r="L124" s="113"/>
       <c r="M124" s="115"/>
       <c r="N124" s="115"/>
-      <c r="O124" s="117"/>
-      <c r="P124" s="115" t="s">
-        <v>263</v>
-      </c>
+      <c r="O124" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="P124" s="115"/>
       <c r="Q124" s="115"/>
       <c r="R124" s="115"/>
       <c r="S124" s="115"/>
@@ -16864,12 +16828,8 @@
       <c r="W124" s="115"/>
       <c r="X124" s="115"/>
       <c r="Y124" s="115"/>
-      <c r="Z124" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA124" s="115" t="s">
-        <v>283</v>
-      </c>
+      <c r="Z124" s="116"/>
+      <c r="AA124" s="115"/>
       <c r="AB124" s="115"/>
       <c r="AC124" s="115"/>
       <c r="AD124" s="115"/>
@@ -16908,7 +16868,7 @@
       <c r="N125" s="115"/>
       <c r="O125" s="117"/>
       <c r="P125" s="115" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="Q125" s="115"/>
       <c r="R125" s="115"/>
@@ -16923,7 +16883,7 @@
         <v>169</v>
       </c>
       <c r="AA125" s="115" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AB125" s="115"/>
       <c r="AC125" s="115"/>
@@ -16961,10 +16921,10 @@
       <c r="L126" s="113"/>
       <c r="M126" s="115"/>
       <c r="N126" s="115"/>
-      <c r="O126" s="117" t="s">
-        <v>207</v>
-      </c>
-      <c r="P126" s="115"/>
+      <c r="O126" s="117"/>
+      <c r="P126" s="115" t="s">
+        <v>260</v>
+      </c>
       <c r="Q126" s="115"/>
       <c r="R126" s="115"/>
       <c r="S126" s="115"/>
@@ -16974,8 +16934,12 @@
       <c r="W126" s="115"/>
       <c r="X126" s="115"/>
       <c r="Y126" s="115"/>
-      <c r="Z126" s="116"/>
-      <c r="AA126" s="115"/>
+      <c r="Z126" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA126" s="115" t="s">
+        <v>280</v>
+      </c>
       <c r="AB126" s="115"/>
       <c r="AC126" s="115"/>
       <c r="AD126" s="115"/>
@@ -17014,7 +16978,7 @@
       <c r="N127" s="115"/>
       <c r="O127" s="117"/>
       <c r="P127" s="115" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="Q127" s="115"/>
       <c r="R127" s="115"/>
@@ -17029,7 +16993,7 @@
         <v>169</v>
       </c>
       <c r="AA127" s="115" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="AB127" s="115"/>
       <c r="AC127" s="115"/>
@@ -17069,7 +17033,7 @@
       <c r="N128" s="115"/>
       <c r="O128" s="117"/>
       <c r="P128" s="115" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q128" s="115"/>
       <c r="R128" s="115"/>
@@ -17084,7 +17048,7 @@
         <v>169</v>
       </c>
       <c r="AA128" s="115" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="AB128" s="115"/>
       <c r="AC128" s="115"/>
@@ -17124,7 +17088,7 @@
       <c r="N129" s="115"/>
       <c r="O129" s="117"/>
       <c r="P129" s="115" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q129" s="115"/>
       <c r="R129" s="115"/>
@@ -17139,7 +17103,7 @@
         <v>169</v>
       </c>
       <c r="AA129" s="115" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="AB129" s="115"/>
       <c r="AC129" s="115"/>
@@ -17177,10 +17141,10 @@
       <c r="L130" s="113"/>
       <c r="M130" s="115"/>
       <c r="N130" s="115"/>
-      <c r="O130" s="117"/>
-      <c r="P130" s="115" t="s">
-        <v>263</v>
-      </c>
+      <c r="O130" s="117" t="s">
+        <v>205</v>
+      </c>
+      <c r="P130" s="115"/>
       <c r="Q130" s="115"/>
       <c r="R130" s="115"/>
       <c r="S130" s="115"/>
@@ -17190,12 +17154,8 @@
       <c r="W130" s="115"/>
       <c r="X130" s="115"/>
       <c r="Y130" s="115"/>
-      <c r="Z130" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA130" s="115" t="s">
-        <v>244</v>
-      </c>
+      <c r="Z130" s="116"/>
+      <c r="AA130" s="115"/>
       <c r="AB130" s="115"/>
       <c r="AC130" s="115"/>
       <c r="AD130" s="115"/>
@@ -17234,7 +17194,7 @@
       <c r="N131" s="115"/>
       <c r="O131" s="117"/>
       <c r="P131" s="115" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="Q131" s="115"/>
       <c r="R131" s="115"/>
@@ -17249,7 +17209,7 @@
         <v>169</v>
       </c>
       <c r="AA131" s="115" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AB131" s="115"/>
       <c r="AC131" s="115"/>
@@ -17286,35 +17246,41 @@
       <c r="K132" s="112"/>
       <c r="L132" s="113"/>
       <c r="M132" s="115"/>
-      <c r="N132" s="112"/>
-      <c r="O132" s="112"/>
-      <c r="P132" s="112"/>
-      <c r="Q132" s="112"/>
-      <c r="R132" s="112"/>
-      <c r="S132" s="112"/>
-      <c r="T132" s="112"/>
-      <c r="U132" s="112"/>
-      <c r="V132" s="112"/>
-      <c r="W132" s="112"/>
-      <c r="X132" s="112"/>
-      <c r="Y132" s="112"/>
-      <c r="Z132" s="112"/>
-      <c r="AA132" s="112"/>
-      <c r="AB132" s="112"/>
-      <c r="AC132" s="112"/>
-      <c r="AD132" s="112"/>
-      <c r="AE132" s="112"/>
-      <c r="AF132" s="112"/>
-      <c r="AG132" s="112"/>
-      <c r="AH132" s="112"/>
-      <c r="AI132" s="112"/>
-      <c r="AJ132" s="112"/>
-      <c r="AK132" s="112"/>
-      <c r="AL132" s="112"/>
-      <c r="AM132" s="112"/>
-      <c r="AN132" s="112"/>
-      <c r="AO132" s="112"/>
-      <c r="AP132" s="112"/>
+      <c r="N132" s="115"/>
+      <c r="O132" s="117"/>
+      <c r="P132" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q132" s="115"/>
+      <c r="R132" s="115"/>
+      <c r="S132" s="115"/>
+      <c r="T132" s="115"/>
+      <c r="U132" s="115"/>
+      <c r="V132" s="115"/>
+      <c r="W132" s="115"/>
+      <c r="X132" s="115"/>
+      <c r="Y132" s="115"/>
+      <c r="Z132" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA132" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB132" s="115"/>
+      <c r="AC132" s="115"/>
+      <c r="AD132" s="115"/>
+      <c r="AE132" s="115"/>
+      <c r="AF132" s="115"/>
+      <c r="AG132" s="115"/>
+      <c r="AH132" s="115"/>
+      <c r="AI132" s="115"/>
+      <c r="AJ132" s="115"/>
+      <c r="AK132" s="115"/>
+      <c r="AL132" s="115"/>
+      <c r="AM132" s="115"/>
+      <c r="AN132" s="115"/>
+      <c r="AO132" s="115"/>
+      <c r="AP132" s="115"/>
       <c r="AQ132" s="112"/>
       <c r="AR132" s="112"/>
       <c r="AS132" s="112"/>
@@ -17335,36 +17301,41 @@
       <c r="K133" s="112"/>
       <c r="L133" s="113"/>
       <c r="M133" s="115"/>
-      <c r="N133" s="116" t="s">
-        <v>199</v>
-      </c>
-      <c r="P133" s="116"/>
-      <c r="Q133" s="116"/>
-      <c r="R133" s="116"/>
-      <c r="S133" s="116"/>
-      <c r="T133" s="116"/>
-      <c r="U133" s="116"/>
-      <c r="V133" s="116"/>
-      <c r="W133" s="116"/>
-      <c r="X133" s="116"/>
-      <c r="Y133" s="116"/>
-      <c r="Z133" s="116"/>
-      <c r="AA133" s="116"/>
-      <c r="AB133" s="116"/>
-      <c r="AC133" s="116"/>
-      <c r="AD133" s="116"/>
-      <c r="AE133" s="116"/>
-      <c r="AF133" s="116"/>
-      <c r="AG133" s="116"/>
-      <c r="AH133" s="116"/>
-      <c r="AI133" s="116"/>
-      <c r="AJ133" s="116"/>
-      <c r="AK133" s="116"/>
-      <c r="AL133" s="116"/>
-      <c r="AM133" s="112"/>
-      <c r="AN133" s="112"/>
-      <c r="AO133" s="112"/>
-      <c r="AP133" s="112"/>
+      <c r="N133" s="115"/>
+      <c r="O133" s="117"/>
+      <c r="P133" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q133" s="115"/>
+      <c r="R133" s="115"/>
+      <c r="S133" s="115"/>
+      <c r="T133" s="115"/>
+      <c r="U133" s="115"/>
+      <c r="V133" s="115"/>
+      <c r="W133" s="115"/>
+      <c r="X133" s="115"/>
+      <c r="Y133" s="115"/>
+      <c r="Z133" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA133" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB133" s="115"/>
+      <c r="AC133" s="115"/>
+      <c r="AD133" s="115"/>
+      <c r="AE133" s="115"/>
+      <c r="AF133" s="115"/>
+      <c r="AG133" s="115"/>
+      <c r="AH133" s="115"/>
+      <c r="AI133" s="115"/>
+      <c r="AJ133" s="115"/>
+      <c r="AK133" s="115"/>
+      <c r="AL133" s="115"/>
+      <c r="AM133" s="115"/>
+      <c r="AN133" s="115"/>
+      <c r="AO133" s="115"/>
+      <c r="AP133" s="115"/>
       <c r="AQ133" s="112"/>
       <c r="AR133" s="112"/>
       <c r="AS133" s="112"/>
@@ -17384,37 +17355,42 @@
       <c r="J134" s="112"/>
       <c r="K134" s="112"/>
       <c r="L134" s="113"/>
-      <c r="M134" s="112"/>
-      <c r="N134" s="112"/>
-      <c r="O134" s="116" t="s">
-        <v>203</v>
-      </c>
-      <c r="P134" s="116"/>
-      <c r="Q134" s="116"/>
-      <c r="R134" s="116"/>
-      <c r="S134" s="116"/>
-      <c r="T134" s="116"/>
-      <c r="U134" s="116"/>
-      <c r="V134" s="116"/>
-      <c r="W134" s="116"/>
-      <c r="X134" s="116"/>
+      <c r="M134" s="115"/>
+      <c r="N134" s="115"/>
+      <c r="O134" s="117"/>
+      <c r="P134" s="115" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q134" s="115"/>
+      <c r="R134" s="115"/>
+      <c r="S134" s="115"/>
+      <c r="T134" s="115"/>
+      <c r="U134" s="115"/>
+      <c r="V134" s="115"/>
+      <c r="W134" s="115"/>
+      <c r="X134" s="115"/>
+      <c r="Y134" s="115"/>
       <c r="Z134" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="AA134" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB134" s="116"/>
-      <c r="AC134" s="116"/>
-      <c r="AD134" s="116"/>
-      <c r="AI134" s="116"/>
-      <c r="AJ134" s="116"/>
-      <c r="AK134" s="116"/>
-      <c r="AL134" s="100"/>
-      <c r="AM134" s="112"/>
-      <c r="AN134" s="112"/>
-      <c r="AO134" s="112"/>
-      <c r="AP134" s="112"/>
+      <c r="AA134" s="115" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB134" s="115"/>
+      <c r="AC134" s="115"/>
+      <c r="AD134" s="115"/>
+      <c r="AE134" s="115"/>
+      <c r="AF134" s="115"/>
+      <c r="AG134" s="115"/>
+      <c r="AH134" s="115"/>
+      <c r="AI134" s="115"/>
+      <c r="AJ134" s="115"/>
+      <c r="AK134" s="115"/>
+      <c r="AL134" s="115"/>
+      <c r="AM134" s="115"/>
+      <c r="AN134" s="115"/>
+      <c r="AO134" s="115"/>
+      <c r="AP134" s="115"/>
       <c r="AQ134" s="112"/>
       <c r="AR134" s="112"/>
       <c r="AS134" s="112"/>
@@ -17434,37 +17410,42 @@
       <c r="J135" s="112"/>
       <c r="K135" s="112"/>
       <c r="L135" s="113"/>
-      <c r="M135" s="112"/>
-      <c r="N135" s="112"/>
-      <c r="O135" s="116" t="s">
-        <v>205</v>
-      </c>
-      <c r="P135" s="116"/>
-      <c r="Q135" s="116"/>
-      <c r="R135" s="116"/>
-      <c r="S135" s="116"/>
-      <c r="T135" s="116"/>
-      <c r="U135" s="116"/>
-      <c r="V135" s="116"/>
-      <c r="W135" s="116"/>
-      <c r="X135" s="116"/>
+      <c r="M135" s="115"/>
+      <c r="N135" s="115"/>
+      <c r="O135" s="117"/>
+      <c r="P135" s="115" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q135" s="115"/>
+      <c r="R135" s="115"/>
+      <c r="S135" s="115"/>
+      <c r="T135" s="115"/>
+      <c r="U135" s="115"/>
+      <c r="V135" s="115"/>
+      <c r="W135" s="115"/>
+      <c r="X135" s="115"/>
+      <c r="Y135" s="115"/>
       <c r="Z135" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="AA135" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB135" s="119"/>
-      <c r="AC135" s="119"/>
-      <c r="AD135" s="116"/>
-      <c r="AI135" s="116"/>
-      <c r="AJ135" s="116"/>
-      <c r="AK135" s="116"/>
-      <c r="AL135" s="100"/>
-      <c r="AM135" s="112"/>
-      <c r="AN135" s="112"/>
-      <c r="AO135" s="112"/>
-      <c r="AP135" s="112"/>
+      <c r="AA135" s="115" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB135" s="115"/>
+      <c r="AC135" s="115"/>
+      <c r="AD135" s="115"/>
+      <c r="AE135" s="115"/>
+      <c r="AF135" s="115"/>
+      <c r="AG135" s="115"/>
+      <c r="AH135" s="115"/>
+      <c r="AI135" s="115"/>
+      <c r="AJ135" s="115"/>
+      <c r="AK135" s="115"/>
+      <c r="AL135" s="115"/>
+      <c r="AM135" s="115"/>
+      <c r="AN135" s="115"/>
+      <c r="AO135" s="115"/>
+      <c r="AP135" s="115"/>
       <c r="AQ135" s="112"/>
       <c r="AR135" s="112"/>
       <c r="AS135" s="112"/>
@@ -17484,35 +17465,33 @@
       <c r="J136" s="112"/>
       <c r="K136" s="112"/>
       <c r="L136" s="113"/>
-      <c r="M136" s="112"/>
+      <c r="M136" s="115"/>
       <c r="N136" s="112"/>
-      <c r="O136" s="116" t="s">
-        <v>206</v>
-      </c>
-      <c r="P136" s="116"/>
-      <c r="Q136" s="116"/>
-      <c r="R136" s="116"/>
-      <c r="S136" s="116"/>
-      <c r="T136" s="116"/>
-      <c r="U136" s="116"/>
-      <c r="V136" s="116"/>
-      <c r="W136" s="116"/>
-      <c r="X136" s="116"/>
-      <c r="Z136" s="116" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA136" s="116"/>
-      <c r="AB136" s="116"/>
-      <c r="AC136" s="116"/>
-      <c r="AD136" s="116"/>
-      <c r="AH136" s="116"/>
-      <c r="AI136" s="116"/>
-      <c r="AJ136" s="116"/>
-      <c r="AK136" s="116"/>
-      <c r="AL136" s="100"/>
-      <c r="AM136" s="112" t="s">
-        <v>172</v>
-      </c>
+      <c r="O136" s="112"/>
+      <c r="P136" s="112"/>
+      <c r="Q136" s="112"/>
+      <c r="R136" s="112"/>
+      <c r="S136" s="112"/>
+      <c r="T136" s="112"/>
+      <c r="U136" s="112"/>
+      <c r="V136" s="112"/>
+      <c r="W136" s="112"/>
+      <c r="X136" s="112"/>
+      <c r="Y136" s="112"/>
+      <c r="Z136" s="112"/>
+      <c r="AA136" s="112"/>
+      <c r="AB136" s="112"/>
+      <c r="AC136" s="112"/>
+      <c r="AD136" s="112"/>
+      <c r="AE136" s="112"/>
+      <c r="AF136" s="112"/>
+      <c r="AG136" s="112"/>
+      <c r="AH136" s="112"/>
+      <c r="AI136" s="112"/>
+      <c r="AJ136" s="112"/>
+      <c r="AK136" s="112"/>
+      <c r="AL136" s="112"/>
+      <c r="AM136" s="112"/>
       <c r="AN136" s="112"/>
       <c r="AO136" s="112"/>
       <c r="AP136" s="112"/>
@@ -17536,9 +17515,8 @@
       <c r="K137" s="112"/>
       <c r="L137" s="113"/>
       <c r="M137" s="115"/>
-      <c r="N137" s="115"/>
-      <c r="O137" s="116" t="s">
-        <v>255</v>
+      <c r="N137" s="116" t="s">
+        <v>197</v>
       </c>
       <c r="P137" s="116"/>
       <c r="Q137" s="116"/>
@@ -17549,22 +17527,24 @@
       <c r="V137" s="116"/>
       <c r="W137" s="116"/>
       <c r="X137" s="116"/>
-      <c r="Z137" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA137" s="101" t="s">
-        <v>256</v>
-      </c>
+      <c r="Y137" s="116"/>
+      <c r="Z137" s="116"/>
+      <c r="AA137" s="116"/>
       <c r="AB137" s="116"/>
       <c r="AC137" s="116"/>
       <c r="AD137" s="116"/>
+      <c r="AE137" s="116"/>
+      <c r="AF137" s="116"/>
+      <c r="AG137" s="116"/>
+      <c r="AH137" s="116"/>
+      <c r="AI137" s="116"/>
       <c r="AJ137" s="116"/>
       <c r="AK137" s="116"/>
-      <c r="AL137" s="100"/>
-      <c r="AM137" s="116"/>
-      <c r="AN137" s="115"/>
-      <c r="AO137" s="115"/>
-      <c r="AP137" s="115"/>
+      <c r="AL137" s="116"/>
+      <c r="AM137" s="112"/>
+      <c r="AN137" s="112"/>
+      <c r="AO137" s="112"/>
+      <c r="AP137" s="112"/>
       <c r="AQ137" s="112"/>
       <c r="AR137" s="112"/>
       <c r="AS137" s="112"/>
@@ -17584,10 +17564,10 @@
       <c r="J138" s="112"/>
       <c r="K138" s="112"/>
       <c r="L138" s="113"/>
-      <c r="M138" s="115"/>
-      <c r="N138" s="115"/>
+      <c r="M138" s="112"/>
+      <c r="N138" s="112"/>
       <c r="O138" s="116" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="P138" s="116"/>
       <c r="Q138" s="116"/>
@@ -17599,21 +17579,22 @@
       <c r="W138" s="116"/>
       <c r="X138" s="116"/>
       <c r="Z138" s="116" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA138" s="116"/>
+        <v>169</v>
+      </c>
+      <c r="AA138" s="101" t="s">
+        <v>202</v>
+      </c>
       <c r="AB138" s="116"/>
       <c r="AC138" s="116"/>
       <c r="AD138" s="116"/>
+      <c r="AI138" s="116"/>
       <c r="AJ138" s="116"/>
       <c r="AK138" s="116"/>
       <c r="AL138" s="100"/>
-      <c r="AM138" s="116" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN138" s="115"/>
-      <c r="AO138" s="115"/>
-      <c r="AP138" s="115"/>
+      <c r="AM138" s="112"/>
+      <c r="AN138" s="112"/>
+      <c r="AO138" s="112"/>
+      <c r="AP138" s="112"/>
       <c r="AQ138" s="112"/>
       <c r="AR138" s="112"/>
       <c r="AS138" s="112"/>
@@ -17633,10 +17614,10 @@
       <c r="J139" s="112"/>
       <c r="K139" s="112"/>
       <c r="L139" s="113"/>
-      <c r="M139" s="115"/>
-      <c r="N139" s="115"/>
+      <c r="M139" s="112"/>
+      <c r="N139" s="112"/>
       <c r="O139" s="116" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P139" s="116"/>
       <c r="Q139" s="116"/>
@@ -17650,21 +17631,20 @@
       <c r="Z139" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="AA139" s="116" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB139" s="116"/>
-      <c r="AC139" s="116"/>
+      <c r="AA139" s="120" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB139" s="119"/>
+      <c r="AC139" s="119"/>
       <c r="AD139" s="116"/>
+      <c r="AI139" s="116"/>
       <c r="AJ139" s="116"/>
       <c r="AK139" s="116"/>
       <c r="AL139" s="100"/>
-      <c r="AM139" s="116" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN139" s="115"/>
-      <c r="AO139" s="115"/>
-      <c r="AP139" s="115"/>
+      <c r="AM139" s="112"/>
+      <c r="AN139" s="112"/>
+      <c r="AO139" s="112"/>
+      <c r="AP139" s="112"/>
       <c r="AQ139" s="112"/>
       <c r="AR139" s="112"/>
       <c r="AS139" s="112"/>
@@ -17684,10 +17664,10 @@
       <c r="J140" s="112"/>
       <c r="K140" s="112"/>
       <c r="L140" s="113"/>
-      <c r="M140" s="115"/>
-      <c r="N140" s="115"/>
+      <c r="M140" s="112"/>
+      <c r="N140" s="112"/>
       <c r="O140" s="116" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P140" s="116"/>
       <c r="Q140" s="116"/>
@@ -17699,23 +17679,23 @@
       <c r="W140" s="116"/>
       <c r="X140" s="116"/>
       <c r="Z140" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA140" s="116" t="s">
         <v>235</v>
       </c>
+      <c r="AA140" s="116"/>
       <c r="AB140" s="116"/>
       <c r="AC140" s="116"/>
       <c r="AD140" s="116"/>
+      <c r="AH140" s="116"/>
+      <c r="AI140" s="116"/>
       <c r="AJ140" s="116"/>
       <c r="AK140" s="116"/>
       <c r="AL140" s="100"/>
-      <c r="AM140" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN140" s="115"/>
-      <c r="AO140" s="115"/>
-      <c r="AP140" s="115"/>
+      <c r="AM140" s="112" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN140" s="112"/>
+      <c r="AO140" s="112"/>
+      <c r="AP140" s="112"/>
       <c r="AQ140" s="112"/>
       <c r="AR140" s="112"/>
       <c r="AS140" s="112"/>
@@ -17737,8 +17717,31 @@
       <c r="L141" s="113"/>
       <c r="M141" s="115"/>
       <c r="N141" s="115"/>
-      <c r="O141" s="116"/>
-      <c r="AM141" s="115"/>
+      <c r="O141" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="P141" s="116"/>
+      <c r="Q141" s="116"/>
+      <c r="R141" s="116"/>
+      <c r="S141" s="116"/>
+      <c r="T141" s="116"/>
+      <c r="U141" s="116"/>
+      <c r="V141" s="116"/>
+      <c r="W141" s="116"/>
+      <c r="X141" s="116"/>
+      <c r="Z141" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA141" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB141" s="116"/>
+      <c r="AC141" s="116"/>
+      <c r="AD141" s="116"/>
+      <c r="AJ141" s="116"/>
+      <c r="AK141" s="116"/>
+      <c r="AL141" s="100"/>
+      <c r="AM141" s="116"/>
       <c r="AN141" s="115"/>
       <c r="AO141" s="115"/>
       <c r="AP141" s="115"/>
@@ -17762,10 +17765,32 @@
       <c r="K142" s="112"/>
       <c r="L142" s="113"/>
       <c r="M142" s="115"/>
-      <c r="N142" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM142" s="115"/>
+      <c r="N142" s="115"/>
+      <c r="O142" s="116" t="s">
+        <v>268</v>
+      </c>
+      <c r="P142" s="116"/>
+      <c r="Q142" s="116"/>
+      <c r="R142" s="116"/>
+      <c r="S142" s="116"/>
+      <c r="T142" s="116"/>
+      <c r="U142" s="116"/>
+      <c r="V142" s="116"/>
+      <c r="W142" s="116"/>
+      <c r="X142" s="116"/>
+      <c r="Z142" s="116" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA142" s="116"/>
+      <c r="AB142" s="116"/>
+      <c r="AC142" s="116"/>
+      <c r="AD142" s="116"/>
+      <c r="AJ142" s="116"/>
+      <c r="AK142" s="116"/>
+      <c r="AL142" s="100"/>
+      <c r="AM142" s="116" t="s">
+        <v>173</v>
+      </c>
       <c r="AN142" s="115"/>
       <c r="AO142" s="115"/>
       <c r="AP142" s="115"/>
@@ -17790,10 +17815,33 @@
       <c r="L143" s="113"/>
       <c r="M143" s="115"/>
       <c r="N143" s="115"/>
-      <c r="O143" s="117" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM143" s="115"/>
+      <c r="O143" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="P143" s="116"/>
+      <c r="Q143" s="116"/>
+      <c r="R143" s="116"/>
+      <c r="S143" s="116"/>
+      <c r="T143" s="116"/>
+      <c r="U143" s="116"/>
+      <c r="V143" s="116"/>
+      <c r="W143" s="116"/>
+      <c r="X143" s="116"/>
+      <c r="Z143" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA143" s="116" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB143" s="116"/>
+      <c r="AC143" s="116"/>
+      <c r="AD143" s="116"/>
+      <c r="AJ143" s="116"/>
+      <c r="AK143" s="116"/>
+      <c r="AL143" s="100"/>
+      <c r="AM143" s="116" t="s">
+        <v>174</v>
+      </c>
       <c r="AN143" s="115"/>
       <c r="AO143" s="115"/>
       <c r="AP143" s="115"/>
@@ -17818,10 +17866,33 @@
       <c r="L144" s="113"/>
       <c r="M144" s="115"/>
       <c r="N144" s="115"/>
-      <c r="O144" s="117" t="s">
-        <v>248</v>
-      </c>
-      <c r="AM144" s="115"/>
+      <c r="O144" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="P144" s="116"/>
+      <c r="Q144" s="116"/>
+      <c r="R144" s="116"/>
+      <c r="S144" s="116"/>
+      <c r="T144" s="116"/>
+      <c r="U144" s="116"/>
+      <c r="V144" s="116"/>
+      <c r="W144" s="116"/>
+      <c r="X144" s="116"/>
+      <c r="Z144" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA144" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB144" s="116"/>
+      <c r="AC144" s="116"/>
+      <c r="AD144" s="116"/>
+      <c r="AJ144" s="116"/>
+      <c r="AK144" s="116"/>
+      <c r="AL144" s="100"/>
+      <c r="AM144" s="116" t="s">
+        <v>170</v>
+      </c>
       <c r="AN144" s="115"/>
       <c r="AO144" s="115"/>
       <c r="AP144" s="115"/>
@@ -17846,9 +17917,7 @@
       <c r="L145" s="113"/>
       <c r="M145" s="115"/>
       <c r="N145" s="115"/>
-      <c r="O145" s="117" t="s">
-        <v>249</v>
-      </c>
+      <c r="O145" s="116"/>
       <c r="AM145" s="115"/>
       <c r="AN145" s="115"/>
       <c r="AO145" s="115"/>
@@ -17873,9 +17942,8 @@
       <c r="K146" s="112"/>
       <c r="L146" s="113"/>
       <c r="M146" s="115"/>
-      <c r="N146" s="115"/>
-      <c r="O146" s="117" t="s">
-        <v>250</v>
+      <c r="N146" s="116" t="s">
+        <v>196</v>
       </c>
       <c r="AM146" s="115"/>
       <c r="AN146" s="115"/>
@@ -17903,7 +17971,7 @@
       <c r="M147" s="115"/>
       <c r="N147" s="115"/>
       <c r="O147" s="117" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AM147" s="115"/>
       <c r="AN147" s="115"/>
@@ -17931,7 +17999,7 @@
       <c r="M148" s="115"/>
       <c r="N148" s="115"/>
       <c r="O148" s="117" t="s">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="AM148" s="115"/>
       <c r="AN148" s="115"/>
@@ -17957,7 +18025,10 @@
       <c r="K149" s="112"/>
       <c r="L149" s="113"/>
       <c r="M149" s="115"/>
-      <c r="N149" s="116"/>
+      <c r="N149" s="115"/>
+      <c r="O149" s="117" t="s">
+        <v>248</v>
+      </c>
       <c r="AM149" s="115"/>
       <c r="AN149" s="115"/>
       <c r="AO149" s="115"/>
@@ -17982,8 +18053,9 @@
       <c r="K150" s="112"/>
       <c r="L150" s="113"/>
       <c r="M150" s="115"/>
-      <c r="N150" s="116" t="s">
-        <v>171</v>
+      <c r="N150" s="115"/>
+      <c r="O150" s="117" t="s">
+        <v>249</v>
       </c>
       <c r="AM150" s="115"/>
       <c r="AN150" s="115"/>
@@ -18011,7 +18083,7 @@
       <c r="M151" s="115"/>
       <c r="N151" s="115"/>
       <c r="O151" s="117" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="AM151" s="115"/>
       <c r="AN151" s="115"/>
@@ -18027,79 +18099,44 @@
     <row r="152" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B152" s="113"/>
       <c r="C152" s="113"/>
-      <c r="D152" s="112"/>
-      <c r="E152" s="112"/>
       <c r="F152" s="114"/>
       <c r="G152" s="113"/>
-      <c r="H152" s="112"/>
-      <c r="I152" s="112"/>
-      <c r="J152" s="112"/>
-      <c r="K152" s="112"/>
       <c r="L152" s="113"/>
-      <c r="M152" s="115"/>
-      <c r="N152" s="115"/>
-      <c r="O152" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM152" s="115"/>
-      <c r="AN152" s="115"/>
-      <c r="AO152" s="115"/>
-      <c r="AP152" s="115"/>
-      <c r="AQ152" s="112"/>
-      <c r="AR152" s="112"/>
-      <c r="AS152" s="112"/>
-      <c r="AT152" s="112"/>
-      <c r="AU152" s="112"/>
+      <c r="M152" s="116"/>
+      <c r="N152" s="116"/>
+      <c r="O152" s="116" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM152" s="116"/>
+      <c r="AN152" s="116"/>
+      <c r="AO152" s="116"/>
+      <c r="AP152" s="116"/>
       <c r="AV152" s="114"/>
     </row>
-    <row r="153" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B153" s="73"/>
-      <c r="C153" s="73"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
-      <c r="F153" s="74"/>
-      <c r="G153" s="73"/>
-      <c r="H153" s="23"/>
-      <c r="I153" s="23"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="73"/>
-      <c r="M153" s="75"/>
-      <c r="N153" s="75"/>
-      <c r="O153" s="75"/>
-      <c r="P153" s="75"/>
-      <c r="Q153" s="75"/>
-      <c r="R153" s="75"/>
-      <c r="S153" s="75"/>
-      <c r="T153" s="75"/>
-      <c r="U153" s="75"/>
-      <c r="V153" s="75"/>
-      <c r="W153" s="75"/>
-      <c r="X153" s="75"/>
-      <c r="Y153" s="75"/>
-      <c r="Z153" s="75"/>
-      <c r="AA153" s="75"/>
-      <c r="AB153" s="75"/>
-      <c r="AC153" s="75"/>
-      <c r="AD153" s="75"/>
-      <c r="AE153" s="75"/>
-      <c r="AF153" s="75"/>
-      <c r="AG153" s="75"/>
-      <c r="AH153" s="75"/>
-      <c r="AI153" s="75"/>
-      <c r="AJ153" s="75"/>
-      <c r="AK153" s="75"/>
-      <c r="AL153" s="75"/>
-      <c r="AM153" s="75"/>
-      <c r="AN153" s="75"/>
-      <c r="AO153" s="75"/>
-      <c r="AP153" s="75"/>
-      <c r="AQ153" s="23"/>
-      <c r="AR153" s="23"/>
-      <c r="AS153" s="23"/>
-      <c r="AT153" s="23"/>
-      <c r="AU153" s="23"/>
-      <c r="AV153" s="74"/>
+    <row r="153" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B153" s="113"/>
+      <c r="C153" s="113"/>
+      <c r="D153" s="112"/>
+      <c r="E153" s="112"/>
+      <c r="F153" s="114"/>
+      <c r="G153" s="113"/>
+      <c r="H153" s="112"/>
+      <c r="I153" s="112"/>
+      <c r="J153" s="112"/>
+      <c r="K153" s="112"/>
+      <c r="L153" s="113"/>
+      <c r="M153" s="115"/>
+      <c r="N153" s="116"/>
+      <c r="AM153" s="115"/>
+      <c r="AN153" s="115"/>
+      <c r="AO153" s="115"/>
+      <c r="AP153" s="115"/>
+      <c r="AQ153" s="112"/>
+      <c r="AR153" s="112"/>
+      <c r="AS153" s="112"/>
+      <c r="AT153" s="112"/>
+      <c r="AU153" s="112"/>
+      <c r="AV153" s="114"/>
     </row>
     <row r="154" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B154" s="113"/>
@@ -18112,39 +18149,15 @@
       <c r="I154" s="112"/>
       <c r="J154" s="112"/>
       <c r="K154" s="112"/>
-      <c r="L154" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="M154" s="112"/>
-      <c r="N154" s="112"/>
-      <c r="O154" s="112"/>
-      <c r="P154" s="112"/>
-      <c r="Q154" s="112"/>
-      <c r="R154" s="112"/>
-      <c r="S154" s="112"/>
-      <c r="T154" s="112"/>
-      <c r="U154" s="112"/>
-      <c r="V154" s="112"/>
-      <c r="W154" s="112"/>
-      <c r="X154" s="112"/>
-      <c r="Y154" s="112"/>
-      <c r="Z154" s="112"/>
-      <c r="AA154" s="112"/>
-      <c r="AB154" s="112"/>
-      <c r="AC154" s="112"/>
-      <c r="AD154" s="112"/>
-      <c r="AE154" s="112"/>
-      <c r="AF154" s="112"/>
-      <c r="AG154" s="112"/>
-      <c r="AH154" s="112"/>
-      <c r="AI154" s="112"/>
-      <c r="AJ154" s="112"/>
-      <c r="AK154" s="112"/>
-      <c r="AL154" s="112"/>
-      <c r="AM154" s="112"/>
-      <c r="AN154" s="112"/>
-      <c r="AO154" s="112"/>
-      <c r="AP154" s="112"/>
+      <c r="L154" s="113"/>
+      <c r="M154" s="115"/>
+      <c r="N154" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM154" s="115"/>
+      <c r="AN154" s="115"/>
+      <c r="AO154" s="115"/>
+      <c r="AP154" s="115"/>
       <c r="AQ154" s="112"/>
       <c r="AR154" s="112"/>
       <c r="AS154" s="112"/>
@@ -18164,38 +18177,15 @@
       <c r="J155" s="112"/>
       <c r="K155" s="112"/>
       <c r="L155" s="113"/>
-      <c r="M155" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="N155" s="112"/>
-      <c r="O155" s="112"/>
-      <c r="P155" s="112"/>
-      <c r="Q155" s="112"/>
-      <c r="R155" s="112"/>
-      <c r="S155" s="112"/>
-      <c r="T155" s="112"/>
-      <c r="U155" s="112"/>
-      <c r="V155" s="112"/>
-      <c r="W155" s="112"/>
-      <c r="X155" s="112"/>
-      <c r="Y155" s="112"/>
-      <c r="Z155" s="112"/>
-      <c r="AA155" s="112"/>
-      <c r="AB155" s="112"/>
-      <c r="AC155" s="112"/>
-      <c r="AD155" s="112"/>
-      <c r="AE155" s="112"/>
-      <c r="AF155" s="112"/>
-      <c r="AG155" s="112"/>
-      <c r="AH155" s="112"/>
-      <c r="AI155" s="112"/>
-      <c r="AJ155" s="112"/>
-      <c r="AK155" s="112"/>
-      <c r="AL155" s="112"/>
-      <c r="AM155" s="112"/>
-      <c r="AN155" s="112"/>
-      <c r="AO155" s="112"/>
-      <c r="AP155" s="112"/>
+      <c r="M155" s="115"/>
+      <c r="N155" s="115"/>
+      <c r="O155" s="117" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM155" s="115"/>
+      <c r="AN155" s="115"/>
+      <c r="AO155" s="115"/>
+      <c r="AP155" s="115"/>
       <c r="AQ155" s="112"/>
       <c r="AR155" s="112"/>
       <c r="AS155" s="112"/>
@@ -18206,60 +18196,118 @@
     <row r="156" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B156" s="113"/>
       <c r="C156" s="113"/>
+      <c r="D156" s="112"/>
+      <c r="E156" s="112"/>
       <c r="F156" s="114"/>
       <c r="G156" s="113"/>
-      <c r="K156" s="114"/>
-      <c r="N156" s="111" t="s">
-        <v>334</v>
-      </c>
-      <c r="O156" s="116"/>
-      <c r="P156" s="116"/>
-      <c r="Q156" s="116"/>
-      <c r="R156" s="116"/>
-      <c r="S156" s="116"/>
-      <c r="T156" s="116"/>
-      <c r="U156" s="116"/>
-      <c r="V156" s="116"/>
-      <c r="W156" s="116"/>
-      <c r="X156" s="116"/>
-      <c r="Y156" s="116"/>
-      <c r="Z156" s="116"/>
-      <c r="AA156" s="116"/>
-      <c r="AB156" s="116"/>
-      <c r="AC156" s="116"/>
-      <c r="AD156" s="116"/>
-      <c r="AE156" s="116"/>
-      <c r="AF156" s="116"/>
-      <c r="AG156" s="116"/>
-      <c r="AH156" s="116"/>
-      <c r="AK156" s="100"/>
-      <c r="AL156" s="100"/>
-      <c r="AM156" s="116"/>
-      <c r="AN156" s="100"/>
-      <c r="AO156" s="100"/>
-      <c r="AP156" s="100"/>
+      <c r="H156" s="112"/>
+      <c r="I156" s="112"/>
+      <c r="J156" s="112"/>
+      <c r="K156" s="112"/>
+      <c r="L156" s="113"/>
+      <c r="M156" s="115"/>
+      <c r="N156" s="115"/>
+      <c r="O156" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM156" s="115"/>
+      <c r="AN156" s="115"/>
+      <c r="AO156" s="115"/>
+      <c r="AP156" s="115"/>
+      <c r="AQ156" s="112"/>
+      <c r="AR156" s="112"/>
+      <c r="AS156" s="112"/>
+      <c r="AT156" s="112"/>
+      <c r="AU156" s="112"/>
       <c r="AV156" s="114"/>
     </row>
-    <row r="157" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B157" s="113"/>
-      <c r="C157" s="113"/>
-      <c r="F157" s="114"/>
-      <c r="G157" s="113"/>
-      <c r="K157" s="114"/>
-      <c r="O157" s="117" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV157" s="114"/>
+    <row r="157" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B157" s="73"/>
+      <c r="C157" s="73"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="74"/>
+      <c r="G157" s="73"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="23"/>
+      <c r="K157" s="23"/>
+      <c r="L157" s="73"/>
+      <c r="M157" s="75"/>
+      <c r="N157" s="75"/>
+      <c r="O157" s="75"/>
+      <c r="P157" s="75"/>
+      <c r="Q157" s="75"/>
+      <c r="R157" s="75"/>
+      <c r="S157" s="75"/>
+      <c r="T157" s="75"/>
+      <c r="U157" s="75"/>
+      <c r="V157" s="75"/>
+      <c r="W157" s="75"/>
+      <c r="X157" s="75"/>
+      <c r="Y157" s="75"/>
+      <c r="Z157" s="75"/>
+      <c r="AA157" s="75"/>
+      <c r="AB157" s="75"/>
+      <c r="AC157" s="75"/>
+      <c r="AD157" s="75"/>
+      <c r="AE157" s="75"/>
+      <c r="AF157" s="75"/>
+      <c r="AG157" s="75"/>
+      <c r="AH157" s="75"/>
+      <c r="AI157" s="75"/>
+      <c r="AJ157" s="75"/>
+      <c r="AK157" s="75"/>
+      <c r="AL157" s="75"/>
+      <c r="AM157" s="75"/>
+      <c r="AN157" s="75"/>
+      <c r="AO157" s="75"/>
+      <c r="AP157" s="75"/>
+      <c r="AQ157" s="23"/>
+      <c r="AR157" s="23"/>
+      <c r="AS157" s="23"/>
+      <c r="AT157" s="23"/>
+      <c r="AU157" s="23"/>
+      <c r="AV157" s="74"/>
     </row>
     <row r="158" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B158" s="113"/>
       <c r="C158" s="113"/>
       <c r="F158" s="114"/>
       <c r="G158" s="113"/>
-      <c r="K158" s="114"/>
-      <c r="O158" s="117" t="s">
-        <v>343</v>
-      </c>
+      <c r="L158" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="M158" s="116"/>
+      <c r="N158" s="116"/>
+      <c r="O158" s="116"/>
+      <c r="P158" s="116"/>
+      <c r="Q158" s="116"/>
+      <c r="R158" s="116"/>
+      <c r="S158" s="116"/>
+      <c r="T158" s="116"/>
+      <c r="U158" s="116"/>
+      <c r="V158" s="116"/>
+      <c r="W158" s="116"/>
+      <c r="X158" s="116"/>
+      <c r="Y158" s="116"/>
+      <c r="Z158" s="116"/>
+      <c r="AA158" s="116"/>
+      <c r="AB158" s="116"/>
+      <c r="AC158" s="116"/>
+      <c r="AD158" s="116"/>
+      <c r="AE158" s="116"/>
+      <c r="AF158" s="116"/>
+      <c r="AG158" s="116"/>
+      <c r="AH158" s="116"/>
+      <c r="AI158" s="116"/>
+      <c r="AJ158" s="116"/>
+      <c r="AK158" s="116"/>
+      <c r="AL158" s="116"/>
+      <c r="AM158" s="116"/>
+      <c r="AN158" s="116"/>
+      <c r="AO158" s="116"/>
+      <c r="AP158" s="116"/>
       <c r="AV158" s="114"/>
     </row>
     <row r="159" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -18267,10 +18315,39 @@
       <c r="C159" s="113"/>
       <c r="F159" s="114"/>
       <c r="G159" s="113"/>
-      <c r="K159" s="114"/>
-      <c r="O159" s="117" t="s">
-        <v>342</v>
-      </c>
+      <c r="L159" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="M159" s="116"/>
+      <c r="N159" s="116"/>
+      <c r="O159" s="116"/>
+      <c r="P159" s="116"/>
+      <c r="Q159" s="116"/>
+      <c r="R159" s="116"/>
+      <c r="S159" s="116"/>
+      <c r="T159" s="116"/>
+      <c r="U159" s="116"/>
+      <c r="V159" s="116"/>
+      <c r="W159" s="116"/>
+      <c r="X159" s="116"/>
+      <c r="Y159" s="116"/>
+      <c r="Z159" s="116"/>
+      <c r="AA159" s="116"/>
+      <c r="AB159" s="116"/>
+      <c r="AC159" s="116"/>
+      <c r="AD159" s="116"/>
+      <c r="AE159" s="116"/>
+      <c r="AF159" s="116"/>
+      <c r="AG159" s="116"/>
+      <c r="AH159" s="116"/>
+      <c r="AI159" s="116"/>
+      <c r="AJ159" s="116"/>
+      <c r="AK159" s="116"/>
+      <c r="AL159" s="116"/>
+      <c r="AM159" s="116"/>
+      <c r="AN159" s="116"/>
+      <c r="AO159" s="116"/>
+      <c r="AP159" s="116"/>
       <c r="AV159" s="114"/>
     </row>
     <row r="160" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -18278,1025 +18355,1799 @@
       <c r="C160" s="113"/>
       <c r="F160" s="114"/>
       <c r="G160" s="113"/>
-      <c r="K160" s="114"/>
-      <c r="O160" s="117" t="s">
-        <v>337</v>
-      </c>
+      <c r="L160" s="113"/>
+      <c r="M160" s="116" t="s">
+        <v>286</v>
+      </c>
+      <c r="N160" s="116"/>
+      <c r="O160" s="116"/>
+      <c r="P160" s="116"/>
+      <c r="Q160" s="116"/>
+      <c r="R160" s="116"/>
+      <c r="S160" s="116"/>
+      <c r="T160" s="116"/>
+      <c r="U160" s="116"/>
+      <c r="V160" s="116"/>
+      <c r="W160" s="116"/>
+      <c r="X160" s="116"/>
+      <c r="Y160" s="116"/>
+      <c r="Z160" s="116"/>
+      <c r="AA160" s="116"/>
+      <c r="AB160" s="116"/>
+      <c r="AC160" s="116"/>
+      <c r="AD160" s="116"/>
+      <c r="AE160" s="116"/>
+      <c r="AF160" s="116"/>
+      <c r="AG160" s="116"/>
+      <c r="AH160" s="116"/>
+      <c r="AI160" s="116"/>
+      <c r="AJ160" s="116"/>
+      <c r="AK160" s="116"/>
+      <c r="AL160" s="116"/>
+      <c r="AM160" s="116"/>
+      <c r="AN160" s="116"/>
+      <c r="AO160" s="116"/>
+      <c r="AP160" s="116"/>
       <c r="AV160" s="114"/>
     </row>
-    <row r="161" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:52" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B161" s="113"/>
       <c r="C161" s="113"/>
       <c r="F161" s="114"/>
       <c r="G161" s="113"/>
-      <c r="K161" s="114"/>
+      <c r="L161" s="113"/>
+      <c r="M161" s="116"/>
+      <c r="N161" s="116" t="s">
+        <v>338</v>
+      </c>
+      <c r="O161" s="116"/>
+      <c r="P161" s="116"/>
+      <c r="Q161" s="116"/>
+      <c r="R161" s="116"/>
+      <c r="S161" s="116"/>
+      <c r="T161" s="116"/>
+      <c r="U161" s="116"/>
+      <c r="V161" s="116"/>
+      <c r="W161" s="116"/>
+      <c r="X161" s="116"/>
+      <c r="Y161" s="116"/>
+      <c r="Z161" s="116"/>
+      <c r="AA161" s="116"/>
+      <c r="AB161" s="116"/>
+      <c r="AC161" s="116"/>
+      <c r="AD161" s="116"/>
+      <c r="AE161" s="116"/>
+      <c r="AF161" s="116"/>
+      <c r="AG161" s="116"/>
+      <c r="AH161" s="116"/>
+      <c r="AI161" s="116"/>
+      <c r="AJ161" s="116"/>
+      <c r="AK161" s="116"/>
+      <c r="AL161" s="116"/>
+      <c r="AM161" s="116"/>
+      <c r="AN161" s="116"/>
+      <c r="AO161" s="116"/>
+      <c r="AP161" s="116"/>
       <c r="AV161" s="114"/>
     </row>
-    <row r="162" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B162" s="113"/>
-      <c r="C162" s="113"/>
-      <c r="F162" s="114"/>
-      <c r="G162" s="113"/>
-      <c r="K162" s="114"/>
-      <c r="N162" s="116" t="s">
-        <v>333</v>
-      </c>
-      <c r="O162" s="116"/>
-      <c r="P162" s="116"/>
-      <c r="Q162" s="116"/>
-      <c r="R162" s="116"/>
-      <c r="S162" s="116"/>
-      <c r="T162" s="116"/>
-      <c r="U162" s="116"/>
-      <c r="V162" s="116"/>
-      <c r="W162" s="116"/>
-      <c r="X162" s="116"/>
-      <c r="Y162" s="116"/>
-      <c r="Z162" s="116"/>
-      <c r="AA162" s="116"/>
-      <c r="AB162" s="116"/>
-      <c r="AC162" s="116"/>
-      <c r="AD162" s="116"/>
-      <c r="AE162" s="116"/>
-      <c r="AF162" s="116"/>
-      <c r="AG162" s="116"/>
-      <c r="AH162" s="116"/>
-      <c r="AV162" s="114"/>
-    </row>
-    <row r="163" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B163" s="113"/>
-      <c r="C163" s="113"/>
-      <c r="F163" s="114"/>
-      <c r="G163" s="113"/>
-      <c r="K163" s="114"/>
-      <c r="O163" s="111" t="s">
-        <v>336</v>
-      </c>
-      <c r="AV163" s="114"/>
-    </row>
-    <row r="164" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B164" s="113"/>
-      <c r="C164" s="113"/>
-      <c r="F164" s="114"/>
-      <c r="G164" s="113"/>
-      <c r="K164" s="114"/>
-      <c r="O164" s="116" t="s">
-        <v>338</v>
-      </c>
-      <c r="P164" s="116"/>
-      <c r="Q164" s="116"/>
-      <c r="R164" s="116"/>
-      <c r="S164" s="116"/>
-      <c r="T164" s="116"/>
-      <c r="U164" s="116"/>
-      <c r="V164" s="116"/>
-      <c r="W164" s="116"/>
-      <c r="X164" s="116"/>
-      <c r="Y164" s="116"/>
-      <c r="Z164" s="116"/>
-      <c r="AA164" s="116"/>
-      <c r="AB164" s="116"/>
-      <c r="AC164" s="116"/>
-      <c r="AD164" s="116"/>
-      <c r="AE164" s="116"/>
-      <c r="AF164" s="116"/>
-      <c r="AG164" s="116"/>
-      <c r="AH164" s="116"/>
-      <c r="AK164" s="100"/>
-      <c r="AL164" s="100"/>
-      <c r="AM164" s="116"/>
-      <c r="AN164" s="100"/>
-      <c r="AO164" s="100"/>
-      <c r="AP164" s="100"/>
-      <c r="AV164" s="114"/>
-    </row>
-    <row r="165" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B165" s="113"/>
-      <c r="C165" s="113"/>
-      <c r="F165" s="114"/>
-      <c r="G165" s="113"/>
-      <c r="K165" s="114"/>
-      <c r="AV165" s="114"/>
-    </row>
-    <row r="166" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B166" s="113"/>
-      <c r="C166" s="113"/>
-      <c r="F166" s="114"/>
-      <c r="G166" s="113"/>
-      <c r="K166" s="114"/>
-      <c r="N166" s="116" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV166" s="114"/>
-    </row>
-    <row r="167" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B167" s="113"/>
-      <c r="C167" s="113"/>
-      <c r="F167" s="114"/>
-      <c r="G167" s="113"/>
-      <c r="K167" s="114"/>
-      <c r="O167" s="111" t="s">
-        <v>339</v>
-      </c>
-      <c r="AV167" s="114"/>
-    </row>
-    <row r="168" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B168" s="113"/>
-      <c r="C168" s="113"/>
-      <c r="D168" s="112"/>
-      <c r="E168" s="112"/>
-      <c r="F168" s="114"/>
-      <c r="G168" s="113"/>
-      <c r="H168" s="112"/>
-      <c r="I168" s="112"/>
-      <c r="J168" s="112"/>
-      <c r="K168" s="112"/>
-      <c r="L168" s="113"/>
-      <c r="O168" s="117" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q168" s="117"/>
-      <c r="R168" s="117"/>
-      <c r="S168" s="117"/>
-      <c r="T168" s="117"/>
-      <c r="U168" s="117"/>
-      <c r="V168" s="117"/>
-      <c r="W168" s="117"/>
-      <c r="X168" s="117"/>
-      <c r="Y168" s="117"/>
-      <c r="Z168" s="117"/>
-      <c r="AA168" s="112"/>
-      <c r="AB168" s="112"/>
-      <c r="AC168" s="112"/>
-      <c r="AD168" s="112"/>
-      <c r="AE168" s="112"/>
-      <c r="AF168" s="112"/>
-      <c r="AG168" s="112"/>
-      <c r="AH168" s="112"/>
-      <c r="AI168" s="112"/>
-      <c r="AJ168" s="112"/>
-      <c r="AK168" s="112"/>
-      <c r="AL168" s="112"/>
-      <c r="AM168" s="112"/>
-      <c r="AN168" s="112"/>
-      <c r="AO168" s="112"/>
-      <c r="AP168" s="112"/>
-      <c r="AQ168" s="112"/>
-      <c r="AR168" s="112"/>
-      <c r="AS168" s="112"/>
-      <c r="AT168" s="112"/>
-      <c r="AU168" s="112"/>
-      <c r="AV168" s="114"/>
-    </row>
-    <row r="169" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B169" s="113"/>
-      <c r="C169" s="113"/>
-      <c r="F169" s="114"/>
-      <c r="G169" s="113"/>
-      <c r="L169" s="113"/>
-      <c r="M169" s="116"/>
-      <c r="N169" s="116"/>
-      <c r="O169" s="116"/>
-      <c r="P169" s="116"/>
-      <c r="Q169" s="116"/>
-      <c r="R169" s="116"/>
-      <c r="S169" s="116"/>
-      <c r="T169" s="116"/>
-      <c r="U169" s="116"/>
-      <c r="V169" s="116"/>
-      <c r="W169" s="116"/>
-      <c r="X169" s="116"/>
-      <c r="Y169" s="116"/>
-      <c r="Z169" s="116"/>
-      <c r="AA169" s="116"/>
-      <c r="AB169" s="116"/>
-      <c r="AC169" s="116"/>
-      <c r="AD169" s="116"/>
-      <c r="AE169" s="116"/>
-      <c r="AF169" s="116"/>
-      <c r="AG169" s="116"/>
-      <c r="AH169" s="116"/>
-      <c r="AI169" s="116"/>
-      <c r="AJ169" s="116"/>
-      <c r="AK169" s="116"/>
-      <c r="AL169" s="116"/>
-      <c r="AM169" s="116"/>
-      <c r="AN169" s="116"/>
-      <c r="AO169" s="116"/>
-      <c r="AP169" s="116"/>
-      <c r="AV169" s="114"/>
-    </row>
-    <row r="170" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B170" s="113"/>
-      <c r="C170" s="113"/>
-      <c r="D170" s="112"/>
-      <c r="E170" s="112"/>
-      <c r="F170" s="114"/>
-      <c r="G170" s="113"/>
-      <c r="H170" s="112"/>
-      <c r="I170" s="112"/>
-      <c r="J170" s="112"/>
-      <c r="K170" s="112"/>
-      <c r="L170" s="113"/>
-      <c r="M170" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="N170" s="112"/>
-      <c r="O170" s="112"/>
-      <c r="P170" s="112"/>
-      <c r="Q170" s="112"/>
-      <c r="R170" s="112"/>
-      <c r="S170" s="112"/>
-      <c r="T170" s="112"/>
-      <c r="U170" s="112"/>
-      <c r="V170" s="112"/>
-      <c r="W170" s="112"/>
-      <c r="X170" s="112"/>
-      <c r="Y170" s="112"/>
-      <c r="Z170" s="112"/>
-      <c r="AA170" s="112"/>
-      <c r="AB170" s="112"/>
-      <c r="AC170" s="112"/>
-      <c r="AD170" s="112"/>
-      <c r="AE170" s="112"/>
-      <c r="AF170" s="112"/>
-      <c r="AG170" s="112"/>
-      <c r="AH170" s="112"/>
-      <c r="AI170" s="112"/>
-      <c r="AJ170" s="112"/>
-      <c r="AK170" s="112"/>
-      <c r="AL170" s="112"/>
-      <c r="AM170" s="112"/>
-      <c r="AN170" s="112"/>
-      <c r="AO170" s="112"/>
-      <c r="AP170" s="112"/>
-      <c r="AQ170" s="112"/>
-      <c r="AR170" s="112"/>
-      <c r="AS170" s="112"/>
-      <c r="AT170" s="112"/>
-      <c r="AU170" s="112"/>
-      <c r="AV170" s="114"/>
-    </row>
-    <row r="171" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B171" s="113"/>
-      <c r="C171" s="113"/>
-      <c r="F171" s="114"/>
-      <c r="G171" s="113"/>
-      <c r="K171" s="114"/>
-      <c r="N171" s="111" t="s">
-        <v>334</v>
-      </c>
-      <c r="O171" s="116"/>
-      <c r="P171" s="116"/>
-      <c r="Q171" s="116"/>
-      <c r="R171" s="116"/>
-      <c r="S171" s="116"/>
-      <c r="T171" s="116"/>
-      <c r="U171" s="116"/>
-      <c r="V171" s="116"/>
-      <c r="W171" s="116"/>
-      <c r="X171" s="116"/>
-      <c r="Y171" s="116"/>
-      <c r="Z171" s="116"/>
-      <c r="AA171" s="116"/>
-      <c r="AB171" s="116"/>
-      <c r="AC171" s="116"/>
-      <c r="AD171" s="116"/>
-      <c r="AE171" s="116"/>
-      <c r="AF171" s="116"/>
-      <c r="AG171" s="116"/>
-      <c r="AH171" s="116"/>
-      <c r="AK171" s="100"/>
-      <c r="AL171" s="100"/>
-      <c r="AM171" s="116"/>
-      <c r="AN171" s="100"/>
-      <c r="AO171" s="100"/>
-      <c r="AP171" s="100"/>
-      <c r="AV171" s="114"/>
-    </row>
-    <row r="172" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B172" s="113"/>
-      <c r="C172" s="113"/>
-      <c r="F172" s="114"/>
-      <c r="G172" s="113"/>
-      <c r="K172" s="114"/>
-      <c r="O172" s="117" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV172" s="114"/>
-    </row>
-    <row r="173" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B173" s="113"/>
-      <c r="C173" s="113"/>
-      <c r="F173" s="114"/>
-      <c r="G173" s="113"/>
-      <c r="K173" s="114"/>
-      <c r="O173" s="117" t="s">
-        <v>342</v>
-      </c>
-      <c r="AV173" s="114"/>
-    </row>
-    <row r="174" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B174" s="113"/>
-      <c r="C174" s="113"/>
-      <c r="F174" s="114"/>
-      <c r="G174" s="113"/>
-      <c r="K174" s="114"/>
-      <c r="O174" s="117" t="s">
-        <v>337</v>
-      </c>
-      <c r="AV174" s="114"/>
-    </row>
-    <row r="175" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B175" s="113"/>
-      <c r="C175" s="113"/>
-      <c r="F175" s="114"/>
-      <c r="G175" s="113"/>
-      <c r="K175" s="114"/>
-      <c r="AV175" s="114"/>
-    </row>
-    <row r="176" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B176" s="113"/>
-      <c r="C176" s="113"/>
-      <c r="F176" s="114"/>
-      <c r="G176" s="113"/>
-      <c r="K176" s="114"/>
-      <c r="N176" s="116" t="s">
-        <v>333</v>
-      </c>
-      <c r="O176" s="116"/>
-      <c r="P176" s="116"/>
-      <c r="Q176" s="116"/>
-      <c r="R176" s="116"/>
-      <c r="S176" s="116"/>
-      <c r="T176" s="116"/>
-      <c r="U176" s="116"/>
-      <c r="V176" s="116"/>
-      <c r="W176" s="116"/>
-      <c r="X176" s="116"/>
-      <c r="Y176" s="116"/>
-      <c r="Z176" s="116"/>
-      <c r="AA176" s="116"/>
-      <c r="AB176" s="116"/>
-      <c r="AC176" s="116"/>
-      <c r="AD176" s="116"/>
-      <c r="AE176" s="116"/>
-      <c r="AF176" s="116"/>
-      <c r="AG176" s="116"/>
-      <c r="AH176" s="116"/>
-      <c r="AV176" s="114"/>
-    </row>
-    <row r="177" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B177" s="113"/>
-      <c r="C177" s="113"/>
-      <c r="F177" s="114"/>
-      <c r="G177" s="113"/>
-      <c r="K177" s="114"/>
-      <c r="O177" s="111" t="s">
-        <v>336</v>
-      </c>
-      <c r="AV177" s="114"/>
-    </row>
-    <row r="178" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B178" s="113"/>
-      <c r="C178" s="113"/>
-      <c r="F178" s="114"/>
-      <c r="G178" s="113"/>
-      <c r="K178" s="114"/>
-      <c r="O178" s="116" t="s">
-        <v>338</v>
-      </c>
-      <c r="P178" s="116"/>
-      <c r="Q178" s="116"/>
-      <c r="R178" s="116"/>
-      <c r="S178" s="116"/>
-      <c r="T178" s="116"/>
-      <c r="U178" s="116"/>
-      <c r="V178" s="116"/>
-      <c r="W178" s="116"/>
-      <c r="X178" s="116"/>
-      <c r="Y178" s="116"/>
-      <c r="Z178" s="116"/>
-      <c r="AA178" s="116"/>
-      <c r="AB178" s="116"/>
-      <c r="AC178" s="116"/>
-      <c r="AD178" s="116"/>
-      <c r="AE178" s="116"/>
-      <c r="AF178" s="116"/>
-      <c r="AG178" s="116"/>
-      <c r="AH178" s="116"/>
-      <c r="AK178" s="100"/>
-      <c r="AL178" s="100"/>
-      <c r="AM178" s="116"/>
-      <c r="AN178" s="100"/>
-      <c r="AO178" s="100"/>
-      <c r="AP178" s="100"/>
-      <c r="AV178" s="114"/>
-    </row>
-    <row r="179" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B179" s="113"/>
-      <c r="C179" s="113"/>
-      <c r="F179" s="114"/>
-      <c r="G179" s="113"/>
-      <c r="K179" s="114"/>
-      <c r="AV179" s="114"/>
-    </row>
-    <row r="180" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B180" s="113"/>
-      <c r="C180" s="113"/>
-      <c r="F180" s="114"/>
-      <c r="G180" s="113"/>
-      <c r="K180" s="114"/>
-      <c r="N180" s="116" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV180" s="114"/>
-    </row>
-    <row r="181" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B181" s="113"/>
-      <c r="C181" s="113"/>
-      <c r="F181" s="114"/>
-      <c r="G181" s="113"/>
-      <c r="K181" s="114"/>
-      <c r="O181" s="111" t="s">
-        <v>339</v>
-      </c>
-      <c r="AV181" s="114"/>
-    </row>
-    <row r="182" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B182" s="113"/>
-      <c r="C182" s="113"/>
-      <c r="D182" s="112"/>
-      <c r="E182" s="112"/>
-      <c r="F182" s="114"/>
-      <c r="G182" s="113"/>
-      <c r="H182" s="112"/>
-      <c r="I182" s="112"/>
-      <c r="J182" s="112"/>
-      <c r="K182" s="112"/>
-      <c r="L182" s="113"/>
-      <c r="O182" s="117" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q182" s="117"/>
-      <c r="R182" s="117"/>
-      <c r="S182" s="117"/>
-      <c r="T182" s="117"/>
-      <c r="U182" s="117"/>
-      <c r="V182" s="117"/>
-      <c r="W182" s="117"/>
-      <c r="X182" s="117"/>
-      <c r="Y182" s="117"/>
-      <c r="Z182" s="117"/>
-      <c r="AA182" s="112"/>
-      <c r="AB182" s="112"/>
-      <c r="AC182" s="112"/>
-      <c r="AD182" s="112"/>
-      <c r="AE182" s="112"/>
-      <c r="AF182" s="112"/>
-      <c r="AG182" s="112"/>
-      <c r="AH182" s="112"/>
-      <c r="AI182" s="112"/>
-      <c r="AJ182" s="112"/>
-      <c r="AK182" s="112"/>
-      <c r="AL182" s="112"/>
-      <c r="AM182" s="112"/>
-      <c r="AN182" s="112"/>
-      <c r="AO182" s="112"/>
-      <c r="AP182" s="112"/>
-      <c r="AQ182" s="112"/>
-      <c r="AR182" s="112"/>
-      <c r="AS182" s="112"/>
-      <c r="AT182" s="112"/>
-      <c r="AU182" s="112"/>
-      <c r="AV182" s="114"/>
-    </row>
-    <row r="183" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B183" s="113"/>
-      <c r="C183" s="113"/>
-      <c r="F183" s="114"/>
-      <c r="G183" s="113"/>
-      <c r="L183" s="113"/>
-      <c r="M183" s="116"/>
-      <c r="N183" s="116"/>
-      <c r="O183" s="116"/>
-      <c r="P183" s="116"/>
-      <c r="Q183" s="116"/>
-      <c r="R183" s="116"/>
-      <c r="S183" s="116"/>
-      <c r="T183" s="116"/>
-      <c r="U183" s="116"/>
-      <c r="V183" s="116"/>
-      <c r="W183" s="116"/>
-      <c r="X183" s="116"/>
-      <c r="Y183" s="116"/>
-      <c r="Z183" s="116"/>
-      <c r="AA183" s="116"/>
-      <c r="AB183" s="116"/>
-      <c r="AC183" s="116"/>
-      <c r="AD183" s="116"/>
-      <c r="AE183" s="116"/>
-      <c r="AF183" s="116"/>
-      <c r="AG183" s="116"/>
-      <c r="AH183" s="116"/>
-      <c r="AI183" s="116"/>
-      <c r="AJ183" s="116"/>
-      <c r="AK183" s="116"/>
-      <c r="AL183" s="116"/>
-      <c r="AM183" s="116"/>
-      <c r="AN183" s="116"/>
-      <c r="AO183" s="116"/>
-      <c r="AP183" s="116"/>
-      <c r="AV183" s="114"/>
-    </row>
-    <row r="184" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B184" s="113"/>
-      <c r="C184" s="113"/>
-      <c r="F184" s="114"/>
-      <c r="G184" s="113"/>
-      <c r="L184" s="113" t="s">
-        <v>287</v>
-      </c>
-      <c r="M184" s="116"/>
-      <c r="N184" s="116"/>
-      <c r="O184" s="116"/>
-      <c r="P184" s="116"/>
-      <c r="Q184" s="116"/>
-      <c r="R184" s="116"/>
-      <c r="S184" s="116"/>
-      <c r="T184" s="116"/>
-      <c r="U184" s="116"/>
-      <c r="V184" s="116"/>
-      <c r="W184" s="116"/>
-      <c r="X184" s="116"/>
-      <c r="Y184" s="116"/>
-      <c r="Z184" s="116"/>
-      <c r="AA184" s="116"/>
-      <c r="AB184" s="116"/>
-      <c r="AC184" s="116"/>
-      <c r="AD184" s="116"/>
-      <c r="AE184" s="116"/>
-      <c r="AF184" s="116"/>
-      <c r="AG184" s="116"/>
-      <c r="AH184" s="116"/>
-      <c r="AI184" s="116"/>
-      <c r="AJ184" s="116"/>
-      <c r="AK184" s="116"/>
-      <c r="AL184" s="116"/>
-      <c r="AM184" s="116"/>
-      <c r="AN184" s="116"/>
-      <c r="AO184" s="116"/>
-      <c r="AP184" s="116"/>
-      <c r="AV184" s="114"/>
-    </row>
-    <row r="185" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B185" s="113"/>
-      <c r="C185" s="113"/>
-      <c r="F185" s="114"/>
-      <c r="G185" s="113"/>
-      <c r="L185" s="113"/>
-      <c r="M185" s="116" t="s">
-        <v>286</v>
-      </c>
-      <c r="N185" s="116"/>
-      <c r="O185" s="116"/>
-      <c r="P185" s="116"/>
-      <c r="Q185" s="116"/>
-      <c r="R185" s="116"/>
-      <c r="S185" s="116"/>
-      <c r="T185" s="116"/>
-      <c r="U185" s="116"/>
-      <c r="V185" s="116"/>
-      <c r="W185" s="116"/>
-      <c r="X185" s="116"/>
-      <c r="Y185" s="116"/>
-      <c r="Z185" s="116"/>
-      <c r="AA185" s="116"/>
-      <c r="AB185" s="116"/>
-      <c r="AC185" s="116"/>
-      <c r="AD185" s="116"/>
-      <c r="AE185" s="116"/>
-      <c r="AF185" s="116"/>
-      <c r="AG185" s="116"/>
-      <c r="AH185" s="116"/>
-      <c r="AI185" s="116"/>
-      <c r="AJ185" s="116"/>
-      <c r="AK185" s="116"/>
-      <c r="AL185" s="116"/>
-      <c r="AM185" s="116"/>
-      <c r="AN185" s="116"/>
-      <c r="AO185" s="116"/>
-      <c r="AP185" s="116"/>
-      <c r="AV185" s="114"/>
-    </row>
-    <row r="186" spans="2:48" s="111" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B186" s="113"/>
-      <c r="C186" s="113"/>
-      <c r="F186" s="114"/>
-      <c r="G186" s="113"/>
-      <c r="L186" s="113"/>
-      <c r="M186" s="116"/>
-      <c r="N186" s="116" t="s">
-        <v>344</v>
-      </c>
-      <c r="O186" s="116"/>
-      <c r="P186" s="116"/>
-      <c r="Q186" s="116"/>
-      <c r="R186" s="116"/>
-      <c r="S186" s="116"/>
-      <c r="T186" s="116"/>
-      <c r="U186" s="116"/>
-      <c r="V186" s="116"/>
-      <c r="W186" s="116"/>
-      <c r="X186" s="116"/>
-      <c r="Y186" s="116"/>
-      <c r="Z186" s="116"/>
-      <c r="AA186" s="116"/>
-      <c r="AB186" s="116"/>
-      <c r="AC186" s="116"/>
-      <c r="AD186" s="116"/>
-      <c r="AE186" s="116"/>
-      <c r="AF186" s="116"/>
-      <c r="AG186" s="116"/>
-      <c r="AH186" s="116"/>
-      <c r="AI186" s="116"/>
-      <c r="AJ186" s="116"/>
-      <c r="AK186" s="116"/>
-      <c r="AL186" s="116"/>
-      <c r="AM186" s="116"/>
-      <c r="AN186" s="116"/>
-      <c r="AO186" s="116"/>
-      <c r="AP186" s="116"/>
-      <c r="AV186" s="114"/>
-    </row>
-    <row r="187" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B187" s="24"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="25"/>
-      <c r="E187" s="25"/>
-      <c r="F187" s="26"/>
-      <c r="G187" s="24"/>
-      <c r="H187" s="25"/>
-      <c r="I187" s="25"/>
-      <c r="J187" s="25"/>
-      <c r="K187" s="25"/>
-      <c r="L187" s="24"/>
-      <c r="M187" s="25"/>
-      <c r="N187" s="25"/>
-      <c r="O187" s="25"/>
-      <c r="P187" s="25"/>
-      <c r="Q187" s="25"/>
-      <c r="R187" s="25"/>
-      <c r="S187" s="25"/>
-      <c r="T187" s="25"/>
-      <c r="U187" s="25"/>
-      <c r="V187" s="25"/>
-      <c r="W187" s="25"/>
-      <c r="X187" s="25"/>
-      <c r="Y187" s="25"/>
-      <c r="Z187" s="25"/>
-      <c r="AA187" s="25"/>
-      <c r="AB187" s="25"/>
-      <c r="AC187" s="25"/>
-      <c r="AD187" s="25"/>
-      <c r="AE187" s="25"/>
-      <c r="AF187" s="25"/>
-      <c r="AG187" s="25"/>
-      <c r="AH187" s="25"/>
-      <c r="AI187" s="25"/>
-      <c r="AJ187" s="25"/>
-      <c r="AK187" s="25"/>
-      <c r="AL187" s="25"/>
-      <c r="AM187" s="25"/>
-      <c r="AN187" s="25"/>
-      <c r="AO187" s="25"/>
-      <c r="AP187" s="25"/>
-      <c r="AQ187" s="25"/>
-      <c r="AR187" s="25"/>
-      <c r="AS187" s="25"/>
-      <c r="AT187" s="25"/>
-      <c r="AU187" s="25"/>
-      <c r="AV187" s="26"/>
-    </row>
-    <row r="188" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B188" s="20">
+    <row r="162" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B162" s="24"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="25"/>
+      <c r="L162" s="24"/>
+      <c r="M162" s="25"/>
+      <c r="N162" s="25"/>
+      <c r="O162" s="25"/>
+      <c r="P162" s="25"/>
+      <c r="Q162" s="25"/>
+      <c r="R162" s="25"/>
+      <c r="S162" s="25"/>
+      <c r="T162" s="25"/>
+      <c r="U162" s="25"/>
+      <c r="V162" s="25"/>
+      <c r="W162" s="25"/>
+      <c r="X162" s="25"/>
+      <c r="Y162" s="25"/>
+      <c r="Z162" s="25"/>
+      <c r="AA162" s="25"/>
+      <c r="AB162" s="25"/>
+      <c r="AC162" s="25"/>
+      <c r="AD162" s="25"/>
+      <c r="AE162" s="25"/>
+      <c r="AF162" s="25"/>
+      <c r="AG162" s="25"/>
+      <c r="AH162" s="25"/>
+      <c r="AI162" s="25"/>
+      <c r="AJ162" s="25"/>
+      <c r="AK162" s="25"/>
+      <c r="AL162" s="25"/>
+      <c r="AM162" s="25"/>
+      <c r="AN162" s="25"/>
+      <c r="AO162" s="25"/>
+      <c r="AP162" s="25"/>
+      <c r="AQ162" s="25"/>
+      <c r="AR162" s="25"/>
+      <c r="AS162" s="25"/>
+      <c r="AT162" s="25"/>
+      <c r="AU162" s="25"/>
+      <c r="AV162" s="26"/>
+    </row>
+    <row r="163" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B163" s="20">
         <v>3</v>
       </c>
-      <c r="C188" s="20" t="s">
+      <c r="C163" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D188" s="21"/>
-      <c r="E188" s="21"/>
-      <c r="F188" s="22"/>
-      <c r="G188" s="20" t="s">
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="H188" s="21"/>
-      <c r="I188" s="21"/>
-      <c r="J188" s="21"/>
-      <c r="K188" s="21"/>
-      <c r="L188" s="20" t="s">
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
+      <c r="J163" s="21"/>
+      <c r="K163" s="21"/>
+      <c r="L163" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="M188" s="21"/>
-      <c r="N188" s="21"/>
-      <c r="O188" s="21"/>
-      <c r="P188" s="21"/>
-      <c r="Q188" s="21"/>
-      <c r="R188" s="21"/>
-      <c r="S188" s="21"/>
-      <c r="T188" s="21"/>
-      <c r="U188" s="21"/>
-      <c r="V188" s="21"/>
-      <c r="W188" s="21"/>
-      <c r="X188" s="21"/>
-      <c r="Y188" s="21"/>
-      <c r="Z188" s="21"/>
-      <c r="AA188" s="21"/>
-      <c r="AB188" s="21"/>
-      <c r="AC188" s="21"/>
-      <c r="AD188" s="21"/>
-      <c r="AE188" s="21"/>
-      <c r="AF188" s="21"/>
-      <c r="AG188" s="21"/>
-      <c r="AH188" s="21"/>
-      <c r="AI188" s="21"/>
-      <c r="AJ188" s="21"/>
-      <c r="AK188" s="21"/>
-      <c r="AL188" s="21"/>
-      <c r="AM188" s="21"/>
-      <c r="AN188" s="21"/>
-      <c r="AO188" s="21"/>
-      <c r="AP188" s="21"/>
-      <c r="AQ188" s="21"/>
-      <c r="AR188" s="21"/>
-      <c r="AS188" s="21"/>
-      <c r="AT188" s="21"/>
-      <c r="AU188" s="21"/>
-      <c r="AV188" s="22"/>
-    </row>
-    <row r="189" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B189" s="73"/>
-      <c r="C189" s="73"/>
-      <c r="D189" s="23"/>
-      <c r="E189" s="23"/>
-      <c r="F189" s="74"/>
-      <c r="G189" s="73" t="s">
+      <c r="M163" s="21"/>
+      <c r="N163" s="21"/>
+      <c r="O163" s="21"/>
+      <c r="P163" s="21"/>
+      <c r="Q163" s="21"/>
+      <c r="R163" s="21"/>
+      <c r="S163" s="21"/>
+      <c r="T163" s="21"/>
+      <c r="U163" s="21"/>
+      <c r="V163" s="21"/>
+      <c r="W163" s="21"/>
+      <c r="X163" s="21"/>
+      <c r="Y163" s="21"/>
+      <c r="Z163" s="21"/>
+      <c r="AA163" s="21"/>
+      <c r="AB163" s="21"/>
+      <c r="AC163" s="21"/>
+      <c r="AD163" s="21"/>
+      <c r="AE163" s="21"/>
+      <c r="AF163" s="21"/>
+      <c r="AG163" s="21"/>
+      <c r="AH163" s="21"/>
+      <c r="AI163" s="21"/>
+      <c r="AJ163" s="21"/>
+      <c r="AK163" s="21"/>
+      <c r="AL163" s="21"/>
+      <c r="AM163" s="21"/>
+      <c r="AN163" s="21"/>
+      <c r="AO163" s="21"/>
+      <c r="AP163" s="21"/>
+      <c r="AQ163" s="21"/>
+      <c r="AR163" s="21"/>
+      <c r="AS163" s="21"/>
+      <c r="AT163" s="21"/>
+      <c r="AU163" s="21"/>
+      <c r="AV163" s="22"/>
+    </row>
+    <row r="164" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B164" s="73"/>
+      <c r="C164" s="73"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="74"/>
+      <c r="G164" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="H189" s="23"/>
-      <c r="I189" s="23"/>
-      <c r="J189" s="23"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="73"/>
-      <c r="M189" s="23"/>
-      <c r="N189" s="23"/>
-      <c r="O189" s="23"/>
-      <c r="P189" s="23"/>
-      <c r="Q189" s="23"/>
-      <c r="R189" s="23"/>
-      <c r="S189" s="23"/>
-      <c r="T189" s="23"/>
-      <c r="U189" s="23"/>
-      <c r="V189" s="23"/>
-      <c r="W189" s="23"/>
-      <c r="X189" s="23"/>
-      <c r="Y189" s="23"/>
-      <c r="Z189" s="23"/>
-      <c r="AA189" s="23"/>
-      <c r="AB189" s="23"/>
-      <c r="AC189" s="23"/>
-      <c r="AD189" s="23"/>
-      <c r="AE189" s="23"/>
-      <c r="AF189" s="23"/>
-      <c r="AG189" s="23"/>
-      <c r="AH189" s="23"/>
-      <c r="AI189" s="23"/>
-      <c r="AJ189" s="23"/>
-      <c r="AK189" s="23"/>
-      <c r="AL189" s="23"/>
-      <c r="AM189" s="23"/>
-      <c r="AN189" s="23"/>
-      <c r="AO189" s="23"/>
-      <c r="AP189" s="23"/>
-      <c r="AQ189" s="23"/>
-      <c r="AR189" s="23"/>
-      <c r="AS189" s="23"/>
-      <c r="AT189" s="23"/>
-      <c r="AU189" s="23"/>
-      <c r="AV189" s="74"/>
-    </row>
-    <row r="190" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B190" s="73"/>
-      <c r="C190" s="73"/>
-      <c r="D190" s="23"/>
-      <c r="E190" s="23"/>
-      <c r="F190" s="74"/>
-      <c r="G190" s="73"/>
-      <c r="H190" s="23"/>
-      <c r="I190" s="23"/>
-      <c r="J190" s="23"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="73"/>
-      <c r="M190" s="23"/>
-      <c r="N190" s="23"/>
-      <c r="O190" s="23"/>
-      <c r="P190" s="23"/>
-      <c r="Q190" s="23"/>
-      <c r="R190" s="23"/>
-      <c r="S190" s="23"/>
-      <c r="T190" s="23"/>
-      <c r="U190" s="23"/>
-      <c r="V190" s="23"/>
-      <c r="W190" s="23"/>
-      <c r="X190" s="23"/>
-      <c r="Y190" s="23"/>
-      <c r="Z190" s="23"/>
-      <c r="AA190" s="23"/>
-      <c r="AB190" s="23"/>
-      <c r="AC190" s="23"/>
-      <c r="AD190" s="23"/>
-      <c r="AE190" s="23"/>
-      <c r="AF190" s="23"/>
-      <c r="AG190" s="23"/>
-      <c r="AH190" s="23"/>
-      <c r="AI190" s="23"/>
-      <c r="AJ190" s="23"/>
-      <c r="AK190" s="23"/>
-      <c r="AL190" s="23"/>
-      <c r="AM190" s="23"/>
-      <c r="AN190" s="23"/>
-      <c r="AO190" s="23"/>
-      <c r="AP190" s="23"/>
-      <c r="AQ190" s="23"/>
-      <c r="AR190" s="23"/>
-      <c r="AS190" s="23"/>
-      <c r="AT190" s="23"/>
-      <c r="AU190" s="23"/>
-      <c r="AV190" s="74"/>
-    </row>
-    <row r="191" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B191" s="20">
+      <c r="H164" s="23"/>
+      <c r="I164" s="23"/>
+      <c r="J164" s="23"/>
+      <c r="K164" s="23"/>
+      <c r="L164" s="73"/>
+      <c r="M164" s="23"/>
+      <c r="N164" s="23"/>
+      <c r="O164" s="23"/>
+      <c r="P164" s="23"/>
+      <c r="Q164" s="23"/>
+      <c r="R164" s="23"/>
+      <c r="S164" s="23"/>
+      <c r="T164" s="23"/>
+      <c r="U164" s="23"/>
+      <c r="V164" s="23"/>
+      <c r="W164" s="23"/>
+      <c r="X164" s="23"/>
+      <c r="Y164" s="23"/>
+      <c r="Z164" s="23"/>
+      <c r="AA164" s="23"/>
+      <c r="AB164" s="23"/>
+      <c r="AC164" s="23"/>
+      <c r="AD164" s="23"/>
+      <c r="AE164" s="23"/>
+      <c r="AF164" s="23"/>
+      <c r="AG164" s="23"/>
+      <c r="AH164" s="23"/>
+      <c r="AI164" s="23"/>
+      <c r="AJ164" s="23"/>
+      <c r="AK164" s="23"/>
+      <c r="AL164" s="23"/>
+      <c r="AM164" s="23"/>
+      <c r="AN164" s="23"/>
+      <c r="AO164" s="23"/>
+      <c r="AP164" s="23"/>
+      <c r="AQ164" s="23"/>
+      <c r="AR164" s="23"/>
+      <c r="AS164" s="23"/>
+      <c r="AT164" s="23"/>
+      <c r="AU164" s="23"/>
+      <c r="AV164" s="74"/>
+    </row>
+    <row r="165" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B165" s="73"/>
+      <c r="C165" s="73"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="74"/>
+      <c r="G165" s="73"/>
+      <c r="H165" s="23"/>
+      <c r="I165" s="23"/>
+      <c r="J165" s="23"/>
+      <c r="K165" s="23"/>
+      <c r="L165" s="73"/>
+      <c r="M165" s="23"/>
+      <c r="N165" s="23"/>
+      <c r="O165" s="23"/>
+      <c r="P165" s="23"/>
+      <c r="Q165" s="23"/>
+      <c r="R165" s="23"/>
+      <c r="S165" s="23"/>
+      <c r="T165" s="23"/>
+      <c r="U165" s="23"/>
+      <c r="V165" s="23"/>
+      <c r="W165" s="23"/>
+      <c r="X165" s="23"/>
+      <c r="Y165" s="23"/>
+      <c r="Z165" s="23"/>
+      <c r="AA165" s="23"/>
+      <c r="AB165" s="23"/>
+      <c r="AC165" s="23"/>
+      <c r="AD165" s="23"/>
+      <c r="AE165" s="23"/>
+      <c r="AF165" s="23"/>
+      <c r="AG165" s="23"/>
+      <c r="AH165" s="23"/>
+      <c r="AI165" s="23"/>
+      <c r="AJ165" s="23"/>
+      <c r="AK165" s="23"/>
+      <c r="AL165" s="23"/>
+      <c r="AM165" s="23"/>
+      <c r="AN165" s="23"/>
+      <c r="AO165" s="23"/>
+      <c r="AP165" s="23"/>
+      <c r="AQ165" s="23"/>
+      <c r="AR165" s="23"/>
+      <c r="AS165" s="23"/>
+      <c r="AT165" s="23"/>
+      <c r="AU165" s="23"/>
+      <c r="AV165" s="74"/>
+    </row>
+    <row r="166" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B166" s="20">
         <v>4</v>
       </c>
-      <c r="C191" s="20" t="s">
+      <c r="C166" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="22"/>
-      <c r="G191" s="20" t="s">
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H191" s="21"/>
-      <c r="I191" s="21"/>
-      <c r="J191" s="21"/>
-      <c r="K191" s="22"/>
-      <c r="L191" s="20" t="s">
+      <c r="H166" s="21"/>
+      <c r="I166" s="21"/>
+      <c r="J166" s="21"/>
+      <c r="K166" s="22"/>
+      <c r="L166" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="M191" s="21"/>
-      <c r="N191" s="21"/>
-      <c r="O191" s="21"/>
-      <c r="P191" s="21"/>
-      <c r="Q191" s="21"/>
-      <c r="R191" s="21"/>
-      <c r="S191" s="21"/>
-      <c r="T191" s="21"/>
-      <c r="U191" s="21"/>
-      <c r="V191" s="21"/>
-      <c r="W191" s="21"/>
-      <c r="X191" s="21"/>
-      <c r="Y191" s="21"/>
-      <c r="Z191" s="21"/>
-      <c r="AA191" s="21"/>
-      <c r="AB191" s="21"/>
-      <c r="AC191" s="21"/>
-      <c r="AD191" s="21"/>
-      <c r="AE191" s="21"/>
-      <c r="AF191" s="21"/>
-      <c r="AG191" s="21"/>
-      <c r="AH191" s="21"/>
-      <c r="AI191" s="21"/>
-      <c r="AJ191" s="21"/>
-      <c r="AK191" s="21"/>
-      <c r="AL191" s="21"/>
-      <c r="AM191" s="21"/>
-      <c r="AN191" s="21"/>
-      <c r="AO191" s="21"/>
-      <c r="AP191" s="21"/>
-      <c r="AQ191" s="21"/>
-      <c r="AR191" s="21"/>
-      <c r="AS191" s="21"/>
-      <c r="AT191" s="21"/>
-      <c r="AU191" s="21"/>
-      <c r="AV191" s="22"/>
-    </row>
-    <row r="192" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B192" s="73"/>
-      <c r="C192" s="73"/>
-      <c r="D192" s="23"/>
-      <c r="E192" s="23"/>
-      <c r="F192" s="74"/>
-      <c r="G192" s="73" t="s">
+      <c r="M166" s="21"/>
+      <c r="N166" s="21"/>
+      <c r="O166" s="21"/>
+      <c r="P166" s="21"/>
+      <c r="Q166" s="21"/>
+      <c r="R166" s="21"/>
+      <c r="S166" s="21"/>
+      <c r="T166" s="21"/>
+      <c r="U166" s="21"/>
+      <c r="V166" s="21"/>
+      <c r="W166" s="21"/>
+      <c r="X166" s="21"/>
+      <c r="Y166" s="21"/>
+      <c r="Z166" s="21"/>
+      <c r="AA166" s="21"/>
+      <c r="AB166" s="21"/>
+      <c r="AC166" s="21"/>
+      <c r="AD166" s="21"/>
+      <c r="AE166" s="21"/>
+      <c r="AF166" s="21"/>
+      <c r="AG166" s="21"/>
+      <c r="AH166" s="21"/>
+      <c r="AI166" s="21"/>
+      <c r="AJ166" s="21"/>
+      <c r="AK166" s="21"/>
+      <c r="AL166" s="21"/>
+      <c r="AM166" s="21"/>
+      <c r="AN166" s="21"/>
+      <c r="AO166" s="21"/>
+      <c r="AP166" s="21"/>
+      <c r="AQ166" s="21"/>
+      <c r="AR166" s="21"/>
+      <c r="AS166" s="21"/>
+      <c r="AT166" s="21"/>
+      <c r="AU166" s="21"/>
+      <c r="AV166" s="22"/>
+    </row>
+    <row r="167" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B167" s="73"/>
+      <c r="C167" s="73"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="74"/>
+      <c r="G167" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="H192" s="23"/>
-      <c r="I192" s="23"/>
-      <c r="J192" s="23"/>
-      <c r="K192" s="74"/>
-      <c r="L192" s="73" t="s">
+      <c r="H167" s="23"/>
+      <c r="I167" s="23"/>
+      <c r="J167" s="23"/>
+      <c r="K167" s="74"/>
+      <c r="L167" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="M192" s="23"/>
-      <c r="N192" s="23"/>
-      <c r="O192" s="23"/>
-      <c r="P192" s="23"/>
-      <c r="Q192" s="23"/>
-      <c r="R192" s="23"/>
-      <c r="S192" s="23"/>
-      <c r="T192" s="23"/>
-      <c r="U192" s="23"/>
-      <c r="V192" s="23"/>
-      <c r="W192" s="23"/>
-      <c r="X192" s="23"/>
-      <c r="Y192" s="23"/>
-      <c r="Z192" s="23"/>
-      <c r="AA192" s="23"/>
-      <c r="AB192" s="23"/>
-      <c r="AC192" s="23"/>
-      <c r="AD192" s="23"/>
-      <c r="AE192" s="23"/>
-      <c r="AF192" s="23"/>
-      <c r="AG192" s="23"/>
-      <c r="AH192" s="23"/>
-      <c r="AI192" s="23"/>
-      <c r="AJ192" s="23"/>
-      <c r="AK192" s="23"/>
-      <c r="AL192" s="23"/>
-      <c r="AM192" s="23"/>
-      <c r="AN192" s="23"/>
-      <c r="AO192" s="23"/>
-      <c r="AP192" s="23"/>
-      <c r="AQ192" s="23"/>
-      <c r="AR192" s="23"/>
-      <c r="AS192" s="23"/>
-      <c r="AT192" s="23"/>
-      <c r="AU192" s="23"/>
-      <c r="AV192" s="74"/>
-    </row>
-    <row r="193" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B193" s="73"/>
-      <c r="C193" s="73"/>
-      <c r="D193" s="23"/>
-      <c r="E193" s="23"/>
-      <c r="F193" s="74"/>
-      <c r="G193" s="73"/>
-      <c r="H193" s="23"/>
-      <c r="I193" s="23"/>
-      <c r="J193" s="23"/>
-      <c r="K193" s="74"/>
-      <c r="L193" s="24"/>
-      <c r="M193" s="25"/>
-      <c r="N193" s="25"/>
-      <c r="O193" s="25"/>
-      <c r="P193" s="25"/>
-      <c r="Q193" s="25"/>
-      <c r="R193" s="25"/>
-      <c r="S193" s="25"/>
-      <c r="T193" s="25"/>
-      <c r="U193" s="25"/>
-      <c r="V193" s="25"/>
-      <c r="W193" s="25"/>
-      <c r="X193" s="25"/>
-      <c r="Y193" s="25"/>
-      <c r="Z193" s="25"/>
-      <c r="AA193" s="25"/>
-      <c r="AB193" s="25"/>
-      <c r="AC193" s="25"/>
-      <c r="AD193" s="25"/>
-      <c r="AE193" s="25"/>
-      <c r="AF193" s="25"/>
-      <c r="AG193" s="25"/>
-      <c r="AH193" s="25"/>
-      <c r="AI193" s="25"/>
-      <c r="AJ193" s="25"/>
-      <c r="AK193" s="25"/>
-      <c r="AL193" s="25"/>
-      <c r="AM193" s="25"/>
-      <c r="AN193" s="25"/>
-      <c r="AO193" s="25"/>
-      <c r="AP193" s="25"/>
-      <c r="AQ193" s="25"/>
-      <c r="AR193" s="25"/>
-      <c r="AS193" s="25"/>
-      <c r="AT193" s="25"/>
-      <c r="AU193" s="25"/>
-      <c r="AV193" s="26"/>
-    </row>
-    <row r="194" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="195" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="196" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+      <c r="M167" s="23"/>
+      <c r="N167" s="23"/>
+      <c r="O167" s="23"/>
+      <c r="P167" s="23"/>
+      <c r="Q167" s="23"/>
+      <c r="R167" s="23"/>
+      <c r="S167" s="23"/>
+      <c r="T167" s="23"/>
+      <c r="U167" s="23"/>
+      <c r="V167" s="23"/>
+      <c r="W167" s="23"/>
+      <c r="X167" s="23"/>
+      <c r="Y167" s="23"/>
+      <c r="Z167" s="23"/>
+      <c r="AA167" s="23"/>
+      <c r="AB167" s="23"/>
+      <c r="AC167" s="23"/>
+      <c r="AD167" s="23"/>
+      <c r="AE167" s="23"/>
+      <c r="AF167" s="23"/>
+      <c r="AG167" s="23"/>
+      <c r="AH167" s="23"/>
+      <c r="AI167" s="23"/>
+      <c r="AJ167" s="23"/>
+      <c r="AK167" s="23"/>
+      <c r="AL167" s="23"/>
+      <c r="AM167" s="23"/>
+      <c r="AN167" s="23"/>
+      <c r="AO167" s="23"/>
+      <c r="AP167" s="23"/>
+      <c r="AQ167" s="23"/>
+      <c r="AR167" s="23"/>
+      <c r="AS167" s="23"/>
+      <c r="AT167" s="23"/>
+      <c r="AU167" s="23"/>
+      <c r="AV167" s="74"/>
+    </row>
+    <row r="168" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B168" s="73"/>
+      <c r="C168" s="73"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="74"/>
+      <c r="G168" s="73"/>
+      <c r="H168" s="23"/>
+      <c r="I168" s="23"/>
+      <c r="J168" s="23"/>
+      <c r="K168" s="74"/>
+      <c r="L168" s="24"/>
+      <c r="M168" s="25"/>
+      <c r="N168" s="25"/>
+      <c r="O168" s="25"/>
+      <c r="P168" s="25"/>
+      <c r="Q168" s="25"/>
+      <c r="R168" s="25"/>
+      <c r="S168" s="25"/>
+      <c r="T168" s="25"/>
+      <c r="U168" s="25"/>
+      <c r="V168" s="25"/>
+      <c r="W168" s="25"/>
+      <c r="X168" s="25"/>
+      <c r="Y168" s="25"/>
+      <c r="Z168" s="25"/>
+      <c r="AA168" s="25"/>
+      <c r="AB168" s="25"/>
+      <c r="AC168" s="25"/>
+      <c r="AD168" s="25"/>
+      <c r="AE168" s="25"/>
+      <c r="AF168" s="25"/>
+      <c r="AG168" s="25"/>
+      <c r="AH168" s="25"/>
+      <c r="AI168" s="25"/>
+      <c r="AJ168" s="25"/>
+      <c r="AK168" s="25"/>
+      <c r="AL168" s="25"/>
+      <c r="AM168" s="25"/>
+      <c r="AN168" s="25"/>
+      <c r="AO168" s="25"/>
+      <c r="AP168" s="25"/>
+      <c r="AQ168" s="25"/>
+      <c r="AR168" s="25"/>
+      <c r="AS168" s="25"/>
+      <c r="AT168" s="25"/>
+      <c r="AU168" s="25"/>
+      <c r="AV168" s="26"/>
+    </row>
+    <row r="169" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="170" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A172" s="55"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="55"/>
+      <c r="D172" s="55"/>
+      <c r="E172" s="55"/>
+      <c r="F172" s="55"/>
+      <c r="G172" s="55"/>
+      <c r="H172" s="55"/>
+      <c r="I172" s="55"/>
+      <c r="J172" s="55"/>
+      <c r="K172" s="55"/>
+      <c r="L172" s="55"/>
+      <c r="M172" s="55"/>
+      <c r="N172" s="55"/>
+      <c r="O172" s="55"/>
+      <c r="P172" s="55"/>
+      <c r="Q172" s="55"/>
+      <c r="R172" s="55"/>
+      <c r="S172" s="55"/>
+      <c r="T172" s="55"/>
+      <c r="U172" s="55"/>
+      <c r="V172" s="55"/>
+      <c r="W172" s="55"/>
+      <c r="X172" s="55"/>
+      <c r="Y172" s="55"/>
+      <c r="Z172" s="55"/>
+      <c r="AA172" s="55"/>
+      <c r="AB172" s="55"/>
+      <c r="AC172" s="55"/>
+      <c r="AD172" s="55"/>
+      <c r="AE172" s="55"/>
+      <c r="AF172" s="55"/>
+      <c r="AG172" s="55"/>
+      <c r="AH172" s="55"/>
+      <c r="AI172" s="55"/>
+      <c r="AJ172" s="55"/>
+      <c r="AK172" s="55"/>
+      <c r="AL172" s="55"/>
+      <c r="AM172" s="55"/>
+      <c r="AN172" s="55"/>
+      <c r="AO172" s="55"/>
+      <c r="AP172" s="55"/>
+      <c r="AQ172" s="55"/>
+      <c r="AR172" s="55"/>
+      <c r="AS172" s="55"/>
+      <c r="AT172" s="55"/>
+      <c r="AU172" s="55"/>
+      <c r="AV172" s="55"/>
+      <c r="AW172" s="55"/>
+      <c r="AX172" s="55"/>
+      <c r="AY172" s="55"/>
+      <c r="AZ172" s="55"/>
+    </row>
+    <row r="173" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A173" s="55"/>
+      <c r="B173" s="55"/>
+      <c r="C173" s="55"/>
+      <c r="D173" s="55"/>
+      <c r="E173" s="55"/>
+      <c r="F173" s="55"/>
+      <c r="G173" s="55"/>
+      <c r="H173" s="55"/>
+      <c r="I173" s="55"/>
+      <c r="J173" s="55"/>
+      <c r="K173" s="55"/>
+      <c r="L173" s="55"/>
+      <c r="M173" s="55"/>
+      <c r="N173" s="55"/>
+      <c r="O173" s="55"/>
+      <c r="P173" s="55"/>
+      <c r="Q173" s="55"/>
+      <c r="R173" s="55"/>
+      <c r="S173" s="55"/>
+      <c r="T173" s="55"/>
+      <c r="U173" s="55"/>
+      <c r="V173" s="55"/>
+      <c r="W173" s="55"/>
+      <c r="X173" s="55"/>
+      <c r="Y173" s="55"/>
+      <c r="Z173" s="55"/>
+      <c r="AA173" s="55"/>
+      <c r="AB173" s="55"/>
+      <c r="AC173" s="55"/>
+      <c r="AD173" s="55"/>
+      <c r="AE173" s="55"/>
+      <c r="AF173" s="55"/>
+      <c r="AG173" s="55"/>
+      <c r="AH173" s="55"/>
+      <c r="AI173" s="55"/>
+      <c r="AJ173" s="55"/>
+      <c r="AK173" s="55"/>
+      <c r="AL173" s="55"/>
+      <c r="AM173" s="55"/>
+      <c r="AN173" s="55"/>
+      <c r="AO173" s="55"/>
+      <c r="AP173" s="55"/>
+      <c r="AQ173" s="55"/>
+      <c r="AR173" s="55"/>
+      <c r="AS173" s="55"/>
+      <c r="AT173" s="55"/>
+      <c r="AU173" s="55"/>
+      <c r="AV173" s="55"/>
+      <c r="AW173" s="55"/>
+      <c r="AX173" s="55"/>
+      <c r="AY173" s="55"/>
+      <c r="AZ173" s="55"/>
+    </row>
+    <row r="174" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A174" s="55"/>
+      <c r="B174" s="55"/>
+      <c r="C174" s="55"/>
+      <c r="D174" s="55"/>
+      <c r="E174" s="55"/>
+      <c r="F174" s="55"/>
+      <c r="G174" s="55"/>
+      <c r="H174" s="55"/>
+      <c r="I174" s="55"/>
+      <c r="J174" s="55"/>
+      <c r="K174" s="55"/>
+      <c r="L174" s="55"/>
+      <c r="M174" s="55"/>
+      <c r="N174" s="55"/>
+      <c r="O174" s="55"/>
+      <c r="P174" s="55"/>
+      <c r="Q174" s="55"/>
+      <c r="R174" s="55"/>
+      <c r="S174" s="55"/>
+      <c r="T174" s="55"/>
+      <c r="U174" s="55"/>
+      <c r="V174" s="55"/>
+      <c r="W174" s="55"/>
+      <c r="X174" s="55"/>
+      <c r="Y174" s="55"/>
+      <c r="Z174" s="55"/>
+      <c r="AA174" s="55"/>
+      <c r="AB174" s="55"/>
+      <c r="AC174" s="55"/>
+      <c r="AD174" s="55"/>
+      <c r="AE174" s="55"/>
+      <c r="AF174" s="55"/>
+      <c r="AG174" s="55"/>
+      <c r="AH174" s="55"/>
+      <c r="AI174" s="55"/>
+      <c r="AJ174" s="55"/>
+      <c r="AK174" s="55"/>
+      <c r="AL174" s="55"/>
+      <c r="AM174" s="55"/>
+      <c r="AN174" s="55"/>
+      <c r="AO174" s="55"/>
+      <c r="AP174" s="55"/>
+      <c r="AQ174" s="55"/>
+      <c r="AR174" s="55"/>
+      <c r="AS174" s="55"/>
+      <c r="AT174" s="55"/>
+      <c r="AU174" s="55"/>
+      <c r="AV174" s="55"/>
+      <c r="AW174" s="55"/>
+      <c r="AX174" s="55"/>
+      <c r="AY174" s="55"/>
+      <c r="AZ174" s="55"/>
+    </row>
+    <row r="175" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A175" s="55"/>
+      <c r="B175" s="55"/>
+      <c r="C175" s="55"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="55"/>
+      <c r="F175" s="55"/>
+      <c r="G175" s="55"/>
+      <c r="H175" s="55"/>
+      <c r="I175" s="55"/>
+      <c r="J175" s="55"/>
+      <c r="K175" s="55"/>
+      <c r="L175" s="55"/>
+      <c r="M175" s="55"/>
+      <c r="N175" s="55"/>
+      <c r="O175" s="55"/>
+      <c r="P175" s="55"/>
+      <c r="Q175" s="55"/>
+      <c r="R175" s="55"/>
+      <c r="S175" s="55"/>
+      <c r="T175" s="55"/>
+      <c r="U175" s="55"/>
+      <c r="V175" s="55"/>
+      <c r="W175" s="55"/>
+      <c r="X175" s="55"/>
+      <c r="Y175" s="55"/>
+      <c r="Z175" s="55"/>
+      <c r="AA175" s="55"/>
+      <c r="AB175" s="55"/>
+      <c r="AC175" s="55"/>
+      <c r="AD175" s="55"/>
+      <c r="AE175" s="55"/>
+      <c r="AF175" s="55"/>
+      <c r="AG175" s="55"/>
+      <c r="AH175" s="55"/>
+      <c r="AI175" s="55"/>
+      <c r="AJ175" s="55"/>
+      <c r="AK175" s="55"/>
+      <c r="AL175" s="55"/>
+      <c r="AM175" s="55"/>
+      <c r="AN175" s="55"/>
+      <c r="AO175" s="55"/>
+      <c r="AP175" s="55"/>
+      <c r="AQ175" s="55"/>
+      <c r="AR175" s="55"/>
+      <c r="AS175" s="55"/>
+      <c r="AT175" s="55"/>
+      <c r="AU175" s="55"/>
+      <c r="AV175" s="55"/>
+      <c r="AW175" s="55"/>
+      <c r="AX175" s="55"/>
+      <c r="AY175" s="55"/>
+      <c r="AZ175" s="55"/>
+    </row>
+    <row r="176" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A176" s="55"/>
+      <c r="B176" s="55"/>
+      <c r="C176" s="55"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="55"/>
+      <c r="G176" s="55"/>
+      <c r="H176" s="55"/>
+      <c r="I176" s="55"/>
+      <c r="J176" s="55"/>
+      <c r="K176" s="55"/>
+      <c r="L176" s="55"/>
+      <c r="M176" s="55"/>
+      <c r="N176" s="55"/>
+      <c r="O176" s="55"/>
+      <c r="P176" s="55"/>
+      <c r="Q176" s="55"/>
+      <c r="R176" s="55"/>
+      <c r="S176" s="55"/>
+      <c r="T176" s="55"/>
+      <c r="U176" s="55"/>
+      <c r="V176" s="55"/>
+      <c r="W176" s="55"/>
+      <c r="X176" s="55"/>
+      <c r="Y176" s="55"/>
+      <c r="Z176" s="55"/>
+      <c r="AA176" s="55"/>
+      <c r="AB176" s="55"/>
+      <c r="AC176" s="55"/>
+      <c r="AD176" s="55"/>
+      <c r="AE176" s="55"/>
+      <c r="AF176" s="55"/>
+      <c r="AG176" s="55"/>
+      <c r="AH176" s="55"/>
+      <c r="AI176" s="55"/>
+      <c r="AJ176" s="55"/>
+      <c r="AK176" s="55"/>
+      <c r="AL176" s="55"/>
+      <c r="AM176" s="55"/>
+      <c r="AN176" s="55"/>
+      <c r="AO176" s="55"/>
+      <c r="AP176" s="55"/>
+      <c r="AQ176" s="55"/>
+      <c r="AR176" s="55"/>
+      <c r="AS176" s="55"/>
+      <c r="AT176" s="55"/>
+      <c r="AU176" s="55"/>
+      <c r="AV176" s="55"/>
+      <c r="AW176" s="55"/>
+      <c r="AX176" s="55"/>
+      <c r="AY176" s="55"/>
+      <c r="AZ176" s="55"/>
+    </row>
+    <row r="177" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A177" s="55"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="55"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="55"/>
+      <c r="F177" s="55"/>
+      <c r="G177" s="55"/>
+      <c r="H177" s="55"/>
+      <c r="I177" s="55"/>
+      <c r="J177" s="55"/>
+      <c r="K177" s="55"/>
+      <c r="L177" s="55"/>
+      <c r="M177" s="55"/>
+      <c r="N177" s="55"/>
+      <c r="O177" s="55"/>
+      <c r="P177" s="55"/>
+      <c r="Q177" s="55"/>
+      <c r="R177" s="55"/>
+      <c r="S177" s="55"/>
+      <c r="T177" s="55"/>
+      <c r="U177" s="55"/>
+      <c r="V177" s="55"/>
+      <c r="W177" s="55"/>
+      <c r="X177" s="55"/>
+      <c r="Y177" s="55"/>
+      <c r="Z177" s="55"/>
+      <c r="AA177" s="55"/>
+      <c r="AB177" s="55"/>
+      <c r="AC177" s="55"/>
+      <c r="AD177" s="55"/>
+      <c r="AE177" s="55"/>
+      <c r="AF177" s="55"/>
+      <c r="AG177" s="55"/>
+      <c r="AH177" s="55"/>
+      <c r="AI177" s="55"/>
+      <c r="AJ177" s="55"/>
+      <c r="AK177" s="55"/>
+      <c r="AL177" s="55"/>
+      <c r="AM177" s="55"/>
+      <c r="AN177" s="55"/>
+      <c r="AO177" s="55"/>
+      <c r="AP177" s="55"/>
+      <c r="AQ177" s="55"/>
+      <c r="AR177" s="55"/>
+      <c r="AS177" s="55"/>
+      <c r="AT177" s="55"/>
+      <c r="AU177" s="55"/>
+      <c r="AV177" s="55"/>
+      <c r="AW177" s="55"/>
+      <c r="AX177" s="55"/>
+      <c r="AY177" s="55"/>
+      <c r="AZ177" s="55"/>
+    </row>
+    <row r="178" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A178" s="55"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="55"/>
+      <c r="F178" s="55"/>
+      <c r="G178" s="55"/>
+      <c r="H178" s="55"/>
+      <c r="I178" s="55"/>
+      <c r="J178" s="55"/>
+      <c r="K178" s="55"/>
+      <c r="L178" s="55"/>
+      <c r="M178" s="55"/>
+      <c r="N178" s="55"/>
+      <c r="O178" s="55"/>
+      <c r="P178" s="55"/>
+      <c r="Q178" s="55"/>
+      <c r="R178" s="55"/>
+      <c r="S178" s="55"/>
+      <c r="T178" s="55"/>
+      <c r="U178" s="55"/>
+      <c r="V178" s="55"/>
+      <c r="W178" s="55"/>
+      <c r="X178" s="55"/>
+      <c r="Y178" s="55"/>
+      <c r="Z178" s="55"/>
+      <c r="AA178" s="55"/>
+      <c r="AB178" s="55"/>
+      <c r="AC178" s="55"/>
+      <c r="AD178" s="55"/>
+      <c r="AE178" s="55"/>
+      <c r="AF178" s="55"/>
+      <c r="AG178" s="55"/>
+      <c r="AH178" s="55"/>
+      <c r="AI178" s="55"/>
+      <c r="AJ178" s="55"/>
+      <c r="AK178" s="55"/>
+      <c r="AL178" s="55"/>
+      <c r="AM178" s="55"/>
+      <c r="AN178" s="55"/>
+      <c r="AO178" s="55"/>
+      <c r="AP178" s="55"/>
+      <c r="AQ178" s="55"/>
+      <c r="AR178" s="55"/>
+      <c r="AS178" s="55"/>
+      <c r="AT178" s="55"/>
+      <c r="AU178" s="55"/>
+      <c r="AV178" s="55"/>
+      <c r="AW178" s="55"/>
+      <c r="AX178" s="55"/>
+      <c r="AY178" s="55"/>
+      <c r="AZ178" s="55"/>
+    </row>
+    <row r="179" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A179" s="55"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="55"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="55"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="55"/>
+      <c r="I179" s="55"/>
+      <c r="J179" s="55"/>
+      <c r="K179" s="55"/>
+      <c r="L179" s="55"/>
+      <c r="M179" s="55"/>
+      <c r="N179" s="55"/>
+      <c r="O179" s="55"/>
+      <c r="P179" s="55"/>
+      <c r="Q179" s="55"/>
+      <c r="R179" s="55"/>
+      <c r="S179" s="55"/>
+      <c r="T179" s="55"/>
+      <c r="U179" s="55"/>
+      <c r="V179" s="55"/>
+      <c r="W179" s="55"/>
+      <c r="X179" s="55"/>
+      <c r="Y179" s="55"/>
+      <c r="Z179" s="55"/>
+      <c r="AA179" s="55"/>
+      <c r="AB179" s="55"/>
+      <c r="AC179" s="55"/>
+      <c r="AD179" s="55"/>
+      <c r="AE179" s="55"/>
+      <c r="AF179" s="55"/>
+      <c r="AG179" s="55"/>
+      <c r="AH179" s="55"/>
+      <c r="AI179" s="55"/>
+      <c r="AJ179" s="55"/>
+      <c r="AK179" s="55"/>
+      <c r="AL179" s="55"/>
+      <c r="AM179" s="55"/>
+      <c r="AN179" s="55"/>
+      <c r="AO179" s="55"/>
+      <c r="AP179" s="55"/>
+      <c r="AQ179" s="55"/>
+      <c r="AR179" s="55"/>
+      <c r="AS179" s="55"/>
+      <c r="AT179" s="55"/>
+      <c r="AU179" s="55"/>
+      <c r="AV179" s="55"/>
+      <c r="AW179" s="55"/>
+      <c r="AX179" s="55"/>
+      <c r="AY179" s="55"/>
+      <c r="AZ179" s="55"/>
+    </row>
+    <row r="180" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A180" s="55"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="55"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="55"/>
+      <c r="G180" s="55"/>
+      <c r="H180" s="55"/>
+      <c r="I180" s="55"/>
+      <c r="J180" s="55"/>
+      <c r="K180" s="55"/>
+      <c r="L180" s="55"/>
+      <c r="M180" s="55"/>
+      <c r="N180" s="55"/>
+      <c r="O180" s="55"/>
+      <c r="P180" s="55"/>
+      <c r="Q180" s="55"/>
+      <c r="R180" s="55"/>
+      <c r="S180" s="55"/>
+      <c r="T180" s="55"/>
+      <c r="U180" s="55"/>
+      <c r="V180" s="55"/>
+      <c r="W180" s="55"/>
+      <c r="X180" s="55"/>
+      <c r="Y180" s="55"/>
+      <c r="Z180" s="55"/>
+      <c r="AA180" s="55"/>
+      <c r="AB180" s="55"/>
+      <c r="AC180" s="55"/>
+      <c r="AD180" s="55"/>
+      <c r="AE180" s="55"/>
+      <c r="AF180" s="55"/>
+      <c r="AG180" s="55"/>
+      <c r="AH180" s="55"/>
+      <c r="AI180" s="55"/>
+      <c r="AJ180" s="55"/>
+      <c r="AK180" s="55"/>
+      <c r="AL180" s="55"/>
+      <c r="AM180" s="55"/>
+      <c r="AN180" s="55"/>
+      <c r="AO180" s="55"/>
+      <c r="AP180" s="55"/>
+      <c r="AQ180" s="55"/>
+      <c r="AR180" s="55"/>
+      <c r="AS180" s="55"/>
+      <c r="AT180" s="55"/>
+      <c r="AU180" s="55"/>
+      <c r="AV180" s="55"/>
+      <c r="AW180" s="55"/>
+      <c r="AX180" s="55"/>
+      <c r="AY180" s="55"/>
+      <c r="AZ180" s="55"/>
+    </row>
+    <row r="181" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A181" s="55"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="55"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="55"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="55"/>
+      <c r="I181" s="55"/>
+      <c r="J181" s="55"/>
+      <c r="K181" s="55"/>
+      <c r="L181" s="55"/>
+      <c r="M181" s="55"/>
+      <c r="N181" s="55"/>
+      <c r="O181" s="55"/>
+      <c r="P181" s="55"/>
+      <c r="Q181" s="55"/>
+      <c r="R181" s="55"/>
+      <c r="S181" s="55"/>
+      <c r="T181" s="55"/>
+      <c r="U181" s="55"/>
+      <c r="V181" s="55"/>
+      <c r="W181" s="55"/>
+      <c r="X181" s="55"/>
+      <c r="Y181" s="55"/>
+      <c r="Z181" s="55"/>
+      <c r="AA181" s="55"/>
+      <c r="AB181" s="55"/>
+      <c r="AC181" s="55"/>
+      <c r="AD181" s="55"/>
+      <c r="AE181" s="55"/>
+      <c r="AF181" s="55"/>
+      <c r="AG181" s="55"/>
+      <c r="AH181" s="55"/>
+      <c r="AI181" s="55"/>
+      <c r="AJ181" s="55"/>
+      <c r="AK181" s="55"/>
+      <c r="AL181" s="55"/>
+      <c r="AM181" s="55"/>
+      <c r="AN181" s="55"/>
+      <c r="AO181" s="55"/>
+      <c r="AP181" s="55"/>
+      <c r="AQ181" s="55"/>
+      <c r="AR181" s="55"/>
+      <c r="AS181" s="55"/>
+      <c r="AT181" s="55"/>
+      <c r="AU181" s="55"/>
+      <c r="AV181" s="55"/>
+      <c r="AW181" s="55"/>
+      <c r="AX181" s="55"/>
+      <c r="AY181" s="55"/>
+      <c r="AZ181" s="55"/>
+    </row>
+    <row r="182" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A182" s="55"/>
+      <c r="B182" s="55"/>
+      <c r="C182" s="55"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="55"/>
+      <c r="I182" s="55"/>
+      <c r="J182" s="55"/>
+      <c r="K182" s="55"/>
+      <c r="L182" s="55"/>
+      <c r="M182" s="55"/>
+      <c r="N182" s="55"/>
+      <c r="O182" s="55"/>
+      <c r="P182" s="55"/>
+      <c r="Q182" s="55"/>
+      <c r="R182" s="55"/>
+      <c r="S182" s="55"/>
+      <c r="T182" s="55"/>
+      <c r="U182" s="55"/>
+      <c r="V182" s="55"/>
+      <c r="W182" s="55"/>
+      <c r="X182" s="55"/>
+      <c r="Y182" s="55"/>
+      <c r="Z182" s="55"/>
+      <c r="AA182" s="55"/>
+      <c r="AB182" s="55"/>
+      <c r="AC182" s="55"/>
+      <c r="AD182" s="55"/>
+      <c r="AE182" s="55"/>
+      <c r="AF182" s="55"/>
+      <c r="AG182" s="55"/>
+      <c r="AH182" s="55"/>
+      <c r="AI182" s="55"/>
+      <c r="AJ182" s="55"/>
+      <c r="AK182" s="55"/>
+      <c r="AL182" s="55"/>
+      <c r="AM182" s="55"/>
+      <c r="AN182" s="55"/>
+      <c r="AO182" s="55"/>
+      <c r="AP182" s="55"/>
+      <c r="AQ182" s="55"/>
+      <c r="AR182" s="55"/>
+      <c r="AS182" s="55"/>
+      <c r="AT182" s="55"/>
+      <c r="AU182" s="55"/>
+      <c r="AV182" s="55"/>
+      <c r="AW182" s="55"/>
+      <c r="AX182" s="55"/>
+      <c r="AY182" s="55"/>
+      <c r="AZ182" s="55"/>
+    </row>
+    <row r="183" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A183" s="55"/>
+      <c r="B183" s="55"/>
+      <c r="C183" s="55"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="55"/>
+      <c r="G183" s="55"/>
+      <c r="H183" s="55"/>
+      <c r="I183" s="55"/>
+      <c r="J183" s="55"/>
+      <c r="K183" s="55"/>
+      <c r="L183" s="55"/>
+      <c r="M183" s="55"/>
+      <c r="N183" s="55"/>
+      <c r="O183" s="55"/>
+      <c r="P183" s="55"/>
+      <c r="Q183" s="55"/>
+      <c r="R183" s="55"/>
+      <c r="S183" s="55"/>
+      <c r="T183" s="55"/>
+      <c r="U183" s="55"/>
+      <c r="V183" s="55"/>
+      <c r="W183" s="55"/>
+      <c r="X183" s="55"/>
+      <c r="Y183" s="55"/>
+      <c r="Z183" s="55"/>
+      <c r="AA183" s="55"/>
+      <c r="AB183" s="55"/>
+      <c r="AC183" s="55"/>
+      <c r="AD183" s="55"/>
+      <c r="AE183" s="55"/>
+      <c r="AF183" s="55"/>
+      <c r="AG183" s="55"/>
+      <c r="AH183" s="55"/>
+      <c r="AI183" s="55"/>
+      <c r="AJ183" s="55"/>
+      <c r="AK183" s="55"/>
+      <c r="AL183" s="55"/>
+      <c r="AM183" s="55"/>
+      <c r="AN183" s="55"/>
+      <c r="AO183" s="55"/>
+      <c r="AP183" s="55"/>
+      <c r="AQ183" s="55"/>
+      <c r="AR183" s="55"/>
+      <c r="AS183" s="55"/>
+      <c r="AT183" s="55"/>
+      <c r="AU183" s="55"/>
+      <c r="AV183" s="55"/>
+      <c r="AW183" s="55"/>
+      <c r="AX183" s="55"/>
+      <c r="AY183" s="55"/>
+      <c r="AZ183" s="55"/>
+    </row>
+    <row r="184" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A184" s="55"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="55"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="55"/>
+      <c r="G184" s="55"/>
+      <c r="H184" s="55"/>
+      <c r="I184" s="55"/>
+      <c r="J184" s="55"/>
+      <c r="K184" s="55"/>
+      <c r="L184" s="55"/>
+      <c r="M184" s="55"/>
+      <c r="N184" s="55"/>
+      <c r="O184" s="55"/>
+      <c r="P184" s="55"/>
+      <c r="Q184" s="55"/>
+      <c r="R184" s="55"/>
+      <c r="S184" s="55"/>
+      <c r="T184" s="55"/>
+      <c r="U184" s="55"/>
+      <c r="V184" s="55"/>
+      <c r="W184" s="55"/>
+      <c r="X184" s="55"/>
+      <c r="Y184" s="55"/>
+      <c r="Z184" s="55"/>
+      <c r="AA184" s="55"/>
+      <c r="AB184" s="55"/>
+      <c r="AC184" s="55"/>
+      <c r="AD184" s="55"/>
+      <c r="AE184" s="55"/>
+      <c r="AF184" s="55"/>
+      <c r="AG184" s="55"/>
+      <c r="AH184" s="55"/>
+      <c r="AI184" s="55"/>
+      <c r="AJ184" s="55"/>
+      <c r="AK184" s="55"/>
+      <c r="AL184" s="55"/>
+      <c r="AM184" s="55"/>
+      <c r="AN184" s="55"/>
+      <c r="AO184" s="55"/>
+      <c r="AP184" s="55"/>
+      <c r="AQ184" s="55"/>
+      <c r="AR184" s="55"/>
+      <c r="AS184" s="55"/>
+      <c r="AT184" s="55"/>
+      <c r="AU184" s="55"/>
+      <c r="AV184" s="55"/>
+      <c r="AW184" s="55"/>
+      <c r="AX184" s="55"/>
+      <c r="AY184" s="55"/>
+      <c r="AZ184" s="55"/>
+    </row>
+    <row r="185" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A185" s="55"/>
+      <c r="B185" s="55"/>
+      <c r="C185" s="55"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="55"/>
+      <c r="G185" s="55"/>
+      <c r="H185" s="55"/>
+      <c r="I185" s="55"/>
+      <c r="J185" s="55"/>
+      <c r="K185" s="55"/>
+      <c r="L185" s="55"/>
+      <c r="M185" s="55"/>
+      <c r="N185" s="55"/>
+      <c r="O185" s="55"/>
+      <c r="P185" s="55"/>
+      <c r="Q185" s="55"/>
+      <c r="R185" s="55"/>
+      <c r="S185" s="55"/>
+      <c r="T185" s="55"/>
+      <c r="U185" s="55"/>
+      <c r="V185" s="55"/>
+      <c r="W185" s="55"/>
+      <c r="X185" s="55"/>
+      <c r="Y185" s="55"/>
+      <c r="Z185" s="55"/>
+      <c r="AA185" s="55"/>
+      <c r="AB185" s="55"/>
+      <c r="AC185" s="55"/>
+      <c r="AD185" s="55"/>
+      <c r="AE185" s="55"/>
+      <c r="AF185" s="55"/>
+      <c r="AG185" s="55"/>
+      <c r="AH185" s="55"/>
+      <c r="AI185" s="55"/>
+      <c r="AJ185" s="55"/>
+      <c r="AK185" s="55"/>
+      <c r="AL185" s="55"/>
+      <c r="AM185" s="55"/>
+      <c r="AN185" s="55"/>
+      <c r="AO185" s="55"/>
+      <c r="AP185" s="55"/>
+      <c r="AQ185" s="55"/>
+      <c r="AR185" s="55"/>
+      <c r="AS185" s="55"/>
+      <c r="AT185" s="55"/>
+      <c r="AU185" s="55"/>
+      <c r="AV185" s="55"/>
+      <c r="AW185" s="55"/>
+      <c r="AX185" s="55"/>
+      <c r="AY185" s="55"/>
+      <c r="AZ185" s="55"/>
+    </row>
+    <row r="186" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A186" s="55"/>
+      <c r="B186" s="55"/>
+      <c r="C186" s="55"/>
+      <c r="D186" s="55"/>
+      <c r="E186" s="55"/>
+      <c r="F186" s="55"/>
+      <c r="G186" s="55"/>
+      <c r="H186" s="55"/>
+      <c r="I186" s="55"/>
+      <c r="J186" s="55"/>
+      <c r="K186" s="55"/>
+      <c r="L186" s="55"/>
+      <c r="M186" s="55"/>
+      <c r="N186" s="55"/>
+      <c r="O186" s="55"/>
+      <c r="P186" s="55"/>
+      <c r="Q186" s="55"/>
+      <c r="R186" s="55"/>
+      <c r="S186" s="55"/>
+      <c r="T186" s="55"/>
+      <c r="U186" s="55"/>
+      <c r="V186" s="55"/>
+      <c r="W186" s="55"/>
+      <c r="X186" s="55"/>
+      <c r="Y186" s="55"/>
+      <c r="Z186" s="55"/>
+      <c r="AA186" s="55"/>
+      <c r="AB186" s="55"/>
+      <c r="AC186" s="55"/>
+      <c r="AD186" s="55"/>
+      <c r="AE186" s="55"/>
+      <c r="AF186" s="55"/>
+      <c r="AG186" s="55"/>
+      <c r="AH186" s="55"/>
+      <c r="AI186" s="55"/>
+      <c r="AJ186" s="55"/>
+      <c r="AK186" s="55"/>
+      <c r="AL186" s="55"/>
+      <c r="AM186" s="55"/>
+      <c r="AN186" s="55"/>
+      <c r="AO186" s="55"/>
+      <c r="AP186" s="55"/>
+      <c r="AQ186" s="55"/>
+      <c r="AR186" s="55"/>
+      <c r="AS186" s="55"/>
+      <c r="AT186" s="55"/>
+      <c r="AU186" s="55"/>
+      <c r="AV186" s="55"/>
+      <c r="AW186" s="55"/>
+      <c r="AX186" s="55"/>
+      <c r="AY186" s="55"/>
+      <c r="AZ186" s="55"/>
+    </row>
+    <row r="187" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A187" s="55"/>
+      <c r="B187" s="55"/>
+      <c r="C187" s="55"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="55"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="55"/>
+      <c r="I187" s="55"/>
+      <c r="J187" s="55"/>
+      <c r="K187" s="55"/>
+      <c r="L187" s="55"/>
+      <c r="M187" s="55"/>
+      <c r="N187" s="55"/>
+      <c r="O187" s="55"/>
+      <c r="P187" s="55"/>
+      <c r="Q187" s="55"/>
+      <c r="R187" s="55"/>
+      <c r="S187" s="55"/>
+      <c r="T187" s="55"/>
+      <c r="U187" s="55"/>
+      <c r="V187" s="55"/>
+      <c r="W187" s="55"/>
+      <c r="X187" s="55"/>
+      <c r="Y187" s="55"/>
+      <c r="Z187" s="55"/>
+      <c r="AA187" s="55"/>
+      <c r="AB187" s="55"/>
+      <c r="AC187" s="55"/>
+      <c r="AD187" s="55"/>
+      <c r="AE187" s="55"/>
+      <c r="AF187" s="55"/>
+      <c r="AG187" s="55"/>
+      <c r="AH187" s="55"/>
+      <c r="AI187" s="55"/>
+      <c r="AJ187" s="55"/>
+      <c r="AK187" s="55"/>
+      <c r="AL187" s="55"/>
+      <c r="AM187" s="55"/>
+      <c r="AN187" s="55"/>
+      <c r="AO187" s="55"/>
+      <c r="AP187" s="55"/>
+      <c r="AQ187" s="55"/>
+      <c r="AR187" s="55"/>
+      <c r="AS187" s="55"/>
+      <c r="AT187" s="55"/>
+      <c r="AU187" s="55"/>
+      <c r="AV187" s="55"/>
+      <c r="AW187" s="55"/>
+      <c r="AX187" s="55"/>
+      <c r="AY187" s="55"/>
+      <c r="AZ187" s="55"/>
+    </row>
+    <row r="188" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A188" s="55"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="55"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="55"/>
+      <c r="F188" s="55"/>
+      <c r="G188" s="55"/>
+      <c r="H188" s="55"/>
+      <c r="I188" s="55"/>
+      <c r="J188" s="55"/>
+      <c r="K188" s="55"/>
+      <c r="L188" s="55"/>
+      <c r="M188" s="55"/>
+      <c r="N188" s="55"/>
+      <c r="O188" s="55"/>
+      <c r="P188" s="55"/>
+      <c r="Q188" s="55"/>
+      <c r="R188" s="55"/>
+      <c r="S188" s="55"/>
+      <c r="T188" s="55"/>
+      <c r="U188" s="55"/>
+      <c r="V188" s="55"/>
+      <c r="W188" s="55"/>
+      <c r="X188" s="55"/>
+      <c r="Y188" s="55"/>
+      <c r="Z188" s="55"/>
+      <c r="AA188" s="55"/>
+      <c r="AB188" s="55"/>
+      <c r="AC188" s="55"/>
+      <c r="AD188" s="55"/>
+      <c r="AE188" s="55"/>
+      <c r="AF188" s="55"/>
+      <c r="AG188" s="55"/>
+      <c r="AH188" s="55"/>
+      <c r="AI188" s="55"/>
+      <c r="AJ188" s="55"/>
+      <c r="AK188" s="55"/>
+      <c r="AL188" s="55"/>
+      <c r="AM188" s="55"/>
+      <c r="AN188" s="55"/>
+      <c r="AO188" s="55"/>
+      <c r="AP188" s="55"/>
+      <c r="AQ188" s="55"/>
+      <c r="AR188" s="55"/>
+      <c r="AS188" s="55"/>
+      <c r="AT188" s="55"/>
+      <c r="AU188" s="55"/>
+      <c r="AV188" s="55"/>
+      <c r="AW188" s="55"/>
+      <c r="AX188" s="55"/>
+      <c r="AY188" s="55"/>
+      <c r="AZ188" s="55"/>
+    </row>
+    <row r="189" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A189" s="55"/>
+      <c r="B189" s="55"/>
+      <c r="C189" s="55"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="55"/>
+      <c r="F189" s="55"/>
+      <c r="G189" s="55"/>
+      <c r="H189" s="55"/>
+      <c r="I189" s="55"/>
+      <c r="J189" s="55"/>
+      <c r="K189" s="55"/>
+      <c r="L189" s="55"/>
+      <c r="M189" s="55"/>
+      <c r="N189" s="55"/>
+      <c r="O189" s="55"/>
+      <c r="P189" s="55"/>
+      <c r="Q189" s="55"/>
+      <c r="R189" s="55"/>
+      <c r="S189" s="55"/>
+      <c r="T189" s="55"/>
+      <c r="U189" s="55"/>
+      <c r="V189" s="55"/>
+      <c r="W189" s="55"/>
+      <c r="X189" s="55"/>
+      <c r="Y189" s="55"/>
+      <c r="Z189" s="55"/>
+      <c r="AA189" s="55"/>
+      <c r="AB189" s="55"/>
+      <c r="AC189" s="55"/>
+      <c r="AD189" s="55"/>
+      <c r="AE189" s="55"/>
+      <c r="AF189" s="55"/>
+      <c r="AG189" s="55"/>
+      <c r="AH189" s="55"/>
+      <c r="AI189" s="55"/>
+      <c r="AJ189" s="55"/>
+      <c r="AK189" s="55"/>
+      <c r="AL189" s="55"/>
+      <c r="AM189" s="55"/>
+      <c r="AN189" s="55"/>
+      <c r="AO189" s="55"/>
+      <c r="AP189" s="55"/>
+      <c r="AQ189" s="55"/>
+      <c r="AR189" s="55"/>
+      <c r="AS189" s="55"/>
+      <c r="AT189" s="55"/>
+      <c r="AU189" s="55"/>
+      <c r="AV189" s="55"/>
+      <c r="AW189" s="55"/>
+      <c r="AX189" s="55"/>
+      <c r="AY189" s="55"/>
+      <c r="AZ189" s="55"/>
+    </row>
+    <row r="190" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A190" s="55"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="55"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="55"/>
+      <c r="F190" s="55"/>
+      <c r="G190" s="55"/>
+      <c r="H190" s="55"/>
+      <c r="I190" s="55"/>
+      <c r="J190" s="55"/>
+      <c r="K190" s="55"/>
+      <c r="L190" s="55"/>
+      <c r="M190" s="55"/>
+      <c r="N190" s="55"/>
+      <c r="O190" s="55"/>
+      <c r="P190" s="55"/>
+      <c r="Q190" s="55"/>
+      <c r="R190" s="55"/>
+      <c r="S190" s="55"/>
+      <c r="T190" s="55"/>
+      <c r="U190" s="55"/>
+      <c r="V190" s="55"/>
+      <c r="W190" s="55"/>
+      <c r="X190" s="55"/>
+      <c r="Y190" s="55"/>
+      <c r="Z190" s="55"/>
+      <c r="AA190" s="55"/>
+      <c r="AB190" s="55"/>
+      <c r="AC190" s="55"/>
+      <c r="AD190" s="55"/>
+      <c r="AE190" s="55"/>
+      <c r="AF190" s="55"/>
+      <c r="AG190" s="55"/>
+      <c r="AH190" s="55"/>
+      <c r="AI190" s="55"/>
+      <c r="AJ190" s="55"/>
+      <c r="AK190" s="55"/>
+      <c r="AL190" s="55"/>
+      <c r="AM190" s="55"/>
+      <c r="AN190" s="55"/>
+      <c r="AO190" s="55"/>
+      <c r="AP190" s="55"/>
+      <c r="AQ190" s="55"/>
+      <c r="AR190" s="55"/>
+      <c r="AS190" s="55"/>
+      <c r="AT190" s="55"/>
+      <c r="AU190" s="55"/>
+      <c r="AV190" s="55"/>
+      <c r="AW190" s="55"/>
+      <c r="AX190" s="55"/>
+      <c r="AY190" s="55"/>
+      <c r="AZ190" s="55"/>
+    </row>
+    <row r="191" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A191" s="55"/>
+      <c r="B191" s="55"/>
+      <c r="C191" s="55"/>
+      <c r="D191" s="55"/>
+      <c r="E191" s="55"/>
+      <c r="F191" s="55"/>
+      <c r="G191" s="55"/>
+      <c r="H191" s="55"/>
+      <c r="I191" s="55"/>
+      <c r="J191" s="55"/>
+      <c r="K191" s="55"/>
+      <c r="L191" s="55"/>
+      <c r="M191" s="55"/>
+      <c r="N191" s="55"/>
+      <c r="O191" s="55"/>
+      <c r="P191" s="55"/>
+      <c r="Q191" s="55"/>
+      <c r="R191" s="55"/>
+      <c r="S191" s="55"/>
+      <c r="T191" s="55"/>
+      <c r="U191" s="55"/>
+      <c r="V191" s="55"/>
+      <c r="W191" s="55"/>
+      <c r="X191" s="55"/>
+      <c r="Y191" s="55"/>
+      <c r="Z191" s="55"/>
+      <c r="AA191" s="55"/>
+      <c r="AB191" s="55"/>
+      <c r="AC191" s="55"/>
+      <c r="AD191" s="55"/>
+      <c r="AE191" s="55"/>
+      <c r="AF191" s="55"/>
+      <c r="AG191" s="55"/>
+      <c r="AH191" s="55"/>
+      <c r="AI191" s="55"/>
+      <c r="AJ191" s="55"/>
+      <c r="AK191" s="55"/>
+      <c r="AL191" s="55"/>
+      <c r="AM191" s="55"/>
+      <c r="AN191" s="55"/>
+      <c r="AO191" s="55"/>
+      <c r="AP191" s="55"/>
+      <c r="AQ191" s="55"/>
+      <c r="AR191" s="55"/>
+      <c r="AS191" s="55"/>
+      <c r="AT191" s="55"/>
+      <c r="AU191" s="55"/>
+      <c r="AV191" s="55"/>
+      <c r="AW191" s="55"/>
+      <c r="AX191" s="55"/>
+      <c r="AY191" s="55"/>
+      <c r="AZ191" s="55"/>
+    </row>
+    <row r="192" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A192" s="55"/>
+      <c r="B192" s="55"/>
+      <c r="C192" s="55"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="55"/>
+      <c r="F192" s="55"/>
+      <c r="G192" s="55"/>
+      <c r="H192" s="55"/>
+      <c r="I192" s="55"/>
+      <c r="J192" s="55"/>
+      <c r="K192" s="55"/>
+      <c r="L192" s="55"/>
+      <c r="M192" s="55"/>
+      <c r="N192" s="55"/>
+      <c r="O192" s="55"/>
+      <c r="P192" s="55"/>
+      <c r="Q192" s="55"/>
+      <c r="R192" s="55"/>
+      <c r="S192" s="55"/>
+      <c r="T192" s="55"/>
+      <c r="U192" s="55"/>
+      <c r="V192" s="55"/>
+      <c r="W192" s="55"/>
+      <c r="X192" s="55"/>
+      <c r="Y192" s="55"/>
+      <c r="Z192" s="55"/>
+      <c r="AA192" s="55"/>
+      <c r="AB192" s="55"/>
+      <c r="AC192" s="55"/>
+      <c r="AD192" s="55"/>
+      <c r="AE192" s="55"/>
+      <c r="AF192" s="55"/>
+      <c r="AG192" s="55"/>
+      <c r="AH192" s="55"/>
+      <c r="AI192" s="55"/>
+      <c r="AJ192" s="55"/>
+      <c r="AK192" s="55"/>
+      <c r="AL192" s="55"/>
+      <c r="AM192" s="55"/>
+      <c r="AN192" s="55"/>
+      <c r="AO192" s="55"/>
+      <c r="AP192" s="55"/>
+      <c r="AQ192" s="55"/>
+      <c r="AR192" s="55"/>
+      <c r="AS192" s="55"/>
+      <c r="AT192" s="55"/>
+      <c r="AU192" s="55"/>
+      <c r="AV192" s="55"/>
+      <c r="AW192" s="55"/>
+      <c r="AX192" s="55"/>
+      <c r="AY192" s="55"/>
+      <c r="AZ192" s="55"/>
+    </row>
+    <row r="193" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A193" s="55"/>
+      <c r="B193" s="55"/>
+      <c r="C193" s="55"/>
+      <c r="D193" s="55"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="55"/>
+      <c r="G193" s="55"/>
+      <c r="H193" s="55"/>
+      <c r="I193" s="55"/>
+      <c r="J193" s="55"/>
+      <c r="K193" s="55"/>
+      <c r="L193" s="55"/>
+      <c r="M193" s="55"/>
+      <c r="N193" s="55"/>
+      <c r="O193" s="55"/>
+      <c r="P193" s="55"/>
+      <c r="Q193" s="55"/>
+      <c r="R193" s="55"/>
+      <c r="S193" s="55"/>
+      <c r="T193" s="55"/>
+      <c r="U193" s="55"/>
+      <c r="V193" s="55"/>
+      <c r="W193" s="55"/>
+      <c r="X193" s="55"/>
+      <c r="Y193" s="55"/>
+      <c r="Z193" s="55"/>
+      <c r="AA193" s="55"/>
+      <c r="AB193" s="55"/>
+      <c r="AC193" s="55"/>
+      <c r="AD193" s="55"/>
+      <c r="AE193" s="55"/>
+      <c r="AF193" s="55"/>
+      <c r="AG193" s="55"/>
+      <c r="AH193" s="55"/>
+      <c r="AI193" s="55"/>
+      <c r="AJ193" s="55"/>
+      <c r="AK193" s="55"/>
+      <c r="AL193" s="55"/>
+      <c r="AM193" s="55"/>
+      <c r="AN193" s="55"/>
+      <c r="AO193" s="55"/>
+      <c r="AP193" s="55"/>
+      <c r="AQ193" s="55"/>
+      <c r="AR193" s="55"/>
+      <c r="AS193" s="55"/>
+      <c r="AT193" s="55"/>
+      <c r="AU193" s="55"/>
+      <c r="AV193" s="55"/>
+      <c r="AW193" s="55"/>
+      <c r="AX193" s="55"/>
+      <c r="AY193" s="55"/>
+      <c r="AZ193" s="55"/>
+    </row>
+    <row r="194" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A194" s="55"/>
+      <c r="B194" s="55"/>
+      <c r="C194" s="55"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="55"/>
+      <c r="I194" s="55"/>
+      <c r="J194" s="55"/>
+      <c r="K194" s="55"/>
+      <c r="L194" s="55"/>
+      <c r="M194" s="55"/>
+      <c r="N194" s="55"/>
+      <c r="O194" s="55"/>
+      <c r="P194" s="55"/>
+      <c r="Q194" s="55"/>
+      <c r="R194" s="55"/>
+      <c r="S194" s="55"/>
+      <c r="T194" s="55"/>
+      <c r="U194" s="55"/>
+      <c r="V194" s="55"/>
+      <c r="W194" s="55"/>
+      <c r="X194" s="55"/>
+      <c r="Y194" s="55"/>
+      <c r="Z194" s="55"/>
+      <c r="AA194" s="55"/>
+      <c r="AB194" s="55"/>
+      <c r="AC194" s="55"/>
+      <c r="AD194" s="55"/>
+      <c r="AE194" s="55"/>
+      <c r="AF194" s="55"/>
+      <c r="AG194" s="55"/>
+      <c r="AH194" s="55"/>
+      <c r="AI194" s="55"/>
+      <c r="AJ194" s="55"/>
+      <c r="AK194" s="55"/>
+      <c r="AL194" s="55"/>
+      <c r="AM194" s="55"/>
+      <c r="AN194" s="55"/>
+      <c r="AO194" s="55"/>
+      <c r="AP194" s="55"/>
+      <c r="AQ194" s="55"/>
+      <c r="AR194" s="55"/>
+      <c r="AS194" s="55"/>
+      <c r="AT194" s="55"/>
+      <c r="AU194" s="55"/>
+      <c r="AV194" s="55"/>
+      <c r="AW194" s="55"/>
+      <c r="AX194" s="55"/>
+      <c r="AY194" s="55"/>
+      <c r="AZ194" s="55"/>
+    </row>
+    <row r="195" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A195" s="55"/>
+      <c r="B195" s="55"/>
+      <c r="C195" s="55"/>
+      <c r="D195" s="55"/>
+      <c r="E195" s="55"/>
+      <c r="F195" s="55"/>
+      <c r="G195" s="55"/>
+      <c r="H195" s="55"/>
+      <c r="I195" s="55"/>
+      <c r="J195" s="55"/>
+      <c r="K195" s="55"/>
+      <c r="L195" s="55"/>
+      <c r="M195" s="55"/>
+      <c r="N195" s="55"/>
+      <c r="O195" s="55"/>
+      <c r="P195" s="55"/>
+      <c r="Q195" s="55"/>
+      <c r="R195" s="55"/>
+      <c r="S195" s="55"/>
+      <c r="T195" s="55"/>
+      <c r="U195" s="55"/>
+      <c r="V195" s="55"/>
+      <c r="W195" s="55"/>
+      <c r="X195" s="55"/>
+      <c r="Y195" s="55"/>
+      <c r="Z195" s="55"/>
+      <c r="AA195" s="55"/>
+      <c r="AB195" s="55"/>
+      <c r="AC195" s="55"/>
+      <c r="AD195" s="55"/>
+      <c r="AE195" s="55"/>
+      <c r="AF195" s="55"/>
+      <c r="AG195" s="55"/>
+      <c r="AH195" s="55"/>
+      <c r="AI195" s="55"/>
+      <c r="AJ195" s="55"/>
+      <c r="AK195" s="55"/>
+      <c r="AL195" s="55"/>
+      <c r="AM195" s="55"/>
+      <c r="AN195" s="55"/>
+      <c r="AO195" s="55"/>
+      <c r="AP195" s="55"/>
+      <c r="AQ195" s="55"/>
+      <c r="AR195" s="55"/>
+      <c r="AS195" s="55"/>
+      <c r="AT195" s="55"/>
+      <c r="AU195" s="55"/>
+      <c r="AV195" s="55"/>
+      <c r="AW195" s="55"/>
+      <c r="AX195" s="55"/>
+      <c r="AY195" s="55"/>
+      <c r="AZ195" s="55"/>
+    </row>
+    <row r="196" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A196" s="55"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="55"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
+      <c r="F196" s="55"/>
+      <c r="G196" s="55"/>
+      <c r="H196" s="55"/>
+      <c r="I196" s="55"/>
+      <c r="J196" s="55"/>
+      <c r="K196" s="55"/>
+      <c r="L196" s="55"/>
+      <c r="M196" s="55"/>
+      <c r="N196" s="55"/>
+      <c r="O196" s="55"/>
+      <c r="P196" s="55"/>
+      <c r="Q196" s="55"/>
+      <c r="R196" s="55"/>
+      <c r="S196" s="55"/>
+      <c r="T196" s="55"/>
+      <c r="U196" s="55"/>
+      <c r="V196" s="55"/>
+      <c r="W196" s="55"/>
+      <c r="X196" s="55"/>
+      <c r="Y196" s="55"/>
+      <c r="Z196" s="55"/>
+      <c r="AA196" s="55"/>
+      <c r="AB196" s="55"/>
+      <c r="AC196" s="55"/>
+      <c r="AD196" s="55"/>
+      <c r="AE196" s="55"/>
+      <c r="AF196" s="55"/>
+      <c r="AG196" s="55"/>
+      <c r="AH196" s="55"/>
+      <c r="AI196" s="55"/>
+      <c r="AJ196" s="55"/>
+      <c r="AK196" s="55"/>
+      <c r="AL196" s="55"/>
+      <c r="AM196" s="55"/>
+      <c r="AN196" s="55"/>
+      <c r="AO196" s="55"/>
+      <c r="AP196" s="55"/>
+      <c r="AQ196" s="55"/>
+      <c r="AR196" s="55"/>
+      <c r="AS196" s="55"/>
+      <c r="AT196" s="55"/>
+      <c r="AU196" s="55"/>
+      <c r="AV196" s="55"/>
+      <c r="AW196" s="55"/>
+      <c r="AX196" s="55"/>
+      <c r="AY196" s="55"/>
+      <c r="AZ196" s="55"/>
+    </row>
     <row r="197" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A197" s="55"/>
       <c r="B197" s="55"/>
@@ -25129,1356 +25980,6 @@
       <c r="AY304" s="55"/>
       <c r="AZ304" s="55"/>
     </row>
-    <row r="305" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A305" s="55"/>
-      <c r="B305" s="55"/>
-      <c r="C305" s="55"/>
-      <c r="D305" s="55"/>
-      <c r="E305" s="55"/>
-      <c r="F305" s="55"/>
-      <c r="G305" s="55"/>
-      <c r="H305" s="55"/>
-      <c r="I305" s="55"/>
-      <c r="J305" s="55"/>
-      <c r="K305" s="55"/>
-      <c r="L305" s="55"/>
-      <c r="M305" s="55"/>
-      <c r="N305" s="55"/>
-      <c r="O305" s="55"/>
-      <c r="P305" s="55"/>
-      <c r="Q305" s="55"/>
-      <c r="R305" s="55"/>
-      <c r="S305" s="55"/>
-      <c r="T305" s="55"/>
-      <c r="U305" s="55"/>
-      <c r="V305" s="55"/>
-      <c r="W305" s="55"/>
-      <c r="X305" s="55"/>
-      <c r="Y305" s="55"/>
-      <c r="Z305" s="55"/>
-      <c r="AA305" s="55"/>
-      <c r="AB305" s="55"/>
-      <c r="AC305" s="55"/>
-      <c r="AD305" s="55"/>
-      <c r="AE305" s="55"/>
-      <c r="AF305" s="55"/>
-      <c r="AG305" s="55"/>
-      <c r="AH305" s="55"/>
-      <c r="AI305" s="55"/>
-      <c r="AJ305" s="55"/>
-      <c r="AK305" s="55"/>
-      <c r="AL305" s="55"/>
-      <c r="AM305" s="55"/>
-      <c r="AN305" s="55"/>
-      <c r="AO305" s="55"/>
-      <c r="AP305" s="55"/>
-      <c r="AQ305" s="55"/>
-      <c r="AR305" s="55"/>
-      <c r="AS305" s="55"/>
-      <c r="AT305" s="55"/>
-      <c r="AU305" s="55"/>
-      <c r="AV305" s="55"/>
-      <c r="AW305" s="55"/>
-      <c r="AX305" s="55"/>
-      <c r="AY305" s="55"/>
-      <c r="AZ305" s="55"/>
-    </row>
-    <row r="306" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A306" s="55"/>
-      <c r="B306" s="55"/>
-      <c r="C306" s="55"/>
-      <c r="D306" s="55"/>
-      <c r="E306" s="55"/>
-      <c r="F306" s="55"/>
-      <c r="G306" s="55"/>
-      <c r="H306" s="55"/>
-      <c r="I306" s="55"/>
-      <c r="J306" s="55"/>
-      <c r="K306" s="55"/>
-      <c r="L306" s="55"/>
-      <c r="M306" s="55"/>
-      <c r="N306" s="55"/>
-      <c r="O306" s="55"/>
-      <c r="P306" s="55"/>
-      <c r="Q306" s="55"/>
-      <c r="R306" s="55"/>
-      <c r="S306" s="55"/>
-      <c r="T306" s="55"/>
-      <c r="U306" s="55"/>
-      <c r="V306" s="55"/>
-      <c r="W306" s="55"/>
-      <c r="X306" s="55"/>
-      <c r="Y306" s="55"/>
-      <c r="Z306" s="55"/>
-      <c r="AA306" s="55"/>
-      <c r="AB306" s="55"/>
-      <c r="AC306" s="55"/>
-      <c r="AD306" s="55"/>
-      <c r="AE306" s="55"/>
-      <c r="AF306" s="55"/>
-      <c r="AG306" s="55"/>
-      <c r="AH306" s="55"/>
-      <c r="AI306" s="55"/>
-      <c r="AJ306" s="55"/>
-      <c r="AK306" s="55"/>
-      <c r="AL306" s="55"/>
-      <c r="AM306" s="55"/>
-      <c r="AN306" s="55"/>
-      <c r="AO306" s="55"/>
-      <c r="AP306" s="55"/>
-      <c r="AQ306" s="55"/>
-      <c r="AR306" s="55"/>
-      <c r="AS306" s="55"/>
-      <c r="AT306" s="55"/>
-      <c r="AU306" s="55"/>
-      <c r="AV306" s="55"/>
-      <c r="AW306" s="55"/>
-      <c r="AX306" s="55"/>
-      <c r="AY306" s="55"/>
-      <c r="AZ306" s="55"/>
-    </row>
-    <row r="307" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A307" s="55"/>
-      <c r="B307" s="55"/>
-      <c r="C307" s="55"/>
-      <c r="D307" s="55"/>
-      <c r="E307" s="55"/>
-      <c r="F307" s="55"/>
-      <c r="G307" s="55"/>
-      <c r="H307" s="55"/>
-      <c r="I307" s="55"/>
-      <c r="J307" s="55"/>
-      <c r="K307" s="55"/>
-      <c r="L307" s="55"/>
-      <c r="M307" s="55"/>
-      <c r="N307" s="55"/>
-      <c r="O307" s="55"/>
-      <c r="P307" s="55"/>
-      <c r="Q307" s="55"/>
-      <c r="R307" s="55"/>
-      <c r="S307" s="55"/>
-      <c r="T307" s="55"/>
-      <c r="U307" s="55"/>
-      <c r="V307" s="55"/>
-      <c r="W307" s="55"/>
-      <c r="X307" s="55"/>
-      <c r="Y307" s="55"/>
-      <c r="Z307" s="55"/>
-      <c r="AA307" s="55"/>
-      <c r="AB307" s="55"/>
-      <c r="AC307" s="55"/>
-      <c r="AD307" s="55"/>
-      <c r="AE307" s="55"/>
-      <c r="AF307" s="55"/>
-      <c r="AG307" s="55"/>
-      <c r="AH307" s="55"/>
-      <c r="AI307" s="55"/>
-      <c r="AJ307" s="55"/>
-      <c r="AK307" s="55"/>
-      <c r="AL307" s="55"/>
-      <c r="AM307" s="55"/>
-      <c r="AN307" s="55"/>
-      <c r="AO307" s="55"/>
-      <c r="AP307" s="55"/>
-      <c r="AQ307" s="55"/>
-      <c r="AR307" s="55"/>
-      <c r="AS307" s="55"/>
-      <c r="AT307" s="55"/>
-      <c r="AU307" s="55"/>
-      <c r="AV307" s="55"/>
-      <c r="AW307" s="55"/>
-      <c r="AX307" s="55"/>
-      <c r="AY307" s="55"/>
-      <c r="AZ307" s="55"/>
-    </row>
-    <row r="308" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A308" s="55"/>
-      <c r="B308" s="55"/>
-      <c r="C308" s="55"/>
-      <c r="D308" s="55"/>
-      <c r="E308" s="55"/>
-      <c r="F308" s="55"/>
-      <c r="G308" s="55"/>
-      <c r="H308" s="55"/>
-      <c r="I308" s="55"/>
-      <c r="J308" s="55"/>
-      <c r="K308" s="55"/>
-      <c r="L308" s="55"/>
-      <c r="M308" s="55"/>
-      <c r="N308" s="55"/>
-      <c r="O308" s="55"/>
-      <c r="P308" s="55"/>
-      <c r="Q308" s="55"/>
-      <c r="R308" s="55"/>
-      <c r="S308" s="55"/>
-      <c r="T308" s="55"/>
-      <c r="U308" s="55"/>
-      <c r="V308" s="55"/>
-      <c r="W308" s="55"/>
-      <c r="X308" s="55"/>
-      <c r="Y308" s="55"/>
-      <c r="Z308" s="55"/>
-      <c r="AA308" s="55"/>
-      <c r="AB308" s="55"/>
-      <c r="AC308" s="55"/>
-      <c r="AD308" s="55"/>
-      <c r="AE308" s="55"/>
-      <c r="AF308" s="55"/>
-      <c r="AG308" s="55"/>
-      <c r="AH308" s="55"/>
-      <c r="AI308" s="55"/>
-      <c r="AJ308" s="55"/>
-      <c r="AK308" s="55"/>
-      <c r="AL308" s="55"/>
-      <c r="AM308" s="55"/>
-      <c r="AN308" s="55"/>
-      <c r="AO308" s="55"/>
-      <c r="AP308" s="55"/>
-      <c r="AQ308" s="55"/>
-      <c r="AR308" s="55"/>
-      <c r="AS308" s="55"/>
-      <c r="AT308" s="55"/>
-      <c r="AU308" s="55"/>
-      <c r="AV308" s="55"/>
-      <c r="AW308" s="55"/>
-      <c r="AX308" s="55"/>
-      <c r="AY308" s="55"/>
-      <c r="AZ308" s="55"/>
-    </row>
-    <row r="309" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A309" s="55"/>
-      <c r="B309" s="55"/>
-      <c r="C309" s="55"/>
-      <c r="D309" s="55"/>
-      <c r="E309" s="55"/>
-      <c r="F309" s="55"/>
-      <c r="G309" s="55"/>
-      <c r="H309" s="55"/>
-      <c r="I309" s="55"/>
-      <c r="J309" s="55"/>
-      <c r="K309" s="55"/>
-      <c r="L309" s="55"/>
-      <c r="M309" s="55"/>
-      <c r="N309" s="55"/>
-      <c r="O309" s="55"/>
-      <c r="P309" s="55"/>
-      <c r="Q309" s="55"/>
-      <c r="R309" s="55"/>
-      <c r="S309" s="55"/>
-      <c r="T309" s="55"/>
-      <c r="U309" s="55"/>
-      <c r="V309" s="55"/>
-      <c r="W309" s="55"/>
-      <c r="X309" s="55"/>
-      <c r="Y309" s="55"/>
-      <c r="Z309" s="55"/>
-      <c r="AA309" s="55"/>
-      <c r="AB309" s="55"/>
-      <c r="AC309" s="55"/>
-      <c r="AD309" s="55"/>
-      <c r="AE309" s="55"/>
-      <c r="AF309" s="55"/>
-      <c r="AG309" s="55"/>
-      <c r="AH309" s="55"/>
-      <c r="AI309" s="55"/>
-      <c r="AJ309" s="55"/>
-      <c r="AK309" s="55"/>
-      <c r="AL309" s="55"/>
-      <c r="AM309" s="55"/>
-      <c r="AN309" s="55"/>
-      <c r="AO309" s="55"/>
-      <c r="AP309" s="55"/>
-      <c r="AQ309" s="55"/>
-      <c r="AR309" s="55"/>
-      <c r="AS309" s="55"/>
-      <c r="AT309" s="55"/>
-      <c r="AU309" s="55"/>
-      <c r="AV309" s="55"/>
-      <c r="AW309" s="55"/>
-      <c r="AX309" s="55"/>
-      <c r="AY309" s="55"/>
-      <c r="AZ309" s="55"/>
-    </row>
-    <row r="310" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A310" s="55"/>
-      <c r="B310" s="55"/>
-      <c r="C310" s="55"/>
-      <c r="D310" s="55"/>
-      <c r="E310" s="55"/>
-      <c r="F310" s="55"/>
-      <c r="G310" s="55"/>
-      <c r="H310" s="55"/>
-      <c r="I310" s="55"/>
-      <c r="J310" s="55"/>
-      <c r="K310" s="55"/>
-      <c r="L310" s="55"/>
-      <c r="M310" s="55"/>
-      <c r="N310" s="55"/>
-      <c r="O310" s="55"/>
-      <c r="P310" s="55"/>
-      <c r="Q310" s="55"/>
-      <c r="R310" s="55"/>
-      <c r="S310" s="55"/>
-      <c r="T310" s="55"/>
-      <c r="U310" s="55"/>
-      <c r="V310" s="55"/>
-      <c r="W310" s="55"/>
-      <c r="X310" s="55"/>
-      <c r="Y310" s="55"/>
-      <c r="Z310" s="55"/>
-      <c r="AA310" s="55"/>
-      <c r="AB310" s="55"/>
-      <c r="AC310" s="55"/>
-      <c r="AD310" s="55"/>
-      <c r="AE310" s="55"/>
-      <c r="AF310" s="55"/>
-      <c r="AG310" s="55"/>
-      <c r="AH310" s="55"/>
-      <c r="AI310" s="55"/>
-      <c r="AJ310" s="55"/>
-      <c r="AK310" s="55"/>
-      <c r="AL310" s="55"/>
-      <c r="AM310" s="55"/>
-      <c r="AN310" s="55"/>
-      <c r="AO310" s="55"/>
-      <c r="AP310" s="55"/>
-      <c r="AQ310" s="55"/>
-      <c r="AR310" s="55"/>
-      <c r="AS310" s="55"/>
-      <c r="AT310" s="55"/>
-      <c r="AU310" s="55"/>
-      <c r="AV310" s="55"/>
-      <c r="AW310" s="55"/>
-      <c r="AX310" s="55"/>
-      <c r="AY310" s="55"/>
-      <c r="AZ310" s="55"/>
-    </row>
-    <row r="311" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A311" s="55"/>
-      <c r="B311" s="55"/>
-      <c r="C311" s="55"/>
-      <c r="D311" s="55"/>
-      <c r="E311" s="55"/>
-      <c r="F311" s="55"/>
-      <c r="G311" s="55"/>
-      <c r="H311" s="55"/>
-      <c r="I311" s="55"/>
-      <c r="J311" s="55"/>
-      <c r="K311" s="55"/>
-      <c r="L311" s="55"/>
-      <c r="M311" s="55"/>
-      <c r="N311" s="55"/>
-      <c r="O311" s="55"/>
-      <c r="P311" s="55"/>
-      <c r="Q311" s="55"/>
-      <c r="R311" s="55"/>
-      <c r="S311" s="55"/>
-      <c r="T311" s="55"/>
-      <c r="U311" s="55"/>
-      <c r="V311" s="55"/>
-      <c r="W311" s="55"/>
-      <c r="X311" s="55"/>
-      <c r="Y311" s="55"/>
-      <c r="Z311" s="55"/>
-      <c r="AA311" s="55"/>
-      <c r="AB311" s="55"/>
-      <c r="AC311" s="55"/>
-      <c r="AD311" s="55"/>
-      <c r="AE311" s="55"/>
-      <c r="AF311" s="55"/>
-      <c r="AG311" s="55"/>
-      <c r="AH311" s="55"/>
-      <c r="AI311" s="55"/>
-      <c r="AJ311" s="55"/>
-      <c r="AK311" s="55"/>
-      <c r="AL311" s="55"/>
-      <c r="AM311" s="55"/>
-      <c r="AN311" s="55"/>
-      <c r="AO311" s="55"/>
-      <c r="AP311" s="55"/>
-      <c r="AQ311" s="55"/>
-      <c r="AR311" s="55"/>
-      <c r="AS311" s="55"/>
-      <c r="AT311" s="55"/>
-      <c r="AU311" s="55"/>
-      <c r="AV311" s="55"/>
-      <c r="AW311" s="55"/>
-      <c r="AX311" s="55"/>
-      <c r="AY311" s="55"/>
-      <c r="AZ311" s="55"/>
-    </row>
-    <row r="312" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A312" s="55"/>
-      <c r="B312" s="55"/>
-      <c r="C312" s="55"/>
-      <c r="D312" s="55"/>
-      <c r="E312" s="55"/>
-      <c r="F312" s="55"/>
-      <c r="G312" s="55"/>
-      <c r="H312" s="55"/>
-      <c r="I312" s="55"/>
-      <c r="J312" s="55"/>
-      <c r="K312" s="55"/>
-      <c r="L312" s="55"/>
-      <c r="M312" s="55"/>
-      <c r="N312" s="55"/>
-      <c r="O312" s="55"/>
-      <c r="P312" s="55"/>
-      <c r="Q312" s="55"/>
-      <c r="R312" s="55"/>
-      <c r="S312" s="55"/>
-      <c r="T312" s="55"/>
-      <c r="U312" s="55"/>
-      <c r="V312" s="55"/>
-      <c r="W312" s="55"/>
-      <c r="X312" s="55"/>
-      <c r="Y312" s="55"/>
-      <c r="Z312" s="55"/>
-      <c r="AA312" s="55"/>
-      <c r="AB312" s="55"/>
-      <c r="AC312" s="55"/>
-      <c r="AD312" s="55"/>
-      <c r="AE312" s="55"/>
-      <c r="AF312" s="55"/>
-      <c r="AG312" s="55"/>
-      <c r="AH312" s="55"/>
-      <c r="AI312" s="55"/>
-      <c r="AJ312" s="55"/>
-      <c r="AK312" s="55"/>
-      <c r="AL312" s="55"/>
-      <c r="AM312" s="55"/>
-      <c r="AN312" s="55"/>
-      <c r="AO312" s="55"/>
-      <c r="AP312" s="55"/>
-      <c r="AQ312" s="55"/>
-      <c r="AR312" s="55"/>
-      <c r="AS312" s="55"/>
-      <c r="AT312" s="55"/>
-      <c r="AU312" s="55"/>
-      <c r="AV312" s="55"/>
-      <c r="AW312" s="55"/>
-      <c r="AX312" s="55"/>
-      <c r="AY312" s="55"/>
-      <c r="AZ312" s="55"/>
-    </row>
-    <row r="313" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A313" s="55"/>
-      <c r="B313" s="55"/>
-      <c r="C313" s="55"/>
-      <c r="D313" s="55"/>
-      <c r="E313" s="55"/>
-      <c r="F313" s="55"/>
-      <c r="G313" s="55"/>
-      <c r="H313" s="55"/>
-      <c r="I313" s="55"/>
-      <c r="J313" s="55"/>
-      <c r="K313" s="55"/>
-      <c r="L313" s="55"/>
-      <c r="M313" s="55"/>
-      <c r="N313" s="55"/>
-      <c r="O313" s="55"/>
-      <c r="P313" s="55"/>
-      <c r="Q313" s="55"/>
-      <c r="R313" s="55"/>
-      <c r="S313" s="55"/>
-      <c r="T313" s="55"/>
-      <c r="U313" s="55"/>
-      <c r="V313" s="55"/>
-      <c r="W313" s="55"/>
-      <c r="X313" s="55"/>
-      <c r="Y313" s="55"/>
-      <c r="Z313" s="55"/>
-      <c r="AA313" s="55"/>
-      <c r="AB313" s="55"/>
-      <c r="AC313" s="55"/>
-      <c r="AD313" s="55"/>
-      <c r="AE313" s="55"/>
-      <c r="AF313" s="55"/>
-      <c r="AG313" s="55"/>
-      <c r="AH313" s="55"/>
-      <c r="AI313" s="55"/>
-      <c r="AJ313" s="55"/>
-      <c r="AK313" s="55"/>
-      <c r="AL313" s="55"/>
-      <c r="AM313" s="55"/>
-      <c r="AN313" s="55"/>
-      <c r="AO313" s="55"/>
-      <c r="AP313" s="55"/>
-      <c r="AQ313" s="55"/>
-      <c r="AR313" s="55"/>
-      <c r="AS313" s="55"/>
-      <c r="AT313" s="55"/>
-      <c r="AU313" s="55"/>
-      <c r="AV313" s="55"/>
-      <c r="AW313" s="55"/>
-      <c r="AX313" s="55"/>
-      <c r="AY313" s="55"/>
-      <c r="AZ313" s="55"/>
-    </row>
-    <row r="314" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A314" s="55"/>
-      <c r="B314" s="55"/>
-      <c r="C314" s="55"/>
-      <c r="D314" s="55"/>
-      <c r="E314" s="55"/>
-      <c r="F314" s="55"/>
-      <c r="G314" s="55"/>
-      <c r="H314" s="55"/>
-      <c r="I314" s="55"/>
-      <c r="J314" s="55"/>
-      <c r="K314" s="55"/>
-      <c r="L314" s="55"/>
-      <c r="M314" s="55"/>
-      <c r="N314" s="55"/>
-      <c r="O314" s="55"/>
-      <c r="P314" s="55"/>
-      <c r="Q314" s="55"/>
-      <c r="R314" s="55"/>
-      <c r="S314" s="55"/>
-      <c r="T314" s="55"/>
-      <c r="U314" s="55"/>
-      <c r="V314" s="55"/>
-      <c r="W314" s="55"/>
-      <c r="X314" s="55"/>
-      <c r="Y314" s="55"/>
-      <c r="Z314" s="55"/>
-      <c r="AA314" s="55"/>
-      <c r="AB314" s="55"/>
-      <c r="AC314" s="55"/>
-      <c r="AD314" s="55"/>
-      <c r="AE314" s="55"/>
-      <c r="AF314" s="55"/>
-      <c r="AG314" s="55"/>
-      <c r="AH314" s="55"/>
-      <c r="AI314" s="55"/>
-      <c r="AJ314" s="55"/>
-      <c r="AK314" s="55"/>
-      <c r="AL314" s="55"/>
-      <c r="AM314" s="55"/>
-      <c r="AN314" s="55"/>
-      <c r="AO314" s="55"/>
-      <c r="AP314" s="55"/>
-      <c r="AQ314" s="55"/>
-      <c r="AR314" s="55"/>
-      <c r="AS314" s="55"/>
-      <c r="AT314" s="55"/>
-      <c r="AU314" s="55"/>
-      <c r="AV314" s="55"/>
-      <c r="AW314" s="55"/>
-      <c r="AX314" s="55"/>
-      <c r="AY314" s="55"/>
-      <c r="AZ314" s="55"/>
-    </row>
-    <row r="315" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A315" s="55"/>
-      <c r="B315" s="55"/>
-      <c r="C315" s="55"/>
-      <c r="D315" s="55"/>
-      <c r="E315" s="55"/>
-      <c r="F315" s="55"/>
-      <c r="G315" s="55"/>
-      <c r="H315" s="55"/>
-      <c r="I315" s="55"/>
-      <c r="J315" s="55"/>
-      <c r="K315" s="55"/>
-      <c r="L315" s="55"/>
-      <c r="M315" s="55"/>
-      <c r="N315" s="55"/>
-      <c r="O315" s="55"/>
-      <c r="P315" s="55"/>
-      <c r="Q315" s="55"/>
-      <c r="R315" s="55"/>
-      <c r="S315" s="55"/>
-      <c r="T315" s="55"/>
-      <c r="U315" s="55"/>
-      <c r="V315" s="55"/>
-      <c r="W315" s="55"/>
-      <c r="X315" s="55"/>
-      <c r="Y315" s="55"/>
-      <c r="Z315" s="55"/>
-      <c r="AA315" s="55"/>
-      <c r="AB315" s="55"/>
-      <c r="AC315" s="55"/>
-      <c r="AD315" s="55"/>
-      <c r="AE315" s="55"/>
-      <c r="AF315" s="55"/>
-      <c r="AG315" s="55"/>
-      <c r="AH315" s="55"/>
-      <c r="AI315" s="55"/>
-      <c r="AJ315" s="55"/>
-      <c r="AK315" s="55"/>
-      <c r="AL315" s="55"/>
-      <c r="AM315" s="55"/>
-      <c r="AN315" s="55"/>
-      <c r="AO315" s="55"/>
-      <c r="AP315" s="55"/>
-      <c r="AQ315" s="55"/>
-      <c r="AR315" s="55"/>
-      <c r="AS315" s="55"/>
-      <c r="AT315" s="55"/>
-      <c r="AU315" s="55"/>
-      <c r="AV315" s="55"/>
-      <c r="AW315" s="55"/>
-      <c r="AX315" s="55"/>
-      <c r="AY315" s="55"/>
-      <c r="AZ315" s="55"/>
-    </row>
-    <row r="316" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A316" s="55"/>
-      <c r="B316" s="55"/>
-      <c r="C316" s="55"/>
-      <c r="D316" s="55"/>
-      <c r="E316" s="55"/>
-      <c r="F316" s="55"/>
-      <c r="G316" s="55"/>
-      <c r="H316" s="55"/>
-      <c r="I316" s="55"/>
-      <c r="J316" s="55"/>
-      <c r="K316" s="55"/>
-      <c r="L316" s="55"/>
-      <c r="M316" s="55"/>
-      <c r="N316" s="55"/>
-      <c r="O316" s="55"/>
-      <c r="P316" s="55"/>
-      <c r="Q316" s="55"/>
-      <c r="R316" s="55"/>
-      <c r="S316" s="55"/>
-      <c r="T316" s="55"/>
-      <c r="U316" s="55"/>
-      <c r="V316" s="55"/>
-      <c r="W316" s="55"/>
-      <c r="X316" s="55"/>
-      <c r="Y316" s="55"/>
-      <c r="Z316" s="55"/>
-      <c r="AA316" s="55"/>
-      <c r="AB316" s="55"/>
-      <c r="AC316" s="55"/>
-      <c r="AD316" s="55"/>
-      <c r="AE316" s="55"/>
-      <c r="AF316" s="55"/>
-      <c r="AG316" s="55"/>
-      <c r="AH316" s="55"/>
-      <c r="AI316" s="55"/>
-      <c r="AJ316" s="55"/>
-      <c r="AK316" s="55"/>
-      <c r="AL316" s="55"/>
-      <c r="AM316" s="55"/>
-      <c r="AN316" s="55"/>
-      <c r="AO316" s="55"/>
-      <c r="AP316" s="55"/>
-      <c r="AQ316" s="55"/>
-      <c r="AR316" s="55"/>
-      <c r="AS316" s="55"/>
-      <c r="AT316" s="55"/>
-      <c r="AU316" s="55"/>
-      <c r="AV316" s="55"/>
-      <c r="AW316" s="55"/>
-      <c r="AX316" s="55"/>
-      <c r="AY316" s="55"/>
-      <c r="AZ316" s="55"/>
-    </row>
-    <row r="317" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A317" s="55"/>
-      <c r="B317" s="55"/>
-      <c r="C317" s="55"/>
-      <c r="D317" s="55"/>
-      <c r="E317" s="55"/>
-      <c r="F317" s="55"/>
-      <c r="G317" s="55"/>
-      <c r="H317" s="55"/>
-      <c r="I317" s="55"/>
-      <c r="J317" s="55"/>
-      <c r="K317" s="55"/>
-      <c r="L317" s="55"/>
-      <c r="M317" s="55"/>
-      <c r="N317" s="55"/>
-      <c r="O317" s="55"/>
-      <c r="P317" s="55"/>
-      <c r="Q317" s="55"/>
-      <c r="R317" s="55"/>
-      <c r="S317" s="55"/>
-      <c r="T317" s="55"/>
-      <c r="U317" s="55"/>
-      <c r="V317" s="55"/>
-      <c r="W317" s="55"/>
-      <c r="X317" s="55"/>
-      <c r="Y317" s="55"/>
-      <c r="Z317" s="55"/>
-      <c r="AA317" s="55"/>
-      <c r="AB317" s="55"/>
-      <c r="AC317" s="55"/>
-      <c r="AD317" s="55"/>
-      <c r="AE317" s="55"/>
-      <c r="AF317" s="55"/>
-      <c r="AG317" s="55"/>
-      <c r="AH317" s="55"/>
-      <c r="AI317" s="55"/>
-      <c r="AJ317" s="55"/>
-      <c r="AK317" s="55"/>
-      <c r="AL317" s="55"/>
-      <c r="AM317" s="55"/>
-      <c r="AN317" s="55"/>
-      <c r="AO317" s="55"/>
-      <c r="AP317" s="55"/>
-      <c r="AQ317" s="55"/>
-      <c r="AR317" s="55"/>
-      <c r="AS317" s="55"/>
-      <c r="AT317" s="55"/>
-      <c r="AU317" s="55"/>
-      <c r="AV317" s="55"/>
-      <c r="AW317" s="55"/>
-      <c r="AX317" s="55"/>
-      <c r="AY317" s="55"/>
-      <c r="AZ317" s="55"/>
-    </row>
-    <row r="318" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A318" s="55"/>
-      <c r="B318" s="55"/>
-      <c r="C318" s="55"/>
-      <c r="D318" s="55"/>
-      <c r="E318" s="55"/>
-      <c r="F318" s="55"/>
-      <c r="G318" s="55"/>
-      <c r="H318" s="55"/>
-      <c r="I318" s="55"/>
-      <c r="J318" s="55"/>
-      <c r="K318" s="55"/>
-      <c r="L318" s="55"/>
-      <c r="M318" s="55"/>
-      <c r="N318" s="55"/>
-      <c r="O318" s="55"/>
-      <c r="P318" s="55"/>
-      <c r="Q318" s="55"/>
-      <c r="R318" s="55"/>
-      <c r="S318" s="55"/>
-      <c r="T318" s="55"/>
-      <c r="U318" s="55"/>
-      <c r="V318" s="55"/>
-      <c r="W318" s="55"/>
-      <c r="X318" s="55"/>
-      <c r="Y318" s="55"/>
-      <c r="Z318" s="55"/>
-      <c r="AA318" s="55"/>
-      <c r="AB318" s="55"/>
-      <c r="AC318" s="55"/>
-      <c r="AD318" s="55"/>
-      <c r="AE318" s="55"/>
-      <c r="AF318" s="55"/>
-      <c r="AG318" s="55"/>
-      <c r="AH318" s="55"/>
-      <c r="AI318" s="55"/>
-      <c r="AJ318" s="55"/>
-      <c r="AK318" s="55"/>
-      <c r="AL318" s="55"/>
-      <c r="AM318" s="55"/>
-      <c r="AN318" s="55"/>
-      <c r="AO318" s="55"/>
-      <c r="AP318" s="55"/>
-      <c r="AQ318" s="55"/>
-      <c r="AR318" s="55"/>
-      <c r="AS318" s="55"/>
-      <c r="AT318" s="55"/>
-      <c r="AU318" s="55"/>
-      <c r="AV318" s="55"/>
-      <c r="AW318" s="55"/>
-      <c r="AX318" s="55"/>
-      <c r="AY318" s="55"/>
-      <c r="AZ318" s="55"/>
-    </row>
-    <row r="319" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A319" s="55"/>
-      <c r="B319" s="55"/>
-      <c r="C319" s="55"/>
-      <c r="D319" s="55"/>
-      <c r="E319" s="55"/>
-      <c r="F319" s="55"/>
-      <c r="G319" s="55"/>
-      <c r="H319" s="55"/>
-      <c r="I319" s="55"/>
-      <c r="J319" s="55"/>
-      <c r="K319" s="55"/>
-      <c r="L319" s="55"/>
-      <c r="M319" s="55"/>
-      <c r="N319" s="55"/>
-      <c r="O319" s="55"/>
-      <c r="P319" s="55"/>
-      <c r="Q319" s="55"/>
-      <c r="R319" s="55"/>
-      <c r="S319" s="55"/>
-      <c r="T319" s="55"/>
-      <c r="U319" s="55"/>
-      <c r="V319" s="55"/>
-      <c r="W319" s="55"/>
-      <c r="X319" s="55"/>
-      <c r="Y319" s="55"/>
-      <c r="Z319" s="55"/>
-      <c r="AA319" s="55"/>
-      <c r="AB319" s="55"/>
-      <c r="AC319" s="55"/>
-      <c r="AD319" s="55"/>
-      <c r="AE319" s="55"/>
-      <c r="AF319" s="55"/>
-      <c r="AG319" s="55"/>
-      <c r="AH319" s="55"/>
-      <c r="AI319" s="55"/>
-      <c r="AJ319" s="55"/>
-      <c r="AK319" s="55"/>
-      <c r="AL319" s="55"/>
-      <c r="AM319" s="55"/>
-      <c r="AN319" s="55"/>
-      <c r="AO319" s="55"/>
-      <c r="AP319" s="55"/>
-      <c r="AQ319" s="55"/>
-      <c r="AR319" s="55"/>
-      <c r="AS319" s="55"/>
-      <c r="AT319" s="55"/>
-      <c r="AU319" s="55"/>
-      <c r="AV319" s="55"/>
-      <c r="AW319" s="55"/>
-      <c r="AX319" s="55"/>
-      <c r="AY319" s="55"/>
-      <c r="AZ319" s="55"/>
-    </row>
-    <row r="320" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A320" s="55"/>
-      <c r="B320" s="55"/>
-      <c r="C320" s="55"/>
-      <c r="D320" s="55"/>
-      <c r="E320" s="55"/>
-      <c r="F320" s="55"/>
-      <c r="G320" s="55"/>
-      <c r="H320" s="55"/>
-      <c r="I320" s="55"/>
-      <c r="J320" s="55"/>
-      <c r="K320" s="55"/>
-      <c r="L320" s="55"/>
-      <c r="M320" s="55"/>
-      <c r="N320" s="55"/>
-      <c r="O320" s="55"/>
-      <c r="P320" s="55"/>
-      <c r="Q320" s="55"/>
-      <c r="R320" s="55"/>
-      <c r="S320" s="55"/>
-      <c r="T320" s="55"/>
-      <c r="U320" s="55"/>
-      <c r="V320" s="55"/>
-      <c r="W320" s="55"/>
-      <c r="X320" s="55"/>
-      <c r="Y320" s="55"/>
-      <c r="Z320" s="55"/>
-      <c r="AA320" s="55"/>
-      <c r="AB320" s="55"/>
-      <c r="AC320" s="55"/>
-      <c r="AD320" s="55"/>
-      <c r="AE320" s="55"/>
-      <c r="AF320" s="55"/>
-      <c r="AG320" s="55"/>
-      <c r="AH320" s="55"/>
-      <c r="AI320" s="55"/>
-      <c r="AJ320" s="55"/>
-      <c r="AK320" s="55"/>
-      <c r="AL320" s="55"/>
-      <c r="AM320" s="55"/>
-      <c r="AN320" s="55"/>
-      <c r="AO320" s="55"/>
-      <c r="AP320" s="55"/>
-      <c r="AQ320" s="55"/>
-      <c r="AR320" s="55"/>
-      <c r="AS320" s="55"/>
-      <c r="AT320" s="55"/>
-      <c r="AU320" s="55"/>
-      <c r="AV320" s="55"/>
-      <c r="AW320" s="55"/>
-      <c r="AX320" s="55"/>
-      <c r="AY320" s="55"/>
-      <c r="AZ320" s="55"/>
-    </row>
-    <row r="321" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A321" s="55"/>
-      <c r="B321" s="55"/>
-      <c r="C321" s="55"/>
-      <c r="D321" s="55"/>
-      <c r="E321" s="55"/>
-      <c r="F321" s="55"/>
-      <c r="G321" s="55"/>
-      <c r="H321" s="55"/>
-      <c r="I321" s="55"/>
-      <c r="J321" s="55"/>
-      <c r="K321" s="55"/>
-      <c r="L321" s="55"/>
-      <c r="M321" s="55"/>
-      <c r="N321" s="55"/>
-      <c r="O321" s="55"/>
-      <c r="P321" s="55"/>
-      <c r="Q321" s="55"/>
-      <c r="R321" s="55"/>
-      <c r="S321" s="55"/>
-      <c r="T321" s="55"/>
-      <c r="U321" s="55"/>
-      <c r="V321" s="55"/>
-      <c r="W321" s="55"/>
-      <c r="X321" s="55"/>
-      <c r="Y321" s="55"/>
-      <c r="Z321" s="55"/>
-      <c r="AA321" s="55"/>
-      <c r="AB321" s="55"/>
-      <c r="AC321" s="55"/>
-      <c r="AD321" s="55"/>
-      <c r="AE321" s="55"/>
-      <c r="AF321" s="55"/>
-      <c r="AG321" s="55"/>
-      <c r="AH321" s="55"/>
-      <c r="AI321" s="55"/>
-      <c r="AJ321" s="55"/>
-      <c r="AK321" s="55"/>
-      <c r="AL321" s="55"/>
-      <c r="AM321" s="55"/>
-      <c r="AN321" s="55"/>
-      <c r="AO321" s="55"/>
-      <c r="AP321" s="55"/>
-      <c r="AQ321" s="55"/>
-      <c r="AR321" s="55"/>
-      <c r="AS321" s="55"/>
-      <c r="AT321" s="55"/>
-      <c r="AU321" s="55"/>
-      <c r="AV321" s="55"/>
-      <c r="AW321" s="55"/>
-      <c r="AX321" s="55"/>
-      <c r="AY321" s="55"/>
-      <c r="AZ321" s="55"/>
-    </row>
-    <row r="322" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A322" s="55"/>
-      <c r="B322" s="55"/>
-      <c r="C322" s="55"/>
-      <c r="D322" s="55"/>
-      <c r="E322" s="55"/>
-      <c r="F322" s="55"/>
-      <c r="G322" s="55"/>
-      <c r="H322" s="55"/>
-      <c r="I322" s="55"/>
-      <c r="J322" s="55"/>
-      <c r="K322" s="55"/>
-      <c r="L322" s="55"/>
-      <c r="M322" s="55"/>
-      <c r="N322" s="55"/>
-      <c r="O322" s="55"/>
-      <c r="P322" s="55"/>
-      <c r="Q322" s="55"/>
-      <c r="R322" s="55"/>
-      <c r="S322" s="55"/>
-      <c r="T322" s="55"/>
-      <c r="U322" s="55"/>
-      <c r="V322" s="55"/>
-      <c r="W322" s="55"/>
-      <c r="X322" s="55"/>
-      <c r="Y322" s="55"/>
-      <c r="Z322" s="55"/>
-      <c r="AA322" s="55"/>
-      <c r="AB322" s="55"/>
-      <c r="AC322" s="55"/>
-      <c r="AD322" s="55"/>
-      <c r="AE322" s="55"/>
-      <c r="AF322" s="55"/>
-      <c r="AG322" s="55"/>
-      <c r="AH322" s="55"/>
-      <c r="AI322" s="55"/>
-      <c r="AJ322" s="55"/>
-      <c r="AK322" s="55"/>
-      <c r="AL322" s="55"/>
-      <c r="AM322" s="55"/>
-      <c r="AN322" s="55"/>
-      <c r="AO322" s="55"/>
-      <c r="AP322" s="55"/>
-      <c r="AQ322" s="55"/>
-      <c r="AR322" s="55"/>
-      <c r="AS322" s="55"/>
-      <c r="AT322" s="55"/>
-      <c r="AU322" s="55"/>
-      <c r="AV322" s="55"/>
-      <c r="AW322" s="55"/>
-      <c r="AX322" s="55"/>
-      <c r="AY322" s="55"/>
-      <c r="AZ322" s="55"/>
-    </row>
-    <row r="323" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A323" s="55"/>
-      <c r="B323" s="55"/>
-      <c r="C323" s="55"/>
-      <c r="D323" s="55"/>
-      <c r="E323" s="55"/>
-      <c r="F323" s="55"/>
-      <c r="G323" s="55"/>
-      <c r="H323" s="55"/>
-      <c r="I323" s="55"/>
-      <c r="J323" s="55"/>
-      <c r="K323" s="55"/>
-      <c r="L323" s="55"/>
-      <c r="M323" s="55"/>
-      <c r="N323" s="55"/>
-      <c r="O323" s="55"/>
-      <c r="P323" s="55"/>
-      <c r="Q323" s="55"/>
-      <c r="R323" s="55"/>
-      <c r="S323" s="55"/>
-      <c r="T323" s="55"/>
-      <c r="U323" s="55"/>
-      <c r="V323" s="55"/>
-      <c r="W323" s="55"/>
-      <c r="X323" s="55"/>
-      <c r="Y323" s="55"/>
-      <c r="Z323" s="55"/>
-      <c r="AA323" s="55"/>
-      <c r="AB323" s="55"/>
-      <c r="AC323" s="55"/>
-      <c r="AD323" s="55"/>
-      <c r="AE323" s="55"/>
-      <c r="AF323" s="55"/>
-      <c r="AG323" s="55"/>
-      <c r="AH323" s="55"/>
-      <c r="AI323" s="55"/>
-      <c r="AJ323" s="55"/>
-      <c r="AK323" s="55"/>
-      <c r="AL323" s="55"/>
-      <c r="AM323" s="55"/>
-      <c r="AN323" s="55"/>
-      <c r="AO323" s="55"/>
-      <c r="AP323" s="55"/>
-      <c r="AQ323" s="55"/>
-      <c r="AR323" s="55"/>
-      <c r="AS323" s="55"/>
-      <c r="AT323" s="55"/>
-      <c r="AU323" s="55"/>
-      <c r="AV323" s="55"/>
-      <c r="AW323" s="55"/>
-      <c r="AX323" s="55"/>
-      <c r="AY323" s="55"/>
-      <c r="AZ323" s="55"/>
-    </row>
-    <row r="324" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A324" s="55"/>
-      <c r="B324" s="55"/>
-      <c r="C324" s="55"/>
-      <c r="D324" s="55"/>
-      <c r="E324" s="55"/>
-      <c r="F324" s="55"/>
-      <c r="G324" s="55"/>
-      <c r="H324" s="55"/>
-      <c r="I324" s="55"/>
-      <c r="J324" s="55"/>
-      <c r="K324" s="55"/>
-      <c r="L324" s="55"/>
-      <c r="M324" s="55"/>
-      <c r="N324" s="55"/>
-      <c r="O324" s="55"/>
-      <c r="P324" s="55"/>
-      <c r="Q324" s="55"/>
-      <c r="R324" s="55"/>
-      <c r="S324" s="55"/>
-      <c r="T324" s="55"/>
-      <c r="U324" s="55"/>
-      <c r="V324" s="55"/>
-      <c r="W324" s="55"/>
-      <c r="X324" s="55"/>
-      <c r="Y324" s="55"/>
-      <c r="Z324" s="55"/>
-      <c r="AA324" s="55"/>
-      <c r="AB324" s="55"/>
-      <c r="AC324" s="55"/>
-      <c r="AD324" s="55"/>
-      <c r="AE324" s="55"/>
-      <c r="AF324" s="55"/>
-      <c r="AG324" s="55"/>
-      <c r="AH324" s="55"/>
-      <c r="AI324" s="55"/>
-      <c r="AJ324" s="55"/>
-      <c r="AK324" s="55"/>
-      <c r="AL324" s="55"/>
-      <c r="AM324" s="55"/>
-      <c r="AN324" s="55"/>
-      <c r="AO324" s="55"/>
-      <c r="AP324" s="55"/>
-      <c r="AQ324" s="55"/>
-      <c r="AR324" s="55"/>
-      <c r="AS324" s="55"/>
-      <c r="AT324" s="55"/>
-      <c r="AU324" s="55"/>
-      <c r="AV324" s="55"/>
-      <c r="AW324" s="55"/>
-      <c r="AX324" s="55"/>
-      <c r="AY324" s="55"/>
-      <c r="AZ324" s="55"/>
-    </row>
-    <row r="325" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A325" s="55"/>
-      <c r="B325" s="55"/>
-      <c r="C325" s="55"/>
-      <c r="D325" s="55"/>
-      <c r="E325" s="55"/>
-      <c r="F325" s="55"/>
-      <c r="G325" s="55"/>
-      <c r="H325" s="55"/>
-      <c r="I325" s="55"/>
-      <c r="J325" s="55"/>
-      <c r="K325" s="55"/>
-      <c r="L325" s="55"/>
-      <c r="M325" s="55"/>
-      <c r="N325" s="55"/>
-      <c r="O325" s="55"/>
-      <c r="P325" s="55"/>
-      <c r="Q325" s="55"/>
-      <c r="R325" s="55"/>
-      <c r="S325" s="55"/>
-      <c r="T325" s="55"/>
-      <c r="U325" s="55"/>
-      <c r="V325" s="55"/>
-      <c r="W325" s="55"/>
-      <c r="X325" s="55"/>
-      <c r="Y325" s="55"/>
-      <c r="Z325" s="55"/>
-      <c r="AA325" s="55"/>
-      <c r="AB325" s="55"/>
-      <c r="AC325" s="55"/>
-      <c r="AD325" s="55"/>
-      <c r="AE325" s="55"/>
-      <c r="AF325" s="55"/>
-      <c r="AG325" s="55"/>
-      <c r="AH325" s="55"/>
-      <c r="AI325" s="55"/>
-      <c r="AJ325" s="55"/>
-      <c r="AK325" s="55"/>
-      <c r="AL325" s="55"/>
-      <c r="AM325" s="55"/>
-      <c r="AN325" s="55"/>
-      <c r="AO325" s="55"/>
-      <c r="AP325" s="55"/>
-      <c r="AQ325" s="55"/>
-      <c r="AR325" s="55"/>
-      <c r="AS325" s="55"/>
-      <c r="AT325" s="55"/>
-      <c r="AU325" s="55"/>
-      <c r="AV325" s="55"/>
-      <c r="AW325" s="55"/>
-      <c r="AX325" s="55"/>
-      <c r="AY325" s="55"/>
-      <c r="AZ325" s="55"/>
-    </row>
-    <row r="326" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A326" s="55"/>
-      <c r="B326" s="55"/>
-      <c r="C326" s="55"/>
-      <c r="D326" s="55"/>
-      <c r="E326" s="55"/>
-      <c r="F326" s="55"/>
-      <c r="G326" s="55"/>
-      <c r="H326" s="55"/>
-      <c r="I326" s="55"/>
-      <c r="J326" s="55"/>
-      <c r="K326" s="55"/>
-      <c r="L326" s="55"/>
-      <c r="M326" s="55"/>
-      <c r="N326" s="55"/>
-      <c r="O326" s="55"/>
-      <c r="P326" s="55"/>
-      <c r="Q326" s="55"/>
-      <c r="R326" s="55"/>
-      <c r="S326" s="55"/>
-      <c r="T326" s="55"/>
-      <c r="U326" s="55"/>
-      <c r="V326" s="55"/>
-      <c r="W326" s="55"/>
-      <c r="X326" s="55"/>
-      <c r="Y326" s="55"/>
-      <c r="Z326" s="55"/>
-      <c r="AA326" s="55"/>
-      <c r="AB326" s="55"/>
-      <c r="AC326" s="55"/>
-      <c r="AD326" s="55"/>
-      <c r="AE326" s="55"/>
-      <c r="AF326" s="55"/>
-      <c r="AG326" s="55"/>
-      <c r="AH326" s="55"/>
-      <c r="AI326" s="55"/>
-      <c r="AJ326" s="55"/>
-      <c r="AK326" s="55"/>
-      <c r="AL326" s="55"/>
-      <c r="AM326" s="55"/>
-      <c r="AN326" s="55"/>
-      <c r="AO326" s="55"/>
-      <c r="AP326" s="55"/>
-      <c r="AQ326" s="55"/>
-      <c r="AR326" s="55"/>
-      <c r="AS326" s="55"/>
-      <c r="AT326" s="55"/>
-      <c r="AU326" s="55"/>
-      <c r="AV326" s="55"/>
-      <c r="AW326" s="55"/>
-      <c r="AX326" s="55"/>
-      <c r="AY326" s="55"/>
-      <c r="AZ326" s="55"/>
-    </row>
-    <row r="327" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A327" s="55"/>
-      <c r="B327" s="55"/>
-      <c r="C327" s="55"/>
-      <c r="D327" s="55"/>
-      <c r="E327" s="55"/>
-      <c r="F327" s="55"/>
-      <c r="G327" s="55"/>
-      <c r="H327" s="55"/>
-      <c r="I327" s="55"/>
-      <c r="J327" s="55"/>
-      <c r="K327" s="55"/>
-      <c r="L327" s="55"/>
-      <c r="M327" s="55"/>
-      <c r="N327" s="55"/>
-      <c r="O327" s="55"/>
-      <c r="P327" s="55"/>
-      <c r="Q327" s="55"/>
-      <c r="R327" s="55"/>
-      <c r="S327" s="55"/>
-      <c r="T327" s="55"/>
-      <c r="U327" s="55"/>
-      <c r="V327" s="55"/>
-      <c r="W327" s="55"/>
-      <c r="X327" s="55"/>
-      <c r="Y327" s="55"/>
-      <c r="Z327" s="55"/>
-      <c r="AA327" s="55"/>
-      <c r="AB327" s="55"/>
-      <c r="AC327" s="55"/>
-      <c r="AD327" s="55"/>
-      <c r="AE327" s="55"/>
-      <c r="AF327" s="55"/>
-      <c r="AG327" s="55"/>
-      <c r="AH327" s="55"/>
-      <c r="AI327" s="55"/>
-      <c r="AJ327" s="55"/>
-      <c r="AK327" s="55"/>
-      <c r="AL327" s="55"/>
-      <c r="AM327" s="55"/>
-      <c r="AN327" s="55"/>
-      <c r="AO327" s="55"/>
-      <c r="AP327" s="55"/>
-      <c r="AQ327" s="55"/>
-      <c r="AR327" s="55"/>
-      <c r="AS327" s="55"/>
-      <c r="AT327" s="55"/>
-      <c r="AU327" s="55"/>
-      <c r="AV327" s="55"/>
-      <c r="AW327" s="55"/>
-      <c r="AX327" s="55"/>
-      <c r="AY327" s="55"/>
-      <c r="AZ327" s="55"/>
-    </row>
-    <row r="328" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A328" s="55"/>
-      <c r="B328" s="55"/>
-      <c r="C328" s="55"/>
-      <c r="D328" s="55"/>
-      <c r="E328" s="55"/>
-      <c r="F328" s="55"/>
-      <c r="G328" s="55"/>
-      <c r="H328" s="55"/>
-      <c r="I328" s="55"/>
-      <c r="J328" s="55"/>
-      <c r="K328" s="55"/>
-      <c r="L328" s="55"/>
-      <c r="M328" s="55"/>
-      <c r="N328" s="55"/>
-      <c r="O328" s="55"/>
-      <c r="P328" s="55"/>
-      <c r="Q328" s="55"/>
-      <c r="R328" s="55"/>
-      <c r="S328" s="55"/>
-      <c r="T328" s="55"/>
-      <c r="U328" s="55"/>
-      <c r="V328" s="55"/>
-      <c r="W328" s="55"/>
-      <c r="X328" s="55"/>
-      <c r="Y328" s="55"/>
-      <c r="Z328" s="55"/>
-      <c r="AA328" s="55"/>
-      <c r="AB328" s="55"/>
-      <c r="AC328" s="55"/>
-      <c r="AD328" s="55"/>
-      <c r="AE328" s="55"/>
-      <c r="AF328" s="55"/>
-      <c r="AG328" s="55"/>
-      <c r="AH328" s="55"/>
-      <c r="AI328" s="55"/>
-      <c r="AJ328" s="55"/>
-      <c r="AK328" s="55"/>
-      <c r="AL328" s="55"/>
-      <c r="AM328" s="55"/>
-      <c r="AN328" s="55"/>
-      <c r="AO328" s="55"/>
-      <c r="AP328" s="55"/>
-      <c r="AQ328" s="55"/>
-      <c r="AR328" s="55"/>
-      <c r="AS328" s="55"/>
-      <c r="AT328" s="55"/>
-      <c r="AU328" s="55"/>
-      <c r="AV328" s="55"/>
-      <c r="AW328" s="55"/>
-      <c r="AX328" s="55"/>
-      <c r="AY328" s="55"/>
-      <c r="AZ328" s="55"/>
-    </row>
-    <row r="329" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A329" s="55"/>
-      <c r="B329" s="55"/>
-      <c r="C329" s="55"/>
-      <c r="D329" s="55"/>
-      <c r="E329" s="55"/>
-      <c r="F329" s="55"/>
-      <c r="G329" s="55"/>
-      <c r="H329" s="55"/>
-      <c r="I329" s="55"/>
-      <c r="J329" s="55"/>
-      <c r="K329" s="55"/>
-      <c r="L329" s="55"/>
-      <c r="M329" s="55"/>
-      <c r="N329" s="55"/>
-      <c r="O329" s="55"/>
-      <c r="P329" s="55"/>
-      <c r="Q329" s="55"/>
-      <c r="R329" s="55"/>
-      <c r="S329" s="55"/>
-      <c r="T329" s="55"/>
-      <c r="U329" s="55"/>
-      <c r="V329" s="55"/>
-      <c r="W329" s="55"/>
-      <c r="X329" s="55"/>
-      <c r="Y329" s="55"/>
-      <c r="Z329" s="55"/>
-      <c r="AA329" s="55"/>
-      <c r="AB329" s="55"/>
-      <c r="AC329" s="55"/>
-      <c r="AD329" s="55"/>
-      <c r="AE329" s="55"/>
-      <c r="AF329" s="55"/>
-      <c r="AG329" s="55"/>
-      <c r="AH329" s="55"/>
-      <c r="AI329" s="55"/>
-      <c r="AJ329" s="55"/>
-      <c r="AK329" s="55"/>
-      <c r="AL329" s="55"/>
-      <c r="AM329" s="55"/>
-      <c r="AN329" s="55"/>
-      <c r="AO329" s="55"/>
-      <c r="AP329" s="55"/>
-      <c r="AQ329" s="55"/>
-      <c r="AR329" s="55"/>
-      <c r="AS329" s="55"/>
-      <c r="AT329" s="55"/>
-      <c r="AU329" s="55"/>
-      <c r="AV329" s="55"/>
-      <c r="AW329" s="55"/>
-      <c r="AX329" s="55"/>
-      <c r="AY329" s="55"/>
-      <c r="AZ329" s="55"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AI1:AM1"/>
@@ -27205,7 +26706,7 @@
     </row>
     <row r="13" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B13" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="73"/>
       <c r="D13" s="23"/>
@@ -27229,7 +26730,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
@@ -27315,7 +26816,7 @@
     </row>
     <row r="15" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B15" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="23"/>
@@ -27339,7 +26840,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="22"/>
       <c r="T15" s="21" t="s">
-        <v>183</v>
+        <v>336</v>
       </c>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
@@ -27351,7 +26852,7 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="20" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
@@ -27425,7 +26926,7 @@
     </row>
     <row r="17" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="23"/>
@@ -27449,7 +26950,7 @@
       <c r="R17" s="21"/>
       <c r="S17" s="22"/>
       <c r="T17" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
@@ -27461,7 +26962,7 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
       <c r="AD17" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
@@ -27535,7 +27036,7 @@
     </row>
     <row r="19" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="23"/>
@@ -27569,7 +27070,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
@@ -27643,7 +27144,7 @@
     </row>
     <row r="21" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B21" s="20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>175</v>
@@ -27667,7 +27168,7 @@
       <c r="R21" s="21"/>
       <c r="S21" s="22"/>
       <c r="T21" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
@@ -27679,7 +27180,7 @@
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AE21" s="21"/>
       <c r="AF21" s="21"/>
@@ -27753,7 +27254,7 @@
     </row>
     <row r="23" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B23" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="76" t="s">
         <v>89</v>
@@ -27777,7 +27278,7 @@
       <c r="R23" s="77"/>
       <c r="S23" s="78"/>
       <c r="T23" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U23" s="77"/>
       <c r="V23" s="77"/>
